--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="366">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1107,6 +1107,12 @@
   <si>
     <t>['55', '56', '64']</t>
   </si>
+  <si>
+    <t>['44', '45+8']</t>
+  </si>
+  <si>
+    <t>['77', '90+3']</t>
+  </si>
 </sst>
 </file>
 
@@ -1467,7 +1473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP265"/>
+  <dimension ref="A1:BP268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2422,10 +2428,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AQ5">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2628,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ6">
         <v>1.07</v>
@@ -2837,7 +2843,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ7">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3040,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ8">
         <v>1.4</v>
@@ -5103,7 +5109,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ18">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5721,7 +5727,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ21">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR21">
         <v>1.84</v>
@@ -6336,7 +6342,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AQ24">
         <v>0.6</v>
@@ -6542,7 +6548,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ25">
         <v>1.73</v>
@@ -6751,7 +6757,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ26">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR26">
         <v>1.66</v>
@@ -7987,7 +7993,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ32">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR32">
         <v>2.27</v>
@@ -9014,7 +9020,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ37">
         <v>1.53</v>
@@ -9429,7 +9435,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ39">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR39">
         <v>1.92</v>
@@ -9632,7 +9638,7 @@
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AQ40">
         <v>1.53</v>
@@ -10250,7 +10256,7 @@
         <v>0.5</v>
       </c>
       <c r="AP43">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ43">
         <v>0.6</v>
@@ -11077,7 +11083,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ47">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR47">
         <v>1.36</v>
@@ -11898,7 +11904,7 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ51">
         <v>1</v>
@@ -12107,7 +12113,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ52">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR52">
         <v>1.2</v>
@@ -14164,7 +14170,7 @@
         <v>2.33</v>
       </c>
       <c r="AP62">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ62">
         <v>1.53</v>
@@ -14579,7 +14585,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ64">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR64">
         <v>1.67</v>
@@ -15400,7 +15406,7 @@
         <v>1.33</v>
       </c>
       <c r="AP68">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AQ68">
         <v>1.6</v>
@@ -15609,7 +15615,7 @@
         <v>1</v>
       </c>
       <c r="AQ69">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR69">
         <v>1.69</v>
@@ -15815,7 +15821,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ70">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR70">
         <v>1.47</v>
@@ -16018,7 +16024,7 @@
         <v>1.33</v>
       </c>
       <c r="AP71">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ71">
         <v>0.43</v>
@@ -16430,7 +16436,7 @@
         <v>1.25</v>
       </c>
       <c r="AP73">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ73">
         <v>1</v>
@@ -16639,7 +16645,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ74">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR74">
         <v>1.25</v>
@@ -18081,7 +18087,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ81">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR81">
         <v>1.68</v>
@@ -18902,7 +18908,7 @@
         <v>2</v>
       </c>
       <c r="AP85">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AQ85">
         <v>1.33</v>
@@ -19520,10 +19526,10 @@
         <v>0.75</v>
       </c>
       <c r="AP88">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ88">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR88">
         <v>1.05</v>
@@ -19935,7 +19941,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ90">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR90">
         <v>1.65</v>
@@ -20138,7 +20144,7 @@
         <v>2</v>
       </c>
       <c r="AP91">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ91">
         <v>1</v>
@@ -22404,7 +22410,7 @@
         <v>1</v>
       </c>
       <c r="AP102">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AQ102">
         <v>0.73</v>
@@ -22613,7 +22619,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ103">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR103">
         <v>1.71</v>
@@ -22819,7 +22825,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ104">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR104">
         <v>1.44</v>
@@ -23025,7 +23031,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ105">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR105">
         <v>1.39</v>
@@ -23434,7 +23440,7 @@
         <v>1</v>
       </c>
       <c r="AP107">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ107">
         <v>0.43</v>
@@ -23846,7 +23852,7 @@
         <v>0.4</v>
       </c>
       <c r="AP109">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ109">
         <v>1.07</v>
@@ -26321,7 +26327,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ121">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR121">
         <v>1.6</v>
@@ -26524,7 +26530,7 @@
         <v>0.83</v>
       </c>
       <c r="AP122">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ122">
         <v>0.73</v>
@@ -27351,7 +27357,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ126">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR126">
         <v>1.58</v>
@@ -27554,10 +27560,10 @@
         <v>0.83</v>
       </c>
       <c r="AP127">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ127">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR127">
         <v>0.99</v>
@@ -27760,7 +27766,7 @@
         <v>0.33</v>
       </c>
       <c r="AP128">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AQ128">
         <v>1.07</v>
@@ -29614,7 +29620,7 @@
         <v>1.57</v>
       </c>
       <c r="AP137">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ137">
         <v>1.33</v>
@@ -29823,7 +29829,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ138">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR138">
         <v>1.22</v>
@@ -32086,7 +32092,7 @@
         <v>1.13</v>
       </c>
       <c r="AP149">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AQ149">
         <v>1.64</v>
@@ -32498,7 +32504,7 @@
         <v>1.13</v>
       </c>
       <c r="AP151">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ151">
         <v>0.87</v>
@@ -32707,7 +32713,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ152">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR152">
         <v>1.34</v>
@@ -32913,7 +32919,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ153">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR153">
         <v>1.48</v>
@@ -34149,7 +34155,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ159">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR159">
         <v>1.72</v>
@@ -35176,10 +35182,10 @@
         <v>0.88</v>
       </c>
       <c r="AP164">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AQ164">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR164">
         <v>1.48</v>
@@ -35591,7 +35597,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ166">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR166">
         <v>1.36</v>
@@ -36000,7 +36006,7 @@
         <v>1.11</v>
       </c>
       <c r="AP168">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ168">
         <v>1.64</v>
@@ -36618,7 +36624,7 @@
         <v>1.67</v>
       </c>
       <c r="AP171">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ171">
         <v>1.73</v>
@@ -37854,7 +37860,7 @@
         <v>1.2</v>
       </c>
       <c r="AP177">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ177">
         <v>1</v>
@@ -38269,7 +38275,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ179">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR179">
         <v>1.25</v>
@@ -38887,7 +38893,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ182">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR182">
         <v>1.54</v>
@@ -39708,7 +39714,7 @@
         <v>1.22</v>
       </c>
       <c r="AP186">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ186">
         <v>1</v>
@@ -39917,7 +39923,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ187">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR187">
         <v>1.28</v>
@@ -40120,7 +40126,7 @@
         <v>1.5</v>
       </c>
       <c r="AP188">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AQ188">
         <v>1.4</v>
@@ -40947,7 +40953,7 @@
         <v>1</v>
       </c>
       <c r="AQ192">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR192">
         <v>1.73</v>
@@ -41771,7 +41777,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ196">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR196">
         <v>1.34</v>
@@ -41974,7 +41980,7 @@
         <v>2</v>
       </c>
       <c r="AP197">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ197">
         <v>1.33</v>
@@ -42592,7 +42598,7 @@
         <v>1.09</v>
       </c>
       <c r="AP200">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ200">
         <v>0.87</v>
@@ -43831,7 +43837,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ206">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR206">
         <v>1.34</v>
@@ -44240,7 +44246,7 @@
         <v>1.45</v>
       </c>
       <c r="AP208">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AQ208">
         <v>1.73</v>
@@ -44652,7 +44658,7 @@
         <v>1.09</v>
       </c>
       <c r="AP210">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AQ210">
         <v>1</v>
@@ -45067,7 +45073,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ212">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR212">
         <v>1.61</v>
@@ -45476,7 +45482,7 @@
         <v>1.25</v>
       </c>
       <c r="AP214">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ214">
         <v>1.6</v>
@@ -45891,7 +45897,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ216">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR216">
         <v>1.76</v>
@@ -46303,7 +46309,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ218">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR218">
         <v>1.7</v>
@@ -46506,7 +46512,7 @@
         <v>1.42</v>
       </c>
       <c r="AP219">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ219">
         <v>1.4</v>
@@ -48157,7 +48163,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ227">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR227">
         <v>1.49</v>
@@ -48363,7 +48369,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ228">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR228">
         <v>1.52</v>
@@ -48566,7 +48572,7 @@
         <v>1.67</v>
       </c>
       <c r="AP229">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AQ229">
         <v>1.33</v>
@@ -49596,7 +49602,7 @@
         <v>0.58</v>
       </c>
       <c r="AP234">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ234">
         <v>0.73</v>
@@ -50214,7 +50220,7 @@
         <v>1.38</v>
       </c>
       <c r="AP237">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ237">
         <v>1.6</v>
@@ -51041,7 +51047,7 @@
         <v>1</v>
       </c>
       <c r="AQ241">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR241">
         <v>1.74</v>
@@ -51865,7 +51871,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ245">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR245">
         <v>1.6</v>
@@ -52689,7 +52695,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ249">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR249">
         <v>1.66</v>
@@ -52892,7 +52898,7 @@
         <v>1.15</v>
       </c>
       <c r="AP250">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ250">
         <v>1</v>
@@ -53098,7 +53104,7 @@
         <v>0.46</v>
       </c>
       <c r="AP251">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AQ251">
         <v>0.43</v>
@@ -56060,6 +56066,624 @@
         <v>0</v>
       </c>
       <c r="BP265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:68">
+      <c r="A266" s="1">
+        <v>265</v>
+      </c>
+      <c r="B266">
+        <v>7502872</v>
+      </c>
+      <c r="C266" t="s">
+        <v>68</v>
+      </c>
+      <c r="D266" t="s">
+        <v>69</v>
+      </c>
+      <c r="E266" s="2">
+        <v>45766.29166666666</v>
+      </c>
+      <c r="F266">
+        <v>30</v>
+      </c>
+      <c r="G266" t="s">
+        <v>74</v>
+      </c>
+      <c r="H266" t="s">
+        <v>83</v>
+      </c>
+      <c r="I266">
+        <v>1</v>
+      </c>
+      <c r="J266">
+        <v>2</v>
+      </c>
+      <c r="K266">
+        <v>3</v>
+      </c>
+      <c r="L266">
+        <v>1</v>
+      </c>
+      <c r="M266">
+        <v>2</v>
+      </c>
+      <c r="N266">
+        <v>3</v>
+      </c>
+      <c r="O266" t="s">
+        <v>95</v>
+      </c>
+      <c r="P266" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q266">
+        <v>3.2</v>
+      </c>
+      <c r="R266">
+        <v>2.05</v>
+      </c>
+      <c r="S266">
+        <v>3.5</v>
+      </c>
+      <c r="T266">
+        <v>1.44</v>
+      </c>
+      <c r="U266">
+        <v>2.63</v>
+      </c>
+      <c r="V266">
+        <v>3.25</v>
+      </c>
+      <c r="W266">
+        <v>1.33</v>
+      </c>
+      <c r="X266">
+        <v>10</v>
+      </c>
+      <c r="Y266">
+        <v>1.06</v>
+      </c>
+      <c r="Z266">
+        <v>2.4</v>
+      </c>
+      <c r="AA266">
+        <v>3.1</v>
+      </c>
+      <c r="AB266">
+        <v>2.85</v>
+      </c>
+      <c r="AC266">
+        <v>0</v>
+      </c>
+      <c r="AD266">
+        <v>0</v>
+      </c>
+      <c r="AE266">
+        <v>0</v>
+      </c>
+      <c r="AF266">
+        <v>0</v>
+      </c>
+      <c r="AG266">
+        <v>2</v>
+      </c>
+      <c r="AH266">
+        <v>1.67</v>
+      </c>
+      <c r="AI266">
+        <v>1.83</v>
+      </c>
+      <c r="AJ266">
+        <v>1.83</v>
+      </c>
+      <c r="AK266">
+        <v>0</v>
+      </c>
+      <c r="AL266">
+        <v>0</v>
+      </c>
+      <c r="AM266">
+        <v>0</v>
+      </c>
+      <c r="AN266">
+        <v>1.64</v>
+      </c>
+      <c r="AO266">
+        <v>1.14</v>
+      </c>
+      <c r="AP266">
+        <v>1.53</v>
+      </c>
+      <c r="AQ266">
+        <v>1.27</v>
+      </c>
+      <c r="AR266">
+        <v>1.37</v>
+      </c>
+      <c r="AS266">
+        <v>1.32</v>
+      </c>
+      <c r="AT266">
+        <v>2.69</v>
+      </c>
+      <c r="AU266">
+        <v>5</v>
+      </c>
+      <c r="AV266">
+        <v>5</v>
+      </c>
+      <c r="AW266">
+        <v>7</v>
+      </c>
+      <c r="AX266">
+        <v>5</v>
+      </c>
+      <c r="AY266">
+        <v>12</v>
+      </c>
+      <c r="AZ266">
+        <v>10</v>
+      </c>
+      <c r="BA266">
+        <v>-1</v>
+      </c>
+      <c r="BB266">
+        <v>-1</v>
+      </c>
+      <c r="BC266">
+        <v>-1</v>
+      </c>
+      <c r="BD266">
+        <v>0</v>
+      </c>
+      <c r="BE266">
+        <v>0</v>
+      </c>
+      <c r="BF266">
+        <v>0</v>
+      </c>
+      <c r="BG266">
+        <v>0</v>
+      </c>
+      <c r="BH266">
+        <v>0</v>
+      </c>
+      <c r="BI266">
+        <v>0</v>
+      </c>
+      <c r="BJ266">
+        <v>0</v>
+      </c>
+      <c r="BK266">
+        <v>0</v>
+      </c>
+      <c r="BL266">
+        <v>0</v>
+      </c>
+      <c r="BM266">
+        <v>0</v>
+      </c>
+      <c r="BN266">
+        <v>0</v>
+      </c>
+      <c r="BO266">
+        <v>0</v>
+      </c>
+      <c r="BP266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:68">
+      <c r="A267" s="1">
+        <v>266</v>
+      </c>
+      <c r="B267">
+        <v>7502865</v>
+      </c>
+      <c r="C267" t="s">
+        <v>68</v>
+      </c>
+      <c r="D267" t="s">
+        <v>69</v>
+      </c>
+      <c r="E267" s="2">
+        <v>45766.41666666666</v>
+      </c>
+      <c r="F267">
+        <v>30</v>
+      </c>
+      <c r="G267" t="s">
+        <v>73</v>
+      </c>
+      <c r="H267" t="s">
+        <v>75</v>
+      </c>
+      <c r="I267">
+        <v>1</v>
+      </c>
+      <c r="J267">
+        <v>0</v>
+      </c>
+      <c r="K267">
+        <v>1</v>
+      </c>
+      <c r="L267">
+        <v>1</v>
+      </c>
+      <c r="M267">
+        <v>2</v>
+      </c>
+      <c r="N267">
+        <v>3</v>
+      </c>
+      <c r="O267" t="s">
+        <v>95</v>
+      </c>
+      <c r="P267" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q267">
+        <v>3</v>
+      </c>
+      <c r="R267">
+        <v>2.05</v>
+      </c>
+      <c r="S267">
+        <v>3.75</v>
+      </c>
+      <c r="T267">
+        <v>1.44</v>
+      </c>
+      <c r="U267">
+        <v>2.63</v>
+      </c>
+      <c r="V267">
+        <v>3.25</v>
+      </c>
+      <c r="W267">
+        <v>1.33</v>
+      </c>
+      <c r="X267">
+        <v>10</v>
+      </c>
+      <c r="Y267">
+        <v>1.06</v>
+      </c>
+      <c r="Z267">
+        <v>2.1</v>
+      </c>
+      <c r="AA267">
+        <v>3.2</v>
+      </c>
+      <c r="AB267">
+        <v>3.3</v>
+      </c>
+      <c r="AC267">
+        <v>0</v>
+      </c>
+      <c r="AD267">
+        <v>0</v>
+      </c>
+      <c r="AE267">
+        <v>2.19</v>
+      </c>
+      <c r="AF267">
+        <v>1.66</v>
+      </c>
+      <c r="AG267">
+        <v>2.05</v>
+      </c>
+      <c r="AH267">
+        <v>1.65</v>
+      </c>
+      <c r="AI267">
+        <v>1.83</v>
+      </c>
+      <c r="AJ267">
+        <v>1.83</v>
+      </c>
+      <c r="AK267">
+        <v>0</v>
+      </c>
+      <c r="AL267">
+        <v>0</v>
+      </c>
+      <c r="AM267">
+        <v>0</v>
+      </c>
+      <c r="AN267">
+        <v>1.86</v>
+      </c>
+      <c r="AO267">
+        <v>1.5</v>
+      </c>
+      <c r="AP267">
+        <v>1.73</v>
+      </c>
+      <c r="AQ267">
+        <v>1.6</v>
+      </c>
+      <c r="AR267">
+        <v>1.27</v>
+      </c>
+      <c r="AS267">
+        <v>1.39</v>
+      </c>
+      <c r="AT267">
+        <v>2.66</v>
+      </c>
+      <c r="AU267">
+        <v>6</v>
+      </c>
+      <c r="AV267">
+        <v>6</v>
+      </c>
+      <c r="AW267">
+        <v>6</v>
+      </c>
+      <c r="AX267">
+        <v>9</v>
+      </c>
+      <c r="AY267">
+        <v>12</v>
+      </c>
+      <c r="AZ267">
+        <v>15</v>
+      </c>
+      <c r="BA267">
+        <v>9</v>
+      </c>
+      <c r="BB267">
+        <v>6</v>
+      </c>
+      <c r="BC267">
+        <v>15</v>
+      </c>
+      <c r="BD267">
+        <v>0</v>
+      </c>
+      <c r="BE267">
+        <v>0</v>
+      </c>
+      <c r="BF267">
+        <v>0</v>
+      </c>
+      <c r="BG267">
+        <v>0</v>
+      </c>
+      <c r="BH267">
+        <v>0</v>
+      </c>
+      <c r="BI267">
+        <v>0</v>
+      </c>
+      <c r="BJ267">
+        <v>0</v>
+      </c>
+      <c r="BK267">
+        <v>0</v>
+      </c>
+      <c r="BL267">
+        <v>0</v>
+      </c>
+      <c r="BM267">
+        <v>0</v>
+      </c>
+      <c r="BN267">
+        <v>0</v>
+      </c>
+      <c r="BO267">
+        <v>0</v>
+      </c>
+      <c r="BP267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:68">
+      <c r="A268" s="1">
+        <v>267</v>
+      </c>
+      <c r="B268">
+        <v>7502870</v>
+      </c>
+      <c r="C268" t="s">
+        <v>68</v>
+      </c>
+      <c r="D268" t="s">
+        <v>69</v>
+      </c>
+      <c r="E268" s="2">
+        <v>45766.47916666666</v>
+      </c>
+      <c r="F268">
+        <v>30</v>
+      </c>
+      <c r="G268" t="s">
+        <v>76</v>
+      </c>
+      <c r="H268" t="s">
+        <v>85</v>
+      </c>
+      <c r="I268">
+        <v>0</v>
+      </c>
+      <c r="J268">
+        <v>0</v>
+      </c>
+      <c r="K268">
+        <v>0</v>
+      </c>
+      <c r="L268">
+        <v>1</v>
+      </c>
+      <c r="M268">
+        <v>2</v>
+      </c>
+      <c r="N268">
+        <v>3</v>
+      </c>
+      <c r="O268" t="s">
+        <v>128</v>
+      </c>
+      <c r="P268" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q268">
+        <v>3.75</v>
+      </c>
+      <c r="R268">
+        <v>2.1</v>
+      </c>
+      <c r="S268">
+        <v>3.1</v>
+      </c>
+      <c r="T268">
+        <v>1.44</v>
+      </c>
+      <c r="U268">
+        <v>2.63</v>
+      </c>
+      <c r="V268">
+        <v>3.25</v>
+      </c>
+      <c r="W268">
+        <v>1.33</v>
+      </c>
+      <c r="X268">
+        <v>9</v>
+      </c>
+      <c r="Y268">
+        <v>1.07</v>
+      </c>
+      <c r="Z268">
+        <v>2.55</v>
+      </c>
+      <c r="AA268">
+        <v>3.2</v>
+      </c>
+      <c r="AB268">
+        <v>2.55</v>
+      </c>
+      <c r="AC268">
+        <v>0</v>
+      </c>
+      <c r="AD268">
+        <v>0</v>
+      </c>
+      <c r="AE268">
+        <v>2.4</v>
+      </c>
+      <c r="AF268">
+        <v>1.56</v>
+      </c>
+      <c r="AG268">
+        <v>1.85</v>
+      </c>
+      <c r="AH268">
+        <v>1.75</v>
+      </c>
+      <c r="AI268">
+        <v>1.83</v>
+      </c>
+      <c r="AJ268">
+        <v>1.83</v>
+      </c>
+      <c r="AK268">
+        <v>0</v>
+      </c>
+      <c r="AL268">
+        <v>0</v>
+      </c>
+      <c r="AM268">
+        <v>0</v>
+      </c>
+      <c r="AN268">
+        <v>1.43</v>
+      </c>
+      <c r="AO268">
+        <v>1.57</v>
+      </c>
+      <c r="AP268">
+        <v>1.33</v>
+      </c>
+      <c r="AQ268">
+        <v>1.67</v>
+      </c>
+      <c r="AR268">
+        <v>1.17</v>
+      </c>
+      <c r="AS268">
+        <v>1.41</v>
+      </c>
+      <c r="AT268">
+        <v>2.58</v>
+      </c>
+      <c r="AU268">
+        <v>3</v>
+      </c>
+      <c r="AV268">
+        <v>5</v>
+      </c>
+      <c r="AW268">
+        <v>8</v>
+      </c>
+      <c r="AX268">
+        <v>5</v>
+      </c>
+      <c r="AY268">
+        <v>11</v>
+      </c>
+      <c r="AZ268">
+        <v>10</v>
+      </c>
+      <c r="BA268">
+        <v>-1</v>
+      </c>
+      <c r="BB268">
+        <v>-1</v>
+      </c>
+      <c r="BC268">
+        <v>-1</v>
+      </c>
+      <c r="BD268">
+        <v>0</v>
+      </c>
+      <c r="BE268">
+        <v>0</v>
+      </c>
+      <c r="BF268">
+        <v>0</v>
+      </c>
+      <c r="BG268">
+        <v>0</v>
+      </c>
+      <c r="BH268">
+        <v>0</v>
+      </c>
+      <c r="BI268">
+        <v>0</v>
+      </c>
+      <c r="BJ268">
+        <v>0</v>
+      </c>
+      <c r="BK268">
+        <v>0</v>
+      </c>
+      <c r="BL268">
+        <v>0</v>
+      </c>
+      <c r="BM268">
+        <v>0</v>
+      </c>
+      <c r="BN268">
+        <v>0</v>
+      </c>
+      <c r="BO268">
+        <v>0</v>
+      </c>
+      <c r="BP268">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="368">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -757,6 +757,12 @@
     <t>['29', '43']</t>
   </si>
   <si>
+    <t>['4', '64', '77', '84']</t>
+  </si>
+  <si>
+    <t>['66', '90+4']</t>
+  </si>
+  <si>
     <t>['24', '27']</t>
   </si>
   <si>
@@ -1473,7 +1479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP268"/>
+  <dimension ref="A1:BP271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1732,7 +1738,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q2">
         <v>2.16</v>
@@ -1810,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ2">
         <v>1.73</v>
@@ -1938,7 +1944,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q3">
         <v>3.58</v>
@@ -2144,7 +2150,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q4">
         <v>3.15</v>
@@ -2556,7 +2562,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2637,7 +2643,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ6">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2762,7 +2768,7 @@
         <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -3174,7 +3180,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -3255,7 +3261,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ9">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3586,7 +3592,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3664,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ11">
         <v>1</v>
@@ -3873,7 +3879,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ12">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3998,7 +4004,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q13">
         <v>2.38</v>
@@ -4204,7 +4210,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q14">
         <v>3.73</v>
@@ -4410,7 +4416,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q15">
         <v>3.51</v>
@@ -4616,7 +4622,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q16">
         <v>2.38</v>
@@ -5234,7 +5240,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q19">
         <v>2.79</v>
@@ -5312,7 +5318,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AQ19">
         <v>0.6</v>
@@ -5440,7 +5446,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5933,7 +5939,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ22">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR22">
         <v>1.3</v>
@@ -6058,7 +6064,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -6470,7 +6476,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q25">
         <v>2.91</v>
@@ -6754,7 +6760,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ26">
         <v>1.67</v>
@@ -6882,7 +6888,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q27">
         <v>3.25</v>
@@ -7169,7 +7175,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ28">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AR28">
         <v>1.62</v>
@@ -7294,7 +7300,7 @@
         <v>89</v>
       </c>
       <c r="P29" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -7372,7 +7378,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ29">
         <v>1</v>
@@ -7500,7 +7506,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -7784,7 +7790,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AQ31">
         <v>1</v>
@@ -7912,7 +7918,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -8324,7 +8330,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8530,7 +8536,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q35">
         <v>2.57</v>
@@ -8736,7 +8742,7 @@
         <v>89</v>
       </c>
       <c r="P36" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q36">
         <v>2.5</v>
@@ -8817,7 +8823,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ36">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AR36">
         <v>0.91</v>
@@ -9148,7 +9154,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9354,7 +9360,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9766,7 +9772,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q41">
         <v>2.1</v>
@@ -9844,7 +9850,7 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ41">
         <v>1.4</v>
@@ -9972,7 +9978,7 @@
         <v>89</v>
       </c>
       <c r="P42" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q42">
         <v>3.1</v>
@@ -10384,7 +10390,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -10465,7 +10471,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ44">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR44">
         <v>1.61</v>
@@ -10590,7 +10596,7 @@
         <v>89</v>
       </c>
       <c r="P45" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q45">
         <v>2.85</v>
@@ -10671,7 +10677,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ45">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AR45">
         <v>1.58</v>
@@ -11002,7 +11008,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q47">
         <v>2.6</v>
@@ -11208,7 +11214,7 @@
         <v>89</v>
       </c>
       <c r="P48" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11414,7 +11420,7 @@
         <v>89</v>
       </c>
       <c r="P49" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -11698,7 +11704,7 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AQ50">
         <v>1</v>
@@ -11826,7 +11832,7 @@
         <v>89</v>
       </c>
       <c r="P51" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -12316,7 +12322,7 @@
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ53">
         <v>0.73</v>
@@ -12444,7 +12450,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12731,7 +12737,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ55">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AR55">
         <v>1.78</v>
@@ -12856,7 +12862,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q56">
         <v>3.08</v>
@@ -13062,7 +13068,7 @@
         <v>109</v>
       </c>
       <c r="P57" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13346,7 +13352,7 @@
         <v>0.67</v>
       </c>
       <c r="AP58">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ58">
         <v>0.6</v>
@@ -13474,7 +13480,7 @@
         <v>89</v>
       </c>
       <c r="P59" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13967,7 +13973,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ61">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AR61">
         <v>1.62</v>
@@ -14710,7 +14716,7 @@
         <v>129</v>
       </c>
       <c r="P65" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14994,7 +15000,7 @@
         <v>1.67</v>
       </c>
       <c r="AP66">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AQ66">
         <v>0.73</v>
@@ -15122,7 +15128,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q67">
         <v>3.12</v>
@@ -15200,7 +15206,7 @@
         <v>3</v>
       </c>
       <c r="AP67">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ67">
         <v>1.33</v>
@@ -15328,7 +15334,7 @@
         <v>89</v>
       </c>
       <c r="P68" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q68">
         <v>2.96</v>
@@ -16027,7 +16033,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ71">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AR71">
         <v>0.8</v>
@@ -16233,7 +16239,7 @@
         <v>1</v>
       </c>
       <c r="AQ72">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AR72">
         <v>1.62</v>
@@ -16358,7 +16364,7 @@
         <v>89</v>
       </c>
       <c r="P73" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q73">
         <v>2.92</v>
@@ -16564,7 +16570,7 @@
         <v>89</v>
       </c>
       <c r="P74" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16770,7 +16776,7 @@
         <v>97</v>
       </c>
       <c r="P75" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q75">
         <v>3.04</v>
@@ -16976,7 +16982,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q76">
         <v>2.8</v>
@@ -17388,7 +17394,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -18084,7 +18090,7 @@
         <v>1.25</v>
       </c>
       <c r="AP81">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ81">
         <v>1.27</v>
@@ -18293,7 +18299,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ82">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AR82">
         <v>1.36</v>
@@ -18418,7 +18424,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q83">
         <v>2.36</v>
@@ -18496,7 +18502,7 @@
         <v>2.5</v>
       </c>
       <c r="AP83">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ83">
         <v>1.33</v>
@@ -19036,7 +19042,7 @@
         <v>144</v>
       </c>
       <c r="P86" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q86">
         <v>2.38</v>
@@ -19117,7 +19123,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ86">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AR86">
         <v>1.78</v>
@@ -19448,7 +19454,7 @@
         <v>127</v>
       </c>
       <c r="P88" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q88">
         <v>2.85</v>
@@ -19732,10 +19738,10 @@
         <v>0.33</v>
       </c>
       <c r="AP89">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AQ89">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR89">
         <v>1.48</v>
@@ -19860,7 +19866,7 @@
         <v>89</v>
       </c>
       <c r="P90" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q90">
         <v>3.09</v>
@@ -20066,7 +20072,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q91">
         <v>3.05</v>
@@ -20272,7 +20278,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q92">
         <v>3.5</v>
@@ -20478,7 +20484,7 @@
         <v>89</v>
       </c>
       <c r="P93" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q93">
         <v>3.64</v>
@@ -20684,7 +20690,7 @@
         <v>108</v>
       </c>
       <c r="P94" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q94">
         <v>3.35</v>
@@ -20890,7 +20896,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q95">
         <v>0</v>
@@ -21302,7 +21308,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21508,7 +21514,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q98">
         <v>3.3</v>
@@ -21714,7 +21720,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q99">
         <v>2.99</v>
@@ -22207,7 +22213,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ101">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR101">
         <v>1.6</v>
@@ -22538,7 +22544,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q103">
         <v>2.6</v>
@@ -22950,7 +22956,7 @@
         <v>125</v>
       </c>
       <c r="P105" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q105">
         <v>3.3</v>
@@ -23156,7 +23162,7 @@
         <v>155</v>
       </c>
       <c r="P106" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q106">
         <v>3.38</v>
@@ -23234,10 +23240,10 @@
         <v>1.5</v>
       </c>
       <c r="AP106">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ106">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AR106">
         <v>1.65</v>
@@ -23362,7 +23368,7 @@
         <v>156</v>
       </c>
       <c r="P107" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q107">
         <v>2.62</v>
@@ -23443,7 +23449,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ107">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AR107">
         <v>1.21</v>
@@ -23646,7 +23652,7 @@
         <v>1.4</v>
       </c>
       <c r="AP108">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AQ108">
         <v>1</v>
@@ -23774,7 +23780,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q109">
         <v>2.29</v>
@@ -23855,7 +23861,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ109">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR109">
         <v>1.09</v>
@@ -24058,7 +24064,7 @@
         <v>2</v>
       </c>
       <c r="AP110">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ110">
         <v>1.33</v>
@@ -24598,7 +24604,7 @@
         <v>89</v>
       </c>
       <c r="P113" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q113">
         <v>2.83</v>
@@ -24804,7 +24810,7 @@
         <v>160</v>
       </c>
       <c r="P114" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -25216,7 +25222,7 @@
         <v>161</v>
       </c>
       <c r="P116" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q116">
         <v>3.86</v>
@@ -25422,7 +25428,7 @@
         <v>162</v>
       </c>
       <c r="P117" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q117">
         <v>4.05</v>
@@ -26324,7 +26330,7 @@
         <v>1.86</v>
       </c>
       <c r="AP121">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ121">
         <v>1.67</v>
@@ -26452,7 +26458,7 @@
         <v>165</v>
       </c>
       <c r="P122" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q122">
         <v>3.4</v>
@@ -26864,7 +26870,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q124">
         <v>2.84</v>
@@ -26945,7 +26951,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ124">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AR124">
         <v>1.69</v>
@@ -27148,7 +27154,7 @@
         <v>1.29</v>
       </c>
       <c r="AP125">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AQ125">
         <v>0.87</v>
@@ -27276,7 +27282,7 @@
         <v>89</v>
       </c>
       <c r="P126" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q126">
         <v>2.41</v>
@@ -27354,7 +27360,7 @@
         <v>1.17</v>
       </c>
       <c r="AP126">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ126">
         <v>1.6</v>
@@ -27688,7 +27694,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q128">
         <v>2.1</v>
@@ -27769,7 +27775,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ128">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR128">
         <v>1.46</v>
@@ -27975,7 +27981,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ129">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AR129">
         <v>1.3</v>
@@ -28100,7 +28106,7 @@
         <v>171</v>
       </c>
       <c r="P130" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q130">
         <v>2.49</v>
@@ -28512,7 +28518,7 @@
         <v>173</v>
       </c>
       <c r="P132" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q132">
         <v>2.94</v>
@@ -28718,7 +28724,7 @@
         <v>161</v>
       </c>
       <c r="P133" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -28924,7 +28930,7 @@
         <v>174</v>
       </c>
       <c r="P134" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q134">
         <v>4.33</v>
@@ -29542,7 +29548,7 @@
         <v>176</v>
       </c>
       <c r="P137" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q137">
         <v>3.12</v>
@@ -29954,7 +29960,7 @@
         <v>177</v>
       </c>
       <c r="P139" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q139">
         <v>1.99</v>
@@ -30032,10 +30038,10 @@
         <v>0.29</v>
       </c>
       <c r="AP139">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ139">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR139">
         <v>1.54</v>
@@ -30366,7 +30372,7 @@
         <v>89</v>
       </c>
       <c r="P141" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q141">
         <v>2.6</v>
@@ -30778,7 +30784,7 @@
         <v>128</v>
       </c>
       <c r="P143" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q143">
         <v>2.65</v>
@@ -30856,7 +30862,7 @@
         <v>1.63</v>
       </c>
       <c r="AP143">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AQ143">
         <v>1.53</v>
@@ -30984,7 +30990,7 @@
         <v>89</v>
       </c>
       <c r="P144" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q144">
         <v>4.33</v>
@@ -31271,7 +31277,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ145">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AR145">
         <v>1.33</v>
@@ -31396,7 +31402,7 @@
         <v>181</v>
       </c>
       <c r="P146" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q146">
         <v>2.88</v>
@@ -31602,7 +31608,7 @@
         <v>182</v>
       </c>
       <c r="P147" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31808,7 +31814,7 @@
         <v>183</v>
       </c>
       <c r="P148" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q148">
         <v>2.36</v>
@@ -32095,7 +32101,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ149">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AR149">
         <v>1.55</v>
@@ -32426,7 +32432,7 @@
         <v>129</v>
       </c>
       <c r="P151" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q151">
         <v>2.78</v>
@@ -32632,7 +32638,7 @@
         <v>185</v>
       </c>
       <c r="P152" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q152">
         <v>2.81</v>
@@ -33044,7 +33050,7 @@
         <v>186</v>
       </c>
       <c r="P154" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q154">
         <v>3.38</v>
@@ -33122,7 +33128,7 @@
         <v>1.75</v>
       </c>
       <c r="AP154">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ154">
         <v>1.73</v>
@@ -33740,7 +33746,7 @@
         <v>0.33</v>
       </c>
       <c r="AP157">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ157">
         <v>0.6</v>
@@ -33868,7 +33874,7 @@
         <v>190</v>
       </c>
       <c r="P158" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q158">
         <v>3.5</v>
@@ -34486,7 +34492,7 @@
         <v>193</v>
       </c>
       <c r="P161" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -34567,7 +34573,7 @@
         <v>1</v>
       </c>
       <c r="AQ161">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AR161">
         <v>1.7</v>
@@ -34770,7 +34776,7 @@
         <v>1.44</v>
       </c>
       <c r="AP162">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AQ162">
         <v>1.6</v>
@@ -34898,7 +34904,7 @@
         <v>194</v>
       </c>
       <c r="P163" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q163">
         <v>4.2</v>
@@ -35104,7 +35110,7 @@
         <v>195</v>
       </c>
       <c r="P164" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q164">
         <v>2.55</v>
@@ -35310,7 +35316,7 @@
         <v>89</v>
       </c>
       <c r="P165" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q165">
         <v>3</v>
@@ -35722,7 +35728,7 @@
         <v>196</v>
       </c>
       <c r="P167" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q167">
         <v>2.45</v>
@@ -35800,7 +35806,7 @@
         <v>1.25</v>
       </c>
       <c r="AP167">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ167">
         <v>1</v>
@@ -36009,7 +36015,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ168">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AR168">
         <v>1.2</v>
@@ -36215,7 +36221,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ169">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR169">
         <v>1.26</v>
@@ -36546,7 +36552,7 @@
         <v>198</v>
       </c>
       <c r="P171" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q171">
         <v>3.84</v>
@@ -37164,7 +37170,7 @@
         <v>200</v>
       </c>
       <c r="P174" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q174">
         <v>3.32</v>
@@ -37448,7 +37454,7 @@
         <v>2.22</v>
       </c>
       <c r="AP175">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AQ175">
         <v>1.33</v>
@@ -37782,7 +37788,7 @@
         <v>202</v>
       </c>
       <c r="P177" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q177">
         <v>3.2</v>
@@ -38069,7 +38075,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ178">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AR178">
         <v>1.35</v>
@@ -38400,7 +38406,7 @@
         <v>179</v>
       </c>
       <c r="P180" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q180">
         <v>2.97</v>
@@ -38684,7 +38690,7 @@
         <v>1.6</v>
       </c>
       <c r="AP181">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ181">
         <v>1.53</v>
@@ -38812,7 +38818,7 @@
         <v>89</v>
       </c>
       <c r="P182" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q182">
         <v>2.65</v>
@@ -39018,7 +39024,7 @@
         <v>205</v>
       </c>
       <c r="P183" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q183">
         <v>2.27</v>
@@ -39099,7 +39105,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ183">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR183">
         <v>1.33</v>
@@ -39508,7 +39514,7 @@
         <v>1.2</v>
       </c>
       <c r="AP185">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ185">
         <v>0.87</v>
@@ -39636,7 +39642,7 @@
         <v>141</v>
       </c>
       <c r="P186" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q186">
         <v>3.14</v>
@@ -40048,7 +40054,7 @@
         <v>207</v>
       </c>
       <c r="P188" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q188">
         <v>3.25</v>
@@ -40460,7 +40466,7 @@
         <v>208</v>
       </c>
       <c r="P190" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q190">
         <v>3.6</v>
@@ -40541,7 +40547,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ190">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AR190">
         <v>1.31</v>
@@ -40872,7 +40878,7 @@
         <v>123</v>
       </c>
       <c r="P192" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q192">
         <v>2.95</v>
@@ -41156,10 +41162,10 @@
         <v>0.6</v>
       </c>
       <c r="AP193">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AQ193">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AR193">
         <v>1.6</v>
@@ -41284,7 +41290,7 @@
         <v>210</v>
       </c>
       <c r="P194" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q194">
         <v>4.2</v>
@@ -41696,7 +41702,7 @@
         <v>211</v>
       </c>
       <c r="P196" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q196">
         <v>3.2</v>
@@ -41902,7 +41908,7 @@
         <v>212</v>
       </c>
       <c r="P197" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q197">
         <v>3</v>
@@ -42186,7 +42192,7 @@
         <v>1.36</v>
       </c>
       <c r="AP198">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ198">
         <v>1.6</v>
@@ -42314,7 +42320,7 @@
         <v>214</v>
       </c>
       <c r="P199" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q199">
         <v>2.75</v>
@@ -42932,7 +42938,7 @@
         <v>123</v>
       </c>
       <c r="P202" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q202">
         <v>4.3</v>
@@ -43013,7 +43019,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ202">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AR202">
         <v>1.26</v>
@@ -43344,7 +43350,7 @@
         <v>117</v>
       </c>
       <c r="P204" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q204">
         <v>3.1</v>
@@ -43422,7 +43428,7 @@
         <v>1.45</v>
       </c>
       <c r="AP204">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ204">
         <v>1.53</v>
@@ -43631,7 +43637,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ205">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR205">
         <v>1.71</v>
@@ -43756,7 +43762,7 @@
         <v>218</v>
       </c>
       <c r="P206" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q206">
         <v>3.65</v>
@@ -43962,7 +43968,7 @@
         <v>156</v>
       </c>
       <c r="P207" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q207">
         <v>3.45</v>
@@ -44168,7 +44174,7 @@
         <v>197</v>
       </c>
       <c r="P208" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q208">
         <v>3.5</v>
@@ -44374,7 +44380,7 @@
         <v>129</v>
       </c>
       <c r="P209" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q209">
         <v>2.4</v>
@@ -44864,10 +44870,10 @@
         <v>0.55</v>
       </c>
       <c r="AP211">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ211">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AR211">
         <v>1.57</v>
@@ -44992,7 +44998,7 @@
         <v>220</v>
       </c>
       <c r="P212" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q212">
         <v>2.43</v>
@@ -45070,7 +45076,7 @@
         <v>1.45</v>
       </c>
       <c r="AP212">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AQ212">
         <v>1.6</v>
@@ -45198,7 +45204,7 @@
         <v>221</v>
       </c>
       <c r="P213" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q213">
         <v>3.15</v>
@@ -46103,7 +46109,7 @@
         <v>1</v>
       </c>
       <c r="AQ217">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR217">
         <v>1.78</v>
@@ -46228,7 +46234,7 @@
         <v>89</v>
       </c>
       <c r="P218" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q218">
         <v>3.6</v>
@@ -46434,7 +46440,7 @@
         <v>224</v>
       </c>
       <c r="P219" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q219">
         <v>3.78</v>
@@ -46640,7 +46646,7 @@
         <v>225</v>
       </c>
       <c r="P220" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q220">
         <v>3.26</v>
@@ -47336,7 +47342,7 @@
         <v>1.08</v>
       </c>
       <c r="AP223">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ223">
         <v>1</v>
@@ -47464,7 +47470,7 @@
         <v>89</v>
       </c>
       <c r="P224" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q224">
         <v>5.44</v>
@@ -47545,7 +47551,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ224">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AR224">
         <v>1.35</v>
@@ -48082,7 +48088,7 @@
         <v>156</v>
       </c>
       <c r="P227" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q227">
         <v>2.9</v>
@@ -48288,7 +48294,7 @@
         <v>228</v>
       </c>
       <c r="P228" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q228">
         <v>2.6</v>
@@ -48366,7 +48372,7 @@
         <v>1.42</v>
       </c>
       <c r="AP228">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ228">
         <v>1.6</v>
@@ -48778,7 +48784,7 @@
         <v>1.08</v>
       </c>
       <c r="AP230">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ230">
         <v>1</v>
@@ -48987,7 +48993,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ231">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR231">
         <v>1.57</v>
@@ -49190,7 +49196,7 @@
         <v>1.33</v>
       </c>
       <c r="AP232">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AQ232">
         <v>1.33</v>
@@ -49399,7 +49405,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ233">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AR233">
         <v>1.65</v>
@@ -49936,7 +49942,7 @@
         <v>128</v>
       </c>
       <c r="P236" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q236">
         <v>4.5</v>
@@ -50348,7 +50354,7 @@
         <v>233</v>
       </c>
       <c r="P238" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q238">
         <v>2.1</v>
@@ -50554,7 +50560,7 @@
         <v>89</v>
       </c>
       <c r="P239" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q239">
         <v>0</v>
@@ -50760,7 +50766,7 @@
         <v>234</v>
       </c>
       <c r="P240" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q240">
         <v>3</v>
@@ -51172,7 +51178,7 @@
         <v>89</v>
       </c>
       <c r="P242" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q242">
         <v>3.6</v>
@@ -51868,7 +51874,7 @@
         <v>1.23</v>
       </c>
       <c r="AP245">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AQ245">
         <v>1.27</v>
@@ -52280,7 +52286,7 @@
         <v>0.77</v>
       </c>
       <c r="AP247">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ247">
         <v>0.73</v>
@@ -52408,7 +52414,7 @@
         <v>109</v>
       </c>
       <c r="P248" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q248">
         <v>3.6</v>
@@ -52489,7 +52495,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ248">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AR248">
         <v>1.53</v>
@@ -52614,7 +52620,7 @@
         <v>199</v>
       </c>
       <c r="P249" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q249">
         <v>2.35</v>
@@ -53107,7 +53113,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ251">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AR251">
         <v>1.25</v>
@@ -53232,7 +53238,7 @@
         <v>239</v>
       </c>
       <c r="P252" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q252">
         <v>2.5</v>
@@ -53313,7 +53319,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ252">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR252">
         <v>1.49</v>
@@ -53516,7 +53522,7 @@
         <v>1.23</v>
       </c>
       <c r="AP253">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ253">
         <v>1.33</v>
@@ -53644,7 +53650,7 @@
         <v>240</v>
       </c>
       <c r="P254" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q254">
         <v>3.5</v>
@@ -54468,7 +54474,7 @@
         <v>242</v>
       </c>
       <c r="P258" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q258">
         <v>3.26</v>
@@ -54674,7 +54680,7 @@
         <v>95</v>
       </c>
       <c r="P259" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q259">
         <v>2.97</v>
@@ -54880,7 +54886,7 @@
         <v>243</v>
       </c>
       <c r="P260" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q260">
         <v>2.26</v>
@@ -55292,7 +55298,7 @@
         <v>244</v>
       </c>
       <c r="P262" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q262">
         <v>3.1</v>
@@ -55704,7 +55710,7 @@
         <v>132</v>
       </c>
       <c r="P264" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q264">
         <v>2.75</v>
@@ -56116,7 +56122,7 @@
         <v>95</v>
       </c>
       <c r="P266" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q266">
         <v>3.2</v>
@@ -56227,13 +56233,13 @@
         <v>10</v>
       </c>
       <c r="BA266">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB266">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC266">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BD266">
         <v>0</v>
@@ -56322,7 +56328,7 @@
         <v>95</v>
       </c>
       <c r="P267" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q267">
         <v>3</v>
@@ -56528,7 +56534,7 @@
         <v>128</v>
       </c>
       <c r="P268" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q268">
         <v>3.75</v>
@@ -56639,51 +56645,669 @@
         <v>10</v>
       </c>
       <c r="BA268">
+        <v>4</v>
+      </c>
+      <c r="BB268">
+        <v>4</v>
+      </c>
+      <c r="BC268">
+        <v>8</v>
+      </c>
+      <c r="BD268">
+        <v>0</v>
+      </c>
+      <c r="BE268">
+        <v>0</v>
+      </c>
+      <c r="BF268">
+        <v>0</v>
+      </c>
+      <c r="BG268">
+        <v>0</v>
+      </c>
+      <c r="BH268">
+        <v>0</v>
+      </c>
+      <c r="BI268">
+        <v>0</v>
+      </c>
+      <c r="BJ268">
+        <v>0</v>
+      </c>
+      <c r="BK268">
+        <v>0</v>
+      </c>
+      <c r="BL268">
+        <v>0</v>
+      </c>
+      <c r="BM268">
+        <v>0</v>
+      </c>
+      <c r="BN268">
+        <v>0</v>
+      </c>
+      <c r="BO268">
+        <v>0</v>
+      </c>
+      <c r="BP268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:68">
+      <c r="A269" s="1">
+        <v>268</v>
+      </c>
+      <c r="B269">
+        <v>7502869</v>
+      </c>
+      <c r="C269" t="s">
+        <v>68</v>
+      </c>
+      <c r="D269" t="s">
+        <v>69</v>
+      </c>
+      <c r="E269" s="2">
+        <v>45767.29166666666</v>
+      </c>
+      <c r="F269">
+        <v>30</v>
+      </c>
+      <c r="G269" t="s">
+        <v>79</v>
+      </c>
+      <c r="H269" t="s">
+        <v>80</v>
+      </c>
+      <c r="I269">
+        <v>1</v>
+      </c>
+      <c r="J269">
+        <v>0</v>
+      </c>
+      <c r="K269">
+        <v>1</v>
+      </c>
+      <c r="L269">
+        <v>4</v>
+      </c>
+      <c r="M269">
+        <v>0</v>
+      </c>
+      <c r="N269">
+        <v>4</v>
+      </c>
+      <c r="O269" t="s">
+        <v>247</v>
+      </c>
+      <c r="P269" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q269">
+        <v>2.2</v>
+      </c>
+      <c r="R269">
+        <v>2.3</v>
+      </c>
+      <c r="S269">
+        <v>5.5</v>
+      </c>
+      <c r="T269">
+        <v>1.33</v>
+      </c>
+      <c r="U269">
+        <v>3.25</v>
+      </c>
+      <c r="V269">
+        <v>2.63</v>
+      </c>
+      <c r="W269">
+        <v>1.44</v>
+      </c>
+      <c r="X269">
+        <v>7</v>
+      </c>
+      <c r="Y269">
+        <v>1.1</v>
+      </c>
+      <c r="Z269">
+        <v>1.57</v>
+      </c>
+      <c r="AA269">
+        <v>3.8</v>
+      </c>
+      <c r="AB269">
+        <v>5.3</v>
+      </c>
+      <c r="AC269">
+        <v>1.04</v>
+      </c>
+      <c r="AD269">
+        <v>9</v>
+      </c>
+      <c r="AE269">
+        <v>1.22</v>
+      </c>
+      <c r="AF269">
+        <v>3.85</v>
+      </c>
+      <c r="AG269">
+        <v>1.7</v>
+      </c>
+      <c r="AH269">
+        <v>1.95</v>
+      </c>
+      <c r="AI269">
+        <v>1.8</v>
+      </c>
+      <c r="AJ269">
+        <v>1.91</v>
+      </c>
+      <c r="AK269">
+        <v>1.1</v>
+      </c>
+      <c r="AL269">
+        <v>1.18</v>
+      </c>
+      <c r="AM269">
+        <v>2.4</v>
+      </c>
+      <c r="AN269">
+        <v>1.93</v>
+      </c>
+      <c r="AO269">
+        <v>1.07</v>
+      </c>
+      <c r="AP269">
+        <v>2</v>
+      </c>
+      <c r="AQ269">
+        <v>1</v>
+      </c>
+      <c r="AR269">
+        <v>1.55</v>
+      </c>
+      <c r="AS269">
+        <v>1.24</v>
+      </c>
+      <c r="AT269">
+        <v>2.79</v>
+      </c>
+      <c r="AU269">
+        <v>10</v>
+      </c>
+      <c r="AV269">
+        <v>3</v>
+      </c>
+      <c r="AW269">
+        <v>8</v>
+      </c>
+      <c r="AX269">
+        <v>11</v>
+      </c>
+      <c r="AY269">
+        <v>18</v>
+      </c>
+      <c r="AZ269">
+        <v>14</v>
+      </c>
+      <c r="BA269">
         <v>-1</v>
       </c>
-      <c r="BB268">
+      <c r="BB269">
         <v>-1</v>
       </c>
-      <c r="BC268">
+      <c r="BC269">
         <v>-1</v>
       </c>
-      <c r="BD268">
-        <v>0</v>
-      </c>
-      <c r="BE268">
-        <v>0</v>
-      </c>
-      <c r="BF268">
-        <v>0</v>
-      </c>
-      <c r="BG268">
-        <v>0</v>
-      </c>
-      <c r="BH268">
-        <v>0</v>
-      </c>
-      <c r="BI268">
-        <v>0</v>
-      </c>
-      <c r="BJ268">
-        <v>0</v>
-      </c>
-      <c r="BK268">
-        <v>0</v>
-      </c>
-      <c r="BL268">
-        <v>0</v>
-      </c>
-      <c r="BM268">
-        <v>0</v>
-      </c>
-      <c r="BN268">
-        <v>0</v>
-      </c>
-      <c r="BO268">
-        <v>0</v>
-      </c>
-      <c r="BP268">
+      <c r="BD269">
+        <v>0</v>
+      </c>
+      <c r="BE269">
+        <v>0</v>
+      </c>
+      <c r="BF269">
+        <v>0</v>
+      </c>
+      <c r="BG269">
+        <v>0</v>
+      </c>
+      <c r="BH269">
+        <v>0</v>
+      </c>
+      <c r="BI269">
+        <v>0</v>
+      </c>
+      <c r="BJ269">
+        <v>0</v>
+      </c>
+      <c r="BK269">
+        <v>0</v>
+      </c>
+      <c r="BL269">
+        <v>0</v>
+      </c>
+      <c r="BM269">
+        <v>0</v>
+      </c>
+      <c r="BN269">
+        <v>0</v>
+      </c>
+      <c r="BO269">
+        <v>0</v>
+      </c>
+      <c r="BP269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:68">
+      <c r="A270" s="1">
+        <v>269</v>
+      </c>
+      <c r="B270">
+        <v>7502871</v>
+      </c>
+      <c r="C270" t="s">
+        <v>68</v>
+      </c>
+      <c r="D270" t="s">
+        <v>69</v>
+      </c>
+      <c r="E270" s="2">
+        <v>45767.47916666666</v>
+      </c>
+      <c r="F270">
+        <v>30</v>
+      </c>
+      <c r="G270" t="s">
+        <v>70</v>
+      </c>
+      <c r="H270" t="s">
+        <v>71</v>
+      </c>
+      <c r="I270">
+        <v>0</v>
+      </c>
+      <c r="J270">
+        <v>0</v>
+      </c>
+      <c r="K270">
+        <v>0</v>
+      </c>
+      <c r="L270">
+        <v>2</v>
+      </c>
+      <c r="M270">
+        <v>0</v>
+      </c>
+      <c r="N270">
+        <v>2</v>
+      </c>
+      <c r="O270" t="s">
+        <v>248</v>
+      </c>
+      <c r="P270" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q270">
+        <v>2.5</v>
+      </c>
+      <c r="R270">
+        <v>2.1</v>
+      </c>
+      <c r="S270">
+        <v>5</v>
+      </c>
+      <c r="T270">
+        <v>1.44</v>
+      </c>
+      <c r="U270">
+        <v>2.63</v>
+      </c>
+      <c r="V270">
+        <v>3.25</v>
+      </c>
+      <c r="W270">
+        <v>1.33</v>
+      </c>
+      <c r="X270">
+        <v>9</v>
+      </c>
+      <c r="Y270">
+        <v>1.07</v>
+      </c>
+      <c r="Z270">
+        <v>1.63</v>
+      </c>
+      <c r="AA270">
+        <v>3.5</v>
+      </c>
+      <c r="AB270">
+        <v>5.1</v>
+      </c>
+      <c r="AC270">
+        <v>1.06</v>
+      </c>
+      <c r="AD270">
+        <v>8</v>
+      </c>
+      <c r="AE270">
+        <v>1.35</v>
+      </c>
+      <c r="AF270">
+        <v>3</v>
+      </c>
+      <c r="AG270">
+        <v>2</v>
+      </c>
+      <c r="AH270">
+        <v>1.7</v>
+      </c>
+      <c r="AI270">
+        <v>2</v>
+      </c>
+      <c r="AJ270">
+        <v>1.73</v>
+      </c>
+      <c r="AK270">
+        <v>1.18</v>
+      </c>
+      <c r="AL270">
+        <v>1.25</v>
+      </c>
+      <c r="AM270">
+        <v>1.91</v>
+      </c>
+      <c r="AN270">
+        <v>0.93</v>
+      </c>
+      <c r="AO270">
+        <v>0.43</v>
+      </c>
+      <c r="AP270">
+        <v>1.07</v>
+      </c>
+      <c r="AQ270">
+        <v>0.4</v>
+      </c>
+      <c r="AR270">
+        <v>1.63</v>
+      </c>
+      <c r="AS270">
+        <v>1.26</v>
+      </c>
+      <c r="AT270">
+        <v>2.89</v>
+      </c>
+      <c r="AU270">
+        <v>5</v>
+      </c>
+      <c r="AV270">
+        <v>5</v>
+      </c>
+      <c r="AW270">
+        <v>9</v>
+      </c>
+      <c r="AX270">
+        <v>3</v>
+      </c>
+      <c r="AY270">
+        <v>14</v>
+      </c>
+      <c r="AZ270">
+        <v>8</v>
+      </c>
+      <c r="BA270">
+        <v>-1</v>
+      </c>
+      <c r="BB270">
+        <v>-1</v>
+      </c>
+      <c r="BC270">
+        <v>-1</v>
+      </c>
+      <c r="BD270">
+        <v>0</v>
+      </c>
+      <c r="BE270">
+        <v>0</v>
+      </c>
+      <c r="BF270">
+        <v>0</v>
+      </c>
+      <c r="BG270">
+        <v>0</v>
+      </c>
+      <c r="BH270">
+        <v>0</v>
+      </c>
+      <c r="BI270">
+        <v>0</v>
+      </c>
+      <c r="BJ270">
+        <v>0</v>
+      </c>
+      <c r="BK270">
+        <v>0</v>
+      </c>
+      <c r="BL270">
+        <v>0</v>
+      </c>
+      <c r="BM270">
+        <v>0</v>
+      </c>
+      <c r="BN270">
+        <v>0</v>
+      </c>
+      <c r="BO270">
+        <v>0</v>
+      </c>
+      <c r="BP270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:68">
+      <c r="A271" s="1">
+        <v>270</v>
+      </c>
+      <c r="B271">
+        <v>7502866</v>
+      </c>
+      <c r="C271" t="s">
+        <v>68</v>
+      </c>
+      <c r="D271" t="s">
+        <v>69</v>
+      </c>
+      <c r="E271" s="2">
+        <v>45767.6875</v>
+      </c>
+      <c r="F271">
+        <v>30</v>
+      </c>
+      <c r="G271" t="s">
+        <v>87</v>
+      </c>
+      <c r="H271" t="s">
+        <v>84</v>
+      </c>
+      <c r="I271">
+        <v>0</v>
+      </c>
+      <c r="J271">
+        <v>1</v>
+      </c>
+      <c r="K271">
+        <v>1</v>
+      </c>
+      <c r="L271">
+        <v>0</v>
+      </c>
+      <c r="M271">
+        <v>1</v>
+      </c>
+      <c r="N271">
+        <v>1</v>
+      </c>
+      <c r="O271" t="s">
+        <v>89</v>
+      </c>
+      <c r="P271" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q271">
+        <v>3.4</v>
+      </c>
+      <c r="R271">
+        <v>2.05</v>
+      </c>
+      <c r="S271">
+        <v>3.4</v>
+      </c>
+      <c r="T271">
+        <v>1.5</v>
+      </c>
+      <c r="U271">
+        <v>2.5</v>
+      </c>
+      <c r="V271">
+        <v>3.4</v>
+      </c>
+      <c r="W271">
+        <v>1.3</v>
+      </c>
+      <c r="X271">
+        <v>10</v>
+      </c>
+      <c r="Y271">
+        <v>1.06</v>
+      </c>
+      <c r="Z271">
+        <v>2.9</v>
+      </c>
+      <c r="AA271">
+        <v>2.75</v>
+      </c>
+      <c r="AB271">
+        <v>2.6</v>
+      </c>
+      <c r="AC271">
+        <v>1.09</v>
+      </c>
+      <c r="AD271">
+        <v>6.5</v>
+      </c>
+      <c r="AE271">
+        <v>1.38</v>
+      </c>
+      <c r="AF271">
+        <v>2.88</v>
+      </c>
+      <c r="AG271">
+        <v>2.1</v>
+      </c>
+      <c r="AH271">
+        <v>1.6</v>
+      </c>
+      <c r="AI271">
+        <v>1.8</v>
+      </c>
+      <c r="AJ271">
+        <v>1.91</v>
+      </c>
+      <c r="AK271">
+        <v>1.42</v>
+      </c>
+      <c r="AL271">
+        <v>1.36</v>
+      </c>
+      <c r="AM271">
+        <v>1.42</v>
+      </c>
+      <c r="AN271">
+        <v>2.21</v>
+      </c>
+      <c r="AO271">
+        <v>1.64</v>
+      </c>
+      <c r="AP271">
+        <v>2.07</v>
+      </c>
+      <c r="AQ271">
+        <v>1.73</v>
+      </c>
+      <c r="AR271">
+        <v>1.61</v>
+      </c>
+      <c r="AS271">
+        <v>1.5</v>
+      </c>
+      <c r="AT271">
+        <v>3.11</v>
+      </c>
+      <c r="AU271">
+        <v>4</v>
+      </c>
+      <c r="AV271">
+        <v>4</v>
+      </c>
+      <c r="AW271">
+        <v>9</v>
+      </c>
+      <c r="AX271">
+        <v>4</v>
+      </c>
+      <c r="AY271">
+        <v>13</v>
+      </c>
+      <c r="AZ271">
+        <v>8</v>
+      </c>
+      <c r="BA271">
+        <v>-1</v>
+      </c>
+      <c r="BB271">
+        <v>-1</v>
+      </c>
+      <c r="BC271">
+        <v>-1</v>
+      </c>
+      <c r="BD271">
+        <v>0</v>
+      </c>
+      <c r="BE271">
+        <v>0</v>
+      </c>
+      <c r="BF271">
+        <v>0</v>
+      </c>
+      <c r="BG271">
+        <v>0</v>
+      </c>
+      <c r="BH271">
+        <v>0</v>
+      </c>
+      <c r="BI271">
+        <v>0</v>
+      </c>
+      <c r="BJ271">
+        <v>0</v>
+      </c>
+      <c r="BK271">
+        <v>0</v>
+      </c>
+      <c r="BL271">
+        <v>0</v>
+      </c>
+      <c r="BM271">
+        <v>0</v>
+      </c>
+      <c r="BN271">
+        <v>0</v>
+      </c>
+      <c r="BO271">
+        <v>0</v>
+      </c>
+      <c r="BP271">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal LigaPro_20242025.xlsx
@@ -56851,13 +56851,13 @@
         <v>14</v>
       </c>
       <c r="BA269">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB269">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BC269">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="BD269">
         <v>0</v>
@@ -57057,13 +57057,13 @@
         <v>8</v>
       </c>
       <c r="BA270">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BB270">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BC270">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BD270">
         <v>0</v>
@@ -57263,13 +57263,13 @@
         <v>8</v>
       </c>
       <c r="BA271">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BB271">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC271">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BD271">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="370">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -763,6 +763,9 @@
     <t>['66', '90+4']</t>
   </si>
   <si>
+    <t>['37', '73']</t>
+  </si>
+  <si>
     <t>['24', '27']</t>
   </si>
   <si>
@@ -1118,6 +1121,9 @@
   </si>
   <si>
     <t>['77', '90+3']</t>
+  </si>
+  <si>
+    <t>['40', '54', '77']</t>
   </si>
 </sst>
 </file>
@@ -1479,7 +1485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP271"/>
+  <dimension ref="A1:BP273"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1738,7 +1744,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q2">
         <v>2.16</v>
@@ -1944,7 +1950,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q3">
         <v>3.58</v>
@@ -2150,7 +2156,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q4">
         <v>3.15</v>
@@ -2562,7 +2568,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2768,7 +2774,7 @@
         <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -3180,7 +3186,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -3592,7 +3598,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3876,7 +3882,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ12">
         <v>0.4</v>
@@ -4004,7 +4010,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q13">
         <v>2.38</v>
@@ -4085,7 +4091,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ13">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4210,7 +4216,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q14">
         <v>3.73</v>
@@ -4288,7 +4294,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ14">
         <v>1.6</v>
@@ -4416,7 +4422,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q15">
         <v>3.51</v>
@@ -4497,7 +4503,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4622,7 +4628,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q16">
         <v>2.38</v>
@@ -5240,7 +5246,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q19">
         <v>2.79</v>
@@ -5446,7 +5452,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -6064,7 +6070,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -6476,7 +6482,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q25">
         <v>2.91</v>
@@ -6888,7 +6894,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q27">
         <v>3.25</v>
@@ -7300,7 +7306,7 @@
         <v>89</v>
       </c>
       <c r="P29" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -7381,7 +7387,7 @@
         <v>2</v>
       </c>
       <c r="AQ29">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR29">
         <v>1.08</v>
@@ -7506,7 +7512,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -7584,7 +7590,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ30">
         <v>0.73</v>
@@ -7918,7 +7924,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -8330,7 +8336,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8536,7 +8542,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q35">
         <v>2.57</v>
@@ -8614,7 +8620,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ35">
         <v>1.33</v>
@@ -8742,7 +8748,7 @@
         <v>89</v>
       </c>
       <c r="P36" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q36">
         <v>2.5</v>
@@ -9029,7 +9035,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ37">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR37">
         <v>0.82</v>
@@ -9154,7 +9160,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9360,7 +9366,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9647,7 +9653,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ40">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR40">
         <v>1.4</v>
@@ -9772,7 +9778,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q41">
         <v>2.1</v>
@@ -9978,7 +9984,7 @@
         <v>89</v>
       </c>
       <c r="P42" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q42">
         <v>3.1</v>
@@ -10390,7 +10396,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -10596,7 +10602,7 @@
         <v>89</v>
       </c>
       <c r="P45" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q45">
         <v>2.85</v>
@@ -11008,7 +11014,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q47">
         <v>2.6</v>
@@ -11214,7 +11220,7 @@
         <v>89</v>
       </c>
       <c r="P48" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11292,7 +11298,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ48">
         <v>1.33</v>
@@ -11420,7 +11426,7 @@
         <v>89</v>
       </c>
       <c r="P49" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -11707,7 +11713,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ50">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR50">
         <v>1.2</v>
@@ -11832,7 +11838,7 @@
         <v>89</v>
       </c>
       <c r="P51" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -12116,7 +12122,7 @@
         <v>2</v>
       </c>
       <c r="AP52">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ52">
         <v>1.27</v>
@@ -12450,7 +12456,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12862,7 +12868,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q56">
         <v>3.08</v>
@@ -13068,7 +13074,7 @@
         <v>109</v>
       </c>
       <c r="P57" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13149,7 +13155,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ57">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR57">
         <v>1.67</v>
@@ -13480,7 +13486,7 @@
         <v>89</v>
       </c>
       <c r="P59" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13558,7 +13564,7 @@
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ59">
         <v>1</v>
@@ -14179,7 +14185,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ62">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR62">
         <v>1.41</v>
@@ -14716,7 +14722,7 @@
         <v>129</v>
       </c>
       <c r="P65" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -15128,7 +15134,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q67">
         <v>3.12</v>
@@ -15334,7 +15340,7 @@
         <v>89</v>
       </c>
       <c r="P68" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q68">
         <v>2.96</v>
@@ -15618,7 +15624,7 @@
         <v>1</v>
       </c>
       <c r="AP69">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ69">
         <v>1.6</v>
@@ -16236,7 +16242,7 @@
         <v>1.75</v>
       </c>
       <c r="AP72">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ72">
         <v>1.73</v>
@@ -16364,7 +16370,7 @@
         <v>89</v>
       </c>
       <c r="P73" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q73">
         <v>2.92</v>
@@ -16445,7 +16451,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ73">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR73">
         <v>1.18</v>
@@ -16570,7 +16576,7 @@
         <v>89</v>
       </c>
       <c r="P74" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16648,7 +16654,7 @@
         <v>1</v>
       </c>
       <c r="AP74">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ74">
         <v>1.67</v>
@@ -16776,7 +16782,7 @@
         <v>97</v>
       </c>
       <c r="P75" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q75">
         <v>3.04</v>
@@ -16982,7 +16988,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q76">
         <v>2.8</v>
@@ -17394,7 +17400,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17887,7 +17893,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ80">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR80">
         <v>1.09</v>
@@ -18424,7 +18430,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q83">
         <v>2.36</v>
@@ -19042,7 +19048,7 @@
         <v>144</v>
       </c>
       <c r="P86" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q86">
         <v>2.38</v>
@@ -19454,7 +19460,7 @@
         <v>127</v>
       </c>
       <c r="P88" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q88">
         <v>2.85</v>
@@ -19866,7 +19872,7 @@
         <v>89</v>
       </c>
       <c r="P90" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q90">
         <v>3.09</v>
@@ -20072,7 +20078,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q91">
         <v>3.05</v>
@@ -20278,7 +20284,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q92">
         <v>3.5</v>
@@ -20356,7 +20362,7 @@
         <v>0.6</v>
       </c>
       <c r="AP92">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ92">
         <v>0.87</v>
@@ -20484,7 +20490,7 @@
         <v>89</v>
       </c>
       <c r="P93" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q93">
         <v>3.64</v>
@@ -20565,7 +20571,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ93">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR93">
         <v>1.22</v>
@@ -20690,7 +20696,7 @@
         <v>108</v>
       </c>
       <c r="P94" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q94">
         <v>3.35</v>
@@ -20896,7 +20902,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q95">
         <v>0</v>
@@ -20974,7 +20980,7 @@
         <v>0.4</v>
       </c>
       <c r="AP95">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ95">
         <v>0.6</v>
@@ -21308,7 +21314,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21514,7 +21520,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q98">
         <v>3.3</v>
@@ -21595,7 +21601,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ98">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR98">
         <v>1.44</v>
@@ -21720,7 +21726,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q99">
         <v>2.99</v>
@@ -22544,7 +22550,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q103">
         <v>2.6</v>
@@ -22956,7 +22962,7 @@
         <v>125</v>
       </c>
       <c r="P105" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q105">
         <v>3.3</v>
@@ -23162,7 +23168,7 @@
         <v>155</v>
       </c>
       <c r="P106" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q106">
         <v>3.38</v>
@@ -23368,7 +23374,7 @@
         <v>156</v>
       </c>
       <c r="P107" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q107">
         <v>2.62</v>
@@ -23780,7 +23786,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q109">
         <v>2.29</v>
@@ -24479,7 +24485,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ112">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR112">
         <v>1.41</v>
@@ -24604,7 +24610,7 @@
         <v>89</v>
       </c>
       <c r="P113" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q113">
         <v>2.83</v>
@@ -24685,7 +24691,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ113">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR113">
         <v>1.52</v>
@@ -24810,7 +24816,7 @@
         <v>160</v>
       </c>
       <c r="P114" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -25094,7 +25100,7 @@
         <v>1</v>
       </c>
       <c r="AP115">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ115">
         <v>0.87</v>
@@ -25222,7 +25228,7 @@
         <v>161</v>
       </c>
       <c r="P116" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q116">
         <v>3.86</v>
@@ -25300,7 +25306,7 @@
         <v>1</v>
       </c>
       <c r="AP116">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ116">
         <v>1.4</v>
@@ -25428,7 +25434,7 @@
         <v>162</v>
       </c>
       <c r="P117" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q117">
         <v>4.05</v>
@@ -26458,7 +26464,7 @@
         <v>165</v>
       </c>
       <c r="P122" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q122">
         <v>3.4</v>
@@ -26870,7 +26876,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q124">
         <v>2.84</v>
@@ -27282,7 +27288,7 @@
         <v>89</v>
       </c>
       <c r="P126" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q126">
         <v>2.41</v>
@@ -27694,7 +27700,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q128">
         <v>2.1</v>
@@ -28106,7 +28112,7 @@
         <v>171</v>
       </c>
       <c r="P130" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q130">
         <v>2.49</v>
@@ -28393,7 +28399,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ131">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR131">
         <v>1.36</v>
@@ -28518,7 +28524,7 @@
         <v>173</v>
       </c>
       <c r="P132" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q132">
         <v>2.94</v>
@@ -28724,7 +28730,7 @@
         <v>161</v>
       </c>
       <c r="P133" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -28802,7 +28808,7 @@
         <v>1.29</v>
       </c>
       <c r="AP133">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ133">
         <v>1.4</v>
@@ -28930,7 +28936,7 @@
         <v>174</v>
       </c>
       <c r="P134" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q134">
         <v>4.33</v>
@@ -29008,10 +29014,10 @@
         <v>1.43</v>
       </c>
       <c r="AP134">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ134">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR134">
         <v>1.14</v>
@@ -29548,7 +29554,7 @@
         <v>176</v>
       </c>
       <c r="P137" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q137">
         <v>3.12</v>
@@ -29960,7 +29966,7 @@
         <v>177</v>
       </c>
       <c r="P139" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q139">
         <v>1.99</v>
@@ -30372,7 +30378,7 @@
         <v>89</v>
       </c>
       <c r="P141" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q141">
         <v>2.6</v>
@@ -30784,7 +30790,7 @@
         <v>128</v>
       </c>
       <c r="P143" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q143">
         <v>2.65</v>
@@ -30865,7 +30871,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ143">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR143">
         <v>1.64</v>
@@ -30990,7 +30996,7 @@
         <v>89</v>
       </c>
       <c r="P144" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q144">
         <v>4.33</v>
@@ -31068,7 +31074,7 @@
         <v>1.29</v>
       </c>
       <c r="AP144">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ144">
         <v>1</v>
@@ -31402,7 +31408,7 @@
         <v>181</v>
       </c>
       <c r="P146" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q146">
         <v>2.88</v>
@@ -31608,7 +31614,7 @@
         <v>182</v>
       </c>
       <c r="P147" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31686,10 +31692,10 @@
         <v>1.5</v>
       </c>
       <c r="AP147">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ147">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR147">
         <v>1.68</v>
@@ -31814,7 +31820,7 @@
         <v>183</v>
       </c>
       <c r="P148" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q148">
         <v>2.36</v>
@@ -32432,7 +32438,7 @@
         <v>129</v>
       </c>
       <c r="P151" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q151">
         <v>2.78</v>
@@ -32638,7 +32644,7 @@
         <v>185</v>
       </c>
       <c r="P152" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q152">
         <v>2.81</v>
@@ -33050,7 +33056,7 @@
         <v>186</v>
       </c>
       <c r="P154" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q154">
         <v>3.38</v>
@@ -33543,7 +33549,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ156">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR156">
         <v>1.49</v>
@@ -33874,7 +33880,7 @@
         <v>190</v>
       </c>
       <c r="P158" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q158">
         <v>3.5</v>
@@ -34367,7 +34373,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ160">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR160">
         <v>1.7</v>
@@ -34492,7 +34498,7 @@
         <v>193</v>
       </c>
       <c r="P161" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -34570,7 +34576,7 @@
         <v>0.75</v>
       </c>
       <c r="AP161">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ161">
         <v>0.4</v>
@@ -34904,7 +34910,7 @@
         <v>194</v>
       </c>
       <c r="P163" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q163">
         <v>4.2</v>
@@ -34982,7 +34988,7 @@
         <v>2.38</v>
       </c>
       <c r="AP163">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ163">
         <v>1.33</v>
@@ -35110,7 +35116,7 @@
         <v>195</v>
       </c>
       <c r="P164" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q164">
         <v>2.55</v>
@@ -35316,7 +35322,7 @@
         <v>89</v>
       </c>
       <c r="P165" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q165">
         <v>3</v>
@@ -35728,7 +35734,7 @@
         <v>196</v>
       </c>
       <c r="P167" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q167">
         <v>2.45</v>
@@ -36552,7 +36558,7 @@
         <v>198</v>
       </c>
       <c r="P171" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q171">
         <v>3.84</v>
@@ -37042,7 +37048,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP173">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ173">
         <v>0.73</v>
@@ -37170,7 +37176,7 @@
         <v>200</v>
       </c>
       <c r="P174" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q174">
         <v>3.32</v>
@@ -37788,7 +37794,7 @@
         <v>202</v>
       </c>
       <c r="P177" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q177">
         <v>3.2</v>
@@ -37869,7 +37875,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ177">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR177">
         <v>1.06</v>
@@ -38278,7 +38284,7 @@
         <v>1.33</v>
       </c>
       <c r="AP179">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ179">
         <v>1.6</v>
@@ -38406,7 +38412,7 @@
         <v>179</v>
       </c>
       <c r="P180" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q180">
         <v>2.97</v>
@@ -38693,7 +38699,7 @@
         <v>2</v>
       </c>
       <c r="AQ181">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR181">
         <v>1.63</v>
@@ -38818,7 +38824,7 @@
         <v>89</v>
       </c>
       <c r="P182" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q182">
         <v>2.65</v>
@@ -39024,7 +39030,7 @@
         <v>205</v>
       </c>
       <c r="P183" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q183">
         <v>2.27</v>
@@ -39642,7 +39648,7 @@
         <v>141</v>
       </c>
       <c r="P186" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q186">
         <v>3.14</v>
@@ -40054,7 +40060,7 @@
         <v>207</v>
       </c>
       <c r="P188" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q188">
         <v>3.25</v>
@@ -40466,7 +40472,7 @@
         <v>208</v>
       </c>
       <c r="P190" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q190">
         <v>3.6</v>
@@ -40878,7 +40884,7 @@
         <v>123</v>
       </c>
       <c r="P192" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q192">
         <v>2.95</v>
@@ -40956,7 +40962,7 @@
         <v>1</v>
       </c>
       <c r="AP192">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ192">
         <v>1.27</v>
@@ -41290,7 +41296,7 @@
         <v>210</v>
       </c>
       <c r="P194" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q194">
         <v>4.2</v>
@@ -41368,7 +41374,7 @@
         <v>1.3</v>
       </c>
       <c r="AP194">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ194">
         <v>1.33</v>
@@ -41702,7 +41708,7 @@
         <v>211</v>
       </c>
       <c r="P196" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q196">
         <v>3.2</v>
@@ -41908,7 +41914,7 @@
         <v>212</v>
       </c>
       <c r="P197" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q197">
         <v>3</v>
@@ -42320,7 +42326,7 @@
         <v>214</v>
       </c>
       <c r="P199" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q199">
         <v>2.75</v>
@@ -42401,7 +42407,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ199">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR199">
         <v>1.7</v>
@@ -42938,7 +42944,7 @@
         <v>123</v>
       </c>
       <c r="P202" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q202">
         <v>4.3</v>
@@ -43350,7 +43356,7 @@
         <v>117</v>
       </c>
       <c r="P204" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q204">
         <v>3.1</v>
@@ -43431,7 +43437,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ204">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR204">
         <v>1.68</v>
@@ -43762,7 +43768,7 @@
         <v>218</v>
       </c>
       <c r="P206" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q206">
         <v>3.65</v>
@@ -43968,7 +43974,7 @@
         <v>156</v>
       </c>
       <c r="P207" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q207">
         <v>3.45</v>
@@ -44174,7 +44180,7 @@
         <v>197</v>
       </c>
       <c r="P208" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q208">
         <v>3.5</v>
@@ -44380,7 +44386,7 @@
         <v>129</v>
       </c>
       <c r="P209" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q209">
         <v>2.4</v>
@@ -44998,7 +45004,7 @@
         <v>220</v>
       </c>
       <c r="P212" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q212">
         <v>2.43</v>
@@ -45204,7 +45210,7 @@
         <v>221</v>
       </c>
       <c r="P213" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q213">
         <v>3.15</v>
@@ -46106,7 +46112,7 @@
         <v>0.82</v>
       </c>
       <c r="AP217">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ217">
         <v>1</v>
@@ -46234,7 +46240,7 @@
         <v>89</v>
       </c>
       <c r="P218" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q218">
         <v>3.6</v>
@@ -46440,7 +46446,7 @@
         <v>224</v>
       </c>
       <c r="P219" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q219">
         <v>3.78</v>
@@ -46646,7 +46652,7 @@
         <v>225</v>
       </c>
       <c r="P220" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q220">
         <v>3.26</v>
@@ -46727,7 +46733,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ220">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR220">
         <v>1.51</v>
@@ -47345,7 +47351,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ223">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR223">
         <v>1.66</v>
@@ -47470,7 +47476,7 @@
         <v>89</v>
       </c>
       <c r="P224" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q224">
         <v>5.44</v>
@@ -47548,7 +47554,7 @@
         <v>1.42</v>
       </c>
       <c r="AP224">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ224">
         <v>1.73</v>
@@ -48088,7 +48094,7 @@
         <v>156</v>
       </c>
       <c r="P227" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q227">
         <v>2.9</v>
@@ -48294,7 +48300,7 @@
         <v>228</v>
       </c>
       <c r="P228" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q228">
         <v>2.6</v>
@@ -49942,7 +49948,7 @@
         <v>128</v>
       </c>
       <c r="P236" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q236">
         <v>4.5</v>
@@ -50020,7 +50026,7 @@
         <v>1.54</v>
       </c>
       <c r="AP236">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ236">
         <v>1.73</v>
@@ -50354,7 +50360,7 @@
         <v>233</v>
       </c>
       <c r="P238" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q238">
         <v>2.1</v>
@@ -50560,7 +50566,7 @@
         <v>89</v>
       </c>
       <c r="P239" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q239">
         <v>0</v>
@@ -50641,7 +50647,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ239">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR239">
         <v>1.37</v>
@@ -50766,7 +50772,7 @@
         <v>234</v>
       </c>
       <c r="P240" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q240">
         <v>3</v>
@@ -51050,7 +51056,7 @@
         <v>1.69</v>
       </c>
       <c r="AP241">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ241">
         <v>1.67</v>
@@ -51178,7 +51184,7 @@
         <v>89</v>
       </c>
       <c r="P242" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q242">
         <v>3.6</v>
@@ -51465,7 +51471,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ243">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR243">
         <v>1.58</v>
@@ -52414,7 +52420,7 @@
         <v>109</v>
       </c>
       <c r="P248" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q248">
         <v>3.6</v>
@@ -52620,7 +52626,7 @@
         <v>199</v>
       </c>
       <c r="P249" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q249">
         <v>2.35</v>
@@ -53238,7 +53244,7 @@
         <v>239</v>
       </c>
       <c r="P252" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q252">
         <v>2.5</v>
@@ -53650,7 +53656,7 @@
         <v>240</v>
       </c>
       <c r="P254" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q254">
         <v>3.5</v>
@@ -53731,7 +53737,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ254">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR254">
         <v>1.75</v>
@@ -53934,7 +53940,7 @@
         <v>1.64</v>
       </c>
       <c r="AP255">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ255">
         <v>1.73</v>
@@ -54143,7 +54149,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ256">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR256">
         <v>1.36</v>
@@ -54474,7 +54480,7 @@
         <v>242</v>
       </c>
       <c r="P258" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q258">
         <v>3.26</v>
@@ -54680,7 +54686,7 @@
         <v>95</v>
       </c>
       <c r="P259" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q259">
         <v>2.97</v>
@@ -54886,7 +54892,7 @@
         <v>243</v>
       </c>
       <c r="P260" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q260">
         <v>2.26</v>
@@ -55170,7 +55176,7 @@
         <v>0.57</v>
       </c>
       <c r="AP261">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ261">
         <v>0.6</v>
@@ -55298,7 +55304,7 @@
         <v>244</v>
       </c>
       <c r="P262" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q262">
         <v>3.1</v>
@@ -55710,7 +55716,7 @@
         <v>132</v>
       </c>
       <c r="P264" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q264">
         <v>2.75</v>
@@ -56122,7 +56128,7 @@
         <v>95</v>
       </c>
       <c r="P266" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q266">
         <v>3.2</v>
@@ -56328,7 +56334,7 @@
         <v>95</v>
       </c>
       <c r="P267" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q267">
         <v>3</v>
@@ -56534,7 +56540,7 @@
         <v>128</v>
       </c>
       <c r="P268" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q268">
         <v>3.75</v>
@@ -57152,7 +57158,7 @@
         <v>89</v>
       </c>
       <c r="P271" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q271">
         <v>3.4</v>
@@ -57308,6 +57314,418 @@
         <v>0</v>
       </c>
       <c r="BP271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:68">
+      <c r="A272" s="1">
+        <v>271</v>
+      </c>
+      <c r="B272">
+        <v>7502879</v>
+      </c>
+      <c r="C272" t="s">
+        <v>68</v>
+      </c>
+      <c r="D272" t="s">
+        <v>69</v>
+      </c>
+      <c r="E272" s="2">
+        <v>45772.47916666666</v>
+      </c>
+      <c r="F272">
+        <v>31</v>
+      </c>
+      <c r="G272" t="s">
+        <v>80</v>
+      </c>
+      <c r="H272" t="s">
+        <v>73</v>
+      </c>
+      <c r="I272">
+        <v>1</v>
+      </c>
+      <c r="J272">
+        <v>0</v>
+      </c>
+      <c r="K272">
+        <v>1</v>
+      </c>
+      <c r="L272">
+        <v>2</v>
+      </c>
+      <c r="M272">
+        <v>0</v>
+      </c>
+      <c r="N272">
+        <v>2</v>
+      </c>
+      <c r="O272" t="s">
+        <v>249</v>
+      </c>
+      <c r="P272" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q272">
+        <v>3.6</v>
+      </c>
+      <c r="R272">
+        <v>2.1</v>
+      </c>
+      <c r="S272">
+        <v>3</v>
+      </c>
+      <c r="T272">
+        <v>1.4</v>
+      </c>
+      <c r="U272">
+        <v>2.75</v>
+      </c>
+      <c r="V272">
+        <v>3</v>
+      </c>
+      <c r="W272">
+        <v>1.36</v>
+      </c>
+      <c r="X272">
+        <v>8</v>
+      </c>
+      <c r="Y272">
+        <v>1.08</v>
+      </c>
+      <c r="Z272">
+        <v>2.9</v>
+      </c>
+      <c r="AA272">
+        <v>3.3</v>
+      </c>
+      <c r="AB272">
+        <v>2.25</v>
+      </c>
+      <c r="AC272">
+        <v>0</v>
+      </c>
+      <c r="AD272">
+        <v>0</v>
+      </c>
+      <c r="AE272">
+        <v>0</v>
+      </c>
+      <c r="AF272">
+        <v>0</v>
+      </c>
+      <c r="AG272">
+        <v>1.91</v>
+      </c>
+      <c r="AH272">
+        <v>1.75</v>
+      </c>
+      <c r="AI272">
+        <v>1.8</v>
+      </c>
+      <c r="AJ272">
+        <v>1.91</v>
+      </c>
+      <c r="AK272">
+        <v>0</v>
+      </c>
+      <c r="AL272">
+        <v>0</v>
+      </c>
+      <c r="AM272">
+        <v>0</v>
+      </c>
+      <c r="AN272">
+        <v>0.67</v>
+      </c>
+      <c r="AO272">
+        <v>1</v>
+      </c>
+      <c r="AP272">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AQ272">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR272">
+        <v>1.34</v>
+      </c>
+      <c r="AS272">
+        <v>1.27</v>
+      </c>
+      <c r="AT272">
+        <v>2.61</v>
+      </c>
+      <c r="AU272">
+        <v>6</v>
+      </c>
+      <c r="AV272">
+        <v>0</v>
+      </c>
+      <c r="AW272">
+        <v>8</v>
+      </c>
+      <c r="AX272">
+        <v>8</v>
+      </c>
+      <c r="AY272">
+        <v>14</v>
+      </c>
+      <c r="AZ272">
+        <v>8</v>
+      </c>
+      <c r="BA272">
+        <v>-1</v>
+      </c>
+      <c r="BB272">
+        <v>-1</v>
+      </c>
+      <c r="BC272">
+        <v>-1</v>
+      </c>
+      <c r="BD272">
+        <v>0</v>
+      </c>
+      <c r="BE272">
+        <v>0</v>
+      </c>
+      <c r="BF272">
+        <v>0</v>
+      </c>
+      <c r="BG272">
+        <v>0</v>
+      </c>
+      <c r="BH272">
+        <v>0</v>
+      </c>
+      <c r="BI272">
+        <v>0</v>
+      </c>
+      <c r="BJ272">
+        <v>0</v>
+      </c>
+      <c r="BK272">
+        <v>0</v>
+      </c>
+      <c r="BL272">
+        <v>0</v>
+      </c>
+      <c r="BM272">
+        <v>0</v>
+      </c>
+      <c r="BN272">
+        <v>0</v>
+      </c>
+      <c r="BO272">
+        <v>0</v>
+      </c>
+      <c r="BP272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:68">
+      <c r="A273" s="1">
+        <v>272</v>
+      </c>
+      <c r="B273">
+        <v>7502878</v>
+      </c>
+      <c r="C273" t="s">
+        <v>68</v>
+      </c>
+      <c r="D273" t="s">
+        <v>69</v>
+      </c>
+      <c r="E273" s="2">
+        <v>45772.58333333334</v>
+      </c>
+      <c r="F273">
+        <v>31</v>
+      </c>
+      <c r="G273" t="s">
+        <v>82</v>
+      </c>
+      <c r="H273" t="s">
+        <v>77</v>
+      </c>
+      <c r="I273">
+        <v>1</v>
+      </c>
+      <c r="J273">
+        <v>1</v>
+      </c>
+      <c r="K273">
+        <v>2</v>
+      </c>
+      <c r="L273">
+        <v>2</v>
+      </c>
+      <c r="M273">
+        <v>3</v>
+      </c>
+      <c r="N273">
+        <v>5</v>
+      </c>
+      <c r="O273" t="s">
+        <v>204</v>
+      </c>
+      <c r="P273" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q273">
+        <v>3.2</v>
+      </c>
+      <c r="R273">
+        <v>2.1</v>
+      </c>
+      <c r="S273">
+        <v>3.5</v>
+      </c>
+      <c r="T273">
+        <v>1.44</v>
+      </c>
+      <c r="U273">
+        <v>2.63</v>
+      </c>
+      <c r="V273">
+        <v>3.25</v>
+      </c>
+      <c r="W273">
+        <v>1.33</v>
+      </c>
+      <c r="X273">
+        <v>9</v>
+      </c>
+      <c r="Y273">
+        <v>1.07</v>
+      </c>
+      <c r="Z273">
+        <v>2.8</v>
+      </c>
+      <c r="AA273">
+        <v>3.2</v>
+      </c>
+      <c r="AB273">
+        <v>2.4</v>
+      </c>
+      <c r="AC273">
+        <v>0</v>
+      </c>
+      <c r="AD273">
+        <v>0</v>
+      </c>
+      <c r="AE273">
+        <v>0</v>
+      </c>
+      <c r="AF273">
+        <v>0</v>
+      </c>
+      <c r="AG273">
+        <v>1.95</v>
+      </c>
+      <c r="AH273">
+        <v>1.7</v>
+      </c>
+      <c r="AI273">
+        <v>1.83</v>
+      </c>
+      <c r="AJ273">
+        <v>1.83</v>
+      </c>
+      <c r="AK273">
+        <v>0</v>
+      </c>
+      <c r="AL273">
+        <v>0</v>
+      </c>
+      <c r="AM273">
+        <v>0</v>
+      </c>
+      <c r="AN273">
+        <v>1</v>
+      </c>
+      <c r="AO273">
+        <v>1.53</v>
+      </c>
+      <c r="AP273">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AQ273">
+        <v>1.63</v>
+      </c>
+      <c r="AR273">
+        <v>1.82</v>
+      </c>
+      <c r="AS273">
+        <v>1.44</v>
+      </c>
+      <c r="AT273">
+        <v>3.26</v>
+      </c>
+      <c r="AU273">
+        <v>8</v>
+      </c>
+      <c r="AV273">
+        <v>7</v>
+      </c>
+      <c r="AW273">
+        <v>6</v>
+      </c>
+      <c r="AX273">
+        <v>6</v>
+      </c>
+      <c r="AY273">
+        <v>14</v>
+      </c>
+      <c r="AZ273">
+        <v>13</v>
+      </c>
+      <c r="BA273">
+        <v>-1</v>
+      </c>
+      <c r="BB273">
+        <v>-1</v>
+      </c>
+      <c r="BC273">
+        <v>-1</v>
+      </c>
+      <c r="BD273">
+        <v>0</v>
+      </c>
+      <c r="BE273">
+        <v>0</v>
+      </c>
+      <c r="BF273">
+        <v>0</v>
+      </c>
+      <c r="BG273">
+        <v>0</v>
+      </c>
+      <c r="BH273">
+        <v>0</v>
+      </c>
+      <c r="BI273">
+        <v>0</v>
+      </c>
+      <c r="BJ273">
+        <v>0</v>
+      </c>
+      <c r="BK273">
+        <v>0</v>
+      </c>
+      <c r="BL273">
+        <v>0</v>
+      </c>
+      <c r="BM273">
+        <v>0</v>
+      </c>
+      <c r="BN273">
+        <v>0</v>
+      </c>
+      <c r="BO273">
+        <v>0</v>
+      </c>
+      <c r="BP273">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="373">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -766,6 +766,12 @@
     <t>['37', '73']</t>
   </si>
   <si>
+    <t>['1', '10']</t>
+  </si>
+  <si>
+    <t>['50']</t>
+  </si>
+  <si>
     <t>['24', '27']</t>
   </si>
   <si>
@@ -1124,6 +1130,9 @@
   </si>
   <si>
     <t>['40', '54', '77']</t>
+  </si>
+  <si>
+    <t>['7', '74']</t>
   </si>
 </sst>
 </file>
@@ -1485,7 +1494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP273"/>
+  <dimension ref="A1:BP275"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1744,7 +1753,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q2">
         <v>2.16</v>
@@ -1950,7 +1959,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q3">
         <v>3.58</v>
@@ -2156,7 +2165,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q4">
         <v>3.15</v>
@@ -2568,7 +2577,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2774,7 +2783,7 @@
         <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2852,7 +2861,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ7">
         <v>1.27</v>
@@ -3186,7 +3195,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -3598,7 +3607,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -4010,7 +4019,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q13">
         <v>2.38</v>
@@ -4216,7 +4225,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q14">
         <v>3.73</v>
@@ -4297,7 +4306,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ14">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4422,7 +4431,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q15">
         <v>3.51</v>
@@ -4628,7 +4637,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q16">
         <v>2.38</v>
@@ -4706,7 +4715,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ16">
         <v>1.33</v>
@@ -5246,7 +5255,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q19">
         <v>2.79</v>
@@ -5452,7 +5461,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5942,7 +5951,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ22">
         <v>1</v>
@@ -6070,7 +6079,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -6482,7 +6491,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q25">
         <v>2.91</v>
@@ -6894,7 +6903,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q27">
         <v>3.25</v>
@@ -7306,7 +7315,7 @@
         <v>89</v>
       </c>
       <c r="P29" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -7512,7 +7521,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -7924,7 +7933,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -8002,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ32">
         <v>1.6</v>
@@ -8211,7 +8220,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ33">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR33">
         <v>1.04</v>
@@ -8336,7 +8345,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8542,7 +8551,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q35">
         <v>2.57</v>
@@ -8748,7 +8757,7 @@
         <v>89</v>
       </c>
       <c r="P36" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q36">
         <v>2.5</v>
@@ -9160,7 +9169,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9238,7 +9247,7 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ38">
         <v>0.87</v>
@@ -9366,7 +9375,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9778,7 +9787,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q41">
         <v>2.1</v>
@@ -9984,7 +9993,7 @@
         <v>89</v>
       </c>
       <c r="P42" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q42">
         <v>3.1</v>
@@ -10396,7 +10405,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -10602,7 +10611,7 @@
         <v>89</v>
       </c>
       <c r="P45" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q45">
         <v>2.85</v>
@@ -11014,7 +11023,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q47">
         <v>2.6</v>
@@ -11220,7 +11229,7 @@
         <v>89</v>
       </c>
       <c r="P48" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11426,7 +11435,7 @@
         <v>89</v>
       </c>
       <c r="P49" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -11838,7 +11847,7 @@
         <v>89</v>
       </c>
       <c r="P51" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -12456,7 +12465,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12537,7 +12546,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ54">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR54">
         <v>1.11</v>
@@ -12740,7 +12749,7 @@
         <v>2</v>
       </c>
       <c r="AP55">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ55">
         <v>0.4</v>
@@ -12868,7 +12877,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q56">
         <v>3.08</v>
@@ -12946,7 +12955,7 @@
         <v>1.67</v>
       </c>
       <c r="AP56">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ56">
         <v>1.73</v>
@@ -13074,7 +13083,7 @@
         <v>109</v>
       </c>
       <c r="P57" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13486,7 +13495,7 @@
         <v>89</v>
       </c>
       <c r="P59" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -14722,7 +14731,7 @@
         <v>129</v>
       </c>
       <c r="P65" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -15134,7 +15143,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q67">
         <v>3.12</v>
@@ -15340,7 +15349,7 @@
         <v>89</v>
       </c>
       <c r="P68" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q68">
         <v>2.96</v>
@@ -15421,7 +15430,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ68">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR68">
         <v>1.55</v>
@@ -16370,7 +16379,7 @@
         <v>89</v>
       </c>
       <c r="P73" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q73">
         <v>2.92</v>
@@ -16576,7 +16585,7 @@
         <v>89</v>
       </c>
       <c r="P74" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16782,7 +16791,7 @@
         <v>97</v>
       </c>
       <c r="P75" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q75">
         <v>3.04</v>
@@ -16988,7 +16997,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q76">
         <v>2.8</v>
@@ -17272,7 +17281,7 @@
         <v>1.5</v>
       </c>
       <c r="AP77">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ77">
         <v>1.4</v>
@@ -17400,7 +17409,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17481,7 +17490,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ78">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR78">
         <v>1.7</v>
@@ -18430,7 +18439,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q83">
         <v>2.36</v>
@@ -19048,7 +19057,7 @@
         <v>144</v>
       </c>
       <c r="P86" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q86">
         <v>2.38</v>
@@ -19460,7 +19469,7 @@
         <v>127</v>
       </c>
       <c r="P88" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q88">
         <v>2.85</v>
@@ -19872,7 +19881,7 @@
         <v>89</v>
       </c>
       <c r="P90" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q90">
         <v>3.09</v>
@@ -19950,7 +19959,7 @@
         <v>1.4</v>
       </c>
       <c r="AP90">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ90">
         <v>1.67</v>
@@ -20078,7 +20087,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q91">
         <v>3.05</v>
@@ -20284,7 +20293,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q92">
         <v>3.5</v>
@@ -20490,7 +20499,7 @@
         <v>89</v>
       </c>
       <c r="P93" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q93">
         <v>3.64</v>
@@ -20696,7 +20705,7 @@
         <v>108</v>
       </c>
       <c r="P94" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q94">
         <v>3.35</v>
@@ -20902,7 +20911,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q95">
         <v>0</v>
@@ -21189,7 +21198,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ96">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR96">
         <v>1.37</v>
@@ -21314,7 +21323,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21520,7 +21529,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q98">
         <v>3.3</v>
@@ -21598,7 +21607,7 @@
         <v>1.4</v>
       </c>
       <c r="AP98">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ98">
         <v>1.63</v>
@@ -21726,7 +21735,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q99">
         <v>2.99</v>
@@ -22013,7 +22022,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ100">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR100">
         <v>1.7</v>
@@ -22216,7 +22225,7 @@
         <v>0.25</v>
       </c>
       <c r="AP101">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ101">
         <v>1</v>
@@ -22550,7 +22559,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q103">
         <v>2.6</v>
@@ -22962,7 +22971,7 @@
         <v>125</v>
       </c>
       <c r="P105" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q105">
         <v>3.3</v>
@@ -23168,7 +23177,7 @@
         <v>155</v>
       </c>
       <c r="P106" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q106">
         <v>3.38</v>
@@ -23374,7 +23383,7 @@
         <v>156</v>
       </c>
       <c r="P107" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q107">
         <v>2.62</v>
@@ -23786,7 +23795,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q109">
         <v>2.29</v>
@@ -24482,7 +24491,7 @@
         <v>1.83</v>
       </c>
       <c r="AP112">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ112">
         <v>0.9399999999999999</v>
@@ -24610,7 +24619,7 @@
         <v>89</v>
       </c>
       <c r="P113" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q113">
         <v>2.83</v>
@@ -24816,7 +24825,7 @@
         <v>160</v>
       </c>
       <c r="P114" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -25228,7 +25237,7 @@
         <v>161</v>
       </c>
       <c r="P116" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q116">
         <v>3.86</v>
@@ -25434,7 +25443,7 @@
         <v>162</v>
       </c>
       <c r="P117" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q117">
         <v>4.05</v>
@@ -25515,7 +25524,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ117">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR117">
         <v>1.26</v>
@@ -25924,7 +25933,7 @@
         <v>2</v>
       </c>
       <c r="AP119">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ119">
         <v>1.73</v>
@@ -26464,7 +26473,7 @@
         <v>165</v>
       </c>
       <c r="P122" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q122">
         <v>3.4</v>
@@ -26876,7 +26885,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q124">
         <v>2.84</v>
@@ -27288,7 +27297,7 @@
         <v>89</v>
       </c>
       <c r="P126" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q126">
         <v>2.41</v>
@@ -27700,7 +27709,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q128">
         <v>2.1</v>
@@ -28112,7 +28121,7 @@
         <v>171</v>
       </c>
       <c r="P130" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q130">
         <v>2.49</v>
@@ -28190,7 +28199,7 @@
         <v>0.43</v>
       </c>
       <c r="AP130">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ130">
         <v>0.6</v>
@@ -28524,7 +28533,7 @@
         <v>173</v>
       </c>
       <c r="P132" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q132">
         <v>2.94</v>
@@ -28730,7 +28739,7 @@
         <v>161</v>
       </c>
       <c r="P133" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -28936,7 +28945,7 @@
         <v>174</v>
       </c>
       <c r="P134" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q134">
         <v>4.33</v>
@@ -29220,7 +29229,7 @@
         <v>2.17</v>
       </c>
       <c r="AP135">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ135">
         <v>1.33</v>
@@ -29554,7 +29563,7 @@
         <v>176</v>
       </c>
       <c r="P137" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q137">
         <v>3.12</v>
@@ -29966,7 +29975,7 @@
         <v>177</v>
       </c>
       <c r="P139" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q139">
         <v>1.99</v>
@@ -30378,7 +30387,7 @@
         <v>89</v>
       </c>
       <c r="P141" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q141">
         <v>2.6</v>
@@ -30790,7 +30799,7 @@
         <v>128</v>
       </c>
       <c r="P143" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q143">
         <v>2.65</v>
@@ -30996,7 +31005,7 @@
         <v>89</v>
       </c>
       <c r="P144" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q144">
         <v>4.33</v>
@@ -31280,7 +31289,7 @@
         <v>0.86</v>
       </c>
       <c r="AP145">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ145">
         <v>0.4</v>
@@ -31408,7 +31417,7 @@
         <v>181</v>
       </c>
       <c r="P146" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q146">
         <v>2.88</v>
@@ -31486,10 +31495,10 @@
         <v>1.63</v>
       </c>
       <c r="AP146">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ146">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR146">
         <v>1.64</v>
@@ -31614,7 +31623,7 @@
         <v>182</v>
       </c>
       <c r="P147" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31820,7 +31829,7 @@
         <v>183</v>
       </c>
       <c r="P148" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q148">
         <v>2.36</v>
@@ -32438,7 +32447,7 @@
         <v>129</v>
       </c>
       <c r="P151" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q151">
         <v>2.78</v>
@@ -32644,7 +32653,7 @@
         <v>185</v>
       </c>
       <c r="P152" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q152">
         <v>2.81</v>
@@ -33056,7 +33065,7 @@
         <v>186</v>
       </c>
       <c r="P154" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q154">
         <v>3.38</v>
@@ -33880,7 +33889,7 @@
         <v>190</v>
       </c>
       <c r="P158" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q158">
         <v>3.5</v>
@@ -34370,7 +34379,7 @@
         <v>1.78</v>
       </c>
       <c r="AP160">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ160">
         <v>1.63</v>
@@ -34498,7 +34507,7 @@
         <v>193</v>
       </c>
       <c r="P161" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -34785,7 +34794,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ162">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR162">
         <v>1.69</v>
@@ -34910,7 +34919,7 @@
         <v>194</v>
       </c>
       <c r="P163" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q163">
         <v>4.2</v>
@@ -35116,7 +35125,7 @@
         <v>195</v>
       </c>
       <c r="P164" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q164">
         <v>2.55</v>
@@ -35322,7 +35331,7 @@
         <v>89</v>
       </c>
       <c r="P165" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q165">
         <v>3</v>
@@ -35734,7 +35743,7 @@
         <v>196</v>
       </c>
       <c r="P167" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q167">
         <v>2.45</v>
@@ -36558,7 +36567,7 @@
         <v>198</v>
       </c>
       <c r="P171" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q171">
         <v>3.84</v>
@@ -36842,7 +36851,7 @@
         <v>1.5</v>
       </c>
       <c r="AP172">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ172">
         <v>1.33</v>
@@ -37176,7 +37185,7 @@
         <v>200</v>
       </c>
       <c r="P174" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q174">
         <v>3.32</v>
@@ -37666,7 +37675,7 @@
         <v>1.44</v>
       </c>
       <c r="AP176">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ176">
         <v>1.33</v>
@@ -37794,7 +37803,7 @@
         <v>202</v>
       </c>
       <c r="P177" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q177">
         <v>3.2</v>
@@ -38412,7 +38421,7 @@
         <v>179</v>
       </c>
       <c r="P180" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q180">
         <v>2.97</v>
@@ -38493,7 +38502,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ180">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR180">
         <v>1.51</v>
@@ -38824,7 +38833,7 @@
         <v>89</v>
       </c>
       <c r="P182" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q182">
         <v>2.65</v>
@@ -39030,7 +39039,7 @@
         <v>205</v>
       </c>
       <c r="P183" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q183">
         <v>2.27</v>
@@ -39648,7 +39657,7 @@
         <v>141</v>
       </c>
       <c r="P186" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q186">
         <v>3.14</v>
@@ -40060,7 +40069,7 @@
         <v>207</v>
       </c>
       <c r="P188" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q188">
         <v>3.25</v>
@@ -40472,7 +40481,7 @@
         <v>208</v>
       </c>
       <c r="P190" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q190">
         <v>3.6</v>
@@ -40550,7 +40559,7 @@
         <v>1.1</v>
       </c>
       <c r="AP190">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ190">
         <v>1.73</v>
@@ -40884,7 +40893,7 @@
         <v>123</v>
       </c>
       <c r="P192" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q192">
         <v>2.95</v>
@@ -41296,7 +41305,7 @@
         <v>210</v>
       </c>
       <c r="P194" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q194">
         <v>4.2</v>
@@ -41580,7 +41589,7 @@
         <v>0.6</v>
       </c>
       <c r="AP195">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ195">
         <v>0.73</v>
@@ -41708,7 +41717,7 @@
         <v>211</v>
       </c>
       <c r="P196" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q196">
         <v>3.2</v>
@@ -41914,7 +41923,7 @@
         <v>212</v>
       </c>
       <c r="P197" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q197">
         <v>3</v>
@@ -42201,7 +42210,7 @@
         <v>2</v>
       </c>
       <c r="AQ198">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR198">
         <v>1.61</v>
@@ -42326,7 +42335,7 @@
         <v>214</v>
       </c>
       <c r="P199" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q199">
         <v>2.75</v>
@@ -42944,7 +42953,7 @@
         <v>123</v>
       </c>
       <c r="P202" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q202">
         <v>4.3</v>
@@ -43356,7 +43365,7 @@
         <v>117</v>
       </c>
       <c r="P204" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q204">
         <v>3.1</v>
@@ -43768,7 +43777,7 @@
         <v>218</v>
       </c>
       <c r="P206" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q206">
         <v>3.65</v>
@@ -43846,7 +43855,7 @@
         <v>1.45</v>
       </c>
       <c r="AP206">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ206">
         <v>1.67</v>
@@ -43974,7 +43983,7 @@
         <v>156</v>
       </c>
       <c r="P207" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q207">
         <v>3.45</v>
@@ -44180,7 +44189,7 @@
         <v>197</v>
       </c>
       <c r="P208" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q208">
         <v>3.5</v>
@@ -44386,7 +44395,7 @@
         <v>129</v>
       </c>
       <c r="P209" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q209">
         <v>2.4</v>
@@ -45004,7 +45013,7 @@
         <v>220</v>
       </c>
       <c r="P212" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q212">
         <v>2.43</v>
@@ -45210,7 +45219,7 @@
         <v>221</v>
       </c>
       <c r="P213" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q213">
         <v>3.15</v>
@@ -45497,7 +45506,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ214">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR214">
         <v>1.15</v>
@@ -45906,7 +45915,7 @@
         <v>1.18</v>
       </c>
       <c r="AP216">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ216">
         <v>1.27</v>
@@ -46240,7 +46249,7 @@
         <v>89</v>
       </c>
       <c r="P218" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q218">
         <v>3.6</v>
@@ -46446,7 +46455,7 @@
         <v>224</v>
       </c>
       <c r="P219" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q219">
         <v>3.78</v>
@@ -46652,7 +46661,7 @@
         <v>225</v>
       </c>
       <c r="P220" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q220">
         <v>3.26</v>
@@ -46936,7 +46945,7 @@
         <v>1.36</v>
       </c>
       <c r="AP221">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ221">
         <v>1</v>
@@ -47476,7 +47485,7 @@
         <v>89</v>
       </c>
       <c r="P224" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q224">
         <v>5.44</v>
@@ -48094,7 +48103,7 @@
         <v>156</v>
       </c>
       <c r="P227" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q227">
         <v>2.9</v>
@@ -48300,7 +48309,7 @@
         <v>228</v>
       </c>
       <c r="P228" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q228">
         <v>2.6</v>
@@ -49820,7 +49829,7 @@
         <v>1.25</v>
       </c>
       <c r="AP235">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ235">
         <v>1</v>
@@ -49948,7 +49957,7 @@
         <v>128</v>
       </c>
       <c r="P236" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q236">
         <v>4.5</v>
@@ -50235,7 +50244,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ237">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR237">
         <v>1.34</v>
@@ -50360,7 +50369,7 @@
         <v>233</v>
       </c>
       <c r="P238" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q238">
         <v>2.1</v>
@@ -50438,7 +50447,7 @@
         <v>1</v>
       </c>
       <c r="AP238">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ238">
         <v>0.87</v>
@@ -50566,7 +50575,7 @@
         <v>89</v>
       </c>
       <c r="P239" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q239">
         <v>0</v>
@@ -50772,7 +50781,7 @@
         <v>234</v>
       </c>
       <c r="P240" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q240">
         <v>3</v>
@@ -50850,7 +50859,7 @@
         <v>0.38</v>
       </c>
       <c r="AP240">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ240">
         <v>0.6</v>
@@ -51184,7 +51193,7 @@
         <v>89</v>
       </c>
       <c r="P242" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q242">
         <v>3.6</v>
@@ -52420,7 +52429,7 @@
         <v>109</v>
       </c>
       <c r="P248" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q248">
         <v>3.6</v>
@@ -52626,7 +52635,7 @@
         <v>199</v>
       </c>
       <c r="P249" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q249">
         <v>2.35</v>
@@ -53244,7 +53253,7 @@
         <v>239</v>
       </c>
       <c r="P252" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q252">
         <v>2.5</v>
@@ -53656,7 +53665,7 @@
         <v>240</v>
       </c>
       <c r="P254" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q254">
         <v>3.5</v>
@@ -54480,7 +54489,7 @@
         <v>242</v>
       </c>
       <c r="P258" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q258">
         <v>3.26</v>
@@ -54558,7 +54567,7 @@
         <v>1</v>
       </c>
       <c r="AP258">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ258">
         <v>1</v>
@@ -54686,7 +54695,7 @@
         <v>95</v>
       </c>
       <c r="P259" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q259">
         <v>2.97</v>
@@ -54767,7 +54776,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ259">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR259">
         <v>1.57</v>
@@ -54892,7 +54901,7 @@
         <v>243</v>
       </c>
       <c r="P260" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q260">
         <v>2.26</v>
@@ -54970,7 +54979,7 @@
         <v>1.43</v>
       </c>
       <c r="AP260">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ260">
         <v>1.4</v>
@@ -55304,7 +55313,7 @@
         <v>244</v>
       </c>
       <c r="P262" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q262">
         <v>3.1</v>
@@ -55716,7 +55725,7 @@
         <v>132</v>
       </c>
       <c r="P264" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q264">
         <v>2.75</v>
@@ -56128,7 +56137,7 @@
         <v>95</v>
       </c>
       <c r="P266" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q266">
         <v>3.2</v>
@@ -56334,7 +56343,7 @@
         <v>95</v>
       </c>
       <c r="P267" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q267">
         <v>3</v>
@@ -56540,7 +56549,7 @@
         <v>128</v>
       </c>
       <c r="P268" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q268">
         <v>3.75</v>
@@ -57158,7 +57167,7 @@
         <v>89</v>
       </c>
       <c r="P271" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q271">
         <v>3.4</v>
@@ -57570,7 +57579,7 @@
         <v>204</v>
       </c>
       <c r="P273" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q273">
         <v>3.2</v>
@@ -57726,6 +57735,418 @@
         <v>0</v>
       </c>
       <c r="BP273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:68">
+      <c r="A274" s="1">
+        <v>273</v>
+      </c>
+      <c r="B274">
+        <v>7502882</v>
+      </c>
+      <c r="C274" t="s">
+        <v>68</v>
+      </c>
+      <c r="D274" t="s">
+        <v>69</v>
+      </c>
+      <c r="E274" s="2">
+        <v>45773.29166666666</v>
+      </c>
+      <c r="F274">
+        <v>31</v>
+      </c>
+      <c r="G274" t="s">
+        <v>75</v>
+      </c>
+      <c r="H274" t="s">
+        <v>70</v>
+      </c>
+      <c r="I274">
+        <v>2</v>
+      </c>
+      <c r="J274">
+        <v>1</v>
+      </c>
+      <c r="K274">
+        <v>3</v>
+      </c>
+      <c r="L274">
+        <v>2</v>
+      </c>
+      <c r="M274">
+        <v>2</v>
+      </c>
+      <c r="N274">
+        <v>4</v>
+      </c>
+      <c r="O274" t="s">
+        <v>250</v>
+      </c>
+      <c r="P274" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q274">
+        <v>3.1</v>
+      </c>
+      <c r="R274">
+        <v>2.1</v>
+      </c>
+      <c r="S274">
+        <v>3.6</v>
+      </c>
+      <c r="T274">
+        <v>1.44</v>
+      </c>
+      <c r="U274">
+        <v>2.63</v>
+      </c>
+      <c r="V274">
+        <v>3.25</v>
+      </c>
+      <c r="W274">
+        <v>1.33</v>
+      </c>
+      <c r="X274">
+        <v>9</v>
+      </c>
+      <c r="Y274">
+        <v>1.07</v>
+      </c>
+      <c r="Z274">
+        <v>2.4</v>
+      </c>
+      <c r="AA274">
+        <v>3.1</v>
+      </c>
+      <c r="AB274">
+        <v>2.85</v>
+      </c>
+      <c r="AC274">
+        <v>0</v>
+      </c>
+      <c r="AD274">
+        <v>0</v>
+      </c>
+      <c r="AE274">
+        <v>0</v>
+      </c>
+      <c r="AF274">
+        <v>0</v>
+      </c>
+      <c r="AG274">
+        <v>1.95</v>
+      </c>
+      <c r="AH274">
+        <v>1.7</v>
+      </c>
+      <c r="AI274">
+        <v>1.83</v>
+      </c>
+      <c r="AJ274">
+        <v>1.83</v>
+      </c>
+      <c r="AK274">
+        <v>0</v>
+      </c>
+      <c r="AL274">
+        <v>0</v>
+      </c>
+      <c r="AM274">
+        <v>0</v>
+      </c>
+      <c r="AN274">
+        <v>1.53</v>
+      </c>
+      <c r="AO274">
+        <v>1.6</v>
+      </c>
+      <c r="AP274">
+        <v>1.5</v>
+      </c>
+      <c r="AQ274">
+        <v>1.56</v>
+      </c>
+      <c r="AR274">
+        <v>1.52</v>
+      </c>
+      <c r="AS274">
+        <v>1.5</v>
+      </c>
+      <c r="AT274">
+        <v>3.02</v>
+      </c>
+      <c r="AU274">
+        <v>7</v>
+      </c>
+      <c r="AV274">
+        <v>6</v>
+      </c>
+      <c r="AW274">
+        <v>3</v>
+      </c>
+      <c r="AX274">
+        <v>7</v>
+      </c>
+      <c r="AY274">
+        <v>10</v>
+      </c>
+      <c r="AZ274">
+        <v>13</v>
+      </c>
+      <c r="BA274">
+        <v>-1</v>
+      </c>
+      <c r="BB274">
+        <v>-1</v>
+      </c>
+      <c r="BC274">
+        <v>-1</v>
+      </c>
+      <c r="BD274">
+        <v>0</v>
+      </c>
+      <c r="BE274">
+        <v>0</v>
+      </c>
+      <c r="BF274">
+        <v>0</v>
+      </c>
+      <c r="BG274">
+        <v>0</v>
+      </c>
+      <c r="BH274">
+        <v>0</v>
+      </c>
+      <c r="BI274">
+        <v>0</v>
+      </c>
+      <c r="BJ274">
+        <v>0</v>
+      </c>
+      <c r="BK274">
+        <v>0</v>
+      </c>
+      <c r="BL274">
+        <v>0</v>
+      </c>
+      <c r="BM274">
+        <v>0</v>
+      </c>
+      <c r="BN274">
+        <v>0</v>
+      </c>
+      <c r="BO274">
+        <v>0</v>
+      </c>
+      <c r="BP274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:68">
+      <c r="A275" s="1">
+        <v>274</v>
+      </c>
+      <c r="B275">
+        <v>7502880</v>
+      </c>
+      <c r="C275" t="s">
+        <v>68</v>
+      </c>
+      <c r="D275" t="s">
+        <v>69</v>
+      </c>
+      <c r="E275" s="2">
+        <v>45773.41666666666</v>
+      </c>
+      <c r="F275">
+        <v>31</v>
+      </c>
+      <c r="G275" t="s">
+        <v>84</v>
+      </c>
+      <c r="H275" t="s">
+        <v>78</v>
+      </c>
+      <c r="I275">
+        <v>0</v>
+      </c>
+      <c r="J275">
+        <v>1</v>
+      </c>
+      <c r="K275">
+        <v>1</v>
+      </c>
+      <c r="L275">
+        <v>1</v>
+      </c>
+      <c r="M275">
+        <v>1</v>
+      </c>
+      <c r="N275">
+        <v>2</v>
+      </c>
+      <c r="O275" t="s">
+        <v>251</v>
+      </c>
+      <c r="P275" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q275">
+        <v>2.25</v>
+      </c>
+      <c r="R275">
+        <v>2.25</v>
+      </c>
+      <c r="S275">
+        <v>5.5</v>
+      </c>
+      <c r="T275">
+        <v>1.4</v>
+      </c>
+      <c r="U275">
+        <v>2.75</v>
+      </c>
+      <c r="V275">
+        <v>2.75</v>
+      </c>
+      <c r="W275">
+        <v>1.4</v>
+      </c>
+      <c r="X275">
+        <v>8</v>
+      </c>
+      <c r="Y275">
+        <v>1.08</v>
+      </c>
+      <c r="Z275">
+        <v>1.63</v>
+      </c>
+      <c r="AA275">
+        <v>3.7</v>
+      </c>
+      <c r="AB275">
+        <v>4.9</v>
+      </c>
+      <c r="AC275">
+        <v>0</v>
+      </c>
+      <c r="AD275">
+        <v>0</v>
+      </c>
+      <c r="AE275">
+        <v>0</v>
+      </c>
+      <c r="AF275">
+        <v>0</v>
+      </c>
+      <c r="AG275">
+        <v>1.8</v>
+      </c>
+      <c r="AH275">
+        <v>1.83</v>
+      </c>
+      <c r="AI275">
+        <v>1.83</v>
+      </c>
+      <c r="AJ275">
+        <v>1.83</v>
+      </c>
+      <c r="AK275">
+        <v>0</v>
+      </c>
+      <c r="AL275">
+        <v>0</v>
+      </c>
+      <c r="AM275">
+        <v>0</v>
+      </c>
+      <c r="AN275">
+        <v>1.87</v>
+      </c>
+      <c r="AO275">
+        <v>1</v>
+      </c>
+      <c r="AP275">
+        <v>1.81</v>
+      </c>
+      <c r="AQ275">
+        <v>1</v>
+      </c>
+      <c r="AR275">
+        <v>1.89</v>
+      </c>
+      <c r="AS275">
+        <v>1.46</v>
+      </c>
+      <c r="AT275">
+        <v>3.35</v>
+      </c>
+      <c r="AU275">
+        <v>3</v>
+      </c>
+      <c r="AV275">
+        <v>3</v>
+      </c>
+      <c r="AW275">
+        <v>8</v>
+      </c>
+      <c r="AX275">
+        <v>5</v>
+      </c>
+      <c r="AY275">
+        <v>11</v>
+      </c>
+      <c r="AZ275">
+        <v>8</v>
+      </c>
+      <c r="BA275">
+        <v>7</v>
+      </c>
+      <c r="BB275">
+        <v>1</v>
+      </c>
+      <c r="BC275">
+        <v>8</v>
+      </c>
+      <c r="BD275">
+        <v>0</v>
+      </c>
+      <c r="BE275">
+        <v>0</v>
+      </c>
+      <c r="BF275">
+        <v>0</v>
+      </c>
+      <c r="BG275">
+        <v>0</v>
+      </c>
+      <c r="BH275">
+        <v>0</v>
+      </c>
+      <c r="BI275">
+        <v>0</v>
+      </c>
+      <c r="BJ275">
+        <v>0</v>
+      </c>
+      <c r="BK275">
+        <v>0</v>
+      </c>
+      <c r="BL275">
+        <v>0</v>
+      </c>
+      <c r="BM275">
+        <v>0</v>
+      </c>
+      <c r="BN275">
+        <v>0</v>
+      </c>
+      <c r="BO275">
+        <v>0</v>
+      </c>
+      <c r="BP275">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="373">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1494,7 +1494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP275"/>
+  <dimension ref="A1:BP276"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4509,7 +4509,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ15">
         <v>0.9399999999999999</v>
@@ -5336,7 +5336,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ19">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -6366,7 +6366,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ24">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AR24">
         <v>1.31</v>
@@ -8423,7 +8423,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ34">
         <v>1.33</v>
@@ -10280,7 +10280,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ43">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AR43">
         <v>1.55</v>
@@ -10895,7 +10895,7 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ46">
         <v>1</v>
@@ -13370,7 +13370,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ58">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AR58">
         <v>1.6</v>
@@ -13985,7 +13985,7 @@
         <v>2</v>
       </c>
       <c r="AP61">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ61">
         <v>1.73</v>
@@ -16869,7 +16869,7 @@
         <v>0.5</v>
       </c>
       <c r="AP75">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ75">
         <v>0.87</v>
@@ -17696,7 +17696,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ79">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AR79">
         <v>1.3</v>
@@ -20783,7 +20783,7 @@
         <v>2.2</v>
       </c>
       <c r="AP94">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ94">
         <v>1.73</v>
@@ -20992,7 +20992,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ95">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AR95">
         <v>1.56</v>
@@ -22019,7 +22019,7 @@
         <v>1.67</v>
       </c>
       <c r="AP100">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ100">
         <v>1.56</v>
@@ -24285,7 +24285,7 @@
         <v>2.6</v>
       </c>
       <c r="AP111">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ111">
         <v>1.33</v>
@@ -25730,7 +25730,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ118">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AR118">
         <v>1.48</v>
@@ -28202,7 +28202,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ130">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AR130">
         <v>1.55</v>
@@ -30671,7 +30671,7 @@
         <v>0.71</v>
       </c>
       <c r="AP142">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ142">
         <v>0.73</v>
@@ -31910,7 +31910,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ148">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AR148">
         <v>1.62</v>
@@ -33764,7 +33764,7 @@
         <v>2</v>
       </c>
       <c r="AQ157">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AR157">
         <v>1.59</v>
@@ -34173,7 +34173,7 @@
         <v>1.38</v>
       </c>
       <c r="AP159">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ159">
         <v>1.6</v>
@@ -37263,7 +37263,7 @@
         <v>1.33</v>
       </c>
       <c r="AP174">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ174">
         <v>1</v>
@@ -40356,7 +40356,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ189">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AR189">
         <v>1.67</v>
@@ -42828,7 +42828,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ201">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AR201">
         <v>1.53</v>
@@ -43649,7 +43649,7 @@
         <v>0.9</v>
       </c>
       <c r="AP205">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ205">
         <v>1</v>
@@ -46327,7 +46327,7 @@
         <v>1.58</v>
       </c>
       <c r="AP218">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ218">
         <v>1.67</v>
@@ -47154,7 +47154,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ222">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AR222">
         <v>1.27</v>
@@ -50862,7 +50862,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ240">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AR240">
         <v>1.45</v>
@@ -51271,7 +51271,7 @@
         <v>1.31</v>
       </c>
       <c r="AP242">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ242">
         <v>1.4</v>
@@ -53743,7 +53743,7 @@
         <v>1.64</v>
       </c>
       <c r="AP254">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ254">
         <v>1.63</v>
@@ -55188,7 +55188,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ261">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AR261">
         <v>1.38</v>
@@ -57484,13 +57484,13 @@
         <v>8</v>
       </c>
       <c r="BA272">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BB272">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC272">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BD272">
         <v>0</v>
@@ -57690,13 +57690,13 @@
         <v>13</v>
       </c>
       <c r="BA273">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BB273">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC273">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BD273">
         <v>0</v>
@@ -58147,6 +58147,212 @@
         <v>0</v>
       </c>
       <c r="BP275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:68">
+      <c r="A276" s="1">
+        <v>275</v>
+      </c>
+      <c r="B276">
+        <v>7502877</v>
+      </c>
+      <c r="C276" t="s">
+        <v>68</v>
+      </c>
+      <c r="D276" t="s">
+        <v>69</v>
+      </c>
+      <c r="E276" s="2">
+        <v>45774.29166666666</v>
+      </c>
+      <c r="F276">
+        <v>31</v>
+      </c>
+      <c r="G276" t="s">
+        <v>83</v>
+      </c>
+      <c r="H276" t="s">
+        <v>76</v>
+      </c>
+      <c r="I276">
+        <v>0</v>
+      </c>
+      <c r="J276">
+        <v>0</v>
+      </c>
+      <c r="K276">
+        <v>0</v>
+      </c>
+      <c r="L276">
+        <v>0</v>
+      </c>
+      <c r="M276">
+        <v>1</v>
+      </c>
+      <c r="N276">
+        <v>1</v>
+      </c>
+      <c r="O276" t="s">
+        <v>89</v>
+      </c>
+      <c r="P276" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q276">
+        <v>3.1</v>
+      </c>
+      <c r="R276">
+        <v>2.1</v>
+      </c>
+      <c r="S276">
+        <v>3.6</v>
+      </c>
+      <c r="T276">
+        <v>1.44</v>
+      </c>
+      <c r="U276">
+        <v>2.63</v>
+      </c>
+      <c r="V276">
+        <v>3.25</v>
+      </c>
+      <c r="W276">
+        <v>1.33</v>
+      </c>
+      <c r="X276">
+        <v>9</v>
+      </c>
+      <c r="Y276">
+        <v>1.07</v>
+      </c>
+      <c r="Z276">
+        <v>2.4</v>
+      </c>
+      <c r="AA276">
+        <v>3.1</v>
+      </c>
+      <c r="AB276">
+        <v>2.85</v>
+      </c>
+      <c r="AC276">
+        <v>0</v>
+      </c>
+      <c r="AD276">
+        <v>0</v>
+      </c>
+      <c r="AE276">
+        <v>2.42</v>
+      </c>
+      <c r="AF276">
+        <v>1.55</v>
+      </c>
+      <c r="AG276">
+        <v>1.95</v>
+      </c>
+      <c r="AH276">
+        <v>1.7</v>
+      </c>
+      <c r="AI276">
+        <v>1.8</v>
+      </c>
+      <c r="AJ276">
+        <v>1.91</v>
+      </c>
+      <c r="AK276">
+        <v>0</v>
+      </c>
+      <c r="AL276">
+        <v>0</v>
+      </c>
+      <c r="AM276">
+        <v>0</v>
+      </c>
+      <c r="AN276">
+        <v>1.73</v>
+      </c>
+      <c r="AO276">
+        <v>0.6</v>
+      </c>
+      <c r="AP276">
+        <v>1.63</v>
+      </c>
+      <c r="AQ276">
+        <v>0.75</v>
+      </c>
+      <c r="AR276">
+        <v>1.77</v>
+      </c>
+      <c r="AS276">
+        <v>1.51</v>
+      </c>
+      <c r="AT276">
+        <v>3.28</v>
+      </c>
+      <c r="AU276">
+        <v>4</v>
+      </c>
+      <c r="AV276">
+        <v>6</v>
+      </c>
+      <c r="AW276">
+        <v>5</v>
+      </c>
+      <c r="AX276">
+        <v>8</v>
+      </c>
+      <c r="AY276">
+        <v>9</v>
+      </c>
+      <c r="AZ276">
+        <v>14</v>
+      </c>
+      <c r="BA276">
+        <v>-1</v>
+      </c>
+      <c r="BB276">
+        <v>-1</v>
+      </c>
+      <c r="BC276">
+        <v>-1</v>
+      </c>
+      <c r="BD276">
+        <v>0</v>
+      </c>
+      <c r="BE276">
+        <v>0</v>
+      </c>
+      <c r="BF276">
+        <v>0</v>
+      </c>
+      <c r="BG276">
+        <v>0</v>
+      </c>
+      <c r="BH276">
+        <v>0</v>
+      </c>
+      <c r="BI276">
+        <v>0</v>
+      </c>
+      <c r="BJ276">
+        <v>0</v>
+      </c>
+      <c r="BK276">
+        <v>0</v>
+      </c>
+      <c r="BL276">
+        <v>0</v>
+      </c>
+      <c r="BM276">
+        <v>0</v>
+      </c>
+      <c r="BN276">
+        <v>0</v>
+      </c>
+      <c r="BO276">
+        <v>0</v>
+      </c>
+      <c r="BP276">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="377">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -772,6 +772,12 @@
     <t>['50']</t>
   </si>
   <si>
+    <t>['46', '72']</t>
+  </si>
+  <si>
+    <t>['47', '55', '87']</t>
+  </si>
+  <si>
     <t>['24', '27']</t>
   </si>
   <si>
@@ -1134,6 +1140,12 @@
   <si>
     <t>['7', '74']</t>
   </si>
+  <si>
+    <t>['23', '90+6']</t>
+  </si>
+  <si>
+    <t>['45+5']</t>
+  </si>
 </sst>
 </file>
 
@@ -1494,7 +1506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP276"/>
+  <dimension ref="A1:BP278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1753,7 +1765,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q2">
         <v>2.16</v>
@@ -1834,7 +1846,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ2">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1959,7 +1971,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q3">
         <v>3.58</v>
@@ -2165,7 +2177,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q4">
         <v>3.15</v>
@@ -2243,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ4">
         <v>1.33</v>
@@ -2577,7 +2589,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2783,7 +2795,7 @@
         <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -3195,7 +3207,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -3607,7 +3619,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -4019,7 +4031,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q13">
         <v>2.38</v>
@@ -4097,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ13">
         <v>1.63</v>
@@ -4225,7 +4237,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q14">
         <v>3.73</v>
@@ -4431,7 +4443,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q15">
         <v>3.51</v>
@@ -4637,7 +4649,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q16">
         <v>2.38</v>
@@ -4718,7 +4730,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ16">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -5255,7 +5267,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q19">
         <v>2.79</v>
@@ -5461,7 +5473,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -6079,7 +6091,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -6157,7 +6169,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ23">
         <v>1</v>
@@ -6491,7 +6503,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q25">
         <v>2.91</v>
@@ -6572,7 +6584,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ25">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR25">
         <v>1.23</v>
@@ -6903,7 +6915,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q27">
         <v>3.25</v>
@@ -7315,7 +7327,7 @@
         <v>89</v>
       </c>
       <c r="P29" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -7521,7 +7533,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -7933,7 +7945,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -8217,7 +8229,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ33">
         <v>1.56</v>
@@ -8345,7 +8357,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8551,7 +8563,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q35">
         <v>2.57</v>
@@ -8632,7 +8644,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ35">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR35">
         <v>1.95</v>
@@ -8757,7 +8769,7 @@
         <v>89</v>
       </c>
       <c r="P36" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q36">
         <v>2.5</v>
@@ -9169,7 +9181,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9375,7 +9387,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9787,7 +9799,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q41">
         <v>2.1</v>
@@ -9993,7 +10005,7 @@
         <v>89</v>
       </c>
       <c r="P42" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q42">
         <v>3.1</v>
@@ -10074,7 +10086,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ42">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR42">
         <v>1.42</v>
@@ -10405,7 +10417,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -10611,7 +10623,7 @@
         <v>89</v>
       </c>
       <c r="P45" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q45">
         <v>2.85</v>
@@ -10689,7 +10701,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ45">
         <v>1.73</v>
@@ -11023,7 +11035,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q47">
         <v>2.6</v>
@@ -11229,7 +11241,7 @@
         <v>89</v>
       </c>
       <c r="P48" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11435,7 +11447,7 @@
         <v>89</v>
       </c>
       <c r="P49" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -11513,10 +11525,10 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ49">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR49">
         <v>1.23</v>
@@ -11847,7 +11859,7 @@
         <v>89</v>
       </c>
       <c r="P51" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -12465,7 +12477,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12877,7 +12889,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q56">
         <v>3.08</v>
@@ -12958,7 +12970,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ56">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR56">
         <v>1.67</v>
@@ -13083,7 +13095,7 @@
         <v>109</v>
       </c>
       <c r="P57" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13495,7 +13507,7 @@
         <v>89</v>
       </c>
       <c r="P59" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13779,7 +13791,7 @@
         <v>0.67</v>
       </c>
       <c r="AP60">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ60">
         <v>0.87</v>
@@ -14731,7 +14743,7 @@
         <v>129</v>
       </c>
       <c r="P65" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -15143,7 +15155,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q67">
         <v>3.12</v>
@@ -15224,7 +15236,7 @@
         <v>2</v>
       </c>
       <c r="AQ67">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR67">
         <v>1.38</v>
@@ -15349,7 +15361,7 @@
         <v>89</v>
       </c>
       <c r="P68" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q68">
         <v>2.96</v>
@@ -16379,7 +16391,7 @@
         <v>89</v>
       </c>
       <c r="P73" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q73">
         <v>2.92</v>
@@ -16585,7 +16597,7 @@
         <v>89</v>
       </c>
       <c r="P74" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16791,7 +16803,7 @@
         <v>97</v>
       </c>
       <c r="P75" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q75">
         <v>3.04</v>
@@ -16997,7 +17009,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q76">
         <v>2.8</v>
@@ -17078,7 +17090,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ76">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR76">
         <v>1.55</v>
@@ -17409,7 +17421,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17693,7 +17705,7 @@
         <v>0.5</v>
       </c>
       <c r="AP79">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ79">
         <v>0.75</v>
@@ -18311,7 +18323,7 @@
         <v>1.6</v>
       </c>
       <c r="AP82">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ82">
         <v>1.73</v>
@@ -18439,7 +18451,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q83">
         <v>2.36</v>
@@ -18520,7 +18532,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ83">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR83">
         <v>1.45</v>
@@ -19057,7 +19069,7 @@
         <v>144</v>
       </c>
       <c r="P86" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q86">
         <v>2.38</v>
@@ -19469,7 +19481,7 @@
         <v>127</v>
       </c>
       <c r="P88" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q88">
         <v>2.85</v>
@@ -19881,7 +19893,7 @@
         <v>89</v>
       </c>
       <c r="P90" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q90">
         <v>3.09</v>
@@ -20087,7 +20099,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q91">
         <v>3.05</v>
@@ -20293,7 +20305,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q92">
         <v>3.5</v>
@@ -20499,7 +20511,7 @@
         <v>89</v>
       </c>
       <c r="P93" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q93">
         <v>3.64</v>
@@ -20705,7 +20717,7 @@
         <v>108</v>
       </c>
       <c r="P94" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q94">
         <v>3.35</v>
@@ -20786,7 +20798,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ94">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR94">
         <v>1.74</v>
@@ -20911,7 +20923,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q95">
         <v>0</v>
@@ -21195,7 +21207,7 @@
         <v>2</v>
       </c>
       <c r="AP96">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ96">
         <v>1.56</v>
@@ -21323,7 +21335,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21529,7 +21541,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q98">
         <v>3.3</v>
@@ -21735,7 +21747,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q99">
         <v>2.99</v>
@@ -21813,7 +21825,7 @@
         <v>1.75</v>
       </c>
       <c r="AP99">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ99">
         <v>1.33</v>
@@ -22559,7 +22571,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q103">
         <v>2.6</v>
@@ -22971,7 +22983,7 @@
         <v>125</v>
       </c>
       <c r="P105" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q105">
         <v>3.3</v>
@@ -23049,7 +23061,7 @@
         <v>1.67</v>
       </c>
       <c r="AP105">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ105">
         <v>1.67</v>
@@ -23177,7 +23189,7 @@
         <v>155</v>
       </c>
       <c r="P106" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q106">
         <v>3.38</v>
@@ -23383,7 +23395,7 @@
         <v>156</v>
       </c>
       <c r="P107" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q107">
         <v>2.62</v>
@@ -23795,7 +23807,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q109">
         <v>2.29</v>
@@ -24288,7 +24300,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ111">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR111">
         <v>1.61</v>
@@ -24619,7 +24631,7 @@
         <v>89</v>
       </c>
       <c r="P113" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q113">
         <v>2.83</v>
@@ -24825,7 +24837,7 @@
         <v>160</v>
       </c>
       <c r="P114" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24903,7 +24915,7 @@
         <v>1.6</v>
       </c>
       <c r="AP114">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ114">
         <v>1</v>
@@ -25237,7 +25249,7 @@
         <v>161</v>
       </c>
       <c r="P116" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q116">
         <v>3.86</v>
@@ -25443,7 +25455,7 @@
         <v>162</v>
       </c>
       <c r="P117" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q117">
         <v>4.05</v>
@@ -25936,7 +25948,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ119">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR119">
         <v>1.64</v>
@@ -26473,7 +26485,7 @@
         <v>165</v>
       </c>
       <c r="P122" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q122">
         <v>3.4</v>
@@ -26885,7 +26897,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q124">
         <v>2.84</v>
@@ -27297,7 +27309,7 @@
         <v>89</v>
       </c>
       <c r="P126" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q126">
         <v>2.41</v>
@@ -27709,7 +27721,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q128">
         <v>2.1</v>
@@ -27993,7 +28005,7 @@
         <v>1</v>
       </c>
       <c r="AP129">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ129">
         <v>0.4</v>
@@ -28121,7 +28133,7 @@
         <v>171</v>
       </c>
       <c r="P130" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q130">
         <v>2.49</v>
@@ -28405,7 +28417,7 @@
         <v>1.57</v>
       </c>
       <c r="AP131">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ131">
         <v>0.9399999999999999</v>
@@ -28533,7 +28545,7 @@
         <v>173</v>
       </c>
       <c r="P132" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q132">
         <v>2.94</v>
@@ -28614,7 +28626,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ132">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR132">
         <v>1.39</v>
@@ -28739,7 +28751,7 @@
         <v>161</v>
       </c>
       <c r="P133" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -28945,7 +28957,7 @@
         <v>174</v>
       </c>
       <c r="P134" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q134">
         <v>4.33</v>
@@ -29232,7 +29244,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ135">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR135">
         <v>1.3</v>
@@ -29563,7 +29575,7 @@
         <v>176</v>
       </c>
       <c r="P137" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q137">
         <v>3.12</v>
@@ -29975,7 +29987,7 @@
         <v>177</v>
       </c>
       <c r="P139" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q139">
         <v>1.99</v>
@@ -30259,7 +30271,7 @@
         <v>1.5</v>
       </c>
       <c r="AP140">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ140">
         <v>1.4</v>
@@ -30387,7 +30399,7 @@
         <v>89</v>
       </c>
       <c r="P141" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q141">
         <v>2.6</v>
@@ -30468,7 +30480,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ141">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR141">
         <v>1.36</v>
@@ -30799,7 +30811,7 @@
         <v>128</v>
       </c>
       <c r="P143" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q143">
         <v>2.65</v>
@@ -31005,7 +31017,7 @@
         <v>89</v>
       </c>
       <c r="P144" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q144">
         <v>4.33</v>
@@ -31417,7 +31429,7 @@
         <v>181</v>
       </c>
       <c r="P146" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q146">
         <v>2.88</v>
@@ -31623,7 +31635,7 @@
         <v>182</v>
       </c>
       <c r="P147" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31829,7 +31841,7 @@
         <v>183</v>
       </c>
       <c r="P148" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q148">
         <v>2.36</v>
@@ -32447,7 +32459,7 @@
         <v>129</v>
       </c>
       <c r="P151" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q151">
         <v>2.78</v>
@@ -32653,7 +32665,7 @@
         <v>185</v>
       </c>
       <c r="P152" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q152">
         <v>2.81</v>
@@ -32731,7 +32743,7 @@
         <v>1.43</v>
       </c>
       <c r="AP152">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ152">
         <v>1.6</v>
@@ -33065,7 +33077,7 @@
         <v>186</v>
       </c>
       <c r="P154" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q154">
         <v>3.38</v>
@@ -33146,7 +33158,7 @@
         <v>2</v>
       </c>
       <c r="AQ154">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR154">
         <v>1.58</v>
@@ -33889,7 +33901,7 @@
         <v>190</v>
       </c>
       <c r="P158" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q158">
         <v>3.5</v>
@@ -33967,7 +33979,7 @@
         <v>1.5</v>
       </c>
       <c r="AP158">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ158">
         <v>1</v>
@@ -34507,7 +34519,7 @@
         <v>193</v>
       </c>
       <c r="P161" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -34919,7 +34931,7 @@
         <v>194</v>
       </c>
       <c r="P163" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q163">
         <v>4.2</v>
@@ -35000,7 +35012,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ163">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR163">
         <v>1.12</v>
@@ -35125,7 +35137,7 @@
         <v>195</v>
       </c>
       <c r="P164" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q164">
         <v>2.55</v>
@@ -35331,7 +35343,7 @@
         <v>89</v>
       </c>
       <c r="P165" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q165">
         <v>3</v>
@@ -35615,7 +35627,7 @@
         <v>1.56</v>
       </c>
       <c r="AP166">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ166">
         <v>1.67</v>
@@ -35743,7 +35755,7 @@
         <v>196</v>
       </c>
       <c r="P167" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q167">
         <v>2.45</v>
@@ -36567,7 +36579,7 @@
         <v>198</v>
       </c>
       <c r="P171" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q171">
         <v>3.84</v>
@@ -36648,7 +36660,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ171">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR171">
         <v>1.04</v>
@@ -37185,7 +37197,7 @@
         <v>200</v>
       </c>
       <c r="P174" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q174">
         <v>3.32</v>
@@ -37472,7 +37484,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ175">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR175">
         <v>1.61</v>
@@ -37803,7 +37815,7 @@
         <v>202</v>
       </c>
       <c r="P177" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q177">
         <v>3.2</v>
@@ -38087,7 +38099,7 @@
         <v>0.67</v>
       </c>
       <c r="AP178">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ178">
         <v>0.4</v>
@@ -38421,7 +38433,7 @@
         <v>179</v>
       </c>
       <c r="P180" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q180">
         <v>2.97</v>
@@ -38833,7 +38845,7 @@
         <v>89</v>
       </c>
       <c r="P182" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q182">
         <v>2.65</v>
@@ -39039,7 +39051,7 @@
         <v>205</v>
       </c>
       <c r="P183" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q183">
         <v>2.27</v>
@@ -39117,7 +39129,7 @@
         <v>0.67</v>
       </c>
       <c r="AP183">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ183">
         <v>1</v>
@@ -39326,7 +39338,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ184">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR184">
         <v>1.54</v>
@@ -39657,7 +39669,7 @@
         <v>141</v>
       </c>
       <c r="P186" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q186">
         <v>3.14</v>
@@ -40069,7 +40081,7 @@
         <v>207</v>
       </c>
       <c r="P188" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q188">
         <v>3.25</v>
@@ -40481,7 +40493,7 @@
         <v>208</v>
       </c>
       <c r="P190" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q190">
         <v>3.6</v>
@@ -40893,7 +40905,7 @@
         <v>123</v>
       </c>
       <c r="P192" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q192">
         <v>2.95</v>
@@ -41305,7 +41317,7 @@
         <v>210</v>
       </c>
       <c r="P194" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q194">
         <v>4.2</v>
@@ -41717,7 +41729,7 @@
         <v>211</v>
       </c>
       <c r="P196" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q196">
         <v>3.2</v>
@@ -41795,7 +41807,7 @@
         <v>1.3</v>
       </c>
       <c r="AP196">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ196">
         <v>1.6</v>
@@ -41923,7 +41935,7 @@
         <v>212</v>
       </c>
       <c r="P197" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q197">
         <v>3</v>
@@ -42004,7 +42016,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ197">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR197">
         <v>1.07</v>
@@ -42335,7 +42347,7 @@
         <v>214</v>
       </c>
       <c r="P199" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q199">
         <v>2.75</v>
@@ -42953,7 +42965,7 @@
         <v>123</v>
       </c>
       <c r="P202" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q202">
         <v>4.3</v>
@@ -43365,7 +43377,7 @@
         <v>117</v>
       </c>
       <c r="P204" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q204">
         <v>3.1</v>
@@ -43777,7 +43789,7 @@
         <v>218</v>
       </c>
       <c r="P206" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q206">
         <v>3.65</v>
@@ -43983,7 +43995,7 @@
         <v>156</v>
       </c>
       <c r="P207" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q207">
         <v>3.45</v>
@@ -44061,7 +44073,7 @@
         <v>1.45</v>
       </c>
       <c r="AP207">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ207">
         <v>1.4</v>
@@ -44189,7 +44201,7 @@
         <v>197</v>
       </c>
       <c r="P208" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q208">
         <v>3.5</v>
@@ -44270,7 +44282,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ208">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR208">
         <v>1.4</v>
@@ -44395,7 +44407,7 @@
         <v>129</v>
       </c>
       <c r="P209" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q209">
         <v>2.4</v>
@@ -45013,7 +45025,7 @@
         <v>220</v>
       </c>
       <c r="P212" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q212">
         <v>2.43</v>
@@ -45219,7 +45231,7 @@
         <v>221</v>
       </c>
       <c r="P213" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q213">
         <v>3.15</v>
@@ -45297,7 +45309,7 @@
         <v>0.64</v>
       </c>
       <c r="AP213">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ213">
         <v>0.73</v>
@@ -45712,7 +45724,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ215">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR215">
         <v>1.65</v>
@@ -46249,7 +46261,7 @@
         <v>89</v>
       </c>
       <c r="P218" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q218">
         <v>3.6</v>
@@ -46455,7 +46467,7 @@
         <v>224</v>
       </c>
       <c r="P219" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q219">
         <v>3.78</v>
@@ -46661,7 +46673,7 @@
         <v>225</v>
       </c>
       <c r="P220" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q220">
         <v>3.26</v>
@@ -47485,7 +47497,7 @@
         <v>89</v>
       </c>
       <c r="P224" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q224">
         <v>5.44</v>
@@ -47975,10 +47987,10 @@
         <v>1.42</v>
       </c>
       <c r="AP226">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ226">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR226">
         <v>1.36</v>
@@ -48103,7 +48115,7 @@
         <v>156</v>
       </c>
       <c r="P227" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q227">
         <v>2.9</v>
@@ -48181,7 +48193,7 @@
         <v>1.08</v>
       </c>
       <c r="AP227">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ227">
         <v>1.27</v>
@@ -48309,7 +48321,7 @@
         <v>228</v>
       </c>
       <c r="P228" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q228">
         <v>2.6</v>
@@ -48596,7 +48608,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ229">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR229">
         <v>1.27</v>
@@ -49957,7 +49969,7 @@
         <v>128</v>
       </c>
       <c r="P236" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q236">
         <v>4.5</v>
@@ -50038,7 +50050,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ236">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR236">
         <v>1.38</v>
@@ -50369,7 +50381,7 @@
         <v>233</v>
       </c>
       <c r="P238" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q238">
         <v>2.1</v>
@@ -50575,7 +50587,7 @@
         <v>89</v>
       </c>
       <c r="P239" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q239">
         <v>0</v>
@@ -50653,7 +50665,7 @@
         <v>1.54</v>
       </c>
       <c r="AP239">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ239">
         <v>1.63</v>
@@ -50781,7 +50793,7 @@
         <v>234</v>
       </c>
       <c r="P240" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q240">
         <v>3</v>
@@ -51193,7 +51205,7 @@
         <v>89</v>
       </c>
       <c r="P242" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q242">
         <v>3.6</v>
@@ -52098,7 +52110,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ246">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR246">
         <v>1.59</v>
@@ -52429,7 +52441,7 @@
         <v>109</v>
       </c>
       <c r="P248" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q248">
         <v>3.6</v>
@@ -52635,7 +52647,7 @@
         <v>199</v>
       </c>
       <c r="P249" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q249">
         <v>2.35</v>
@@ -53253,7 +53265,7 @@
         <v>239</v>
       </c>
       <c r="P252" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q252">
         <v>2.5</v>
@@ -53331,7 +53343,7 @@
         <v>0.92</v>
       </c>
       <c r="AP252">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ252">
         <v>1</v>
@@ -53665,7 +53677,7 @@
         <v>240</v>
       </c>
       <c r="P254" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q254">
         <v>3.5</v>
@@ -53952,7 +53964,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ255">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR255">
         <v>1.79</v>
@@ -54155,7 +54167,7 @@
         <v>1</v>
       </c>
       <c r="AP256">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ256">
         <v>0.9399999999999999</v>
@@ -54489,7 +54501,7 @@
         <v>242</v>
       </c>
       <c r="P258" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q258">
         <v>3.26</v>
@@ -54695,7 +54707,7 @@
         <v>95</v>
       </c>
       <c r="P259" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q259">
         <v>2.97</v>
@@ -54901,7 +54913,7 @@
         <v>243</v>
       </c>
       <c r="P260" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q260">
         <v>2.26</v>
@@ -55313,7 +55325,7 @@
         <v>244</v>
       </c>
       <c r="P262" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q262">
         <v>3.1</v>
@@ -55394,7 +55406,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ262">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR262">
         <v>1.3</v>
@@ -55725,7 +55737,7 @@
         <v>132</v>
       </c>
       <c r="P264" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q264">
         <v>2.75</v>
@@ -56009,7 +56021,7 @@
         <v>1.07</v>
       </c>
       <c r="AP265">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ265">
         <v>1</v>
@@ -56137,7 +56149,7 @@
         <v>95</v>
       </c>
       <c r="P266" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q266">
         <v>3.2</v>
@@ -56343,7 +56355,7 @@
         <v>95</v>
       </c>
       <c r="P267" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q267">
         <v>3</v>
@@ -56549,7 +56561,7 @@
         <v>128</v>
       </c>
       <c r="P268" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q268">
         <v>3.75</v>
@@ -57167,7 +57179,7 @@
         <v>89</v>
       </c>
       <c r="P271" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q271">
         <v>3.4</v>
@@ -57579,7 +57591,7 @@
         <v>204</v>
       </c>
       <c r="P273" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q273">
         <v>3.2</v>
@@ -57785,7 +57797,7 @@
         <v>250</v>
       </c>
       <c r="P274" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q274">
         <v>3.1</v>
@@ -58353,6 +58365,418 @@
         <v>0</v>
       </c>
       <c r="BP276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:68">
+      <c r="A277" s="1">
+        <v>276</v>
+      </c>
+      <c r="B277">
+        <v>7502875</v>
+      </c>
+      <c r="C277" t="s">
+        <v>68</v>
+      </c>
+      <c r="D277" t="s">
+        <v>69</v>
+      </c>
+      <c r="E277" s="2">
+        <v>45774.41666666666</v>
+      </c>
+      <c r="F277">
+        <v>31</v>
+      </c>
+      <c r="G277" t="s">
+        <v>81</v>
+      </c>
+      <c r="H277" t="s">
+        <v>87</v>
+      </c>
+      <c r="I277">
+        <v>0</v>
+      </c>
+      <c r="J277">
+        <v>1</v>
+      </c>
+      <c r="K277">
+        <v>1</v>
+      </c>
+      <c r="L277">
+        <v>2</v>
+      </c>
+      <c r="M277">
+        <v>2</v>
+      </c>
+      <c r="N277">
+        <v>4</v>
+      </c>
+      <c r="O277" t="s">
+        <v>252</v>
+      </c>
+      <c r="P277" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q277">
+        <v>4.5</v>
+      </c>
+      <c r="R277">
+        <v>2.1</v>
+      </c>
+      <c r="S277">
+        <v>2.6</v>
+      </c>
+      <c r="T277">
+        <v>1.4</v>
+      </c>
+      <c r="U277">
+        <v>2.75</v>
+      </c>
+      <c r="V277">
+        <v>3</v>
+      </c>
+      <c r="W277">
+        <v>1.36</v>
+      </c>
+      <c r="X277">
+        <v>8</v>
+      </c>
+      <c r="Y277">
+        <v>1.08</v>
+      </c>
+      <c r="Z277">
+        <v>3.9</v>
+      </c>
+      <c r="AA277">
+        <v>3.3</v>
+      </c>
+      <c r="AB277">
+        <v>1.91</v>
+      </c>
+      <c r="AC277">
+        <v>0</v>
+      </c>
+      <c r="AD277">
+        <v>0</v>
+      </c>
+      <c r="AE277">
+        <v>0</v>
+      </c>
+      <c r="AF277">
+        <v>0</v>
+      </c>
+      <c r="AG277">
+        <v>1.91</v>
+      </c>
+      <c r="AH277">
+        <v>1.73</v>
+      </c>
+      <c r="AI277">
+        <v>1.83</v>
+      </c>
+      <c r="AJ277">
+        <v>1.83</v>
+      </c>
+      <c r="AK277">
+        <v>0</v>
+      </c>
+      <c r="AL277">
+        <v>0</v>
+      </c>
+      <c r="AM277">
+        <v>0</v>
+      </c>
+      <c r="AN277">
+        <v>1.33</v>
+      </c>
+      <c r="AO277">
+        <v>1.73</v>
+      </c>
+      <c r="AP277">
+        <v>1.31</v>
+      </c>
+      <c r="AQ277">
+        <v>1.69</v>
+      </c>
+      <c r="AR277">
+        <v>1.49</v>
+      </c>
+      <c r="AS277">
+        <v>1.35</v>
+      </c>
+      <c r="AT277">
+        <v>2.84</v>
+      </c>
+      <c r="AU277">
+        <v>7</v>
+      </c>
+      <c r="AV277">
+        <v>5</v>
+      </c>
+      <c r="AW277">
+        <v>12</v>
+      </c>
+      <c r="AX277">
+        <v>11</v>
+      </c>
+      <c r="AY277">
+        <v>19</v>
+      </c>
+      <c r="AZ277">
+        <v>16</v>
+      </c>
+      <c r="BA277">
+        <v>4</v>
+      </c>
+      <c r="BB277">
+        <v>7</v>
+      </c>
+      <c r="BC277">
+        <v>11</v>
+      </c>
+      <c r="BD277">
+        <v>0</v>
+      </c>
+      <c r="BE277">
+        <v>0</v>
+      </c>
+      <c r="BF277">
+        <v>0</v>
+      </c>
+      <c r="BG277">
+        <v>0</v>
+      </c>
+      <c r="BH277">
+        <v>0</v>
+      </c>
+      <c r="BI277">
+        <v>0</v>
+      </c>
+      <c r="BJ277">
+        <v>0</v>
+      </c>
+      <c r="BK277">
+        <v>0</v>
+      </c>
+      <c r="BL277">
+        <v>0</v>
+      </c>
+      <c r="BM277">
+        <v>0</v>
+      </c>
+      <c r="BN277">
+        <v>0</v>
+      </c>
+      <c r="BO277">
+        <v>0</v>
+      </c>
+      <c r="BP277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:68">
+      <c r="A278" s="1">
+        <v>277</v>
+      </c>
+      <c r="B278">
+        <v>7502874</v>
+      </c>
+      <c r="C278" t="s">
+        <v>68</v>
+      </c>
+      <c r="D278" t="s">
+        <v>69</v>
+      </c>
+      <c r="E278" s="2">
+        <v>45774.47916666666</v>
+      </c>
+      <c r="F278">
+        <v>31</v>
+      </c>
+      <c r="G278" t="s">
+        <v>72</v>
+      </c>
+      <c r="H278" t="s">
+        <v>74</v>
+      </c>
+      <c r="I278">
+        <v>0</v>
+      </c>
+      <c r="J278">
+        <v>1</v>
+      </c>
+      <c r="K278">
+        <v>1</v>
+      </c>
+      <c r="L278">
+        <v>3</v>
+      </c>
+      <c r="M278">
+        <v>1</v>
+      </c>
+      <c r="N278">
+        <v>4</v>
+      </c>
+      <c r="O278" t="s">
+        <v>253</v>
+      </c>
+      <c r="P278" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q278">
+        <v>2.5</v>
+      </c>
+      <c r="R278">
+        <v>2.1</v>
+      </c>
+      <c r="S278">
+        <v>4.75</v>
+      </c>
+      <c r="T278">
+        <v>1.44</v>
+      </c>
+      <c r="U278">
+        <v>2.63</v>
+      </c>
+      <c r="V278">
+        <v>3.25</v>
+      </c>
+      <c r="W278">
+        <v>1.33</v>
+      </c>
+      <c r="X278">
+        <v>9</v>
+      </c>
+      <c r="Y278">
+        <v>1.07</v>
+      </c>
+      <c r="Z278">
+        <v>2.05</v>
+      </c>
+      <c r="AA278">
+        <v>3.2</v>
+      </c>
+      <c r="AB278">
+        <v>3.5</v>
+      </c>
+      <c r="AC278">
+        <v>0</v>
+      </c>
+      <c r="AD278">
+        <v>0</v>
+      </c>
+      <c r="AE278">
+        <v>0</v>
+      </c>
+      <c r="AF278">
+        <v>0</v>
+      </c>
+      <c r="AG278">
+        <v>2</v>
+      </c>
+      <c r="AH278">
+        <v>1.67</v>
+      </c>
+      <c r="AI278">
+        <v>1.91</v>
+      </c>
+      <c r="AJ278">
+        <v>1.8</v>
+      </c>
+      <c r="AK278">
+        <v>0</v>
+      </c>
+      <c r="AL278">
+        <v>0</v>
+      </c>
+      <c r="AM278">
+        <v>0</v>
+      </c>
+      <c r="AN278">
+        <v>1.4</v>
+      </c>
+      <c r="AO278">
+        <v>1.33</v>
+      </c>
+      <c r="AP278">
+        <v>1.5</v>
+      </c>
+      <c r="AQ278">
+        <v>1.25</v>
+      </c>
+      <c r="AR278">
+        <v>1.36</v>
+      </c>
+      <c r="AS278">
+        <v>1.28</v>
+      </c>
+      <c r="AT278">
+        <v>2.64</v>
+      </c>
+      <c r="AU278">
+        <v>8</v>
+      </c>
+      <c r="AV278">
+        <v>2</v>
+      </c>
+      <c r="AW278">
+        <v>1</v>
+      </c>
+      <c r="AX278">
+        <v>1</v>
+      </c>
+      <c r="AY278">
+        <v>9</v>
+      </c>
+      <c r="AZ278">
+        <v>3</v>
+      </c>
+      <c r="BA278">
+        <v>11</v>
+      </c>
+      <c r="BB278">
+        <v>0</v>
+      </c>
+      <c r="BC278">
+        <v>11</v>
+      </c>
+      <c r="BD278">
+        <v>0</v>
+      </c>
+      <c r="BE278">
+        <v>0</v>
+      </c>
+      <c r="BF278">
+        <v>0</v>
+      </c>
+      <c r="BG278">
+        <v>0</v>
+      </c>
+      <c r="BH278">
+        <v>0</v>
+      </c>
+      <c r="BI278">
+        <v>0</v>
+      </c>
+      <c r="BJ278">
+        <v>0</v>
+      </c>
+      <c r="BK278">
+        <v>0</v>
+      </c>
+      <c r="BL278">
+        <v>0</v>
+      </c>
+      <c r="BM278">
+        <v>0</v>
+      </c>
+      <c r="BN278">
+        <v>0</v>
+      </c>
+      <c r="BO278">
+        <v>0</v>
+      </c>
+      <c r="BP278">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal LigaPro_20242025.xlsx
@@ -57908,13 +57908,13 @@
         <v>13</v>
       </c>
       <c r="BA274">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB274">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BC274">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BD274">
         <v>0</v>
@@ -58320,13 +58320,13 @@
         <v>14</v>
       </c>
       <c r="BA276">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BB276">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BC276">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="BD276">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="379">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -778,6 +778,12 @@
     <t>['47', '55', '87']</t>
   </si>
   <si>
+    <t>['21', '24', '83', '87', '90']</t>
+  </si>
+  <si>
+    <t>['13', '60']</t>
+  </si>
+  <si>
     <t>['24', '27']</t>
   </si>
   <si>
@@ -1506,7 +1512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP278"/>
+  <dimension ref="A1:BP280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1765,7 +1771,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q2">
         <v>2.16</v>
@@ -1971,7 +1977,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q3">
         <v>3.58</v>
@@ -2177,7 +2183,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q4">
         <v>3.15</v>
@@ -2461,7 +2467,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ5">
         <v>1.67</v>
@@ -2589,7 +2595,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2670,7 +2676,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2795,7 +2801,7 @@
         <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -3207,7 +3213,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -3285,7 +3291,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ9">
         <v>1.73</v>
@@ -3494,7 +3500,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ10">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3619,7 +3625,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -4031,7 +4037,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q13">
         <v>2.38</v>
@@ -4237,7 +4243,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q14">
         <v>3.73</v>
@@ -4443,7 +4449,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q15">
         <v>3.51</v>
@@ -4649,7 +4655,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q16">
         <v>2.38</v>
@@ -5267,7 +5273,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q19">
         <v>2.79</v>
@@ -5473,7 +5479,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5551,7 +5557,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ20">
         <v>1.4</v>
@@ -5966,7 +5972,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ22">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR22">
         <v>1.3</v>
@@ -6091,7 +6097,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -6375,7 +6381,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ24">
         <v>0.75</v>
@@ -6503,7 +6509,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q25">
         <v>2.91</v>
@@ -6915,7 +6921,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q27">
         <v>3.25</v>
@@ -6996,7 +7002,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ27">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR27">
         <v>1.33</v>
@@ -7327,7 +7333,7 @@
         <v>89</v>
       </c>
       <c r="P29" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -7533,7 +7539,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -7945,7 +7951,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -8357,7 +8363,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8563,7 +8569,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q35">
         <v>2.57</v>
@@ -8769,7 +8775,7 @@
         <v>89</v>
       </c>
       <c r="P36" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q36">
         <v>2.5</v>
@@ -9181,7 +9187,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9262,7 +9268,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ38">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR38">
         <v>1.5</v>
@@ -9387,7 +9393,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9671,7 +9677,7 @@
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ40">
         <v>1.63</v>
@@ -9799,7 +9805,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q41">
         <v>2.1</v>
@@ -10005,7 +10011,7 @@
         <v>89</v>
       </c>
       <c r="P42" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q42">
         <v>3.1</v>
@@ -10417,7 +10423,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -10498,7 +10504,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ44">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR44">
         <v>1.61</v>
@@ -10623,7 +10629,7 @@
         <v>89</v>
       </c>
       <c r="P45" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q45">
         <v>2.85</v>
@@ -11035,7 +11041,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q47">
         <v>2.6</v>
@@ -11241,7 +11247,7 @@
         <v>89</v>
       </c>
       <c r="P48" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11447,7 +11453,7 @@
         <v>89</v>
       </c>
       <c r="P49" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -11859,7 +11865,7 @@
         <v>89</v>
       </c>
       <c r="P51" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -12477,7 +12483,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12555,7 +12561,7 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ54">
         <v>1.56</v>
@@ -12889,7 +12895,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q56">
         <v>3.08</v>
@@ -13095,7 +13101,7 @@
         <v>109</v>
       </c>
       <c r="P57" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13507,7 +13513,7 @@
         <v>89</v>
       </c>
       <c r="P59" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13794,7 +13800,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ60">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR60">
         <v>1.51</v>
@@ -14743,7 +14749,7 @@
         <v>129</v>
       </c>
       <c r="P65" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14821,7 +14827,7 @@
         <v>1.67</v>
       </c>
       <c r="AP65">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ65">
         <v>1</v>
@@ -15155,7 +15161,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q67">
         <v>3.12</v>
@@ -15361,7 +15367,7 @@
         <v>89</v>
       </c>
       <c r="P68" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q68">
         <v>2.96</v>
@@ -15439,7 +15445,7 @@
         <v>1.33</v>
       </c>
       <c r="AP68">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ68">
         <v>1.56</v>
@@ -16391,7 +16397,7 @@
         <v>89</v>
       </c>
       <c r="P73" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q73">
         <v>2.92</v>
@@ -16597,7 +16603,7 @@
         <v>89</v>
       </c>
       <c r="P74" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16803,7 +16809,7 @@
         <v>97</v>
       </c>
       <c r="P75" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q75">
         <v>3.04</v>
@@ -16884,7 +16890,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ75">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR75">
         <v>1.62</v>
@@ -17009,7 +17015,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q76">
         <v>2.8</v>
@@ -17421,7 +17427,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -18451,7 +18457,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q83">
         <v>2.36</v>
@@ -18941,7 +18947,7 @@
         <v>2</v>
       </c>
       <c r="AP85">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ85">
         <v>1.33</v>
@@ -19069,7 +19075,7 @@
         <v>144</v>
       </c>
       <c r="P86" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q86">
         <v>2.38</v>
@@ -19353,7 +19359,7 @@
         <v>1.25</v>
       </c>
       <c r="AP87">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ87">
         <v>0.73</v>
@@ -19481,7 +19487,7 @@
         <v>127</v>
       </c>
       <c r="P88" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q88">
         <v>2.85</v>
@@ -19768,7 +19774,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ89">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR89">
         <v>1.48</v>
@@ -19893,7 +19899,7 @@
         <v>89</v>
       </c>
       <c r="P90" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q90">
         <v>3.09</v>
@@ -20099,7 +20105,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q91">
         <v>3.05</v>
@@ -20305,7 +20311,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q92">
         <v>3.5</v>
@@ -20386,7 +20392,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ92">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR92">
         <v>1.19</v>
@@ -20511,7 +20517,7 @@
         <v>89</v>
       </c>
       <c r="P93" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q93">
         <v>3.64</v>
@@ -20717,7 +20723,7 @@
         <v>108</v>
       </c>
       <c r="P94" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q94">
         <v>3.35</v>
@@ -20923,7 +20929,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q95">
         <v>0</v>
@@ -21335,7 +21341,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21541,7 +21547,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q98">
         <v>3.3</v>
@@ -21747,7 +21753,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q99">
         <v>2.99</v>
@@ -22240,7 +22246,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ101">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR101">
         <v>1.6</v>
@@ -22443,7 +22449,7 @@
         <v>1</v>
       </c>
       <c r="AP102">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ102">
         <v>0.73</v>
@@ -22571,7 +22577,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q103">
         <v>2.6</v>
@@ -22855,7 +22861,7 @@
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ104">
         <v>1.27</v>
@@ -22983,7 +22989,7 @@
         <v>125</v>
       </c>
       <c r="P105" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q105">
         <v>3.3</v>
@@ -23189,7 +23195,7 @@
         <v>155</v>
       </c>
       <c r="P106" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q106">
         <v>3.38</v>
@@ -23395,7 +23401,7 @@
         <v>156</v>
       </c>
       <c r="P107" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q107">
         <v>2.62</v>
@@ -23807,7 +23813,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q109">
         <v>2.29</v>
@@ -23888,7 +23894,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ109">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR109">
         <v>1.09</v>
@@ -24631,7 +24637,7 @@
         <v>89</v>
       </c>
       <c r="P113" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q113">
         <v>2.83</v>
@@ -24837,7 +24843,7 @@
         <v>160</v>
       </c>
       <c r="P114" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -25124,7 +25130,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ115">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR115">
         <v>1.59</v>
@@ -25249,7 +25255,7 @@
         <v>161</v>
       </c>
       <c r="P116" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q116">
         <v>3.86</v>
@@ -25455,7 +25461,7 @@
         <v>162</v>
       </c>
       <c r="P117" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q117">
         <v>4.05</v>
@@ -26151,7 +26157,7 @@
         <v>1.17</v>
       </c>
       <c r="AP120">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ120">
         <v>1</v>
@@ -26485,7 +26491,7 @@
         <v>165</v>
       </c>
       <c r="P122" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q122">
         <v>3.4</v>
@@ -26897,7 +26903,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q124">
         <v>2.84</v>
@@ -27184,7 +27190,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ125">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR125">
         <v>1.63</v>
@@ -27309,7 +27315,7 @@
         <v>89</v>
       </c>
       <c r="P126" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q126">
         <v>2.41</v>
@@ -27721,7 +27727,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q128">
         <v>2.1</v>
@@ -27799,10 +27805,10 @@
         <v>0.33</v>
       </c>
       <c r="AP128">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ128">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR128">
         <v>1.46</v>
@@ -28133,7 +28139,7 @@
         <v>171</v>
       </c>
       <c r="P130" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q130">
         <v>2.49</v>
@@ -28545,7 +28551,7 @@
         <v>173</v>
       </c>
       <c r="P132" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q132">
         <v>2.94</v>
@@ -28751,7 +28757,7 @@
         <v>161</v>
       </c>
       <c r="P133" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -28957,7 +28963,7 @@
         <v>174</v>
       </c>
       <c r="P134" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q134">
         <v>4.33</v>
@@ -29575,7 +29581,7 @@
         <v>176</v>
       </c>
       <c r="P137" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q137">
         <v>3.12</v>
@@ -29987,7 +29993,7 @@
         <v>177</v>
       </c>
       <c r="P139" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q139">
         <v>1.99</v>
@@ -30068,7 +30074,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ139">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR139">
         <v>1.54</v>
@@ -30399,7 +30405,7 @@
         <v>89</v>
       </c>
       <c r="P141" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q141">
         <v>2.6</v>
@@ -30811,7 +30817,7 @@
         <v>128</v>
       </c>
       <c r="P143" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q143">
         <v>2.65</v>
@@ -31017,7 +31023,7 @@
         <v>89</v>
       </c>
       <c r="P144" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q144">
         <v>4.33</v>
@@ -31429,7 +31435,7 @@
         <v>181</v>
       </c>
       <c r="P146" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q146">
         <v>2.88</v>
@@ -31635,7 +31641,7 @@
         <v>182</v>
       </c>
       <c r="P147" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31841,7 +31847,7 @@
         <v>183</v>
       </c>
       <c r="P148" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q148">
         <v>2.36</v>
@@ -32125,7 +32131,7 @@
         <v>1.13</v>
       </c>
       <c r="AP149">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ149">
         <v>1.73</v>
@@ -32459,7 +32465,7 @@
         <v>129</v>
       </c>
       <c r="P151" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q151">
         <v>2.78</v>
@@ -32540,7 +32546,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ151">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR151">
         <v>1.02</v>
@@ -32665,7 +32671,7 @@
         <v>185</v>
       </c>
       <c r="P152" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q152">
         <v>2.81</v>
@@ -32949,7 +32955,7 @@
         <v>1.63</v>
       </c>
       <c r="AP153">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ153">
         <v>1.67</v>
@@ -33077,7 +33083,7 @@
         <v>186</v>
       </c>
       <c r="P154" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q154">
         <v>3.38</v>
@@ -33901,7 +33907,7 @@
         <v>190</v>
       </c>
       <c r="P158" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q158">
         <v>3.5</v>
@@ -34519,7 +34525,7 @@
         <v>193</v>
       </c>
       <c r="P161" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -34931,7 +34937,7 @@
         <v>194</v>
       </c>
       <c r="P163" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q163">
         <v>4.2</v>
@@ -35137,7 +35143,7 @@
         <v>195</v>
       </c>
       <c r="P164" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q164">
         <v>2.55</v>
@@ -35215,7 +35221,7 @@
         <v>0.88</v>
       </c>
       <c r="AP164">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ164">
         <v>1.27</v>
@@ -35343,7 +35349,7 @@
         <v>89</v>
       </c>
       <c r="P165" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q165">
         <v>3</v>
@@ -35755,7 +35761,7 @@
         <v>196</v>
       </c>
       <c r="P167" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q167">
         <v>2.45</v>
@@ -36248,7 +36254,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ169">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR169">
         <v>1.26</v>
@@ -36451,10 +36457,10 @@
         <v>1.33</v>
       </c>
       <c r="AP170">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ170">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR170">
         <v>1.53</v>
@@ -36579,7 +36585,7 @@
         <v>198</v>
       </c>
       <c r="P171" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q171">
         <v>3.84</v>
@@ -37197,7 +37203,7 @@
         <v>200</v>
       </c>
       <c r="P174" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q174">
         <v>3.32</v>
@@ -37815,7 +37821,7 @@
         <v>202</v>
       </c>
       <c r="P177" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q177">
         <v>3.2</v>
@@ -38433,7 +38439,7 @@
         <v>179</v>
       </c>
       <c r="P180" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q180">
         <v>2.97</v>
@@ -38845,7 +38851,7 @@
         <v>89</v>
       </c>
       <c r="P182" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q182">
         <v>2.65</v>
@@ -39051,7 +39057,7 @@
         <v>205</v>
       </c>
       <c r="P183" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q183">
         <v>2.27</v>
@@ -39132,7 +39138,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ183">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR183">
         <v>1.33</v>
@@ -39544,7 +39550,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ185">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR185">
         <v>1.68</v>
@@ -39669,7 +39675,7 @@
         <v>141</v>
       </c>
       <c r="P186" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q186">
         <v>3.14</v>
@@ -40081,7 +40087,7 @@
         <v>207</v>
       </c>
       <c r="P188" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q188">
         <v>3.25</v>
@@ -40159,7 +40165,7 @@
         <v>1.5</v>
       </c>
       <c r="AP188">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ188">
         <v>1.4</v>
@@ -40365,7 +40371,7 @@
         <v>0.3</v>
       </c>
       <c r="AP189">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ189">
         <v>0.75</v>
@@ -40493,7 +40499,7 @@
         <v>208</v>
       </c>
       <c r="P190" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q190">
         <v>3.6</v>
@@ -40905,7 +40911,7 @@
         <v>123</v>
       </c>
       <c r="P192" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q192">
         <v>2.95</v>
@@ -41317,7 +41323,7 @@
         <v>210</v>
       </c>
       <c r="P194" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q194">
         <v>4.2</v>
@@ -41729,7 +41735,7 @@
         <v>211</v>
       </c>
       <c r="P196" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q196">
         <v>3.2</v>
@@ -41935,7 +41941,7 @@
         <v>212</v>
       </c>
       <c r="P197" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q197">
         <v>3</v>
@@ -42347,7 +42353,7 @@
         <v>214</v>
       </c>
       <c r="P199" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q199">
         <v>2.75</v>
@@ -42425,7 +42431,7 @@
         <v>1.09</v>
       </c>
       <c r="AP199">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ199">
         <v>0.9399999999999999</v>
@@ -42634,7 +42640,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ200">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR200">
         <v>1.24</v>
@@ -42965,7 +42971,7 @@
         <v>123</v>
       </c>
       <c r="P202" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q202">
         <v>4.3</v>
@@ -43377,7 +43383,7 @@
         <v>117</v>
       </c>
       <c r="P204" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q204">
         <v>3.1</v>
@@ -43664,7 +43670,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ205">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR205">
         <v>1.71</v>
@@ -43789,7 +43795,7 @@
         <v>218</v>
       </c>
       <c r="P206" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q206">
         <v>3.65</v>
@@ -43995,7 +44001,7 @@
         <v>156</v>
       </c>
       <c r="P207" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q207">
         <v>3.45</v>
@@ -44201,7 +44207,7 @@
         <v>197</v>
       </c>
       <c r="P208" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q208">
         <v>3.5</v>
@@ -44279,7 +44285,7 @@
         <v>1.45</v>
       </c>
       <c r="AP208">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ208">
         <v>1.69</v>
@@ -44407,7 +44413,7 @@
         <v>129</v>
       </c>
       <c r="P209" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q209">
         <v>2.4</v>
@@ -44691,7 +44697,7 @@
         <v>1.09</v>
       </c>
       <c r="AP210">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ210">
         <v>1</v>
@@ -45025,7 +45031,7 @@
         <v>220</v>
       </c>
       <c r="P212" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q212">
         <v>2.43</v>
@@ -45231,7 +45237,7 @@
         <v>221</v>
       </c>
       <c r="P213" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q213">
         <v>3.15</v>
@@ -45721,7 +45727,7 @@
         <v>1.82</v>
       </c>
       <c r="AP215">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ215">
         <v>1.25</v>
@@ -46136,7 +46142,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ217">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR217">
         <v>1.78</v>
@@ -46261,7 +46267,7 @@
         <v>89</v>
       </c>
       <c r="P218" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q218">
         <v>3.6</v>
@@ -46467,7 +46473,7 @@
         <v>224</v>
       </c>
       <c r="P219" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q219">
         <v>3.78</v>
@@ -46673,7 +46679,7 @@
         <v>225</v>
       </c>
       <c r="P220" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q220">
         <v>3.26</v>
@@ -47497,7 +47503,7 @@
         <v>89</v>
       </c>
       <c r="P224" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q224">
         <v>5.44</v>
@@ -47784,7 +47790,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ225">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR225">
         <v>1.56</v>
@@ -48115,7 +48121,7 @@
         <v>156</v>
       </c>
       <c r="P227" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q227">
         <v>2.9</v>
@@ -48321,7 +48327,7 @@
         <v>228</v>
       </c>
       <c r="P228" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q228">
         <v>2.6</v>
@@ -48605,7 +48611,7 @@
         <v>1.67</v>
       </c>
       <c r="AP229">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ229">
         <v>1.25</v>
@@ -49020,7 +49026,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ231">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR231">
         <v>1.57</v>
@@ -49429,7 +49435,7 @@
         <v>0.5</v>
       </c>
       <c r="AP233">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ233">
         <v>0.4</v>
@@ -49969,7 +49975,7 @@
         <v>128</v>
       </c>
       <c r="P236" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q236">
         <v>4.5</v>
@@ -50381,7 +50387,7 @@
         <v>233</v>
       </c>
       <c r="P238" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q238">
         <v>2.1</v>
@@ -50462,7 +50468,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ238">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR238">
         <v>1.78</v>
@@ -50587,7 +50593,7 @@
         <v>89</v>
       </c>
       <c r="P239" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q239">
         <v>0</v>
@@ -50793,7 +50799,7 @@
         <v>234</v>
       </c>
       <c r="P240" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q240">
         <v>3</v>
@@ -51205,7 +51211,7 @@
         <v>89</v>
       </c>
       <c r="P242" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q242">
         <v>3.6</v>
@@ -52441,7 +52447,7 @@
         <v>109</v>
       </c>
       <c r="P248" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q248">
         <v>3.6</v>
@@ -52647,7 +52653,7 @@
         <v>199</v>
       </c>
       <c r="P249" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q249">
         <v>2.35</v>
@@ -52725,7 +52731,7 @@
         <v>1.38</v>
       </c>
       <c r="AP249">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ249">
         <v>1.6</v>
@@ -53137,7 +53143,7 @@
         <v>0.46</v>
       </c>
       <c r="AP251">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ251">
         <v>0.4</v>
@@ -53265,7 +53271,7 @@
         <v>239</v>
       </c>
       <c r="P252" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q252">
         <v>2.5</v>
@@ -53346,7 +53352,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ252">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR252">
         <v>1.49</v>
@@ -53677,7 +53683,7 @@
         <v>240</v>
       </c>
       <c r="P254" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q254">
         <v>3.5</v>
@@ -54376,7 +54382,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ257">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR257">
         <v>1.58</v>
@@ -54501,7 +54507,7 @@
         <v>242</v>
       </c>
       <c r="P258" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q258">
         <v>3.26</v>
@@ -54707,7 +54713,7 @@
         <v>95</v>
       </c>
       <c r="P259" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q259">
         <v>2.97</v>
@@ -54913,7 +54919,7 @@
         <v>243</v>
       </c>
       <c r="P260" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q260">
         <v>2.26</v>
@@ -55325,7 +55331,7 @@
         <v>244</v>
       </c>
       <c r="P262" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q262">
         <v>3.1</v>
@@ -55737,7 +55743,7 @@
         <v>132</v>
       </c>
       <c r="P264" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q264">
         <v>2.75</v>
@@ -55815,7 +55821,7 @@
         <v>1.21</v>
       </c>
       <c r="AP264">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ264">
         <v>1.33</v>
@@ -56149,7 +56155,7 @@
         <v>95</v>
       </c>
       <c r="P266" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q266">
         <v>3.2</v>
@@ -56355,7 +56361,7 @@
         <v>95</v>
       </c>
       <c r="P267" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q267">
         <v>3</v>
@@ -56433,7 +56439,7 @@
         <v>1.5</v>
       </c>
       <c r="AP267">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ267">
         <v>1.6</v>
@@ -56561,7 +56567,7 @@
         <v>128</v>
       </c>
       <c r="P268" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q268">
         <v>3.75</v>
@@ -56848,7 +56854,7 @@
         <v>2</v>
       </c>
       <c r="AQ269">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR269">
         <v>1.55</v>
@@ -57179,7 +57185,7 @@
         <v>89</v>
       </c>
       <c r="P271" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q271">
         <v>3.4</v>
@@ -57591,7 +57597,7 @@
         <v>204</v>
       </c>
       <c r="P273" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q273">
         <v>3.2</v>
@@ -57797,7 +57803,7 @@
         <v>250</v>
       </c>
       <c r="P274" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q274">
         <v>3.1</v>
@@ -58415,7 +58421,7 @@
         <v>252</v>
       </c>
       <c r="P277" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q277">
         <v>4.5</v>
@@ -58621,7 +58627,7 @@
         <v>253</v>
       </c>
       <c r="P278" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q278">
         <v>2.5</v>
@@ -58777,6 +58783,418 @@
         <v>0</v>
       </c>
       <c r="BP278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:68">
+      <c r="A279" s="1">
+        <v>278</v>
+      </c>
+      <c r="B279">
+        <v>7502885</v>
+      </c>
+      <c r="C279" t="s">
+        <v>68</v>
+      </c>
+      <c r="D279" t="s">
+        <v>69</v>
+      </c>
+      <c r="E279" s="2">
+        <v>45779.58333333334</v>
+      </c>
+      <c r="F279">
+        <v>32</v>
+      </c>
+      <c r="G279" t="s">
+        <v>77</v>
+      </c>
+      <c r="H279" t="s">
+        <v>80</v>
+      </c>
+      <c r="I279">
+        <v>2</v>
+      </c>
+      <c r="J279">
+        <v>0</v>
+      </c>
+      <c r="K279">
+        <v>2</v>
+      </c>
+      <c r="L279">
+        <v>5</v>
+      </c>
+      <c r="M279">
+        <v>0</v>
+      </c>
+      <c r="N279">
+        <v>5</v>
+      </c>
+      <c r="O279" t="s">
+        <v>254</v>
+      </c>
+      <c r="P279" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q279">
+        <v>2.38</v>
+      </c>
+      <c r="R279">
+        <v>2.3</v>
+      </c>
+      <c r="S279">
+        <v>4.5</v>
+      </c>
+      <c r="T279">
+        <v>1.33</v>
+      </c>
+      <c r="U279">
+        <v>3.25</v>
+      </c>
+      <c r="V279">
+        <v>2.63</v>
+      </c>
+      <c r="W279">
+        <v>1.44</v>
+      </c>
+      <c r="X279">
+        <v>6.5</v>
+      </c>
+      <c r="Y279">
+        <v>1.11</v>
+      </c>
+      <c r="Z279">
+        <v>1.57</v>
+      </c>
+      <c r="AA279">
+        <v>4</v>
+      </c>
+      <c r="AB279">
+        <v>4.9</v>
+      </c>
+      <c r="AC279">
+        <v>0</v>
+      </c>
+      <c r="AD279">
+        <v>0</v>
+      </c>
+      <c r="AE279">
+        <v>1.21</v>
+      </c>
+      <c r="AF279">
+        <v>3.6</v>
+      </c>
+      <c r="AG279">
+        <v>1.75</v>
+      </c>
+      <c r="AH279">
+        <v>1.85</v>
+      </c>
+      <c r="AI279">
+        <v>1.73</v>
+      </c>
+      <c r="AJ279">
+        <v>2</v>
+      </c>
+      <c r="AK279">
+        <v>1.22</v>
+      </c>
+      <c r="AL279">
+        <v>1.26</v>
+      </c>
+      <c r="AM279">
+        <v>1.96</v>
+      </c>
+      <c r="AN279">
+        <v>1.33</v>
+      </c>
+      <c r="AO279">
+        <v>1</v>
+      </c>
+      <c r="AP279">
+        <v>1.44</v>
+      </c>
+      <c r="AQ279">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR279">
+        <v>1.57</v>
+      </c>
+      <c r="AS279">
+        <v>1.26</v>
+      </c>
+      <c r="AT279">
+        <v>2.83</v>
+      </c>
+      <c r="AU279">
+        <v>9</v>
+      </c>
+      <c r="AV279">
+        <v>2</v>
+      </c>
+      <c r="AW279">
+        <v>10</v>
+      </c>
+      <c r="AX279">
+        <v>4</v>
+      </c>
+      <c r="AY279">
+        <v>19</v>
+      </c>
+      <c r="AZ279">
+        <v>6</v>
+      </c>
+      <c r="BA279">
+        <v>5</v>
+      </c>
+      <c r="BB279">
+        <v>2</v>
+      </c>
+      <c r="BC279">
+        <v>7</v>
+      </c>
+      <c r="BD279">
+        <v>1.67</v>
+      </c>
+      <c r="BE279">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF279">
+        <v>2.55</v>
+      </c>
+      <c r="BG279">
+        <v>1.15</v>
+      </c>
+      <c r="BH279">
+        <v>4.3</v>
+      </c>
+      <c r="BI279">
+        <v>1.31</v>
+      </c>
+      <c r="BJ279">
+        <v>2.92</v>
+      </c>
+      <c r="BK279">
+        <v>1.57</v>
+      </c>
+      <c r="BL279">
+        <v>2.19</v>
+      </c>
+      <c r="BM279">
+        <v>1.98</v>
+      </c>
+      <c r="BN279">
+        <v>1.74</v>
+      </c>
+      <c r="BO279">
+        <v>2.54</v>
+      </c>
+      <c r="BP279">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="280" spans="1:68">
+      <c r="A280" s="1">
+        <v>279</v>
+      </c>
+      <c r="B280">
+        <v>7502886</v>
+      </c>
+      <c r="C280" t="s">
+        <v>68</v>
+      </c>
+      <c r="D280" t="s">
+        <v>69</v>
+      </c>
+      <c r="E280" s="2">
+        <v>45780.29166666666</v>
+      </c>
+      <c r="F280">
+        <v>32</v>
+      </c>
+      <c r="G280" t="s">
+        <v>73</v>
+      </c>
+      <c r="H280" t="s">
+        <v>81</v>
+      </c>
+      <c r="I280">
+        <v>1</v>
+      </c>
+      <c r="J280">
+        <v>1</v>
+      </c>
+      <c r="K280">
+        <v>2</v>
+      </c>
+      <c r="L280">
+        <v>2</v>
+      </c>
+      <c r="M280">
+        <v>1</v>
+      </c>
+      <c r="N280">
+        <v>3</v>
+      </c>
+      <c r="O280" t="s">
+        <v>255</v>
+      </c>
+      <c r="P280" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q280">
+        <v>2.88</v>
+      </c>
+      <c r="R280">
+        <v>2.2</v>
+      </c>
+      <c r="S280">
+        <v>3.75</v>
+      </c>
+      <c r="T280">
+        <v>1.4</v>
+      </c>
+      <c r="U280">
+        <v>2.75</v>
+      </c>
+      <c r="V280">
+        <v>2.75</v>
+      </c>
+      <c r="W280">
+        <v>1.4</v>
+      </c>
+      <c r="X280">
+        <v>8</v>
+      </c>
+      <c r="Y280">
+        <v>1.08</v>
+      </c>
+      <c r="Z280">
+        <v>2.15</v>
+      </c>
+      <c r="AA280">
+        <v>3.3</v>
+      </c>
+      <c r="AB280">
+        <v>3.1</v>
+      </c>
+      <c r="AC280">
+        <v>0</v>
+      </c>
+      <c r="AD280">
+        <v>0</v>
+      </c>
+      <c r="AE280">
+        <v>0</v>
+      </c>
+      <c r="AF280">
+        <v>0</v>
+      </c>
+      <c r="AG280">
+        <v>1.85</v>
+      </c>
+      <c r="AH280">
+        <v>1.75</v>
+      </c>
+      <c r="AI280">
+        <v>1.73</v>
+      </c>
+      <c r="AJ280">
+        <v>2</v>
+      </c>
+      <c r="AK280">
+        <v>1.35</v>
+      </c>
+      <c r="AL280">
+        <v>1.32</v>
+      </c>
+      <c r="AM280">
+        <v>1.65</v>
+      </c>
+      <c r="AN280">
+        <v>1.73</v>
+      </c>
+      <c r="AO280">
+        <v>0.87</v>
+      </c>
+      <c r="AP280">
+        <v>1.81</v>
+      </c>
+      <c r="AQ280">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AR280">
+        <v>1.3</v>
+      </c>
+      <c r="AS280">
+        <v>1.18</v>
+      </c>
+      <c r="AT280">
+        <v>2.48</v>
+      </c>
+      <c r="AU280">
+        <v>4</v>
+      </c>
+      <c r="AV280">
+        <v>5</v>
+      </c>
+      <c r="AW280">
+        <v>2</v>
+      </c>
+      <c r="AX280">
+        <v>10</v>
+      </c>
+      <c r="AY280">
+        <v>6</v>
+      </c>
+      <c r="AZ280">
+        <v>15</v>
+      </c>
+      <c r="BA280">
+        <v>-1</v>
+      </c>
+      <c r="BB280">
+        <v>-1</v>
+      </c>
+      <c r="BC280">
+        <v>-1</v>
+      </c>
+      <c r="BD280">
+        <v>0</v>
+      </c>
+      <c r="BE280">
+        <v>0</v>
+      </c>
+      <c r="BF280">
+        <v>0</v>
+      </c>
+      <c r="BG280">
+        <v>0</v>
+      </c>
+      <c r="BH280">
+        <v>0</v>
+      </c>
+      <c r="BI280">
+        <v>0</v>
+      </c>
+      <c r="BJ280">
+        <v>0</v>
+      </c>
+      <c r="BK280">
+        <v>0</v>
+      </c>
+      <c r="BL280">
+        <v>0</v>
+      </c>
+      <c r="BM280">
+        <v>0</v>
+      </c>
+      <c r="BN280">
+        <v>0</v>
+      </c>
+      <c r="BO280">
+        <v>0</v>
+      </c>
+      <c r="BP280">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="379">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1512,7 +1512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP280"/>
+  <dimension ref="A1:BP281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ8">
         <v>1.4</v>
@@ -3294,7 +3294,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ9">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -7208,7 +7208,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ28">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR28">
         <v>1.62</v>
@@ -9059,7 +9059,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ37">
         <v>1.63</v>
@@ -10710,7 +10710,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ45">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR45">
         <v>1.58</v>
@@ -11943,7 +11943,7 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ51">
         <v>1</v>
@@ -14006,7 +14006,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ61">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR61">
         <v>1.62</v>
@@ -16063,7 +16063,7 @@
         <v>1.33</v>
       </c>
       <c r="AP71">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ71">
         <v>0.4</v>
@@ -16272,7 +16272,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ72">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR72">
         <v>1.62</v>
@@ -18332,7 +18332,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ82">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR82">
         <v>1.36</v>
@@ -19565,7 +19565,7 @@
         <v>0.75</v>
       </c>
       <c r="AP88">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ88">
         <v>1.6</v>
@@ -23276,7 +23276,7 @@
         <v>2</v>
       </c>
       <c r="AQ106">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR106">
         <v>1.65</v>
@@ -23891,7 +23891,7 @@
         <v>0.4</v>
       </c>
       <c r="AP109">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ109">
         <v>0.9399999999999999</v>
@@ -26984,7 +26984,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ124">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR124">
         <v>1.69</v>
@@ -27599,7 +27599,7 @@
         <v>0.83</v>
       </c>
       <c r="AP127">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ127">
         <v>1.27</v>
@@ -32134,7 +32134,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ149">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR149">
         <v>1.55</v>
@@ -32543,7 +32543,7 @@
         <v>1.13</v>
       </c>
       <c r="AP151">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ151">
         <v>0.8100000000000001</v>
@@ -36048,7 +36048,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ168">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR168">
         <v>1.2</v>
@@ -36663,7 +36663,7 @@
         <v>1.67</v>
       </c>
       <c r="AP171">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ171">
         <v>1.69</v>
@@ -37899,7 +37899,7 @@
         <v>1.2</v>
       </c>
       <c r="AP177">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ177">
         <v>0.9399999999999999</v>
@@ -40580,7 +40580,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ190">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR190">
         <v>1.31</v>
@@ -42019,7 +42019,7 @@
         <v>2</v>
       </c>
       <c r="AP197">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ197">
         <v>1.25</v>
@@ -43052,7 +43052,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ202">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR202">
         <v>1.26</v>
@@ -45521,7 +45521,7 @@
         <v>1.25</v>
       </c>
       <c r="AP214">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ214">
         <v>1.56</v>
@@ -47584,7 +47584,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ224">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR224">
         <v>1.35</v>
@@ -49641,7 +49641,7 @@
         <v>0.58</v>
       </c>
       <c r="AP234">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ234">
         <v>0.73</v>
@@ -52528,7 +52528,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ248">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR248">
         <v>1.53</v>
@@ -52937,7 +52937,7 @@
         <v>1.15</v>
       </c>
       <c r="AP250">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ250">
         <v>1</v>
@@ -56645,7 +56645,7 @@
         <v>1.57</v>
       </c>
       <c r="AP268">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ268">
         <v>1.67</v>
@@ -57266,7 +57266,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ271">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR271">
         <v>1.61</v>
@@ -59195,6 +59195,212 @@
         <v>0</v>
       </c>
       <c r="BP280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:68">
+      <c r="A281" s="1">
+        <v>280</v>
+      </c>
+      <c r="B281">
+        <v>7502884</v>
+      </c>
+      <c r="C281" t="s">
+        <v>68</v>
+      </c>
+      <c r="D281" t="s">
+        <v>69</v>
+      </c>
+      <c r="E281" s="2">
+        <v>45780.47916666666</v>
+      </c>
+      <c r="F281">
+        <v>32</v>
+      </c>
+      <c r="G281" t="s">
+        <v>76</v>
+      </c>
+      <c r="H281" t="s">
+        <v>84</v>
+      </c>
+      <c r="I281">
+        <v>0</v>
+      </c>
+      <c r="J281">
+        <v>0</v>
+      </c>
+      <c r="K281">
+        <v>0</v>
+      </c>
+      <c r="L281">
+        <v>0</v>
+      </c>
+      <c r="M281">
+        <v>1</v>
+      </c>
+      <c r="N281">
+        <v>1</v>
+      </c>
+      <c r="O281" t="s">
+        <v>89</v>
+      </c>
+      <c r="P281" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q281">
+        <v>4.5</v>
+      </c>
+      <c r="R281">
+        <v>2.25</v>
+      </c>
+      <c r="S281">
+        <v>2.4</v>
+      </c>
+      <c r="T281">
+        <v>1.36</v>
+      </c>
+      <c r="U281">
+        <v>3</v>
+      </c>
+      <c r="V281">
+        <v>2.63</v>
+      </c>
+      <c r="W281">
+        <v>1.44</v>
+      </c>
+      <c r="X281">
+        <v>7</v>
+      </c>
+      <c r="Y281">
+        <v>1.1</v>
+      </c>
+      <c r="Z281">
+        <v>3.4</v>
+      </c>
+      <c r="AA281">
+        <v>3.5</v>
+      </c>
+      <c r="AB281">
+        <v>1.95</v>
+      </c>
+      <c r="AC281">
+        <v>0</v>
+      </c>
+      <c r="AD281">
+        <v>0</v>
+      </c>
+      <c r="AE281">
+        <v>1.2</v>
+      </c>
+      <c r="AF281">
+        <v>3.7</v>
+      </c>
+      <c r="AG281">
+        <v>1.75</v>
+      </c>
+      <c r="AH281">
+        <v>1.85</v>
+      </c>
+      <c r="AI281">
+        <v>1.73</v>
+      </c>
+      <c r="AJ281">
+        <v>2</v>
+      </c>
+      <c r="AK281">
+        <v>1.93</v>
+      </c>
+      <c r="AL281">
+        <v>1.27</v>
+      </c>
+      <c r="AM281">
+        <v>1.23</v>
+      </c>
+      <c r="AN281">
+        <v>1.33</v>
+      </c>
+      <c r="AO281">
+        <v>1.73</v>
+      </c>
+      <c r="AP281">
+        <v>1.25</v>
+      </c>
+      <c r="AQ281">
+        <v>1.81</v>
+      </c>
+      <c r="AR281">
+        <v>1.18</v>
+      </c>
+      <c r="AS281">
+        <v>1.47</v>
+      </c>
+      <c r="AT281">
+        <v>2.65</v>
+      </c>
+      <c r="AU281">
+        <v>4</v>
+      </c>
+      <c r="AV281">
+        <v>4</v>
+      </c>
+      <c r="AW281">
+        <v>14</v>
+      </c>
+      <c r="AX281">
+        <v>10</v>
+      </c>
+      <c r="AY281">
+        <v>18</v>
+      </c>
+      <c r="AZ281">
+        <v>14</v>
+      </c>
+      <c r="BA281">
+        <v>2</v>
+      </c>
+      <c r="BB281">
+        <v>4</v>
+      </c>
+      <c r="BC281">
+        <v>6</v>
+      </c>
+      <c r="BD281">
+        <v>0</v>
+      </c>
+      <c r="BE281">
+        <v>0</v>
+      </c>
+      <c r="BF281">
+        <v>0</v>
+      </c>
+      <c r="BG281">
+        <v>0</v>
+      </c>
+      <c r="BH281">
+        <v>0</v>
+      </c>
+      <c r="BI281">
+        <v>0</v>
+      </c>
+      <c r="BJ281">
+        <v>0</v>
+      </c>
+      <c r="BK281">
+        <v>0</v>
+      </c>
+      <c r="BL281">
+        <v>0</v>
+      </c>
+      <c r="BM281">
+        <v>0</v>
+      </c>
+      <c r="BN281">
+        <v>0</v>
+      </c>
+      <c r="BO281">
+        <v>0</v>
+      </c>
+      <c r="BP281">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="383">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -784,6 +784,15 @@
     <t>['13', '60']</t>
   </si>
   <si>
+    <t>['38', '79', '90+5']</t>
+  </si>
+  <si>
+    <t>['66']</t>
+  </si>
+  <si>
+    <t>['9', '90+1']</t>
+  </si>
+  <si>
     <t>['24', '27']</t>
   </si>
   <si>
@@ -917,9 +926,6 @@
   </si>
   <si>
     <t>['31', '61']</t>
-  </si>
-  <si>
-    <t>['66']</t>
   </si>
   <si>
     <t>['34']</t>
@@ -1151,6 +1157,12 @@
   </si>
   <si>
     <t>['45+5']</t>
+  </si>
+  <si>
+    <t>['18', '50', '90+1']</t>
+  </si>
+  <si>
+    <t>['5', '45']</t>
   </si>
 </sst>
 </file>
@@ -1512,7 +1524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP281"/>
+  <dimension ref="A1:BP286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1771,7 +1783,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q2">
         <v>2.16</v>
@@ -1849,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AQ2">
         <v>1.69</v>
@@ -1977,7 +1989,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q3">
         <v>3.58</v>
@@ -2055,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2183,7 +2195,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q4">
         <v>3.15</v>
@@ -2264,7 +2276,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ4">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2470,7 +2482,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ5">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2595,7 +2607,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2801,7 +2813,7 @@
         <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2882,7 +2894,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ7">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3213,7 +3225,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -3497,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ10">
         <v>0.8100000000000001</v>
@@ -3625,7 +3637,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3703,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ11">
         <v>1</v>
@@ -4037,7 +4049,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q13">
         <v>2.38</v>
@@ -4243,7 +4255,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q14">
         <v>3.73</v>
@@ -4449,7 +4461,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q15">
         <v>3.51</v>
@@ -4655,7 +4667,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q16">
         <v>2.38</v>
@@ -4942,7 +4954,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ17">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5273,7 +5285,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q19">
         <v>2.79</v>
@@ -5351,7 +5363,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ19">
         <v>0.75</v>
@@ -5479,7 +5491,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5763,10 +5775,10 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ21">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR21">
         <v>1.84</v>
@@ -6097,7 +6109,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -6178,7 +6190,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ23">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR23">
         <v>1.93</v>
@@ -6509,7 +6521,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q25">
         <v>2.91</v>
@@ -6793,10 +6805,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AQ26">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR26">
         <v>1.66</v>
@@ -6921,7 +6933,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q27">
         <v>3.25</v>
@@ -6999,7 +7011,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ27">
         <v>0.8100000000000001</v>
@@ -7333,7 +7345,7 @@
         <v>89</v>
       </c>
       <c r="P29" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -7411,7 +7423,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ29">
         <v>0.9399999999999999</v>
@@ -7539,7 +7551,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -7620,7 +7632,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ30">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR30">
         <v>1.33</v>
@@ -7823,7 +7835,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ31">
         <v>1</v>
@@ -7951,7 +7963,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -8363,7 +8375,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8444,7 +8456,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ34">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR34">
         <v>1.57</v>
@@ -8569,7 +8581,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q35">
         <v>2.57</v>
@@ -8775,7 +8787,7 @@
         <v>89</v>
       </c>
       <c r="P36" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q36">
         <v>2.5</v>
@@ -9187,7 +9199,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9393,7 +9405,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9471,10 +9483,10 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ39">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR39">
         <v>1.92</v>
@@ -9805,7 +9817,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q41">
         <v>2.1</v>
@@ -9883,7 +9895,7 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AQ41">
         <v>1.4</v>
@@ -10011,7 +10023,7 @@
         <v>89</v>
       </c>
       <c r="P42" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q42">
         <v>3.1</v>
@@ -10089,7 +10101,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ42">
         <v>1.69</v>
@@ -10423,7 +10435,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -10629,7 +10641,7 @@
         <v>89</v>
       </c>
       <c r="P45" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q45">
         <v>2.85</v>
@@ -10916,7 +10928,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR46">
         <v>1.7</v>
@@ -11041,7 +11053,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q47">
         <v>2.6</v>
@@ -11247,7 +11259,7 @@
         <v>89</v>
       </c>
       <c r="P48" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11328,7 +11340,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ48">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR48">
         <v>1.74</v>
@@ -11453,7 +11465,7 @@
         <v>89</v>
       </c>
       <c r="P49" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -11737,7 +11749,7 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ50">
         <v>0.9399999999999999</v>
@@ -11865,7 +11877,7 @@
         <v>89</v>
       </c>
       <c r="P51" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -12152,7 +12164,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ52">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR52">
         <v>1.2</v>
@@ -12355,10 +12367,10 @@
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ53">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR53">
         <v>1.6</v>
@@ -12483,7 +12495,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12895,7 +12907,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q56">
         <v>3.08</v>
@@ -13101,7 +13113,7 @@
         <v>109</v>
       </c>
       <c r="P57" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13179,7 +13191,7 @@
         <v>1.33</v>
       </c>
       <c r="AP57">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ57">
         <v>0.9399999999999999</v>
@@ -13385,7 +13397,7 @@
         <v>0.67</v>
       </c>
       <c r="AP58">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AQ58">
         <v>0.75</v>
@@ -13513,7 +13525,7 @@
         <v>89</v>
       </c>
       <c r="P59" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13594,7 +13606,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ59">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR59">
         <v>1.13</v>
@@ -14415,7 +14427,7 @@
         <v>1.67</v>
       </c>
       <c r="AP63">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ63">
         <v>1.4</v>
@@ -14624,7 +14636,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ64">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR64">
         <v>1.67</v>
@@ -14749,7 +14761,7 @@
         <v>129</v>
       </c>
       <c r="P65" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -15033,10 +15045,10 @@
         <v>1.67</v>
       </c>
       <c r="AP66">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ66">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR66">
         <v>1.24</v>
@@ -15161,7 +15173,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q67">
         <v>3.12</v>
@@ -15239,7 +15251,7 @@
         <v>3</v>
       </c>
       <c r="AP67">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ67">
         <v>1.25</v>
@@ -15367,7 +15379,7 @@
         <v>89</v>
       </c>
       <c r="P68" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q68">
         <v>2.96</v>
@@ -15860,7 +15872,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ70">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR70">
         <v>1.47</v>
@@ -16397,7 +16409,7 @@
         <v>89</v>
       </c>
       <c r="P73" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q73">
         <v>2.92</v>
@@ -16603,7 +16615,7 @@
         <v>89</v>
       </c>
       <c r="P74" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16684,7 +16696,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ74">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR74">
         <v>1.25</v>
@@ -16809,7 +16821,7 @@
         <v>97</v>
       </c>
       <c r="P75" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q75">
         <v>3.04</v>
@@ -17015,7 +17027,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q76">
         <v>2.8</v>
@@ -17427,7 +17439,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17505,7 +17517,7 @@
         <v>1.75</v>
       </c>
       <c r="AP78">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ78">
         <v>1.56</v>
@@ -17917,7 +17929,7 @@
         <v>1.75</v>
       </c>
       <c r="AP80">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ80">
         <v>1.63</v>
@@ -18123,10 +18135,10 @@
         <v>1.25</v>
       </c>
       <c r="AP81">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ81">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR81">
         <v>1.68</v>
@@ -18457,7 +18469,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q83">
         <v>2.36</v>
@@ -18535,7 +18547,7 @@
         <v>2.5</v>
       </c>
       <c r="AP83">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AQ83">
         <v>1.25</v>
@@ -18744,7 +18756,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ84">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR84">
         <v>1.48</v>
@@ -18950,7 +18962,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ85">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR85">
         <v>1.36</v>
@@ -19075,7 +19087,7 @@
         <v>144</v>
       </c>
       <c r="P86" t="s">
-        <v>301</v>
+        <v>257</v>
       </c>
       <c r="Q86">
         <v>2.38</v>
@@ -19153,7 +19165,7 @@
         <v>1</v>
       </c>
       <c r="AP86">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ86">
         <v>0.4</v>
@@ -19362,7 +19374,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ87">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR87">
         <v>1.38</v>
@@ -19487,7 +19499,7 @@
         <v>127</v>
       </c>
       <c r="P88" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q88">
         <v>2.85</v>
@@ -19771,7 +19783,7 @@
         <v>0.33</v>
       </c>
       <c r="AP89">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ89">
         <v>0.9399999999999999</v>
@@ -19899,7 +19911,7 @@
         <v>89</v>
       </c>
       <c r="P90" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q90">
         <v>3.09</v>
@@ -19980,7 +19992,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ90">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR90">
         <v>1.65</v>
@@ -20105,7 +20117,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q91">
         <v>3.05</v>
@@ -20311,7 +20323,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q92">
         <v>3.5</v>
@@ -20517,7 +20529,7 @@
         <v>89</v>
       </c>
       <c r="P93" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q93">
         <v>3.64</v>
@@ -20595,7 +20607,7 @@
         <v>1.6</v>
       </c>
       <c r="AP93">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ93">
         <v>0.9399999999999999</v>
@@ -20723,7 +20735,7 @@
         <v>108</v>
       </c>
       <c r="P94" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q94">
         <v>3.35</v>
@@ -20929,7 +20941,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q95">
         <v>0</v>
@@ -21341,7 +21353,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21547,7 +21559,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q98">
         <v>3.3</v>
@@ -21753,7 +21765,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q99">
         <v>2.99</v>
@@ -21834,7 +21846,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ99">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR99">
         <v>1.34</v>
@@ -22452,7 +22464,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ102">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR102">
         <v>1.5</v>
@@ -22577,7 +22589,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q103">
         <v>2.6</v>
@@ -22655,7 +22667,7 @@
         <v>0.8</v>
       </c>
       <c r="AP103">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ103">
         <v>1.6</v>
@@ -22864,7 +22876,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ104">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR104">
         <v>1.44</v>
@@ -22989,7 +23001,7 @@
         <v>125</v>
       </c>
       <c r="P105" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q105">
         <v>3.3</v>
@@ -23070,7 +23082,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ105">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR105">
         <v>1.39</v>
@@ -23195,7 +23207,7 @@
         <v>155</v>
       </c>
       <c r="P106" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q106">
         <v>3.38</v>
@@ -23273,7 +23285,7 @@
         <v>1.5</v>
       </c>
       <c r="AP106">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ106">
         <v>1.81</v>
@@ -23401,7 +23413,7 @@
         <v>156</v>
       </c>
       <c r="P107" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q107">
         <v>2.62</v>
@@ -23685,10 +23697,10 @@
         <v>1.4</v>
       </c>
       <c r="AP108">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ108">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR108">
         <v>1.57</v>
@@ -23813,7 +23825,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q109">
         <v>2.29</v>
@@ -24097,10 +24109,10 @@
         <v>2</v>
       </c>
       <c r="AP110">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AQ110">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR110">
         <v>1.51</v>
@@ -24637,7 +24649,7 @@
         <v>89</v>
       </c>
       <c r="P113" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q113">
         <v>2.83</v>
@@ -24843,7 +24855,7 @@
         <v>160</v>
       </c>
       <c r="P114" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -25255,7 +25267,7 @@
         <v>161</v>
       </c>
       <c r="P116" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q116">
         <v>3.86</v>
@@ -25461,7 +25473,7 @@
         <v>162</v>
       </c>
       <c r="P117" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q117">
         <v>4.05</v>
@@ -25539,7 +25551,7 @@
         <v>1.43</v>
       </c>
       <c r="AP117">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ117">
         <v>1.56</v>
@@ -26160,7 +26172,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ120">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR120">
         <v>1.47</v>
@@ -26363,10 +26375,10 @@
         <v>1.86</v>
       </c>
       <c r="AP121">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ121">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR121">
         <v>1.6</v>
@@ -26491,7 +26503,7 @@
         <v>165</v>
       </c>
       <c r="P122" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q122">
         <v>3.4</v>
@@ -26572,7 +26584,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ122">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR122">
         <v>1.24</v>
@@ -26775,10 +26787,10 @@
         <v>1.83</v>
       </c>
       <c r="AP123">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ123">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR123">
         <v>1.21</v>
@@ -26903,7 +26915,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q124">
         <v>2.84</v>
@@ -26981,7 +26993,7 @@
         <v>1.29</v>
       </c>
       <c r="AP124">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ124">
         <v>1.81</v>
@@ -27187,7 +27199,7 @@
         <v>1.29</v>
       </c>
       <c r="AP125">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ125">
         <v>0.8100000000000001</v>
@@ -27315,7 +27327,7 @@
         <v>89</v>
       </c>
       <c r="P126" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q126">
         <v>2.41</v>
@@ -27393,7 +27405,7 @@
         <v>1.17</v>
       </c>
       <c r="AP126">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AQ126">
         <v>1.6</v>
@@ -27602,7 +27614,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ127">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR127">
         <v>0.99</v>
@@ -27727,7 +27739,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q128">
         <v>2.1</v>
@@ -28139,7 +28151,7 @@
         <v>171</v>
       </c>
       <c r="P130" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q130">
         <v>2.49</v>
@@ -28551,7 +28563,7 @@
         <v>173</v>
       </c>
       <c r="P132" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q132">
         <v>2.94</v>
@@ -28757,7 +28769,7 @@
         <v>161</v>
       </c>
       <c r="P133" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -28963,7 +28975,7 @@
         <v>174</v>
       </c>
       <c r="P134" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q134">
         <v>4.33</v>
@@ -29581,7 +29593,7 @@
         <v>176</v>
       </c>
       <c r="P137" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q137">
         <v>3.12</v>
@@ -29662,7 +29674,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ137">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR137">
         <v>1.18</v>
@@ -29865,10 +29877,10 @@
         <v>0.86</v>
       </c>
       <c r="AP138">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ138">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR138">
         <v>1.22</v>
@@ -29993,7 +30005,7 @@
         <v>177</v>
       </c>
       <c r="P139" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q139">
         <v>1.99</v>
@@ -30071,7 +30083,7 @@
         <v>0.29</v>
       </c>
       <c r="AP139">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AQ139">
         <v>0.9399999999999999</v>
@@ -30405,7 +30417,7 @@
         <v>89</v>
       </c>
       <c r="P141" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q141">
         <v>2.6</v>
@@ -30692,7 +30704,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ142">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR142">
         <v>1.66</v>
@@ -30817,7 +30829,7 @@
         <v>128</v>
       </c>
       <c r="P143" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q143">
         <v>2.65</v>
@@ -30895,7 +30907,7 @@
         <v>1.63</v>
       </c>
       <c r="AP143">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ143">
         <v>1.63</v>
@@ -31023,7 +31035,7 @@
         <v>89</v>
       </c>
       <c r="P144" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q144">
         <v>4.33</v>
@@ -31435,7 +31447,7 @@
         <v>181</v>
       </c>
       <c r="P146" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q146">
         <v>2.88</v>
@@ -31641,7 +31653,7 @@
         <v>182</v>
       </c>
       <c r="P147" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31847,7 +31859,7 @@
         <v>183</v>
       </c>
       <c r="P148" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q148">
         <v>2.36</v>
@@ -32337,10 +32349,10 @@
         <v>1.43</v>
       </c>
       <c r="AP150">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ150">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR150">
         <v>1.63</v>
@@ -32465,7 +32477,7 @@
         <v>129</v>
       </c>
       <c r="P151" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q151">
         <v>2.78</v>
@@ -32671,7 +32683,7 @@
         <v>185</v>
       </c>
       <c r="P152" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q152">
         <v>2.81</v>
@@ -32958,7 +32970,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ153">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR153">
         <v>1.48</v>
@@ -33083,7 +33095,7 @@
         <v>186</v>
       </c>
       <c r="P154" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q154">
         <v>3.38</v>
@@ -33161,7 +33173,7 @@
         <v>1.75</v>
       </c>
       <c r="AP154">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ154">
         <v>1.69</v>
@@ -33370,7 +33382,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ155">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR155">
         <v>1.55</v>
@@ -33779,7 +33791,7 @@
         <v>0.33</v>
       </c>
       <c r="AP157">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ157">
         <v>0.75</v>
@@ -33907,7 +33919,7 @@
         <v>190</v>
       </c>
       <c r="P158" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q158">
         <v>3.5</v>
@@ -34525,7 +34537,7 @@
         <v>193</v>
       </c>
       <c r="P161" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -34809,7 +34821,7 @@
         <v>1.44</v>
       </c>
       <c r="AP162">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ162">
         <v>1.56</v>
@@ -34937,7 +34949,7 @@
         <v>194</v>
       </c>
       <c r="P163" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q163">
         <v>4.2</v>
@@ -35143,7 +35155,7 @@
         <v>195</v>
       </c>
       <c r="P164" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q164">
         <v>2.55</v>
@@ -35224,7 +35236,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ164">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR164">
         <v>1.48</v>
@@ -35349,7 +35361,7 @@
         <v>89</v>
       </c>
       <c r="P165" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q165">
         <v>3</v>
@@ -35427,7 +35439,7 @@
         <v>1.33</v>
       </c>
       <c r="AP165">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ165">
         <v>1.4</v>
@@ -35636,7 +35648,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ166">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR166">
         <v>1.36</v>
@@ -35761,7 +35773,7 @@
         <v>196</v>
       </c>
       <c r="P167" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q167">
         <v>2.45</v>
@@ -35839,10 +35851,10 @@
         <v>1.25</v>
       </c>
       <c r="AP167">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AQ167">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR167">
         <v>1.71</v>
@@ -36251,7 +36263,7 @@
         <v>0.63</v>
       </c>
       <c r="AP169">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ169">
         <v>0.9399999999999999</v>
@@ -36585,7 +36597,7 @@
         <v>198</v>
       </c>
       <c r="P171" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q171">
         <v>3.84</v>
@@ -36872,7 +36884,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ172">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR172">
         <v>1.3</v>
@@ -37078,7 +37090,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ173">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR173">
         <v>1.71</v>
@@ -37203,7 +37215,7 @@
         <v>200</v>
       </c>
       <c r="P174" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q174">
         <v>3.32</v>
@@ -37487,7 +37499,7 @@
         <v>2.22</v>
       </c>
       <c r="AP175">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ175">
         <v>1.25</v>
@@ -37696,7 +37708,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ176">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR176">
         <v>1.68</v>
@@ -37821,7 +37833,7 @@
         <v>202</v>
       </c>
       <c r="P177" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q177">
         <v>3.2</v>
@@ -38439,7 +38451,7 @@
         <v>179</v>
       </c>
       <c r="P180" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q180">
         <v>2.97</v>
@@ -38723,7 +38735,7 @@
         <v>1.6</v>
       </c>
       <c r="AP181">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ181">
         <v>1.63</v>
@@ -38851,7 +38863,7 @@
         <v>89</v>
       </c>
       <c r="P182" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q182">
         <v>2.65</v>
@@ -38932,7 +38944,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ182">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR182">
         <v>1.54</v>
@@ -39057,7 +39069,7 @@
         <v>205</v>
       </c>
       <c r="P183" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q183">
         <v>2.27</v>
@@ -39341,7 +39353,7 @@
         <v>1.6</v>
       </c>
       <c r="AP184">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ184">
         <v>1.69</v>
@@ -39547,7 +39559,7 @@
         <v>1.2</v>
       </c>
       <c r="AP185">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AQ185">
         <v>0.8100000000000001</v>
@@ -39675,7 +39687,7 @@
         <v>141</v>
       </c>
       <c r="P186" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q186">
         <v>3.14</v>
@@ -39756,7 +39768,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ186">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR186">
         <v>1.18</v>
@@ -39959,10 +39971,10 @@
         <v>1.5</v>
       </c>
       <c r="AP187">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ187">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR187">
         <v>1.28</v>
@@ -40087,7 +40099,7 @@
         <v>207</v>
       </c>
       <c r="P188" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q188">
         <v>3.25</v>
@@ -40499,7 +40511,7 @@
         <v>208</v>
       </c>
       <c r="P190" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q190">
         <v>3.6</v>
@@ -40911,7 +40923,7 @@
         <v>123</v>
       </c>
       <c r="P192" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q192">
         <v>2.95</v>
@@ -40992,7 +41004,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ192">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR192">
         <v>1.73</v>
@@ -41195,7 +41207,7 @@
         <v>0.6</v>
       </c>
       <c r="AP193">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ193">
         <v>0.4</v>
@@ -41323,7 +41335,7 @@
         <v>210</v>
       </c>
       <c r="P194" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q194">
         <v>4.2</v>
@@ -41404,7 +41416,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ194">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR194">
         <v>1.3</v>
@@ -41610,7 +41622,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ195">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR195">
         <v>1.64</v>
@@ -41735,7 +41747,7 @@
         <v>211</v>
       </c>
       <c r="P196" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q196">
         <v>3.2</v>
@@ -41941,7 +41953,7 @@
         <v>212</v>
       </c>
       <c r="P197" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q197">
         <v>3</v>
@@ -42225,7 +42237,7 @@
         <v>1.36</v>
       </c>
       <c r="AP198">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ198">
         <v>1.56</v>
@@ -42353,7 +42365,7 @@
         <v>214</v>
       </c>
       <c r="P199" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q199">
         <v>2.75</v>
@@ -42843,7 +42855,7 @@
         <v>0.36</v>
       </c>
       <c r="AP201">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ201">
         <v>0.75</v>
@@ -42971,7 +42983,7 @@
         <v>123</v>
       </c>
       <c r="P202" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q202">
         <v>4.3</v>
@@ -43049,7 +43061,7 @@
         <v>1.27</v>
       </c>
       <c r="AP202">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ202">
         <v>1.81</v>
@@ -43258,7 +43270,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ203">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR203">
         <v>1.53</v>
@@ -43383,7 +43395,7 @@
         <v>117</v>
       </c>
       <c r="P204" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q204">
         <v>3.1</v>
@@ -43461,7 +43473,7 @@
         <v>1.45</v>
       </c>
       <c r="AP204">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AQ204">
         <v>1.63</v>
@@ -43795,7 +43807,7 @@
         <v>218</v>
       </c>
       <c r="P206" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q206">
         <v>3.65</v>
@@ -43876,7 +43888,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ206">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR206">
         <v>1.34</v>
@@ -44001,7 +44013,7 @@
         <v>156</v>
       </c>
       <c r="P207" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q207">
         <v>3.45</v>
@@ -44207,7 +44219,7 @@
         <v>197</v>
       </c>
       <c r="P208" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q208">
         <v>3.5</v>
@@ -44413,7 +44425,7 @@
         <v>129</v>
       </c>
       <c r="P209" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q209">
         <v>2.4</v>
@@ -44494,7 +44506,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ209">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR209">
         <v>1.53</v>
@@ -44903,7 +44915,7 @@
         <v>0.55</v>
       </c>
       <c r="AP211">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ211">
         <v>0.4</v>
@@ -45031,7 +45043,7 @@
         <v>220</v>
       </c>
       <c r="P212" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q212">
         <v>2.43</v>
@@ -45109,7 +45121,7 @@
         <v>1.45</v>
       </c>
       <c r="AP212">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ212">
         <v>1.6</v>
@@ -45237,7 +45249,7 @@
         <v>221</v>
       </c>
       <c r="P213" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q213">
         <v>3.15</v>
@@ -45318,7 +45330,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ213">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR213">
         <v>1.4</v>
@@ -45936,7 +45948,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ216">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR216">
         <v>1.76</v>
@@ -46267,7 +46279,7 @@
         <v>89</v>
       </c>
       <c r="P218" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q218">
         <v>3.6</v>
@@ -46348,7 +46360,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ218">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR218">
         <v>1.7</v>
@@ -46473,7 +46485,7 @@
         <v>224</v>
       </c>
       <c r="P219" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q219">
         <v>3.78</v>
@@ -46679,7 +46691,7 @@
         <v>225</v>
       </c>
       <c r="P220" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q220">
         <v>3.26</v>
@@ -46757,7 +46769,7 @@
         <v>1.58</v>
       </c>
       <c r="AP220">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ220">
         <v>1.63</v>
@@ -46966,7 +46978,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ221">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR221">
         <v>1.41</v>
@@ -47169,7 +47181,7 @@
         <v>0.33</v>
       </c>
       <c r="AP222">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ222">
         <v>0.75</v>
@@ -47375,7 +47387,7 @@
         <v>1.08</v>
       </c>
       <c r="AP223">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AQ223">
         <v>0.9399999999999999</v>
@@ -47503,7 +47515,7 @@
         <v>89</v>
       </c>
       <c r="P224" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q224">
         <v>5.44</v>
@@ -48121,7 +48133,7 @@
         <v>156</v>
       </c>
       <c r="P227" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q227">
         <v>2.9</v>
@@ -48202,7 +48214,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ227">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR227">
         <v>1.49</v>
@@ -48327,7 +48339,7 @@
         <v>228</v>
       </c>
       <c r="P228" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q228">
         <v>2.6</v>
@@ -48405,7 +48417,7 @@
         <v>1.42</v>
       </c>
       <c r="AP228">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ228">
         <v>1.6</v>
@@ -48817,7 +48829,7 @@
         <v>1.08</v>
       </c>
       <c r="AP230">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AQ230">
         <v>1</v>
@@ -49229,10 +49241,10 @@
         <v>1.33</v>
       </c>
       <c r="AP232">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ232">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR232">
         <v>1.59</v>
@@ -49644,7 +49656,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ234">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR234">
         <v>1.13</v>
@@ -49850,7 +49862,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ235">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR235">
         <v>1.77</v>
@@ -49975,7 +49987,7 @@
         <v>128</v>
       </c>
       <c r="P236" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q236">
         <v>4.5</v>
@@ -50387,7 +50399,7 @@
         <v>233</v>
       </c>
       <c r="P238" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q238">
         <v>2.1</v>
@@ -50593,7 +50605,7 @@
         <v>89</v>
       </c>
       <c r="P239" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q239">
         <v>0</v>
@@ -50799,7 +50811,7 @@
         <v>234</v>
       </c>
       <c r="P240" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q240">
         <v>3</v>
@@ -51086,7 +51098,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ241">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR241">
         <v>1.74</v>
@@ -51211,7 +51223,7 @@
         <v>89</v>
       </c>
       <c r="P242" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q242">
         <v>3.6</v>
@@ -51701,7 +51713,7 @@
         <v>1.08</v>
       </c>
       <c r="AP244">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ244">
         <v>1</v>
@@ -51907,10 +51919,10 @@
         <v>1.23</v>
       </c>
       <c r="AP245">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ245">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR245">
         <v>1.6</v>
@@ -52113,7 +52125,7 @@
         <v>1.54</v>
       </c>
       <c r="AP246">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ246">
         <v>1.25</v>
@@ -52319,10 +52331,10 @@
         <v>0.77</v>
       </c>
       <c r="AP247">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AQ247">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR247">
         <v>1.63</v>
@@ -52447,7 +52459,7 @@
         <v>109</v>
       </c>
       <c r="P248" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q248">
         <v>3.6</v>
@@ -52653,7 +52665,7 @@
         <v>199</v>
       </c>
       <c r="P249" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q249">
         <v>2.35</v>
@@ -52940,7 +52952,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ250">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR250">
         <v>1.15</v>
@@ -53271,7 +53283,7 @@
         <v>239</v>
       </c>
       <c r="P252" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q252">
         <v>2.5</v>
@@ -53555,10 +53567,10 @@
         <v>1.23</v>
       </c>
       <c r="AP253">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ253">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR253">
         <v>1.52</v>
@@ -53683,7 +53695,7 @@
         <v>240</v>
       </c>
       <c r="P254" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q254">
         <v>3.5</v>
@@ -54507,7 +54519,7 @@
         <v>242</v>
       </c>
       <c r="P258" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q258">
         <v>3.26</v>
@@ -54713,7 +54725,7 @@
         <v>95</v>
       </c>
       <c r="P259" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q259">
         <v>2.97</v>
@@ -54919,7 +54931,7 @@
         <v>243</v>
       </c>
       <c r="P260" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q260">
         <v>2.26</v>
@@ -55331,7 +55343,7 @@
         <v>244</v>
       </c>
       <c r="P262" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q262">
         <v>3.1</v>
@@ -55409,7 +55421,7 @@
         <v>1.43</v>
       </c>
       <c r="AP262">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ262">
         <v>1.25</v>
@@ -55615,10 +55627,10 @@
         <v>0.79</v>
       </c>
       <c r="AP263">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ263">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR263">
         <v>1.59</v>
@@ -55743,7 +55755,7 @@
         <v>132</v>
       </c>
       <c r="P264" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q264">
         <v>2.75</v>
@@ -55824,7 +55836,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ264">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR264">
         <v>1.64</v>
@@ -56030,7 +56042,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ265">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR265">
         <v>1.49</v>
@@ -56155,7 +56167,7 @@
         <v>95</v>
       </c>
       <c r="P266" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q266">
         <v>3.2</v>
@@ -56236,7 +56248,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ266">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR266">
         <v>1.37</v>
@@ -56361,7 +56373,7 @@
         <v>95</v>
       </c>
       <c r="P267" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q267">
         <v>3</v>
@@ -56567,7 +56579,7 @@
         <v>128</v>
       </c>
       <c r="P268" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q268">
         <v>3.75</v>
@@ -56648,7 +56660,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ268">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR268">
         <v>1.17</v>
@@ -56851,7 +56863,7 @@
         <v>1.07</v>
       </c>
       <c r="AP269">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ269">
         <v>0.9399999999999999</v>
@@ -57057,7 +57069,7 @@
         <v>0.43</v>
       </c>
       <c r="AP270">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AQ270">
         <v>0.4</v>
@@ -57185,7 +57197,7 @@
         <v>89</v>
       </c>
       <c r="P271" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q271">
         <v>3.4</v>
@@ -57263,7 +57275,7 @@
         <v>1.64</v>
       </c>
       <c r="AP271">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ271">
         <v>1.81</v>
@@ -57597,7 +57609,7 @@
         <v>204</v>
       </c>
       <c r="P273" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q273">
         <v>3.2</v>
@@ -57803,7 +57815,7 @@
         <v>250</v>
       </c>
       <c r="P274" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q274">
         <v>3.1</v>
@@ -58421,7 +58433,7 @@
         <v>252</v>
       </c>
       <c r="P277" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q277">
         <v>4.5</v>
@@ -58627,7 +58639,7 @@
         <v>253</v>
       </c>
       <c r="P278" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q278">
         <v>2.5</v>
@@ -59150,13 +59162,13 @@
         <v>15</v>
       </c>
       <c r="BA280">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB280">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BC280">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BD280">
         <v>0</v>
@@ -59401,6 +59413,1036 @@
         <v>0</v>
       </c>
       <c r="BP281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:68">
+      <c r="A282" s="1">
+        <v>281</v>
+      </c>
+      <c r="B282">
+        <v>7502883</v>
+      </c>
+      <c r="C282" t="s">
+        <v>68</v>
+      </c>
+      <c r="D282" t="s">
+        <v>69</v>
+      </c>
+      <c r="E282" s="2">
+        <v>45781.29166666666</v>
+      </c>
+      <c r="F282">
+        <v>32</v>
+      </c>
+      <c r="G282" t="s">
+        <v>79</v>
+      </c>
+      <c r="H282" t="s">
+        <v>82</v>
+      </c>
+      <c r="I282">
+        <v>1</v>
+      </c>
+      <c r="J282">
+        <v>0</v>
+      </c>
+      <c r="K282">
+        <v>1</v>
+      </c>
+      <c r="L282">
+        <v>1</v>
+      </c>
+      <c r="M282">
+        <v>0</v>
+      </c>
+      <c r="N282">
+        <v>1</v>
+      </c>
+      <c r="O282" t="s">
+        <v>129</v>
+      </c>
+      <c r="P282" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q282">
+        <v>2.2</v>
+      </c>
+      <c r="R282">
+        <v>2.25</v>
+      </c>
+      <c r="S282">
+        <v>5.5</v>
+      </c>
+      <c r="T282">
+        <v>1.36</v>
+      </c>
+      <c r="U282">
+        <v>3</v>
+      </c>
+      <c r="V282">
+        <v>2.75</v>
+      </c>
+      <c r="W282">
+        <v>1.4</v>
+      </c>
+      <c r="X282">
+        <v>8</v>
+      </c>
+      <c r="Y282">
+        <v>1.08</v>
+      </c>
+      <c r="Z282">
+        <v>1.4</v>
+      </c>
+      <c r="AA282">
+        <v>4</v>
+      </c>
+      <c r="AB282">
+        <v>7.5</v>
+      </c>
+      <c r="AC282">
+        <v>0</v>
+      </c>
+      <c r="AD282">
+        <v>0</v>
+      </c>
+      <c r="AE282">
+        <v>0</v>
+      </c>
+      <c r="AF282">
+        <v>0</v>
+      </c>
+      <c r="AG282">
+        <v>1.91</v>
+      </c>
+      <c r="AH282">
+        <v>1.73</v>
+      </c>
+      <c r="AI282">
+        <v>1.91</v>
+      </c>
+      <c r="AJ282">
+        <v>1.8</v>
+      </c>
+      <c r="AK282">
+        <v>0</v>
+      </c>
+      <c r="AL282">
+        <v>0</v>
+      </c>
+      <c r="AM282">
+        <v>0</v>
+      </c>
+      <c r="AN282">
+        <v>2</v>
+      </c>
+      <c r="AO282">
+        <v>1</v>
+      </c>
+      <c r="AP282">
+        <v>2.06</v>
+      </c>
+      <c r="AQ282">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR282">
+        <v>1.59</v>
+      </c>
+      <c r="AS282">
+        <v>1.26</v>
+      </c>
+      <c r="AT282">
+        <v>2.85</v>
+      </c>
+      <c r="AU282">
+        <v>7</v>
+      </c>
+      <c r="AV282">
+        <v>5</v>
+      </c>
+      <c r="AW282">
+        <v>7</v>
+      </c>
+      <c r="AX282">
+        <v>8</v>
+      </c>
+      <c r="AY282">
+        <v>14</v>
+      </c>
+      <c r="AZ282">
+        <v>13</v>
+      </c>
+      <c r="BA282">
+        <v>-1</v>
+      </c>
+      <c r="BB282">
+        <v>-1</v>
+      </c>
+      <c r="BC282">
+        <v>-1</v>
+      </c>
+      <c r="BD282">
+        <v>0</v>
+      </c>
+      <c r="BE282">
+        <v>0</v>
+      </c>
+      <c r="BF282">
+        <v>0</v>
+      </c>
+      <c r="BG282">
+        <v>0</v>
+      </c>
+      <c r="BH282">
+        <v>0</v>
+      </c>
+      <c r="BI282">
+        <v>0</v>
+      </c>
+      <c r="BJ282">
+        <v>0</v>
+      </c>
+      <c r="BK282">
+        <v>0</v>
+      </c>
+      <c r="BL282">
+        <v>0</v>
+      </c>
+      <c r="BM282">
+        <v>0</v>
+      </c>
+      <c r="BN282">
+        <v>0</v>
+      </c>
+      <c r="BO282">
+        <v>0</v>
+      </c>
+      <c r="BP282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:68">
+      <c r="A283" s="1">
+        <v>282</v>
+      </c>
+      <c r="B283">
+        <v>7502888</v>
+      </c>
+      <c r="C283" t="s">
+        <v>68</v>
+      </c>
+      <c r="D283" t="s">
+        <v>69</v>
+      </c>
+      <c r="E283" s="2">
+        <v>45781.29166666666</v>
+      </c>
+      <c r="F283">
+        <v>32</v>
+      </c>
+      <c r="G283" t="s">
+        <v>78</v>
+      </c>
+      <c r="H283" t="s">
+        <v>86</v>
+      </c>
+      <c r="I283">
+        <v>1</v>
+      </c>
+      <c r="J283">
+        <v>1</v>
+      </c>
+      <c r="K283">
+        <v>2</v>
+      </c>
+      <c r="L283">
+        <v>3</v>
+      </c>
+      <c r="M283">
+        <v>3</v>
+      </c>
+      <c r="N283">
+        <v>6</v>
+      </c>
+      <c r="O283" t="s">
+        <v>256</v>
+      </c>
+      <c r="P283" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q283">
+        <v>2.88</v>
+      </c>
+      <c r="R283">
+        <v>2.1</v>
+      </c>
+      <c r="S283">
+        <v>3.75</v>
+      </c>
+      <c r="T283">
+        <v>1.4</v>
+      </c>
+      <c r="U283">
+        <v>2.75</v>
+      </c>
+      <c r="V283">
+        <v>3</v>
+      </c>
+      <c r="W283">
+        <v>1.36</v>
+      </c>
+      <c r="X283">
+        <v>8</v>
+      </c>
+      <c r="Y283">
+        <v>1.08</v>
+      </c>
+      <c r="Z283">
+        <v>2.2</v>
+      </c>
+      <c r="AA283">
+        <v>3.2</v>
+      </c>
+      <c r="AB283">
+        <v>3.1</v>
+      </c>
+      <c r="AC283">
+        <v>0</v>
+      </c>
+      <c r="AD283">
+        <v>0</v>
+      </c>
+      <c r="AE283">
+        <v>2.9</v>
+      </c>
+      <c r="AF283">
+        <v>1.42</v>
+      </c>
+      <c r="AG283">
+        <v>1.83</v>
+      </c>
+      <c r="AH283">
+        <v>1.8</v>
+      </c>
+      <c r="AI283">
+        <v>1.8</v>
+      </c>
+      <c r="AJ283">
+        <v>1.91</v>
+      </c>
+      <c r="AK283">
+        <v>0</v>
+      </c>
+      <c r="AL283">
+        <v>0</v>
+      </c>
+      <c r="AM283">
+        <v>0</v>
+      </c>
+      <c r="AN283">
+        <v>1.53</v>
+      </c>
+      <c r="AO283">
+        <v>1.33</v>
+      </c>
+      <c r="AP283">
+        <v>1.5</v>
+      </c>
+      <c r="AQ283">
+        <v>1.31</v>
+      </c>
+      <c r="AR283">
+        <v>1.62</v>
+      </c>
+      <c r="AS283">
+        <v>1.45</v>
+      </c>
+      <c r="AT283">
+        <v>3.07</v>
+      </c>
+      <c r="AU283">
+        <v>9</v>
+      </c>
+      <c r="AV283">
+        <v>7</v>
+      </c>
+      <c r="AW283">
+        <v>11</v>
+      </c>
+      <c r="AX283">
+        <v>5</v>
+      </c>
+      <c r="AY283">
+        <v>20</v>
+      </c>
+      <c r="AZ283">
+        <v>12</v>
+      </c>
+      <c r="BA283">
+        <v>13</v>
+      </c>
+      <c r="BB283">
+        <v>1</v>
+      </c>
+      <c r="BC283">
+        <v>14</v>
+      </c>
+      <c r="BD283">
+        <v>0</v>
+      </c>
+      <c r="BE283">
+        <v>0</v>
+      </c>
+      <c r="BF283">
+        <v>0</v>
+      </c>
+      <c r="BG283">
+        <v>0</v>
+      </c>
+      <c r="BH283">
+        <v>0</v>
+      </c>
+      <c r="BI283">
+        <v>0</v>
+      </c>
+      <c r="BJ283">
+        <v>0</v>
+      </c>
+      <c r="BK283">
+        <v>0</v>
+      </c>
+      <c r="BL283">
+        <v>0</v>
+      </c>
+      <c r="BM283">
+        <v>0</v>
+      </c>
+      <c r="BN283">
+        <v>0</v>
+      </c>
+      <c r="BO283">
+        <v>0</v>
+      </c>
+      <c r="BP283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:68">
+      <c r="A284" s="1">
+        <v>283</v>
+      </c>
+      <c r="B284">
+        <v>7502891</v>
+      </c>
+      <c r="C284" t="s">
+        <v>68</v>
+      </c>
+      <c r="D284" t="s">
+        <v>69</v>
+      </c>
+      <c r="E284" s="2">
+        <v>45781.41666666666</v>
+      </c>
+      <c r="F284">
+        <v>32</v>
+      </c>
+      <c r="G284" t="s">
+        <v>71</v>
+      </c>
+      <c r="H284" t="s">
+        <v>72</v>
+      </c>
+      <c r="I284">
+        <v>1</v>
+      </c>
+      <c r="J284">
+        <v>2</v>
+      </c>
+      <c r="K284">
+        <v>3</v>
+      </c>
+      <c r="L284">
+        <v>1</v>
+      </c>
+      <c r="M284">
+        <v>2</v>
+      </c>
+      <c r="N284">
+        <v>3</v>
+      </c>
+      <c r="O284" t="s">
+        <v>197</v>
+      </c>
+      <c r="P284" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q284">
+        <v>3.2</v>
+      </c>
+      <c r="R284">
+        <v>2.05</v>
+      </c>
+      <c r="S284">
+        <v>3.6</v>
+      </c>
+      <c r="T284">
+        <v>1.44</v>
+      </c>
+      <c r="U284">
+        <v>2.63</v>
+      </c>
+      <c r="V284">
+        <v>3.25</v>
+      </c>
+      <c r="W284">
+        <v>1.33</v>
+      </c>
+      <c r="X284">
+        <v>9</v>
+      </c>
+      <c r="Y284">
+        <v>1.07</v>
+      </c>
+      <c r="Z284">
+        <v>2.7</v>
+      </c>
+      <c r="AA284">
+        <v>3.1</v>
+      </c>
+      <c r="AB284">
+        <v>2.5</v>
+      </c>
+      <c r="AC284">
+        <v>0</v>
+      </c>
+      <c r="AD284">
+        <v>0</v>
+      </c>
+      <c r="AE284">
+        <v>0</v>
+      </c>
+      <c r="AF284">
+        <v>0</v>
+      </c>
+      <c r="AG284">
+        <v>2.05</v>
+      </c>
+      <c r="AH284">
+        <v>1.61</v>
+      </c>
+      <c r="AI284">
+        <v>1.83</v>
+      </c>
+      <c r="AJ284">
+        <v>1.83</v>
+      </c>
+      <c r="AK284">
+        <v>0</v>
+      </c>
+      <c r="AL284">
+        <v>0</v>
+      </c>
+      <c r="AM284">
+        <v>0</v>
+      </c>
+      <c r="AN284">
+        <v>1.2</v>
+      </c>
+      <c r="AO284">
+        <v>0.73</v>
+      </c>
+      <c r="AP284">
+        <v>1.13</v>
+      </c>
+      <c r="AQ284">
+        <v>0.88</v>
+      </c>
+      <c r="AR284">
+        <v>1.32</v>
+      </c>
+      <c r="AS284">
+        <v>1.24</v>
+      </c>
+      <c r="AT284">
+        <v>2.56</v>
+      </c>
+      <c r="AU284">
+        <v>4</v>
+      </c>
+      <c r="AV284">
+        <v>4</v>
+      </c>
+      <c r="AW284">
+        <v>9</v>
+      </c>
+      <c r="AX284">
+        <v>4</v>
+      </c>
+      <c r="AY284">
+        <v>13</v>
+      </c>
+      <c r="AZ284">
+        <v>8</v>
+      </c>
+      <c r="BA284">
+        <v>-1</v>
+      </c>
+      <c r="BB284">
+        <v>-1</v>
+      </c>
+      <c r="BC284">
+        <v>-1</v>
+      </c>
+      <c r="BD284">
+        <v>0</v>
+      </c>
+      <c r="BE284">
+        <v>0</v>
+      </c>
+      <c r="BF284">
+        <v>0</v>
+      </c>
+      <c r="BG284">
+        <v>0</v>
+      </c>
+      <c r="BH284">
+        <v>0</v>
+      </c>
+      <c r="BI284">
+        <v>0</v>
+      </c>
+      <c r="BJ284">
+        <v>0</v>
+      </c>
+      <c r="BK284">
+        <v>0</v>
+      </c>
+      <c r="BL284">
+        <v>0</v>
+      </c>
+      <c r="BM284">
+        <v>0</v>
+      </c>
+      <c r="BN284">
+        <v>0</v>
+      </c>
+      <c r="BO284">
+        <v>0</v>
+      </c>
+      <c r="BP284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:68">
+      <c r="A285" s="1">
+        <v>284</v>
+      </c>
+      <c r="B285">
+        <v>7502890</v>
+      </c>
+      <c r="C285" t="s">
+        <v>68</v>
+      </c>
+      <c r="D285" t="s">
+        <v>69</v>
+      </c>
+      <c r="E285" s="2">
+        <v>45781.47916666666</v>
+      </c>
+      <c r="F285">
+        <v>32</v>
+      </c>
+      <c r="G285" t="s">
+        <v>70</v>
+      </c>
+      <c r="H285" t="s">
+        <v>83</v>
+      </c>
+      <c r="I285">
+        <v>0</v>
+      </c>
+      <c r="J285">
+        <v>0</v>
+      </c>
+      <c r="K285">
+        <v>0</v>
+      </c>
+      <c r="L285">
+        <v>1</v>
+      </c>
+      <c r="M285">
+        <v>1</v>
+      </c>
+      <c r="N285">
+        <v>2</v>
+      </c>
+      <c r="O285" t="s">
+        <v>257</v>
+      </c>
+      <c r="P285" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q285">
+        <v>2.75</v>
+      </c>
+      <c r="R285">
+        <v>2.1</v>
+      </c>
+      <c r="S285">
+        <v>4.33</v>
+      </c>
+      <c r="T285">
+        <v>1.44</v>
+      </c>
+      <c r="U285">
+        <v>2.63</v>
+      </c>
+      <c r="V285">
+        <v>3.25</v>
+      </c>
+      <c r="W285">
+        <v>1.33</v>
+      </c>
+      <c r="X285">
+        <v>9</v>
+      </c>
+      <c r="Y285">
+        <v>1.07</v>
+      </c>
+      <c r="Z285">
+        <v>1.95</v>
+      </c>
+      <c r="AA285">
+        <v>3.3</v>
+      </c>
+      <c r="AB285">
+        <v>3.7</v>
+      </c>
+      <c r="AC285">
+        <v>0</v>
+      </c>
+      <c r="AD285">
+        <v>0</v>
+      </c>
+      <c r="AE285">
+        <v>0</v>
+      </c>
+      <c r="AF285">
+        <v>0</v>
+      </c>
+      <c r="AG285">
+        <v>2</v>
+      </c>
+      <c r="AH285">
+        <v>1.67</v>
+      </c>
+      <c r="AI285">
+        <v>1.83</v>
+      </c>
+      <c r="AJ285">
+        <v>1.83</v>
+      </c>
+      <c r="AK285">
+        <v>0</v>
+      </c>
+      <c r="AL285">
+        <v>0</v>
+      </c>
+      <c r="AM285">
+        <v>0</v>
+      </c>
+      <c r="AN285">
+        <v>1.07</v>
+      </c>
+      <c r="AO285">
+        <v>1.27</v>
+      </c>
+      <c r="AP285">
+        <v>1.06</v>
+      </c>
+      <c r="AQ285">
+        <v>1.25</v>
+      </c>
+      <c r="AR285">
+        <v>1.63</v>
+      </c>
+      <c r="AS285">
+        <v>1.32</v>
+      </c>
+      <c r="AT285">
+        <v>2.95</v>
+      </c>
+      <c r="AU285">
+        <v>3</v>
+      </c>
+      <c r="AV285">
+        <v>2</v>
+      </c>
+      <c r="AW285">
+        <v>4</v>
+      </c>
+      <c r="AX285">
+        <v>2</v>
+      </c>
+      <c r="AY285">
+        <v>7</v>
+      </c>
+      <c r="AZ285">
+        <v>4</v>
+      </c>
+      <c r="BA285">
+        <v>-1</v>
+      </c>
+      <c r="BB285">
+        <v>-1</v>
+      </c>
+      <c r="BC285">
+        <v>-1</v>
+      </c>
+      <c r="BD285">
+        <v>0</v>
+      </c>
+      <c r="BE285">
+        <v>0</v>
+      </c>
+      <c r="BF285">
+        <v>0</v>
+      </c>
+      <c r="BG285">
+        <v>0</v>
+      </c>
+      <c r="BH285">
+        <v>0</v>
+      </c>
+      <c r="BI285">
+        <v>0</v>
+      </c>
+      <c r="BJ285">
+        <v>0</v>
+      </c>
+      <c r="BK285">
+        <v>0</v>
+      </c>
+      <c r="BL285">
+        <v>0</v>
+      </c>
+      <c r="BM285">
+        <v>0</v>
+      </c>
+      <c r="BN285">
+        <v>0</v>
+      </c>
+      <c r="BO285">
+        <v>0</v>
+      </c>
+      <c r="BP285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:68">
+      <c r="A286" s="1">
+        <v>285</v>
+      </c>
+      <c r="B286">
+        <v>7502889</v>
+      </c>
+      <c r="C286" t="s">
+        <v>68</v>
+      </c>
+      <c r="D286" t="s">
+        <v>69</v>
+      </c>
+      <c r="E286" s="2">
+        <v>45781.58333333334</v>
+      </c>
+      <c r="F286">
+        <v>32</v>
+      </c>
+      <c r="G286" t="s">
+        <v>87</v>
+      </c>
+      <c r="H286" t="s">
+        <v>85</v>
+      </c>
+      <c r="I286">
+        <v>1</v>
+      </c>
+      <c r="J286">
+        <v>0</v>
+      </c>
+      <c r="K286">
+        <v>1</v>
+      </c>
+      <c r="L286">
+        <v>2</v>
+      </c>
+      <c r="M286">
+        <v>1</v>
+      </c>
+      <c r="N286">
+        <v>3</v>
+      </c>
+      <c r="O286" t="s">
+        <v>258</v>
+      </c>
+      <c r="P286" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q286">
+        <v>2.88</v>
+      </c>
+      <c r="R286">
+        <v>2</v>
+      </c>
+      <c r="S286">
+        <v>4.33</v>
+      </c>
+      <c r="T286">
+        <v>1.5</v>
+      </c>
+      <c r="U286">
+        <v>2.5</v>
+      </c>
+      <c r="V286">
+        <v>3.4</v>
+      </c>
+      <c r="W286">
+        <v>1.3</v>
+      </c>
+      <c r="X286">
+        <v>10</v>
+      </c>
+      <c r="Y286">
+        <v>1.06</v>
+      </c>
+      <c r="Z286">
+        <v>1.77</v>
+      </c>
+      <c r="AA286">
+        <v>3.4</v>
+      </c>
+      <c r="AB286">
+        <v>4.3</v>
+      </c>
+      <c r="AC286">
+        <v>0</v>
+      </c>
+      <c r="AD286">
+        <v>0</v>
+      </c>
+      <c r="AE286">
+        <v>0</v>
+      </c>
+      <c r="AF286">
+        <v>0</v>
+      </c>
+      <c r="AG286">
+        <v>2.25</v>
+      </c>
+      <c r="AH286">
+        <v>1.53</v>
+      </c>
+      <c r="AI286">
+        <v>2</v>
+      </c>
+      <c r="AJ286">
+        <v>1.73</v>
+      </c>
+      <c r="AK286">
+        <v>0</v>
+      </c>
+      <c r="AL286">
+        <v>0</v>
+      </c>
+      <c r="AM286">
+        <v>0</v>
+      </c>
+      <c r="AN286">
+        <v>2.07</v>
+      </c>
+      <c r="AO286">
+        <v>1.67</v>
+      </c>
+      <c r="AP286">
+        <v>2.13</v>
+      </c>
+      <c r="AQ286">
+        <v>1.56</v>
+      </c>
+      <c r="AR286">
+        <v>1.61</v>
+      </c>
+      <c r="AS286">
+        <v>1.4</v>
+      </c>
+      <c r="AT286">
+        <v>3.01</v>
+      </c>
+      <c r="AU286">
+        <v>6</v>
+      </c>
+      <c r="AV286">
+        <v>3</v>
+      </c>
+      <c r="AW286">
+        <v>8</v>
+      </c>
+      <c r="AX286">
+        <v>1</v>
+      </c>
+      <c r="AY286">
+        <v>14</v>
+      </c>
+      <c r="AZ286">
+        <v>4</v>
+      </c>
+      <c r="BA286">
+        <v>-1</v>
+      </c>
+      <c r="BB286">
+        <v>-1</v>
+      </c>
+      <c r="BC286">
+        <v>-1</v>
+      </c>
+      <c r="BD286">
+        <v>0</v>
+      </c>
+      <c r="BE286">
+        <v>0</v>
+      </c>
+      <c r="BF286">
+        <v>0</v>
+      </c>
+      <c r="BG286">
+        <v>0</v>
+      </c>
+      <c r="BH286">
+        <v>0</v>
+      </c>
+      <c r="BI286">
+        <v>0</v>
+      </c>
+      <c r="BJ286">
+        <v>0</v>
+      </c>
+      <c r="BK286">
+        <v>0</v>
+      </c>
+      <c r="BL286">
+        <v>0</v>
+      </c>
+      <c r="BM286">
+        <v>0</v>
+      </c>
+      <c r="BN286">
+        <v>0</v>
+      </c>
+      <c r="BO286">
+        <v>0</v>
+      </c>
+      <c r="BP286">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="385">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -778,6 +778,9 @@
     <t>['47', '55', '87']</t>
   </si>
   <si>
+    <t>['4', '17', '62', '67', '85']</t>
+  </si>
+  <si>
     <t>['21', '24', '83', '87', '90']</t>
   </si>
   <si>
@@ -1159,6 +1162,9 @@
     <t>['45+5']</t>
   </si>
   <si>
+    <t>['31', '52']</t>
+  </si>
+  <si>
     <t>['18', '50', '90+1']</t>
   </si>
   <si>
@@ -1524,7 +1530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP286"/>
+  <dimension ref="A1:BP289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1783,7 +1789,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q2">
         <v>2.16</v>
@@ -1989,7 +1995,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q3">
         <v>3.58</v>
@@ -2195,7 +2201,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q4">
         <v>3.15</v>
@@ -2607,7 +2613,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2685,7 +2691,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ6">
         <v>0.9399999999999999</v>
@@ -2813,7 +2819,7 @@
         <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -3100,7 +3106,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ8">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3225,7 +3231,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -3637,7 +3643,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3924,7 +3930,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ12">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4049,7 +4055,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q13">
         <v>2.38</v>
@@ -4255,7 +4261,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q14">
         <v>3.73</v>
@@ -4461,7 +4467,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q15">
         <v>3.51</v>
@@ -4667,7 +4673,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q16">
         <v>2.38</v>
@@ -4951,7 +4957,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ17">
         <v>0.88</v>
@@ -5157,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ18">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5285,7 +5291,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q19">
         <v>2.79</v>
@@ -5491,7 +5497,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5572,7 +5578,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ20">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR20">
         <v>1.01</v>
@@ -6109,7 +6115,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -6521,7 +6527,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q25">
         <v>2.91</v>
@@ -6599,7 +6605,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ25">
         <v>1.69</v>
@@ -6933,7 +6939,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q27">
         <v>3.25</v>
@@ -7217,7 +7223,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ28">
         <v>1.81</v>
@@ -7345,7 +7351,7 @@
         <v>89</v>
       </c>
       <c r="P29" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -7551,7 +7557,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -7963,7 +7969,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -8044,7 +8050,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ32">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR32">
         <v>2.27</v>
@@ -8375,7 +8381,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8581,7 +8587,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q35">
         <v>2.57</v>
@@ -8787,7 +8793,7 @@
         <v>89</v>
       </c>
       <c r="P36" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q36">
         <v>2.5</v>
@@ -8865,10 +8871,10 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ36">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR36">
         <v>0.91</v>
@@ -9199,7 +9205,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9405,7 +9411,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9817,7 +9823,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q41">
         <v>2.1</v>
@@ -9898,7 +9904,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ41">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR41">
         <v>1.49</v>
@@ -10023,7 +10029,7 @@
         <v>89</v>
       </c>
       <c r="P42" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q42">
         <v>3.1</v>
@@ -10307,7 +10313,7 @@
         <v>0.5</v>
       </c>
       <c r="AP43">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ43">
         <v>0.75</v>
@@ -10435,7 +10441,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -10513,7 +10519,7 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ44">
         <v>0.9399999999999999</v>
@@ -10641,7 +10647,7 @@
         <v>89</v>
       </c>
       <c r="P45" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q45">
         <v>2.85</v>
@@ -11053,7 +11059,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q47">
         <v>2.6</v>
@@ -11131,10 +11137,10 @@
         <v>1.5</v>
       </c>
       <c r="AP47">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ47">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR47">
         <v>1.36</v>
@@ -11259,7 +11265,7 @@
         <v>89</v>
       </c>
       <c r="P48" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11465,7 +11471,7 @@
         <v>89</v>
       </c>
       <c r="P49" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -11877,7 +11883,7 @@
         <v>89</v>
       </c>
       <c r="P51" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -12495,7 +12501,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12782,7 +12788,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ55">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR55">
         <v>1.78</v>
@@ -12907,7 +12913,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q56">
         <v>3.08</v>
@@ -13113,7 +13119,7 @@
         <v>109</v>
       </c>
       <c r="P57" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13525,7 +13531,7 @@
         <v>89</v>
       </c>
       <c r="P59" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -14221,7 +14227,7 @@
         <v>2.33</v>
       </c>
       <c r="AP62">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ62">
         <v>1.63</v>
@@ -14430,7 +14436,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ63">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR63">
         <v>1.24</v>
@@ -14633,7 +14639,7 @@
         <v>1.33</v>
       </c>
       <c r="AP64">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ64">
         <v>1.56</v>
@@ -14761,7 +14767,7 @@
         <v>129</v>
       </c>
       <c r="P65" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -15173,7 +15179,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q67">
         <v>3.12</v>
@@ -15379,7 +15385,7 @@
         <v>89</v>
       </c>
       <c r="P68" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q68">
         <v>2.96</v>
@@ -15666,7 +15672,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ69">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR69">
         <v>1.69</v>
@@ -15869,7 +15875,7 @@
         <v>1.33</v>
       </c>
       <c r="AP70">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ70">
         <v>1.25</v>
@@ -16078,7 +16084,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ71">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR71">
         <v>0.8</v>
@@ -16409,7 +16415,7 @@
         <v>89</v>
       </c>
       <c r="P73" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q73">
         <v>2.92</v>
@@ -16487,7 +16493,7 @@
         <v>1.25</v>
       </c>
       <c r="AP73">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ73">
         <v>0.9399999999999999</v>
@@ -16615,7 +16621,7 @@
         <v>89</v>
       </c>
       <c r="P74" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16821,7 +16827,7 @@
         <v>97</v>
       </c>
       <c r="P75" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q75">
         <v>3.04</v>
@@ -17027,7 +17033,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q76">
         <v>2.8</v>
@@ -17105,7 +17111,7 @@
         <v>2</v>
       </c>
       <c r="AP76">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ76">
         <v>1.69</v>
@@ -17314,7 +17320,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ77">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR77">
         <v>1.55</v>
@@ -17439,7 +17445,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -18469,7 +18475,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q83">
         <v>2.36</v>
@@ -18753,7 +18759,7 @@
         <v>1.75</v>
       </c>
       <c r="AP84">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ84">
         <v>0.9399999999999999</v>
@@ -19087,7 +19093,7 @@
         <v>144</v>
       </c>
       <c r="P86" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q86">
         <v>2.38</v>
@@ -19168,7 +19174,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ86">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR86">
         <v>1.78</v>
@@ -19499,7 +19505,7 @@
         <v>127</v>
       </c>
       <c r="P88" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q88">
         <v>2.85</v>
@@ -19580,7 +19586,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ88">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR88">
         <v>1.05</v>
@@ -19911,7 +19917,7 @@
         <v>89</v>
       </c>
       <c r="P90" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q90">
         <v>3.09</v>
@@ -20117,7 +20123,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q91">
         <v>3.05</v>
@@ -20195,7 +20201,7 @@
         <v>2</v>
       </c>
       <c r="AP91">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ91">
         <v>1</v>
@@ -20323,7 +20329,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q92">
         <v>3.5</v>
@@ -20529,7 +20535,7 @@
         <v>89</v>
       </c>
       <c r="P93" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q93">
         <v>3.64</v>
@@ -20735,7 +20741,7 @@
         <v>108</v>
       </c>
       <c r="P94" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q94">
         <v>3.35</v>
@@ -20941,7 +20947,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q95">
         <v>0</v>
@@ -21353,7 +21359,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21431,10 +21437,10 @@
         <v>1.2</v>
       </c>
       <c r="AP97">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ97">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR97">
         <v>1.52</v>
@@ -21559,7 +21565,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q98">
         <v>3.3</v>
@@ -21765,7 +21771,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q99">
         <v>2.99</v>
@@ -22589,7 +22595,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q103">
         <v>2.6</v>
@@ -22670,7 +22676,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ103">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR103">
         <v>1.71</v>
@@ -23001,7 +23007,7 @@
         <v>125</v>
       </c>
       <c r="P105" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q105">
         <v>3.3</v>
@@ -23207,7 +23213,7 @@
         <v>155</v>
       </c>
       <c r="P106" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q106">
         <v>3.38</v>
@@ -23413,7 +23419,7 @@
         <v>156</v>
       </c>
       <c r="P107" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q107">
         <v>2.62</v>
@@ -23491,10 +23497,10 @@
         <v>1</v>
       </c>
       <c r="AP107">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ107">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR107">
         <v>1.21</v>
@@ -23825,7 +23831,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q109">
         <v>2.29</v>
@@ -24649,7 +24655,7 @@
         <v>89</v>
       </c>
       <c r="P113" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q113">
         <v>2.83</v>
@@ -24727,7 +24733,7 @@
         <v>1.17</v>
       </c>
       <c r="AP113">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ113">
         <v>1.63</v>
@@ -24855,7 +24861,7 @@
         <v>160</v>
       </c>
       <c r="P114" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -25267,7 +25273,7 @@
         <v>161</v>
       </c>
       <c r="P116" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q116">
         <v>3.86</v>
@@ -25348,7 +25354,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ116">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR116">
         <v>1.1</v>
@@ -25473,7 +25479,7 @@
         <v>162</v>
       </c>
       <c r="P117" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q117">
         <v>4.05</v>
@@ -25757,7 +25763,7 @@
         <v>0.5</v>
       </c>
       <c r="AP118">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ118">
         <v>0.75</v>
@@ -26503,7 +26509,7 @@
         <v>165</v>
       </c>
       <c r="P122" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q122">
         <v>3.4</v>
@@ -26581,7 +26587,7 @@
         <v>0.83</v>
       </c>
       <c r="AP122">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ122">
         <v>0.88</v>
@@ -26915,7 +26921,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q124">
         <v>2.84</v>
@@ -27327,7 +27333,7 @@
         <v>89</v>
       </c>
       <c r="P126" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q126">
         <v>2.41</v>
@@ -27408,7 +27414,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ126">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR126">
         <v>1.58</v>
@@ -27739,7 +27745,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q128">
         <v>2.1</v>
@@ -28026,7 +28032,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ129">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR129">
         <v>1.3</v>
@@ -28151,7 +28157,7 @@
         <v>171</v>
       </c>
       <c r="P130" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q130">
         <v>2.49</v>
@@ -28563,7 +28569,7 @@
         <v>173</v>
       </c>
       <c r="P132" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q132">
         <v>2.94</v>
@@ -28641,7 +28647,7 @@
         <v>1.86</v>
       </c>
       <c r="AP132">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ132">
         <v>1.69</v>
@@ -28769,7 +28775,7 @@
         <v>161</v>
       </c>
       <c r="P133" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -28850,7 +28856,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ133">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR133">
         <v>1.63</v>
@@ -28975,7 +28981,7 @@
         <v>174</v>
       </c>
       <c r="P134" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q134">
         <v>4.33</v>
@@ -29465,7 +29471,7 @@
         <v>1.5</v>
       </c>
       <c r="AP136">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ136">
         <v>1</v>
@@ -29593,7 +29599,7 @@
         <v>176</v>
       </c>
       <c r="P137" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q137">
         <v>3.12</v>
@@ -29671,7 +29677,7 @@
         <v>1.57</v>
       </c>
       <c r="AP137">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ137">
         <v>1.31</v>
@@ -30005,7 +30011,7 @@
         <v>177</v>
       </c>
       <c r="P139" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q139">
         <v>1.99</v>
@@ -30292,7 +30298,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ140">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR140">
         <v>1.48</v>
@@ -30417,7 +30423,7 @@
         <v>89</v>
       </c>
       <c r="P141" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q141">
         <v>2.6</v>
@@ -30495,7 +30501,7 @@
         <v>2.29</v>
       </c>
       <c r="AP141">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ141">
         <v>1.25</v>
@@ -30829,7 +30835,7 @@
         <v>128</v>
       </c>
       <c r="P143" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q143">
         <v>2.65</v>
@@ -31035,7 +31041,7 @@
         <v>89</v>
       </c>
       <c r="P144" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q144">
         <v>4.33</v>
@@ -31322,7 +31328,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ145">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR145">
         <v>1.33</v>
@@ -31447,7 +31453,7 @@
         <v>181</v>
       </c>
       <c r="P146" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q146">
         <v>2.88</v>
@@ -31653,7 +31659,7 @@
         <v>182</v>
       </c>
       <c r="P147" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31859,7 +31865,7 @@
         <v>183</v>
       </c>
       <c r="P148" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q148">
         <v>2.36</v>
@@ -31937,7 +31943,7 @@
         <v>0.38</v>
       </c>
       <c r="AP148">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ148">
         <v>0.75</v>
@@ -32477,7 +32483,7 @@
         <v>129</v>
       </c>
       <c r="P151" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q151">
         <v>2.78</v>
@@ -32683,7 +32689,7 @@
         <v>185</v>
       </c>
       <c r="P152" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q152">
         <v>2.81</v>
@@ -32764,7 +32770,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ152">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR152">
         <v>1.34</v>
@@ -33095,7 +33101,7 @@
         <v>186</v>
       </c>
       <c r="P154" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q154">
         <v>3.38</v>
@@ -33379,7 +33385,7 @@
         <v>0.63</v>
       </c>
       <c r="AP155">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ155">
         <v>0.88</v>
@@ -33585,7 +33591,7 @@
         <v>1.33</v>
       </c>
       <c r="AP156">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ156">
         <v>0.9399999999999999</v>
@@ -33919,7 +33925,7 @@
         <v>190</v>
       </c>
       <c r="P158" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q158">
         <v>3.5</v>
@@ -34206,7 +34212,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ159">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR159">
         <v>1.72</v>
@@ -34537,7 +34543,7 @@
         <v>193</v>
       </c>
       <c r="P161" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -34618,7 +34624,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ161">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR161">
         <v>1.7</v>
@@ -34949,7 +34955,7 @@
         <v>194</v>
       </c>
       <c r="P163" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q163">
         <v>4.2</v>
@@ -35155,7 +35161,7 @@
         <v>195</v>
       </c>
       <c r="P164" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q164">
         <v>2.55</v>
@@ -35361,7 +35367,7 @@
         <v>89</v>
       </c>
       <c r="P165" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q165">
         <v>3</v>
@@ -35442,7 +35448,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ165">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR165">
         <v>1.57</v>
@@ -35773,7 +35779,7 @@
         <v>196</v>
       </c>
       <c r="P167" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q167">
         <v>2.45</v>
@@ -36057,7 +36063,7 @@
         <v>1.11</v>
       </c>
       <c r="AP168">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ168">
         <v>1.81</v>
@@ -36597,7 +36603,7 @@
         <v>198</v>
       </c>
       <c r="P171" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q171">
         <v>3.84</v>
@@ -37215,7 +37221,7 @@
         <v>200</v>
       </c>
       <c r="P174" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q174">
         <v>3.32</v>
@@ -37833,7 +37839,7 @@
         <v>202</v>
       </c>
       <c r="P177" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q177">
         <v>3.2</v>
@@ -38120,7 +38126,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ178">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR178">
         <v>1.35</v>
@@ -38326,7 +38332,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ179">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR179">
         <v>1.25</v>
@@ -38451,7 +38457,7 @@
         <v>179</v>
       </c>
       <c r="P180" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q180">
         <v>2.97</v>
@@ -38529,7 +38535,7 @@
         <v>1.4</v>
       </c>
       <c r="AP180">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ180">
         <v>1.56</v>
@@ -38863,7 +38869,7 @@
         <v>89</v>
       </c>
       <c r="P182" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q182">
         <v>2.65</v>
@@ -38941,7 +38947,7 @@
         <v>0.78</v>
       </c>
       <c r="AP182">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ182">
         <v>1.25</v>
@@ -39069,7 +39075,7 @@
         <v>205</v>
       </c>
       <c r="P183" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q183">
         <v>2.27</v>
@@ -39687,7 +39693,7 @@
         <v>141</v>
       </c>
       <c r="P186" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q186">
         <v>3.14</v>
@@ -39765,7 +39771,7 @@
         <v>1.22</v>
       </c>
       <c r="AP186">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ186">
         <v>0.9399999999999999</v>
@@ -40099,7 +40105,7 @@
         <v>207</v>
       </c>
       <c r="P188" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q188">
         <v>3.25</v>
@@ -40180,7 +40186,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ188">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR188">
         <v>1.43</v>
@@ -40511,7 +40517,7 @@
         <v>208</v>
       </c>
       <c r="P190" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q190">
         <v>3.6</v>
@@ -40795,7 +40801,7 @@
         <v>1.2</v>
       </c>
       <c r="AP191">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ191">
         <v>1</v>
@@ -40923,7 +40929,7 @@
         <v>123</v>
       </c>
       <c r="P192" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q192">
         <v>2.95</v>
@@ -41210,7 +41216,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ193">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR193">
         <v>1.6</v>
@@ -41335,7 +41341,7 @@
         <v>210</v>
       </c>
       <c r="P194" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q194">
         <v>4.2</v>
@@ -41747,7 +41753,7 @@
         <v>211</v>
       </c>
       <c r="P196" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q196">
         <v>3.2</v>
@@ -41828,7 +41834,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ196">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR196">
         <v>1.34</v>
@@ -41953,7 +41959,7 @@
         <v>212</v>
       </c>
       <c r="P197" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q197">
         <v>3</v>
@@ -42365,7 +42371,7 @@
         <v>214</v>
       </c>
       <c r="P199" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q199">
         <v>2.75</v>
@@ -42649,7 +42655,7 @@
         <v>1.09</v>
       </c>
       <c r="AP200">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ200">
         <v>0.8100000000000001</v>
@@ -42983,7 +42989,7 @@
         <v>123</v>
       </c>
       <c r="P202" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q202">
         <v>4.3</v>
@@ -43267,7 +43273,7 @@
         <v>1.4</v>
       </c>
       <c r="AP203">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ203">
         <v>0.9399999999999999</v>
@@ -43395,7 +43401,7 @@
         <v>117</v>
       </c>
       <c r="P204" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q204">
         <v>3.1</v>
@@ -43807,7 +43813,7 @@
         <v>218</v>
       </c>
       <c r="P206" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q206">
         <v>3.65</v>
@@ -44013,7 +44019,7 @@
         <v>156</v>
       </c>
       <c r="P207" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q207">
         <v>3.45</v>
@@ -44094,7 +44100,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ207">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR207">
         <v>1.41</v>
@@ -44219,7 +44225,7 @@
         <v>197</v>
       </c>
       <c r="P208" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q208">
         <v>3.5</v>
@@ -44425,7 +44431,7 @@
         <v>129</v>
       </c>
       <c r="P209" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q209">
         <v>2.4</v>
@@ -44503,7 +44509,7 @@
         <v>1.18</v>
       </c>
       <c r="AP209">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ209">
         <v>1.31</v>
@@ -44918,7 +44924,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ211">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR211">
         <v>1.57</v>
@@ -45043,7 +45049,7 @@
         <v>220</v>
       </c>
       <c r="P212" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q212">
         <v>2.43</v>
@@ -45124,7 +45130,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ212">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR212">
         <v>1.61</v>
@@ -45249,7 +45255,7 @@
         <v>221</v>
       </c>
       <c r="P213" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q213">
         <v>3.15</v>
@@ -46279,7 +46285,7 @@
         <v>89</v>
       </c>
       <c r="P218" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q218">
         <v>3.6</v>
@@ -46485,7 +46491,7 @@
         <v>224</v>
       </c>
       <c r="P219" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q219">
         <v>3.78</v>
@@ -46563,10 +46569,10 @@
         <v>1.42</v>
       </c>
       <c r="AP219">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ219">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR219">
         <v>1.28</v>
@@ -46691,7 +46697,7 @@
         <v>225</v>
       </c>
       <c r="P220" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q220">
         <v>3.26</v>
@@ -47515,7 +47521,7 @@
         <v>89</v>
       </c>
       <c r="P224" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q224">
         <v>5.44</v>
@@ -47799,7 +47805,7 @@
         <v>1</v>
       </c>
       <c r="AP225">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ225">
         <v>0.8100000000000001</v>
@@ -48133,7 +48139,7 @@
         <v>156</v>
       </c>
       <c r="P227" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q227">
         <v>2.9</v>
@@ -48339,7 +48345,7 @@
         <v>228</v>
       </c>
       <c r="P228" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q228">
         <v>2.6</v>
@@ -48420,7 +48426,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ228">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR228">
         <v>1.52</v>
@@ -49035,7 +49041,7 @@
         <v>1</v>
       </c>
       <c r="AP231">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ231">
         <v>0.9399999999999999</v>
@@ -49450,7 +49456,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ233">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR233">
         <v>1.65</v>
@@ -49987,7 +49993,7 @@
         <v>128</v>
       </c>
       <c r="P236" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q236">
         <v>4.5</v>
@@ -50271,7 +50277,7 @@
         <v>1.38</v>
       </c>
       <c r="AP237">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ237">
         <v>1.56</v>
@@ -50399,7 +50405,7 @@
         <v>233</v>
       </c>
       <c r="P238" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q238">
         <v>2.1</v>
@@ -50605,7 +50611,7 @@
         <v>89</v>
       </c>
       <c r="P239" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q239">
         <v>0</v>
@@ -50811,7 +50817,7 @@
         <v>234</v>
       </c>
       <c r="P240" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q240">
         <v>3</v>
@@ -51223,7 +51229,7 @@
         <v>89</v>
       </c>
       <c r="P242" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q242">
         <v>3.6</v>
@@ -51304,7 +51310,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ242">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR242">
         <v>1.68</v>
@@ -51507,7 +51513,7 @@
         <v>1.08</v>
       </c>
       <c r="AP243">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ243">
         <v>0.9399999999999999</v>
@@ -52459,7 +52465,7 @@
         <v>109</v>
       </c>
       <c r="P248" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q248">
         <v>3.6</v>
@@ -52537,7 +52543,7 @@
         <v>1.54</v>
       </c>
       <c r="AP248">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ248">
         <v>1.81</v>
@@ -52665,7 +52671,7 @@
         <v>199</v>
       </c>
       <c r="P249" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q249">
         <v>2.35</v>
@@ -52746,7 +52752,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ249">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR249">
         <v>1.66</v>
@@ -53158,7 +53164,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ251">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR251">
         <v>1.25</v>
@@ -53283,7 +53289,7 @@
         <v>239</v>
       </c>
       <c r="P252" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q252">
         <v>2.5</v>
@@ -53695,7 +53701,7 @@
         <v>240</v>
       </c>
       <c r="P254" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q254">
         <v>3.5</v>
@@ -54391,7 +54397,7 @@
         <v>0.93</v>
       </c>
       <c r="AP257">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ257">
         <v>0.8100000000000001</v>
@@ -54519,7 +54525,7 @@
         <v>242</v>
       </c>
       <c r="P258" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q258">
         <v>3.26</v>
@@ -54725,7 +54731,7 @@
         <v>95</v>
       </c>
       <c r="P259" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q259">
         <v>2.97</v>
@@ -54803,7 +54809,7 @@
         <v>1.5</v>
       </c>
       <c r="AP259">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ259">
         <v>1.56</v>
@@ -54931,7 +54937,7 @@
         <v>243</v>
       </c>
       <c r="P260" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q260">
         <v>2.26</v>
@@ -55012,7 +55018,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ260">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR260">
         <v>1.88</v>
@@ -55343,7 +55349,7 @@
         <v>244</v>
       </c>
       <c r="P262" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q262">
         <v>3.1</v>
@@ -55755,7 +55761,7 @@
         <v>132</v>
       </c>
       <c r="P264" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q264">
         <v>2.75</v>
@@ -56167,7 +56173,7 @@
         <v>95</v>
       </c>
       <c r="P266" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q266">
         <v>3.2</v>
@@ -56245,7 +56251,7 @@
         <v>1.14</v>
       </c>
       <c r="AP266">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ266">
         <v>1.25</v>
@@ -56373,7 +56379,7 @@
         <v>95</v>
       </c>
       <c r="P267" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q267">
         <v>3</v>
@@ -56454,7 +56460,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ267">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR267">
         <v>1.27</v>
@@ -56579,7 +56585,7 @@
         <v>128</v>
       </c>
       <c r="P268" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q268">
         <v>3.75</v>
@@ -57072,7 +57078,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ270">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR270">
         <v>1.63</v>
@@ -57197,7 +57203,7 @@
         <v>89</v>
       </c>
       <c r="P271" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q271">
         <v>3.4</v>
@@ -57609,7 +57615,7 @@
         <v>204</v>
       </c>
       <c r="P273" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q273">
         <v>3.2</v>
@@ -57815,7 +57821,7 @@
         <v>250</v>
       </c>
       <c r="P274" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q274">
         <v>3.1</v>
@@ -58433,7 +58439,7 @@
         <v>252</v>
       </c>
       <c r="P277" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q277">
         <v>4.5</v>
@@ -58639,7 +58645,7 @@
         <v>253</v>
       </c>
       <c r="P278" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q278">
         <v>2.5</v>
@@ -58803,7 +58809,7 @@
         <v>278</v>
       </c>
       <c r="B279">
-        <v>7502885</v>
+        <v>7502881</v>
       </c>
       <c r="C279" t="s">
         <v>68</v>
@@ -58812,196 +58818,196 @@
         <v>69</v>
       </c>
       <c r="E279" s="2">
-        <v>45779.58333333334</v>
+        <v>45776.66666666666</v>
       </c>
       <c r="F279">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G279" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H279" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I279">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J279">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K279">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L279">
+        <v>0</v>
+      </c>
+      <c r="M279">
+        <v>2</v>
+      </c>
+      <c r="N279">
+        <v>2</v>
+      </c>
+      <c r="O279" t="s">
+        <v>89</v>
+      </c>
+      <c r="P279" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q279">
+        <v>2.88</v>
+      </c>
+      <c r="R279">
+        <v>2.1</v>
+      </c>
+      <c r="S279">
+        <v>3.75</v>
+      </c>
+      <c r="T279">
+        <v>1.44</v>
+      </c>
+      <c r="U279">
+        <v>2.63</v>
+      </c>
+      <c r="V279">
+        <v>3.25</v>
+      </c>
+      <c r="W279">
+        <v>1.33</v>
+      </c>
+      <c r="X279">
+        <v>9</v>
+      </c>
+      <c r="Y279">
+        <v>1.07</v>
+      </c>
+      <c r="Z279">
+        <v>2.1</v>
+      </c>
+      <c r="AA279">
+        <v>3.2</v>
+      </c>
+      <c r="AB279">
+        <v>3.3</v>
+      </c>
+      <c r="AC279">
+        <v>0</v>
+      </c>
+      <c r="AD279">
+        <v>0</v>
+      </c>
+      <c r="AE279">
+        <v>0</v>
+      </c>
+      <c r="AF279">
+        <v>0</v>
+      </c>
+      <c r="AG279">
+        <v>1.95</v>
+      </c>
+      <c r="AH279">
+        <v>1.7</v>
+      </c>
+      <c r="AI279">
+        <v>1.8</v>
+      </c>
+      <c r="AJ279">
+        <v>1.91</v>
+      </c>
+      <c r="AK279">
+        <v>0</v>
+      </c>
+      <c r="AL279">
+        <v>0</v>
+      </c>
+      <c r="AM279">
+        <v>0</v>
+      </c>
+      <c r="AN279">
+        <v>1.67</v>
+      </c>
+      <c r="AO279">
+        <v>1.4</v>
+      </c>
+      <c r="AP279">
+        <v>1.56</v>
+      </c>
+      <c r="AQ279">
+        <v>1.5</v>
+      </c>
+      <c r="AR279">
+        <v>1.62</v>
+      </c>
+      <c r="AS279">
+        <v>1.3</v>
+      </c>
+      <c r="AT279">
+        <v>2.92</v>
+      </c>
+      <c r="AU279">
+        <v>7</v>
+      </c>
+      <c r="AV279">
+        <v>7</v>
+      </c>
+      <c r="AW279">
+        <v>7</v>
+      </c>
+      <c r="AX279">
+        <v>6</v>
+      </c>
+      <c r="AY279">
+        <v>14</v>
+      </c>
+      <c r="AZ279">
+        <v>13</v>
+      </c>
+      <c r="BA279">
+        <v>3</v>
+      </c>
+      <c r="BB279">
         <v>5</v>
       </c>
-      <c r="M279">
-        <v>0</v>
-      </c>
-      <c r="N279">
-        <v>5</v>
-      </c>
-      <c r="O279" t="s">
-        <v>254</v>
-      </c>
-      <c r="P279" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q279">
-        <v>2.38</v>
-      </c>
-      <c r="R279">
-        <v>2.3</v>
-      </c>
-      <c r="S279">
-        <v>4.5</v>
-      </c>
-      <c r="T279">
-        <v>1.33</v>
-      </c>
-      <c r="U279">
-        <v>3.25</v>
-      </c>
-      <c r="V279">
-        <v>2.63</v>
-      </c>
-      <c r="W279">
-        <v>1.44</v>
-      </c>
-      <c r="X279">
-        <v>6.5</v>
-      </c>
-      <c r="Y279">
-        <v>1.11</v>
-      </c>
-      <c r="Z279">
-        <v>1.57</v>
-      </c>
-      <c r="AA279">
-        <v>4</v>
-      </c>
-      <c r="AB279">
-        <v>4.9</v>
-      </c>
-      <c r="AC279">
-        <v>0</v>
-      </c>
-      <c r="AD279">
-        <v>0</v>
-      </c>
-      <c r="AE279">
-        <v>1.21</v>
-      </c>
-      <c r="AF279">
-        <v>3.6</v>
-      </c>
-      <c r="AG279">
-        <v>1.75</v>
-      </c>
-      <c r="AH279">
-        <v>1.85</v>
-      </c>
-      <c r="AI279">
-        <v>1.73</v>
-      </c>
-      <c r="AJ279">
-        <v>2</v>
-      </c>
-      <c r="AK279">
-        <v>1.22</v>
-      </c>
-      <c r="AL279">
-        <v>1.26</v>
-      </c>
-      <c r="AM279">
-        <v>1.96</v>
-      </c>
-      <c r="AN279">
-        <v>1.33</v>
-      </c>
-      <c r="AO279">
-        <v>1</v>
-      </c>
-      <c r="AP279">
-        <v>1.44</v>
-      </c>
-      <c r="AQ279">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AR279">
-        <v>1.57</v>
-      </c>
-      <c r="AS279">
-        <v>1.26</v>
-      </c>
-      <c r="AT279">
-        <v>2.83</v>
-      </c>
-      <c r="AU279">
-        <v>9</v>
-      </c>
-      <c r="AV279">
-        <v>2</v>
-      </c>
-      <c r="AW279">
-        <v>10</v>
-      </c>
-      <c r="AX279">
-        <v>4</v>
-      </c>
-      <c r="AY279">
-        <v>19</v>
-      </c>
-      <c r="AZ279">
-        <v>6</v>
-      </c>
-      <c r="BA279">
-        <v>5</v>
-      </c>
-      <c r="BB279">
-        <v>2</v>
-      </c>
       <c r="BC279">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD279">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="BE279">
-        <v>8.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="BF279">
-        <v>2.55</v>
+        <v>0</v>
       </c>
       <c r="BG279">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="BH279">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="BI279">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="BJ279">
-        <v>2.92</v>
+        <v>0</v>
       </c>
       <c r="BK279">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="BL279">
-        <v>2.19</v>
+        <v>0</v>
       </c>
       <c r="BM279">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="BN279">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="BO279">
-        <v>2.54</v>
+        <v>0</v>
       </c>
       <c r="BP279">
-        <v>1.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:68">
@@ -59009,7 +59015,7 @@
         <v>279</v>
       </c>
       <c r="B280">
-        <v>7502886</v>
+        <v>7502876</v>
       </c>
       <c r="C280" t="s">
         <v>68</v>
@@ -59018,49 +59024,49 @@
         <v>69</v>
       </c>
       <c r="E280" s="2">
-        <v>45780.29166666666</v>
+        <v>45777.58333333334</v>
       </c>
       <c r="F280">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G280" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="H280" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="I280">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J280">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K280">
         <v>2</v>
       </c>
       <c r="L280">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M280">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N280">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O280" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P280" t="s">
-        <v>184</v>
+        <v>89</v>
       </c>
       <c r="Q280">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="R280">
         <v>2.2</v>
       </c>
       <c r="S280">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="T280">
         <v>1.4</v>
@@ -59081,13 +59087,13 @@
         <v>1.08</v>
       </c>
       <c r="Z280">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="AA280">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AB280">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="AC280">
         <v>0</v>
@@ -59102,73 +59108,73 @@
         <v>0</v>
       </c>
       <c r="AG280">
+        <v>1.8</v>
+      </c>
+      <c r="AH280">
         <v>1.85</v>
       </c>
-      <c r="AH280">
-        <v>1.75</v>
-      </c>
       <c r="AI280">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AJ280">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AK280">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="AL280">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="AM280">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="AN280">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AO280">
-        <v>0.87</v>
+        <v>0.4</v>
       </c>
       <c r="AP280">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ280">
-        <v>0.8100000000000001</v>
+        <v>0.38</v>
       </c>
       <c r="AR280">
-        <v>1.3</v>
+        <v>1.55</v>
       </c>
       <c r="AS280">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AT280">
-        <v>2.48</v>
+        <v>2.81</v>
       </c>
       <c r="AU280">
+        <v>7</v>
+      </c>
+      <c r="AV280">
+        <v>2</v>
+      </c>
+      <c r="AW280">
         <v>4</v>
       </c>
-      <c r="AV280">
-        <v>5</v>
-      </c>
-      <c r="AW280">
-        <v>2</v>
-      </c>
       <c r="AX280">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AY280">
+        <v>11</v>
+      </c>
+      <c r="AZ280">
         <v>6</v>
       </c>
-      <c r="AZ280">
-        <v>15</v>
-      </c>
       <c r="BA280">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BB280">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BC280">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BD280">
         <v>0</v>
@@ -59215,7 +59221,7 @@
         <v>280</v>
       </c>
       <c r="B281">
-        <v>7502884</v>
+        <v>7502885</v>
       </c>
       <c r="C281" t="s">
         <v>68</v>
@@ -59224,55 +59230,55 @@
         <v>69</v>
       </c>
       <c r="E281" s="2">
-        <v>45780.47916666666</v>
+        <v>45779.58333333334</v>
       </c>
       <c r="F281">
         <v>32</v>
       </c>
       <c r="G281" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H281" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I281">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J281">
         <v>0</v>
       </c>
       <c r="K281">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L281">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M281">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N281">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O281" t="s">
+        <v>255</v>
+      </c>
+      <c r="P281" t="s">
         <v>89</v>
       </c>
-      <c r="P281" t="s">
-        <v>205</v>
-      </c>
       <c r="Q281">
+        <v>2.38</v>
+      </c>
+      <c r="R281">
+        <v>2.3</v>
+      </c>
+      <c r="S281">
         <v>4.5</v>
       </c>
-      <c r="R281">
-        <v>2.25</v>
-      </c>
-      <c r="S281">
-        <v>2.4</v>
-      </c>
       <c r="T281">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U281">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V281">
         <v>2.63</v>
@@ -59281,19 +59287,19 @@
         <v>1.44</v>
       </c>
       <c r="X281">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y281">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="Z281">
-        <v>3.4</v>
+        <v>1.57</v>
       </c>
       <c r="AA281">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="AB281">
-        <v>1.95</v>
+        <v>4.9</v>
       </c>
       <c r="AC281">
         <v>0</v>
@@ -59302,10 +59308,10 @@
         <v>0</v>
       </c>
       <c r="AE281">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="AF281">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="AG281">
         <v>1.75</v>
@@ -59320,100 +59326,100 @@
         <v>2</v>
       </c>
       <c r="AK281">
-        <v>1.93</v>
+        <v>1.22</v>
       </c>
       <c r="AL281">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="AM281">
-        <v>1.23</v>
+        <v>1.96</v>
       </c>
       <c r="AN281">
         <v>1.33</v>
       </c>
       <c r="AO281">
-        <v>1.73</v>
+        <v>1</v>
       </c>
       <c r="AP281">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ281">
-        <v>1.81</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR281">
-        <v>1.18</v>
+        <v>1.57</v>
       </c>
       <c r="AS281">
-        <v>1.47</v>
+        <v>1.26</v>
       </c>
       <c r="AT281">
-        <v>2.65</v>
+        <v>2.83</v>
       </c>
       <c r="AU281">
+        <v>9</v>
+      </c>
+      <c r="AV281">
+        <v>2</v>
+      </c>
+      <c r="AW281">
+        <v>10</v>
+      </c>
+      <c r="AX281">
         <v>4</v>
       </c>
-      <c r="AV281">
-        <v>4</v>
-      </c>
-      <c r="AW281">
-        <v>14</v>
-      </c>
-      <c r="AX281">
-        <v>10</v>
-      </c>
       <c r="AY281">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ281">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="BA281">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BB281">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BC281">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD281">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="BE281">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="BF281">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="BG281">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="BH281">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="BI281">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="BJ281">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="BK281">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="BL281">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="BM281">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="BN281">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="BO281">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="BP281">
-        <v>0</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="282" spans="1:68">
@@ -59421,7 +59427,7 @@
         <v>281</v>
       </c>
       <c r="B282">
-        <v>7502883</v>
+        <v>7502886</v>
       </c>
       <c r="C282" t="s">
         <v>68</v>
@@ -59430,55 +59436,55 @@
         <v>69</v>
       </c>
       <c r="E282" s="2">
-        <v>45781.29166666666</v>
+        <v>45780.29166666666</v>
       </c>
       <c r="F282">
         <v>32</v>
       </c>
       <c r="G282" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H282" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I282">
         <v>1</v>
       </c>
       <c r="J282">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K282">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L282">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M282">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N282">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O282" t="s">
-        <v>129</v>
+        <v>256</v>
       </c>
       <c r="P282" t="s">
-        <v>89</v>
+        <v>184</v>
       </c>
       <c r="Q282">
+        <v>2.88</v>
+      </c>
+      <c r="R282">
         <v>2.2</v>
       </c>
-      <c r="R282">
-        <v>2.25</v>
-      </c>
       <c r="S282">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="T282">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U282">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V282">
         <v>2.75</v>
@@ -59493,94 +59499,94 @@
         <v>1.08</v>
       </c>
       <c r="Z282">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="AA282">
+        <v>3.3</v>
+      </c>
+      <c r="AB282">
+        <v>3.1</v>
+      </c>
+      <c r="AC282">
+        <v>0</v>
+      </c>
+      <c r="AD282">
+        <v>0</v>
+      </c>
+      <c r="AE282">
+        <v>0</v>
+      </c>
+      <c r="AF282">
+        <v>0</v>
+      </c>
+      <c r="AG282">
+        <v>1.85</v>
+      </c>
+      <c r="AH282">
+        <v>1.75</v>
+      </c>
+      <c r="AI282">
+        <v>1.73</v>
+      </c>
+      <c r="AJ282">
+        <v>2</v>
+      </c>
+      <c r="AK282">
+        <v>1.35</v>
+      </c>
+      <c r="AL282">
+        <v>1.32</v>
+      </c>
+      <c r="AM282">
+        <v>1.65</v>
+      </c>
+      <c r="AN282">
+        <v>1.73</v>
+      </c>
+      <c r="AO282">
+        <v>0.87</v>
+      </c>
+      <c r="AP282">
+        <v>1.81</v>
+      </c>
+      <c r="AQ282">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AR282">
+        <v>1.3</v>
+      </c>
+      <c r="AS282">
+        <v>1.18</v>
+      </c>
+      <c r="AT282">
+        <v>2.48</v>
+      </c>
+      <c r="AU282">
         <v>4</v>
-      </c>
-      <c r="AB282">
-        <v>7.5</v>
-      </c>
-      <c r="AC282">
-        <v>0</v>
-      </c>
-      <c r="AD282">
-        <v>0</v>
-      </c>
-      <c r="AE282">
-        <v>0</v>
-      </c>
-      <c r="AF282">
-        <v>0</v>
-      </c>
-      <c r="AG282">
-        <v>1.91</v>
-      </c>
-      <c r="AH282">
-        <v>1.73</v>
-      </c>
-      <c r="AI282">
-        <v>1.91</v>
-      </c>
-      <c r="AJ282">
-        <v>1.8</v>
-      </c>
-      <c r="AK282">
-        <v>0</v>
-      </c>
-      <c r="AL282">
-        <v>0</v>
-      </c>
-      <c r="AM282">
-        <v>0</v>
-      </c>
-      <c r="AN282">
-        <v>2</v>
-      </c>
-      <c r="AO282">
-        <v>1</v>
-      </c>
-      <c r="AP282">
-        <v>2.06</v>
-      </c>
-      <c r="AQ282">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AR282">
-        <v>1.59</v>
-      </c>
-      <c r="AS282">
-        <v>1.26</v>
-      </c>
-      <c r="AT282">
-        <v>2.85</v>
-      </c>
-      <c r="AU282">
-        <v>7</v>
       </c>
       <c r="AV282">
         <v>5</v>
       </c>
       <c r="AW282">
+        <v>2</v>
+      </c>
+      <c r="AX282">
+        <v>10</v>
+      </c>
+      <c r="AY282">
+        <v>6</v>
+      </c>
+      <c r="AZ282">
+        <v>15</v>
+      </c>
+      <c r="BA282">
+        <v>4</v>
+      </c>
+      <c r="BB282">
         <v>7</v>
       </c>
-      <c r="AX282">
-        <v>8</v>
-      </c>
-      <c r="AY282">
-        <v>14</v>
-      </c>
-      <c r="AZ282">
-        <v>13</v>
-      </c>
-      <c r="BA282">
-        <v>-1</v>
-      </c>
-      <c r="BB282">
-        <v>-1</v>
-      </c>
       <c r="BC282">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BD282">
         <v>0</v>
@@ -59627,7 +59633,7 @@
         <v>282</v>
       </c>
       <c r="B283">
-        <v>7502888</v>
+        <v>7502884</v>
       </c>
       <c r="C283" t="s">
         <v>68</v>
@@ -59636,157 +59642,157 @@
         <v>69</v>
       </c>
       <c r="E283" s="2">
-        <v>45781.29166666666</v>
+        <v>45780.47916666666</v>
       </c>
       <c r="F283">
         <v>32</v>
       </c>
       <c r="G283" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H283" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I283">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J283">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K283">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L283">
+        <v>0</v>
+      </c>
+      <c r="M283">
+        <v>1</v>
+      </c>
+      <c r="N283">
+        <v>1</v>
+      </c>
+      <c r="O283" t="s">
+        <v>89</v>
+      </c>
+      <c r="P283" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q283">
+        <v>4.5</v>
+      </c>
+      <c r="R283">
+        <v>2.25</v>
+      </c>
+      <c r="S283">
+        <v>2.4</v>
+      </c>
+      <c r="T283">
+        <v>1.36</v>
+      </c>
+      <c r="U283">
         <v>3</v>
       </c>
-      <c r="M283">
-        <v>3</v>
-      </c>
-      <c r="N283">
+      <c r="V283">
+        <v>2.63</v>
+      </c>
+      <c r="W283">
+        <v>1.44</v>
+      </c>
+      <c r="X283">
+        <v>7</v>
+      </c>
+      <c r="Y283">
+        <v>1.1</v>
+      </c>
+      <c r="Z283">
+        <v>3.4</v>
+      </c>
+      <c r="AA283">
+        <v>3.5</v>
+      </c>
+      <c r="AB283">
+        <v>1.95</v>
+      </c>
+      <c r="AC283">
+        <v>0</v>
+      </c>
+      <c r="AD283">
+        <v>0</v>
+      </c>
+      <c r="AE283">
+        <v>1.2</v>
+      </c>
+      <c r="AF283">
+        <v>3.7</v>
+      </c>
+      <c r="AG283">
+        <v>1.75</v>
+      </c>
+      <c r="AH283">
+        <v>1.85</v>
+      </c>
+      <c r="AI283">
+        <v>1.73</v>
+      </c>
+      <c r="AJ283">
+        <v>2</v>
+      </c>
+      <c r="AK283">
+        <v>1.93</v>
+      </c>
+      <c r="AL283">
+        <v>1.27</v>
+      </c>
+      <c r="AM283">
+        <v>1.23</v>
+      </c>
+      <c r="AN283">
+        <v>1.33</v>
+      </c>
+      <c r="AO283">
+        <v>1.73</v>
+      </c>
+      <c r="AP283">
+        <v>1.25</v>
+      </c>
+      <c r="AQ283">
+        <v>1.81</v>
+      </c>
+      <c r="AR283">
+        <v>1.18</v>
+      </c>
+      <c r="AS283">
+        <v>1.47</v>
+      </c>
+      <c r="AT283">
+        <v>2.65</v>
+      </c>
+      <c r="AU283">
+        <v>4</v>
+      </c>
+      <c r="AV283">
+        <v>4</v>
+      </c>
+      <c r="AW283">
+        <v>14</v>
+      </c>
+      <c r="AX283">
+        <v>10</v>
+      </c>
+      <c r="AY283">
+        <v>18</v>
+      </c>
+      <c r="AZ283">
+        <v>14</v>
+      </c>
+      <c r="BA283">
+        <v>2</v>
+      </c>
+      <c r="BB283">
+        <v>4</v>
+      </c>
+      <c r="BC283">
         <v>6</v>
-      </c>
-      <c r="O283" t="s">
-        <v>256</v>
-      </c>
-      <c r="P283" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q283">
-        <v>2.88</v>
-      </c>
-      <c r="R283">
-        <v>2.1</v>
-      </c>
-      <c r="S283">
-        <v>3.75</v>
-      </c>
-      <c r="T283">
-        <v>1.4</v>
-      </c>
-      <c r="U283">
-        <v>2.75</v>
-      </c>
-      <c r="V283">
-        <v>3</v>
-      </c>
-      <c r="W283">
-        <v>1.36</v>
-      </c>
-      <c r="X283">
-        <v>8</v>
-      </c>
-      <c r="Y283">
-        <v>1.08</v>
-      </c>
-      <c r="Z283">
-        <v>2.2</v>
-      </c>
-      <c r="AA283">
-        <v>3.2</v>
-      </c>
-      <c r="AB283">
-        <v>3.1</v>
-      </c>
-      <c r="AC283">
-        <v>0</v>
-      </c>
-      <c r="AD283">
-        <v>0</v>
-      </c>
-      <c r="AE283">
-        <v>2.9</v>
-      </c>
-      <c r="AF283">
-        <v>1.42</v>
-      </c>
-      <c r="AG283">
-        <v>1.83</v>
-      </c>
-      <c r="AH283">
-        <v>1.8</v>
-      </c>
-      <c r="AI283">
-        <v>1.8</v>
-      </c>
-      <c r="AJ283">
-        <v>1.91</v>
-      </c>
-      <c r="AK283">
-        <v>0</v>
-      </c>
-      <c r="AL283">
-        <v>0</v>
-      </c>
-      <c r="AM283">
-        <v>0</v>
-      </c>
-      <c r="AN283">
-        <v>1.53</v>
-      </c>
-      <c r="AO283">
-        <v>1.33</v>
-      </c>
-      <c r="AP283">
-        <v>1.5</v>
-      </c>
-      <c r="AQ283">
-        <v>1.31</v>
-      </c>
-      <c r="AR283">
-        <v>1.62</v>
-      </c>
-      <c r="AS283">
-        <v>1.45</v>
-      </c>
-      <c r="AT283">
-        <v>3.07</v>
-      </c>
-      <c r="AU283">
-        <v>9</v>
-      </c>
-      <c r="AV283">
-        <v>7</v>
-      </c>
-      <c r="AW283">
-        <v>11</v>
-      </c>
-      <c r="AX283">
-        <v>5</v>
-      </c>
-      <c r="AY283">
-        <v>20</v>
-      </c>
-      <c r="AZ283">
-        <v>12</v>
-      </c>
-      <c r="BA283">
-        <v>13</v>
-      </c>
-      <c r="BB283">
-        <v>1</v>
-      </c>
-      <c r="BC283">
-        <v>14</v>
       </c>
       <c r="BD283">
         <v>0</v>
@@ -59833,7 +59839,7 @@
         <v>283</v>
       </c>
       <c r="B284">
-        <v>7502891</v>
+        <v>7502883</v>
       </c>
       <c r="C284" t="s">
         <v>68</v>
@@ -59842,76 +59848,76 @@
         <v>69</v>
       </c>
       <c r="E284" s="2">
-        <v>45781.41666666666</v>
+        <v>45781.29166666666</v>
       </c>
       <c r="F284">
         <v>32</v>
       </c>
       <c r="G284" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="H284" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="I284">
         <v>1</v>
       </c>
       <c r="J284">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K284">
+        <v>1</v>
+      </c>
+      <c r="L284">
+        <v>1</v>
+      </c>
+      <c r="M284">
+        <v>0</v>
+      </c>
+      <c r="N284">
+        <v>1</v>
+      </c>
+      <c r="O284" t="s">
+        <v>129</v>
+      </c>
+      <c r="P284" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q284">
+        <v>2.2</v>
+      </c>
+      <c r="R284">
+        <v>2.25</v>
+      </c>
+      <c r="S284">
+        <v>5.5</v>
+      </c>
+      <c r="T284">
+        <v>1.36</v>
+      </c>
+      <c r="U284">
         <v>3</v>
       </c>
-      <c r="L284">
-        <v>1</v>
-      </c>
-      <c r="M284">
-        <v>2</v>
-      </c>
-      <c r="N284">
-        <v>3</v>
-      </c>
-      <c r="O284" t="s">
-        <v>197</v>
-      </c>
-      <c r="P284" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q284">
-        <v>3.2</v>
-      </c>
-      <c r="R284">
-        <v>2.05</v>
-      </c>
-      <c r="S284">
-        <v>3.6</v>
-      </c>
-      <c r="T284">
-        <v>1.44</v>
-      </c>
-      <c r="U284">
-        <v>2.63</v>
-      </c>
       <c r="V284">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="W284">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="X284">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y284">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="Z284">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="AA284">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="AB284">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="AC284">
         <v>0</v>
@@ -59926,16 +59932,16 @@
         <v>0</v>
       </c>
       <c r="AG284">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="AH284">
-        <v>1.61</v>
+        <v>1.73</v>
       </c>
       <c r="AI284">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AJ284">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AK284">
         <v>0</v>
@@ -59947,52 +59953,52 @@
         <v>0</v>
       </c>
       <c r="AN284">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="AO284">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="AP284">
-        <v>1.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ284">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR284">
-        <v>1.32</v>
+        <v>1.59</v>
       </c>
       <c r="AS284">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="AT284">
-        <v>2.56</v>
+        <v>2.85</v>
       </c>
       <c r="AU284">
+        <v>7</v>
+      </c>
+      <c r="AV284">
+        <v>5</v>
+      </c>
+      <c r="AW284">
+        <v>7</v>
+      </c>
+      <c r="AX284">
+        <v>8</v>
+      </c>
+      <c r="AY284">
+        <v>14</v>
+      </c>
+      <c r="AZ284">
+        <v>13</v>
+      </c>
+      <c r="BA284">
+        <v>6</v>
+      </c>
+      <c r="BB284">
         <v>4</v>
       </c>
-      <c r="AV284">
-        <v>4</v>
-      </c>
-      <c r="AW284">
-        <v>9</v>
-      </c>
-      <c r="AX284">
-        <v>4</v>
-      </c>
-      <c r="AY284">
-        <v>13</v>
-      </c>
-      <c r="AZ284">
-        <v>8</v>
-      </c>
-      <c r="BA284">
-        <v>-1</v>
-      </c>
-      <c r="BB284">
-        <v>-1</v>
-      </c>
       <c r="BC284">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BD284">
         <v>0</v>
@@ -60039,7 +60045,7 @@
         <v>284</v>
       </c>
       <c r="B285">
-        <v>7502890</v>
+        <v>7502888</v>
       </c>
       <c r="C285" t="s">
         <v>68</v>
@@ -60048,157 +60054,157 @@
         <v>69</v>
       </c>
       <c r="E285" s="2">
-        <v>45781.47916666666</v>
+        <v>45781.29166666666</v>
       </c>
       <c r="F285">
         <v>32</v>
       </c>
       <c r="G285" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H285" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I285">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J285">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K285">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L285">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M285">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N285">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O285" t="s">
         <v>257</v>
       </c>
       <c r="P285" t="s">
-        <v>93</v>
+        <v>383</v>
       </c>
       <c r="Q285">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="R285">
         <v>2.1</v>
       </c>
       <c r="S285">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="T285">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U285">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V285">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W285">
+        <v>1.36</v>
+      </c>
+      <c r="X285">
+        <v>8</v>
+      </c>
+      <c r="Y285">
+        <v>1.08</v>
+      </c>
+      <c r="Z285">
+        <v>2.2</v>
+      </c>
+      <c r="AA285">
+        <v>3.2</v>
+      </c>
+      <c r="AB285">
+        <v>3.1</v>
+      </c>
+      <c r="AC285">
+        <v>0</v>
+      </c>
+      <c r="AD285">
+        <v>0</v>
+      </c>
+      <c r="AE285">
+        <v>2.9</v>
+      </c>
+      <c r="AF285">
+        <v>1.42</v>
+      </c>
+      <c r="AG285">
+        <v>1.83</v>
+      </c>
+      <c r="AH285">
+        <v>1.8</v>
+      </c>
+      <c r="AI285">
+        <v>1.8</v>
+      </c>
+      <c r="AJ285">
+        <v>1.91</v>
+      </c>
+      <c r="AK285">
+        <v>0</v>
+      </c>
+      <c r="AL285">
+        <v>0</v>
+      </c>
+      <c r="AM285">
+        <v>0</v>
+      </c>
+      <c r="AN285">
+        <v>1.53</v>
+      </c>
+      <c r="AO285">
         <v>1.33</v>
       </c>
-      <c r="X285">
+      <c r="AP285">
+        <v>1.5</v>
+      </c>
+      <c r="AQ285">
+        <v>1.31</v>
+      </c>
+      <c r="AR285">
+        <v>1.62</v>
+      </c>
+      <c r="AS285">
+        <v>1.45</v>
+      </c>
+      <c r="AT285">
+        <v>3.07</v>
+      </c>
+      <c r="AU285">
         <v>9</v>
       </c>
-      <c r="Y285">
-        <v>1.07</v>
-      </c>
-      <c r="Z285">
-        <v>1.95</v>
-      </c>
-      <c r="AA285">
-        <v>3.3</v>
-      </c>
-      <c r="AB285">
-        <v>3.7</v>
-      </c>
-      <c r="AC285">
-        <v>0</v>
-      </c>
-      <c r="AD285">
-        <v>0</v>
-      </c>
-      <c r="AE285">
-        <v>0</v>
-      </c>
-      <c r="AF285">
-        <v>0</v>
-      </c>
-      <c r="AG285">
-        <v>2</v>
-      </c>
-      <c r="AH285">
-        <v>1.67</v>
-      </c>
-      <c r="AI285">
-        <v>1.83</v>
-      </c>
-      <c r="AJ285">
-        <v>1.83</v>
-      </c>
-      <c r="AK285">
-        <v>0</v>
-      </c>
-      <c r="AL285">
-        <v>0</v>
-      </c>
-      <c r="AM285">
-        <v>0</v>
-      </c>
-      <c r="AN285">
-        <v>1.07</v>
-      </c>
-      <c r="AO285">
-        <v>1.27</v>
-      </c>
-      <c r="AP285">
-        <v>1.06</v>
-      </c>
-      <c r="AQ285">
-        <v>1.25</v>
-      </c>
-      <c r="AR285">
-        <v>1.63</v>
-      </c>
-      <c r="AS285">
-        <v>1.32</v>
-      </c>
-      <c r="AT285">
-        <v>2.95</v>
-      </c>
-      <c r="AU285">
-        <v>3</v>
-      </c>
       <c r="AV285">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AW285">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AX285">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AY285">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="AZ285">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="BA285">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BB285">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BC285">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BD285">
         <v>0</v>
@@ -60245,7 +60251,7 @@
         <v>285</v>
       </c>
       <c r="B286">
-        <v>7502889</v>
+        <v>7502891</v>
       </c>
       <c r="C286" t="s">
         <v>68</v>
@@ -60254,195 +60260,813 @@
         <v>69</v>
       </c>
       <c r="E286" s="2">
-        <v>45781.58333333334</v>
+        <v>45781.41666666666</v>
       </c>
       <c r="F286">
         <v>32</v>
       </c>
       <c r="G286" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="H286" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="I286">
         <v>1</v>
       </c>
       <c r="J286">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K286">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L286">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M286">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N286">
         <v>3</v>
       </c>
       <c r="O286" t="s">
+        <v>197</v>
+      </c>
+      <c r="P286" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q286">
+        <v>3.2</v>
+      </c>
+      <c r="R286">
+        <v>2.05</v>
+      </c>
+      <c r="S286">
+        <v>3.6</v>
+      </c>
+      <c r="T286">
+        <v>1.44</v>
+      </c>
+      <c r="U286">
+        <v>2.63</v>
+      </c>
+      <c r="V286">
+        <v>3.25</v>
+      </c>
+      <c r="W286">
+        <v>1.33</v>
+      </c>
+      <c r="X286">
+        <v>9</v>
+      </c>
+      <c r="Y286">
+        <v>1.07</v>
+      </c>
+      <c r="Z286">
+        <v>2.7</v>
+      </c>
+      <c r="AA286">
+        <v>3.1</v>
+      </c>
+      <c r="AB286">
+        <v>2.5</v>
+      </c>
+      <c r="AC286">
+        <v>0</v>
+      </c>
+      <c r="AD286">
+        <v>0</v>
+      </c>
+      <c r="AE286">
+        <v>0</v>
+      </c>
+      <c r="AF286">
+        <v>0</v>
+      </c>
+      <c r="AG286">
+        <v>2.05</v>
+      </c>
+      <c r="AH286">
+        <v>1.61</v>
+      </c>
+      <c r="AI286">
+        <v>1.83</v>
+      </c>
+      <c r="AJ286">
+        <v>1.83</v>
+      </c>
+      <c r="AK286">
+        <v>0</v>
+      </c>
+      <c r="AL286">
+        <v>0</v>
+      </c>
+      <c r="AM286">
+        <v>0</v>
+      </c>
+      <c r="AN286">
+        <v>1.2</v>
+      </c>
+      <c r="AO286">
+        <v>0.73</v>
+      </c>
+      <c r="AP286">
+        <v>1.13</v>
+      </c>
+      <c r="AQ286">
+        <v>0.88</v>
+      </c>
+      <c r="AR286">
+        <v>1.32</v>
+      </c>
+      <c r="AS286">
+        <v>1.24</v>
+      </c>
+      <c r="AT286">
+        <v>2.56</v>
+      </c>
+      <c r="AU286">
+        <v>4</v>
+      </c>
+      <c r="AV286">
+        <v>4</v>
+      </c>
+      <c r="AW286">
+        <v>9</v>
+      </c>
+      <c r="AX286">
+        <v>4</v>
+      </c>
+      <c r="AY286">
+        <v>13</v>
+      </c>
+      <c r="AZ286">
+        <v>8</v>
+      </c>
+      <c r="BA286">
+        <v>2</v>
+      </c>
+      <c r="BB286">
+        <v>2</v>
+      </c>
+      <c r="BC286">
+        <v>4</v>
+      </c>
+      <c r="BD286">
+        <v>0</v>
+      </c>
+      <c r="BE286">
+        <v>0</v>
+      </c>
+      <c r="BF286">
+        <v>0</v>
+      </c>
+      <c r="BG286">
+        <v>0</v>
+      </c>
+      <c r="BH286">
+        <v>0</v>
+      </c>
+      <c r="BI286">
+        <v>0</v>
+      </c>
+      <c r="BJ286">
+        <v>0</v>
+      </c>
+      <c r="BK286">
+        <v>0</v>
+      </c>
+      <c r="BL286">
+        <v>0</v>
+      </c>
+      <c r="BM286">
+        <v>0</v>
+      </c>
+      <c r="BN286">
+        <v>0</v>
+      </c>
+      <c r="BO286">
+        <v>0</v>
+      </c>
+      <c r="BP286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:68">
+      <c r="A287" s="1">
+        <v>286</v>
+      </c>
+      <c r="B287">
+        <v>7502890</v>
+      </c>
+      <c r="C287" t="s">
+        <v>68</v>
+      </c>
+      <c r="D287" t="s">
+        <v>69</v>
+      </c>
+      <c r="E287" s="2">
+        <v>45781.47916666666</v>
+      </c>
+      <c r="F287">
+        <v>32</v>
+      </c>
+      <c r="G287" t="s">
+        <v>70</v>
+      </c>
+      <c r="H287" t="s">
+        <v>83</v>
+      </c>
+      <c r="I287">
+        <v>0</v>
+      </c>
+      <c r="J287">
+        <v>0</v>
+      </c>
+      <c r="K287">
+        <v>0</v>
+      </c>
+      <c r="L287">
+        <v>1</v>
+      </c>
+      <c r="M287">
+        <v>1</v>
+      </c>
+      <c r="N287">
+        <v>2</v>
+      </c>
+      <c r="O287" t="s">
         <v>258</v>
       </c>
-      <c r="P286" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q286">
+      <c r="P287" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q287">
+        <v>2.75</v>
+      </c>
+      <c r="R287">
+        <v>2.1</v>
+      </c>
+      <c r="S287">
+        <v>4.33</v>
+      </c>
+      <c r="T287">
+        <v>1.44</v>
+      </c>
+      <c r="U287">
+        <v>2.63</v>
+      </c>
+      <c r="V287">
+        <v>3.25</v>
+      </c>
+      <c r="W287">
+        <v>1.33</v>
+      </c>
+      <c r="X287">
+        <v>9</v>
+      </c>
+      <c r="Y287">
+        <v>1.07</v>
+      </c>
+      <c r="Z287">
+        <v>1.95</v>
+      </c>
+      <c r="AA287">
+        <v>3.3</v>
+      </c>
+      <c r="AB287">
+        <v>3.7</v>
+      </c>
+      <c r="AC287">
+        <v>0</v>
+      </c>
+      <c r="AD287">
+        <v>0</v>
+      </c>
+      <c r="AE287">
+        <v>0</v>
+      </c>
+      <c r="AF287">
+        <v>0</v>
+      </c>
+      <c r="AG287">
+        <v>2</v>
+      </c>
+      <c r="AH287">
+        <v>1.67</v>
+      </c>
+      <c r="AI287">
+        <v>1.83</v>
+      </c>
+      <c r="AJ287">
+        <v>1.83</v>
+      </c>
+      <c r="AK287">
+        <v>0</v>
+      </c>
+      <c r="AL287">
+        <v>0</v>
+      </c>
+      <c r="AM287">
+        <v>0</v>
+      </c>
+      <c r="AN287">
+        <v>1.07</v>
+      </c>
+      <c r="AO287">
+        <v>1.27</v>
+      </c>
+      <c r="AP287">
+        <v>1.06</v>
+      </c>
+      <c r="AQ287">
+        <v>1.25</v>
+      </c>
+      <c r="AR287">
+        <v>1.63</v>
+      </c>
+      <c r="AS287">
+        <v>1.32</v>
+      </c>
+      <c r="AT287">
+        <v>2.95</v>
+      </c>
+      <c r="AU287">
+        <v>3</v>
+      </c>
+      <c r="AV287">
+        <v>2</v>
+      </c>
+      <c r="AW287">
+        <v>4</v>
+      </c>
+      <c r="AX287">
+        <v>2</v>
+      </c>
+      <c r="AY287">
+        <v>7</v>
+      </c>
+      <c r="AZ287">
+        <v>4</v>
+      </c>
+      <c r="BA287">
+        <v>1</v>
+      </c>
+      <c r="BB287">
+        <v>3</v>
+      </c>
+      <c r="BC287">
+        <v>4</v>
+      </c>
+      <c r="BD287">
+        <v>0</v>
+      </c>
+      <c r="BE287">
+        <v>0</v>
+      </c>
+      <c r="BF287">
+        <v>0</v>
+      </c>
+      <c r="BG287">
+        <v>0</v>
+      </c>
+      <c r="BH287">
+        <v>0</v>
+      </c>
+      <c r="BI287">
+        <v>0</v>
+      </c>
+      <c r="BJ287">
+        <v>0</v>
+      </c>
+      <c r="BK287">
+        <v>0</v>
+      </c>
+      <c r="BL287">
+        <v>0</v>
+      </c>
+      <c r="BM287">
+        <v>0</v>
+      </c>
+      <c r="BN287">
+        <v>0</v>
+      </c>
+      <c r="BO287">
+        <v>0</v>
+      </c>
+      <c r="BP287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:68">
+      <c r="A288" s="1">
+        <v>287</v>
+      </c>
+      <c r="B288">
+        <v>7502889</v>
+      </c>
+      <c r="C288" t="s">
+        <v>68</v>
+      </c>
+      <c r="D288" t="s">
+        <v>69</v>
+      </c>
+      <c r="E288" s="2">
+        <v>45781.58333333334</v>
+      </c>
+      <c r="F288">
+        <v>32</v>
+      </c>
+      <c r="G288" t="s">
+        <v>87</v>
+      </c>
+      <c r="H288" t="s">
+        <v>85</v>
+      </c>
+      <c r="I288">
+        <v>1</v>
+      </c>
+      <c r="J288">
+        <v>0</v>
+      </c>
+      <c r="K288">
+        <v>1</v>
+      </c>
+      <c r="L288">
+        <v>2</v>
+      </c>
+      <c r="M288">
+        <v>1</v>
+      </c>
+      <c r="N288">
+        <v>3</v>
+      </c>
+      <c r="O288" t="s">
+        <v>259</v>
+      </c>
+      <c r="P288" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q288">
         <v>2.88</v>
       </c>
-      <c r="R286">
-        <v>2</v>
-      </c>
-      <c r="S286">
+      <c r="R288">
+        <v>2</v>
+      </c>
+      <c r="S288">
         <v>4.33</v>
       </c>
-      <c r="T286">
+      <c r="T288">
         <v>1.5</v>
       </c>
-      <c r="U286">
+      <c r="U288">
         <v>2.5</v>
       </c>
-      <c r="V286">
+      <c r="V288">
         <v>3.4</v>
       </c>
-      <c r="W286">
+      <c r="W288">
         <v>1.3</v>
       </c>
-      <c r="X286">
+      <c r="X288">
         <v>10</v>
       </c>
-      <c r="Y286">
+      <c r="Y288">
         <v>1.06</v>
       </c>
-      <c r="Z286">
+      <c r="Z288">
         <v>1.77</v>
       </c>
-      <c r="AA286">
+      <c r="AA288">
         <v>3.4</v>
       </c>
-      <c r="AB286">
+      <c r="AB288">
         <v>4.3</v>
       </c>
-      <c r="AC286">
-        <v>0</v>
-      </c>
-      <c r="AD286">
-        <v>0</v>
-      </c>
-      <c r="AE286">
-        <v>0</v>
-      </c>
-      <c r="AF286">
-        <v>0</v>
-      </c>
-      <c r="AG286">
+      <c r="AC288">
+        <v>0</v>
+      </c>
+      <c r="AD288">
+        <v>0</v>
+      </c>
+      <c r="AE288">
+        <v>0</v>
+      </c>
+      <c r="AF288">
+        <v>0</v>
+      </c>
+      <c r="AG288">
         <v>2.25</v>
       </c>
-      <c r="AH286">
+      <c r="AH288">
         <v>1.53</v>
       </c>
-      <c r="AI286">
-        <v>2</v>
-      </c>
-      <c r="AJ286">
+      <c r="AI288">
+        <v>2</v>
+      </c>
+      <c r="AJ288">
         <v>1.73</v>
       </c>
-      <c r="AK286">
-        <v>0</v>
-      </c>
-      <c r="AL286">
-        <v>0</v>
-      </c>
-      <c r="AM286">
-        <v>0</v>
-      </c>
-      <c r="AN286">
+      <c r="AK288">
+        <v>0</v>
+      </c>
+      <c r="AL288">
+        <v>0</v>
+      </c>
+      <c r="AM288">
+        <v>0</v>
+      </c>
+      <c r="AN288">
         <v>2.07</v>
       </c>
-      <c r="AO286">
+      <c r="AO288">
         <v>1.67</v>
       </c>
-      <c r="AP286">
+      <c r="AP288">
         <v>2.13</v>
       </c>
-      <c r="AQ286">
+      <c r="AQ288">
         <v>1.56</v>
       </c>
-      <c r="AR286">
+      <c r="AR288">
         <v>1.61</v>
       </c>
-      <c r="AS286">
+      <c r="AS288">
         <v>1.4</v>
       </c>
-      <c r="AT286">
+      <c r="AT288">
         <v>3.01</v>
       </c>
-      <c r="AU286">
+      <c r="AU288">
         <v>6</v>
       </c>
-      <c r="AV286">
+      <c r="AV288">
         <v>3</v>
       </c>
-      <c r="AW286">
+      <c r="AW288">
         <v>8</v>
       </c>
-      <c r="AX286">
-        <v>1</v>
-      </c>
-      <c r="AY286">
+      <c r="AX288">
+        <v>1</v>
+      </c>
+      <c r="AY288">
         <v>14</v>
       </c>
-      <c r="AZ286">
+      <c r="AZ288">
         <v>4</v>
       </c>
-      <c r="BA286">
-        <v>-1</v>
-      </c>
-      <c r="BB286">
-        <v>-1</v>
-      </c>
-      <c r="BC286">
-        <v>-1</v>
-      </c>
-      <c r="BD286">
-        <v>0</v>
-      </c>
-      <c r="BE286">
-        <v>0</v>
-      </c>
-      <c r="BF286">
-        <v>0</v>
-      </c>
-      <c r="BG286">
-        <v>0</v>
-      </c>
-      <c r="BH286">
-        <v>0</v>
-      </c>
-      <c r="BI286">
-        <v>0</v>
-      </c>
-      <c r="BJ286">
-        <v>0</v>
-      </c>
-      <c r="BK286">
-        <v>0</v>
-      </c>
-      <c r="BL286">
-        <v>0</v>
-      </c>
-      <c r="BM286">
-        <v>0</v>
-      </c>
-      <c r="BN286">
-        <v>0</v>
-      </c>
-      <c r="BO286">
-        <v>0</v>
-      </c>
-      <c r="BP286">
+      <c r="BA288">
+        <v>7</v>
+      </c>
+      <c r="BB288">
+        <v>1</v>
+      </c>
+      <c r="BC288">
+        <v>8</v>
+      </c>
+      <c r="BD288">
+        <v>0</v>
+      </c>
+      <c r="BE288">
+        <v>0</v>
+      </c>
+      <c r="BF288">
+        <v>0</v>
+      </c>
+      <c r="BG288">
+        <v>0</v>
+      </c>
+      <c r="BH288">
+        <v>0</v>
+      </c>
+      <c r="BI288">
+        <v>0</v>
+      </c>
+      <c r="BJ288">
+        <v>0</v>
+      </c>
+      <c r="BK288">
+        <v>0</v>
+      </c>
+      <c r="BL288">
+        <v>0</v>
+      </c>
+      <c r="BM288">
+        <v>0</v>
+      </c>
+      <c r="BN288">
+        <v>0</v>
+      </c>
+      <c r="BO288">
+        <v>0</v>
+      </c>
+      <c r="BP288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:68">
+      <c r="A289" s="1">
+        <v>288</v>
+      </c>
+      <c r="B289">
+        <v>7502887</v>
+      </c>
+      <c r="C289" t="s">
+        <v>68</v>
+      </c>
+      <c r="D289" t="s">
+        <v>69</v>
+      </c>
+      <c r="E289" s="2">
+        <v>45782.58333333334</v>
+      </c>
+      <c r="F289">
+        <v>32</v>
+      </c>
+      <c r="G289" t="s">
+        <v>74</v>
+      </c>
+      <c r="H289" t="s">
+        <v>75</v>
+      </c>
+      <c r="I289">
+        <v>0</v>
+      </c>
+      <c r="J289">
+        <v>1</v>
+      </c>
+      <c r="K289">
+        <v>1</v>
+      </c>
+      <c r="L289">
+        <v>0</v>
+      </c>
+      <c r="M289">
+        <v>1</v>
+      </c>
+      <c r="N289">
+        <v>1</v>
+      </c>
+      <c r="O289" t="s">
+        <v>89</v>
+      </c>
+      <c r="P289" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q289">
+        <v>3.4</v>
+      </c>
+      <c r="R289">
+        <v>2.2</v>
+      </c>
+      <c r="S289">
+        <v>3</v>
+      </c>
+      <c r="T289">
+        <v>1.4</v>
+      </c>
+      <c r="U289">
+        <v>2.75</v>
+      </c>
+      <c r="V289">
+        <v>2.75</v>
+      </c>
+      <c r="W289">
+        <v>1.4</v>
+      </c>
+      <c r="X289">
+        <v>8</v>
+      </c>
+      <c r="Y289">
+        <v>1.08</v>
+      </c>
+      <c r="Z289">
+        <v>2.8</v>
+      </c>
+      <c r="AA289">
+        <v>3.2</v>
+      </c>
+      <c r="AB289">
+        <v>2.4</v>
+      </c>
+      <c r="AC289">
+        <v>0</v>
+      </c>
+      <c r="AD289">
+        <v>0</v>
+      </c>
+      <c r="AE289">
+        <v>0</v>
+      </c>
+      <c r="AF289">
+        <v>0</v>
+      </c>
+      <c r="AG289">
+        <v>1.85</v>
+      </c>
+      <c r="AH289">
+        <v>1.75</v>
+      </c>
+      <c r="AI289">
+        <v>1.73</v>
+      </c>
+      <c r="AJ289">
+        <v>2</v>
+      </c>
+      <c r="AK289">
+        <v>0</v>
+      </c>
+      <c r="AL289">
+        <v>0</v>
+      </c>
+      <c r="AM289">
+        <v>0</v>
+      </c>
+      <c r="AN289">
+        <v>1.53</v>
+      </c>
+      <c r="AO289">
+        <v>1.6</v>
+      </c>
+      <c r="AP289">
+        <v>1.44</v>
+      </c>
+      <c r="AQ289">
+        <v>1.69</v>
+      </c>
+      <c r="AR289">
+        <v>1.37</v>
+      </c>
+      <c r="AS289">
+        <v>1.43</v>
+      </c>
+      <c r="AT289">
+        <v>2.8</v>
+      </c>
+      <c r="AU289">
+        <v>4</v>
+      </c>
+      <c r="AV289">
+        <v>8</v>
+      </c>
+      <c r="AW289">
+        <v>6</v>
+      </c>
+      <c r="AX289">
+        <v>11</v>
+      </c>
+      <c r="AY289">
+        <v>10</v>
+      </c>
+      <c r="AZ289">
+        <v>19</v>
+      </c>
+      <c r="BA289">
+        <v>7</v>
+      </c>
+      <c r="BB289">
+        <v>2</v>
+      </c>
+      <c r="BC289">
+        <v>9</v>
+      </c>
+      <c r="BD289">
+        <v>0</v>
+      </c>
+      <c r="BE289">
+        <v>0</v>
+      </c>
+      <c r="BF289">
+        <v>0</v>
+      </c>
+      <c r="BG289">
+        <v>0</v>
+      </c>
+      <c r="BH289">
+        <v>0</v>
+      </c>
+      <c r="BI289">
+        <v>0</v>
+      </c>
+      <c r="BJ289">
+        <v>0</v>
+      </c>
+      <c r="BK289">
+        <v>0</v>
+      </c>
+      <c r="BL289">
+        <v>0</v>
+      </c>
+      <c r="BM289">
+        <v>0</v>
+      </c>
+      <c r="BN289">
+        <v>0</v>
+      </c>
+      <c r="BO289">
+        <v>0</v>
+      </c>
+      <c r="BP289">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="386">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -796,6 +796,9 @@
     <t>['9', '90+1']</t>
   </si>
   <si>
+    <t>['63', '68']</t>
+  </si>
+  <si>
     <t>['24', '27']</t>
   </si>
   <si>
@@ -1530,7 +1533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP289"/>
+  <dimension ref="A1:BP290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1789,7 +1792,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q2">
         <v>2.16</v>
@@ -1995,7 +1998,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q3">
         <v>3.58</v>
@@ -2201,7 +2204,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q4">
         <v>3.15</v>
@@ -2613,7 +2616,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2819,7 +2822,7 @@
         <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -3231,7 +3234,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -3643,7 +3646,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3930,7 +3933,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ12">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4055,7 +4058,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q13">
         <v>2.38</v>
@@ -4261,7 +4264,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q14">
         <v>3.73</v>
@@ -4467,7 +4470,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q15">
         <v>3.51</v>
@@ -4545,7 +4548,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ15">
         <v>0.9399999999999999</v>
@@ -4673,7 +4676,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q16">
         <v>2.38</v>
@@ -5291,7 +5294,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q19">
         <v>2.79</v>
@@ -5497,7 +5500,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -6115,7 +6118,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -6527,7 +6530,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q25">
         <v>2.91</v>
@@ -6939,7 +6942,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q27">
         <v>3.25</v>
@@ -7351,7 +7354,7 @@
         <v>89</v>
       </c>
       <c r="P29" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -7557,7 +7560,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -7969,7 +7972,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -8381,7 +8384,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8459,7 +8462,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ34">
         <v>1.31</v>
@@ -8587,7 +8590,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q35">
         <v>2.57</v>
@@ -8793,7 +8796,7 @@
         <v>89</v>
       </c>
       <c r="P36" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q36">
         <v>2.5</v>
@@ -8874,7 +8877,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ36">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AR36">
         <v>0.91</v>
@@ -9205,7 +9208,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9411,7 +9414,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9823,7 +9826,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q41">
         <v>2.1</v>
@@ -10029,7 +10032,7 @@
         <v>89</v>
       </c>
       <c r="P42" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q42">
         <v>3.1</v>
@@ -10441,7 +10444,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -10647,7 +10650,7 @@
         <v>89</v>
       </c>
       <c r="P45" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q45">
         <v>2.85</v>
@@ -10931,7 +10934,7 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ46">
         <v>0.9399999999999999</v>
@@ -11059,7 +11062,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q47">
         <v>2.6</v>
@@ -11265,7 +11268,7 @@
         <v>89</v>
       </c>
       <c r="P48" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11471,7 +11474,7 @@
         <v>89</v>
       </c>
       <c r="P49" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -11883,7 +11886,7 @@
         <v>89</v>
       </c>
       <c r="P51" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -12501,7 +12504,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12788,7 +12791,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ55">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AR55">
         <v>1.78</v>
@@ -12913,7 +12916,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q56">
         <v>3.08</v>
@@ -13119,7 +13122,7 @@
         <v>109</v>
       </c>
       <c r="P57" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13531,7 +13534,7 @@
         <v>89</v>
       </c>
       <c r="P59" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -14021,7 +14024,7 @@
         <v>2</v>
       </c>
       <c r="AP61">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ61">
         <v>1.81</v>
@@ -14767,7 +14770,7 @@
         <v>129</v>
       </c>
       <c r="P65" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -15179,7 +15182,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q67">
         <v>3.12</v>
@@ -15385,7 +15388,7 @@
         <v>89</v>
       </c>
       <c r="P68" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q68">
         <v>2.96</v>
@@ -16084,7 +16087,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ71">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AR71">
         <v>0.8</v>
@@ -16415,7 +16418,7 @@
         <v>89</v>
       </c>
       <c r="P73" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q73">
         <v>2.92</v>
@@ -16621,7 +16624,7 @@
         <v>89</v>
       </c>
       <c r="P74" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16827,7 +16830,7 @@
         <v>97</v>
       </c>
       <c r="P75" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q75">
         <v>3.04</v>
@@ -16905,7 +16908,7 @@
         <v>0.5</v>
       </c>
       <c r="AP75">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ75">
         <v>0.8100000000000001</v>
@@ -17033,7 +17036,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q76">
         <v>2.8</v>
@@ -17445,7 +17448,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -18475,7 +18478,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q83">
         <v>2.36</v>
@@ -19174,7 +19177,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ86">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AR86">
         <v>1.78</v>
@@ -19505,7 +19508,7 @@
         <v>127</v>
       </c>
       <c r="P88" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q88">
         <v>2.85</v>
@@ -19917,7 +19920,7 @@
         <v>89</v>
       </c>
       <c r="P90" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q90">
         <v>3.09</v>
@@ -20123,7 +20126,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q91">
         <v>3.05</v>
@@ -20329,7 +20332,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q92">
         <v>3.5</v>
@@ -20535,7 +20538,7 @@
         <v>89</v>
       </c>
       <c r="P93" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q93">
         <v>3.64</v>
@@ -20741,7 +20744,7 @@
         <v>108</v>
       </c>
       <c r="P94" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q94">
         <v>3.35</v>
@@ -20819,7 +20822,7 @@
         <v>2.2</v>
       </c>
       <c r="AP94">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ94">
         <v>1.69</v>
@@ -20947,7 +20950,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q95">
         <v>0</v>
@@ -21359,7 +21362,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21565,7 +21568,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q98">
         <v>3.3</v>
@@ -21771,7 +21774,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q99">
         <v>2.99</v>
@@ -22055,7 +22058,7 @@
         <v>1.67</v>
       </c>
       <c r="AP100">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ100">
         <v>1.56</v>
@@ -22595,7 +22598,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q103">
         <v>2.6</v>
@@ -23007,7 +23010,7 @@
         <v>125</v>
       </c>
       <c r="P105" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q105">
         <v>3.3</v>
@@ -23213,7 +23216,7 @@
         <v>155</v>
       </c>
       <c r="P106" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q106">
         <v>3.38</v>
@@ -23419,7 +23422,7 @@
         <v>156</v>
       </c>
       <c r="P107" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q107">
         <v>2.62</v>
@@ -23500,7 +23503,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ107">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AR107">
         <v>1.21</v>
@@ -23831,7 +23834,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q109">
         <v>2.29</v>
@@ -24321,7 +24324,7 @@
         <v>2.6</v>
       </c>
       <c r="AP111">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ111">
         <v>1.25</v>
@@ -24655,7 +24658,7 @@
         <v>89</v>
       </c>
       <c r="P113" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q113">
         <v>2.83</v>
@@ -24861,7 +24864,7 @@
         <v>160</v>
       </c>
       <c r="P114" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -25273,7 +25276,7 @@
         <v>161</v>
       </c>
       <c r="P116" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q116">
         <v>3.86</v>
@@ -25479,7 +25482,7 @@
         <v>162</v>
       </c>
       <c r="P117" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q117">
         <v>4.05</v>
@@ -26509,7 +26512,7 @@
         <v>165</v>
       </c>
       <c r="P122" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q122">
         <v>3.4</v>
@@ -26921,7 +26924,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q124">
         <v>2.84</v>
@@ -27333,7 +27336,7 @@
         <v>89</v>
       </c>
       <c r="P126" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q126">
         <v>2.41</v>
@@ -27745,7 +27748,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q128">
         <v>2.1</v>
@@ -28032,7 +28035,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ129">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AR129">
         <v>1.3</v>
@@ -28157,7 +28160,7 @@
         <v>171</v>
       </c>
       <c r="P130" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q130">
         <v>2.49</v>
@@ -28569,7 +28572,7 @@
         <v>173</v>
       </c>
       <c r="P132" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q132">
         <v>2.94</v>
@@ -28775,7 +28778,7 @@
         <v>161</v>
       </c>
       <c r="P133" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -28981,7 +28984,7 @@
         <v>174</v>
       </c>
       <c r="P134" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q134">
         <v>4.33</v>
@@ -29599,7 +29602,7 @@
         <v>176</v>
       </c>
       <c r="P137" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q137">
         <v>3.12</v>
@@ -30011,7 +30014,7 @@
         <v>177</v>
       </c>
       <c r="P139" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q139">
         <v>1.99</v>
@@ -30423,7 +30426,7 @@
         <v>89</v>
       </c>
       <c r="P141" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q141">
         <v>2.6</v>
@@ -30707,7 +30710,7 @@
         <v>0.71</v>
       </c>
       <c r="AP142">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ142">
         <v>0.88</v>
@@ -30835,7 +30838,7 @@
         <v>128</v>
       </c>
       <c r="P143" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q143">
         <v>2.65</v>
@@ -31041,7 +31044,7 @@
         <v>89</v>
       </c>
       <c r="P144" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q144">
         <v>4.33</v>
@@ -31328,7 +31331,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ145">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AR145">
         <v>1.33</v>
@@ -31453,7 +31456,7 @@
         <v>181</v>
       </c>
       <c r="P146" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q146">
         <v>2.88</v>
@@ -31659,7 +31662,7 @@
         <v>182</v>
       </c>
       <c r="P147" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31865,7 +31868,7 @@
         <v>183</v>
       </c>
       <c r="P148" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q148">
         <v>2.36</v>
@@ -32483,7 +32486,7 @@
         <v>129</v>
       </c>
       <c r="P151" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q151">
         <v>2.78</v>
@@ -32689,7 +32692,7 @@
         <v>185</v>
       </c>
       <c r="P152" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q152">
         <v>2.81</v>
@@ -33101,7 +33104,7 @@
         <v>186</v>
       </c>
       <c r="P154" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q154">
         <v>3.38</v>
@@ -33925,7 +33928,7 @@
         <v>190</v>
       </c>
       <c r="P158" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q158">
         <v>3.5</v>
@@ -34209,7 +34212,7 @@
         <v>1.38</v>
       </c>
       <c r="AP159">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ159">
         <v>1.69</v>
@@ -34543,7 +34546,7 @@
         <v>193</v>
       </c>
       <c r="P161" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -34624,7 +34627,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ161">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AR161">
         <v>1.7</v>
@@ -34955,7 +34958,7 @@
         <v>194</v>
       </c>
       <c r="P163" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q163">
         <v>4.2</v>
@@ -35161,7 +35164,7 @@
         <v>195</v>
       </c>
       <c r="P164" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q164">
         <v>2.55</v>
@@ -35367,7 +35370,7 @@
         <v>89</v>
       </c>
       <c r="P165" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q165">
         <v>3</v>
@@ -35779,7 +35782,7 @@
         <v>196</v>
       </c>
       <c r="P167" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q167">
         <v>2.45</v>
@@ -36603,7 +36606,7 @@
         <v>198</v>
       </c>
       <c r="P171" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q171">
         <v>3.84</v>
@@ -37221,7 +37224,7 @@
         <v>200</v>
       </c>
       <c r="P174" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q174">
         <v>3.32</v>
@@ -37299,7 +37302,7 @@
         <v>1.33</v>
       </c>
       <c r="AP174">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ174">
         <v>1</v>
@@ -37839,7 +37842,7 @@
         <v>202</v>
       </c>
       <c r="P177" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q177">
         <v>3.2</v>
@@ -38126,7 +38129,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ178">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AR178">
         <v>1.35</v>
@@ -38457,7 +38460,7 @@
         <v>179</v>
       </c>
       <c r="P180" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q180">
         <v>2.97</v>
@@ -38869,7 +38872,7 @@
         <v>89</v>
       </c>
       <c r="P182" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q182">
         <v>2.65</v>
@@ -39075,7 +39078,7 @@
         <v>205</v>
       </c>
       <c r="P183" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q183">
         <v>2.27</v>
@@ -39693,7 +39696,7 @@
         <v>141</v>
       </c>
       <c r="P186" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q186">
         <v>3.14</v>
@@ -40105,7 +40108,7 @@
         <v>207</v>
       </c>
       <c r="P188" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q188">
         <v>3.25</v>
@@ -40517,7 +40520,7 @@
         <v>208</v>
       </c>
       <c r="P190" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q190">
         <v>3.6</v>
@@ -40929,7 +40932,7 @@
         <v>123</v>
       </c>
       <c r="P192" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q192">
         <v>2.95</v>
@@ -41216,7 +41219,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ193">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AR193">
         <v>1.6</v>
@@ -41341,7 +41344,7 @@
         <v>210</v>
       </c>
       <c r="P194" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q194">
         <v>4.2</v>
@@ -41753,7 +41756,7 @@
         <v>211</v>
       </c>
       <c r="P196" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q196">
         <v>3.2</v>
@@ -41959,7 +41962,7 @@
         <v>212</v>
       </c>
       <c r="P197" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q197">
         <v>3</v>
@@ -42371,7 +42374,7 @@
         <v>214</v>
       </c>
       <c r="P199" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q199">
         <v>2.75</v>
@@ -42989,7 +42992,7 @@
         <v>123</v>
       </c>
       <c r="P202" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q202">
         <v>4.3</v>
@@ -43401,7 +43404,7 @@
         <v>117</v>
       </c>
       <c r="P204" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q204">
         <v>3.1</v>
@@ -43685,7 +43688,7 @@
         <v>0.9</v>
       </c>
       <c r="AP205">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ205">
         <v>0.9399999999999999</v>
@@ -43813,7 +43816,7 @@
         <v>218</v>
       </c>
       <c r="P206" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q206">
         <v>3.65</v>
@@ -44019,7 +44022,7 @@
         <v>156</v>
       </c>
       <c r="P207" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q207">
         <v>3.45</v>
@@ -44225,7 +44228,7 @@
         <v>197</v>
       </c>
       <c r="P208" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q208">
         <v>3.5</v>
@@ -44431,7 +44434,7 @@
         <v>129</v>
       </c>
       <c r="P209" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q209">
         <v>2.4</v>
@@ -44924,7 +44927,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ211">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AR211">
         <v>1.57</v>
@@ -45049,7 +45052,7 @@
         <v>220</v>
       </c>
       <c r="P212" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q212">
         <v>2.43</v>
@@ -45255,7 +45258,7 @@
         <v>221</v>
       </c>
       <c r="P213" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q213">
         <v>3.15</v>
@@ -46285,7 +46288,7 @@
         <v>89</v>
       </c>
       <c r="P218" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q218">
         <v>3.6</v>
@@ -46363,7 +46366,7 @@
         <v>1.58</v>
       </c>
       <c r="AP218">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ218">
         <v>1.56</v>
@@ -46491,7 +46494,7 @@
         <v>224</v>
       </c>
       <c r="P219" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q219">
         <v>3.78</v>
@@ -46697,7 +46700,7 @@
         <v>225</v>
       </c>
       <c r="P220" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q220">
         <v>3.26</v>
@@ -47521,7 +47524,7 @@
         <v>89</v>
       </c>
       <c r="P224" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q224">
         <v>5.44</v>
@@ -48139,7 +48142,7 @@
         <v>156</v>
       </c>
       <c r="P227" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q227">
         <v>2.9</v>
@@ -48345,7 +48348,7 @@
         <v>228</v>
       </c>
       <c r="P228" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q228">
         <v>2.6</v>
@@ -49456,7 +49459,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ233">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AR233">
         <v>1.65</v>
@@ -49993,7 +49996,7 @@
         <v>128</v>
       </c>
       <c r="P236" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q236">
         <v>4.5</v>
@@ -50405,7 +50408,7 @@
         <v>233</v>
       </c>
       <c r="P238" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q238">
         <v>2.1</v>
@@ -50611,7 +50614,7 @@
         <v>89</v>
       </c>
       <c r="P239" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q239">
         <v>0</v>
@@ -50817,7 +50820,7 @@
         <v>234</v>
       </c>
       <c r="P240" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q240">
         <v>3</v>
@@ -51229,7 +51232,7 @@
         <v>89</v>
       </c>
       <c r="P242" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q242">
         <v>3.6</v>
@@ -51307,7 +51310,7 @@
         <v>1.31</v>
       </c>
       <c r="AP242">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ242">
         <v>1.5</v>
@@ -52465,7 +52468,7 @@
         <v>109</v>
       </c>
       <c r="P248" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q248">
         <v>3.6</v>
@@ -52671,7 +52674,7 @@
         <v>199</v>
       </c>
       <c r="P249" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q249">
         <v>2.35</v>
@@ -53164,7 +53167,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ251">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AR251">
         <v>1.25</v>
@@ -53289,7 +53292,7 @@
         <v>239</v>
       </c>
       <c r="P252" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q252">
         <v>2.5</v>
@@ -53701,7 +53704,7 @@
         <v>240</v>
       </c>
       <c r="P254" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q254">
         <v>3.5</v>
@@ -53779,7 +53782,7 @@
         <v>1.64</v>
       </c>
       <c r="AP254">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ254">
         <v>1.63</v>
@@ -54525,7 +54528,7 @@
         <v>242</v>
       </c>
       <c r="P258" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q258">
         <v>3.26</v>
@@ -54731,7 +54734,7 @@
         <v>95</v>
       </c>
       <c r="P259" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q259">
         <v>2.97</v>
@@ -54937,7 +54940,7 @@
         <v>243</v>
       </c>
       <c r="P260" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q260">
         <v>2.26</v>
@@ -55349,7 +55352,7 @@
         <v>244</v>
       </c>
       <c r="P262" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q262">
         <v>3.1</v>
@@ -55761,7 +55764,7 @@
         <v>132</v>
       </c>
       <c r="P264" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q264">
         <v>2.75</v>
@@ -56173,7 +56176,7 @@
         <v>95</v>
       </c>
       <c r="P266" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q266">
         <v>3.2</v>
@@ -56379,7 +56382,7 @@
         <v>95</v>
       </c>
       <c r="P267" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q267">
         <v>3</v>
@@ -56585,7 +56588,7 @@
         <v>128</v>
       </c>
       <c r="P268" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q268">
         <v>3.75</v>
@@ -57078,7 +57081,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ270">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AR270">
         <v>1.63</v>
@@ -57203,7 +57206,7 @@
         <v>89</v>
       </c>
       <c r="P271" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q271">
         <v>3.4</v>
@@ -57615,7 +57618,7 @@
         <v>204</v>
       </c>
       <c r="P273" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q273">
         <v>3.2</v>
@@ -57821,7 +57824,7 @@
         <v>250</v>
       </c>
       <c r="P274" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q274">
         <v>3.1</v>
@@ -58311,7 +58314,7 @@
         <v>0.6</v>
       </c>
       <c r="AP276">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ276">
         <v>0.75</v>
@@ -58439,7 +58442,7 @@
         <v>252</v>
       </c>
       <c r="P277" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q277">
         <v>4.5</v>
@@ -58645,7 +58648,7 @@
         <v>253</v>
       </c>
       <c r="P278" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q278">
         <v>2.5</v>
@@ -58851,7 +58854,7 @@
         <v>89</v>
       </c>
       <c r="P279" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q279">
         <v>2.88</v>
@@ -59138,7 +59141,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ280">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AR280">
         <v>1.55</v>
@@ -60087,7 +60090,7 @@
         <v>257</v>
       </c>
       <c r="P285" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q285">
         <v>2.88</v>
@@ -60293,7 +60296,7 @@
         <v>197</v>
       </c>
       <c r="P286" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q286">
         <v>3.2</v>
@@ -60705,7 +60708,7 @@
         <v>259</v>
       </c>
       <c r="P288" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q288">
         <v>2.88</v>
@@ -60911,7 +60914,7 @@
         <v>89</v>
       </c>
       <c r="P289" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q289">
         <v>3.4</v>
@@ -61067,6 +61070,212 @@
         <v>0</v>
       </c>
       <c r="BP289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:68">
+      <c r="A290" s="1">
+        <v>289</v>
+      </c>
+      <c r="B290">
+        <v>7502896</v>
+      </c>
+      <c r="C290" t="s">
+        <v>68</v>
+      </c>
+      <c r="D290" t="s">
+        <v>69</v>
+      </c>
+      <c r="E290" s="2">
+        <v>45786.67708333334</v>
+      </c>
+      <c r="F290">
+        <v>33</v>
+      </c>
+      <c r="G290" t="s">
+        <v>83</v>
+      </c>
+      <c r="H290" t="s">
+        <v>71</v>
+      </c>
+      <c r="I290">
+        <v>0</v>
+      </c>
+      <c r="J290">
+        <v>0</v>
+      </c>
+      <c r="K290">
+        <v>0</v>
+      </c>
+      <c r="L290">
+        <v>2</v>
+      </c>
+      <c r="M290">
+        <v>1</v>
+      </c>
+      <c r="N290">
+        <v>3</v>
+      </c>
+      <c r="O290" t="s">
+        <v>260</v>
+      </c>
+      <c r="P290" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q290">
+        <v>2.88</v>
+      </c>
+      <c r="R290">
+        <v>2</v>
+      </c>
+      <c r="S290">
+        <v>4.33</v>
+      </c>
+      <c r="T290">
+        <v>1.5</v>
+      </c>
+      <c r="U290">
+        <v>2.5</v>
+      </c>
+      <c r="V290">
+        <v>3.4</v>
+      </c>
+      <c r="W290">
+        <v>1.3</v>
+      </c>
+      <c r="X290">
+        <v>10</v>
+      </c>
+      <c r="Y290">
+        <v>1.06</v>
+      </c>
+      <c r="Z290">
+        <v>2.05</v>
+      </c>
+      <c r="AA290">
+        <v>3.1</v>
+      </c>
+      <c r="AB290">
+        <v>3.6</v>
+      </c>
+      <c r="AC290">
+        <v>0</v>
+      </c>
+      <c r="AD290">
+        <v>0</v>
+      </c>
+      <c r="AE290">
+        <v>0</v>
+      </c>
+      <c r="AF290">
+        <v>0</v>
+      </c>
+      <c r="AG290">
+        <v>2.2</v>
+      </c>
+      <c r="AH290">
+        <v>1.53</v>
+      </c>
+      <c r="AI290">
+        <v>2</v>
+      </c>
+      <c r="AJ290">
+        <v>1.73</v>
+      </c>
+      <c r="AK290">
+        <v>0</v>
+      </c>
+      <c r="AL290">
+        <v>0</v>
+      </c>
+      <c r="AM290">
+        <v>0</v>
+      </c>
+      <c r="AN290">
+        <v>1.63</v>
+      </c>
+      <c r="AO290">
+        <v>0.38</v>
+      </c>
+      <c r="AP290">
+        <v>1.71</v>
+      </c>
+      <c r="AQ290">
+        <v>0.35</v>
+      </c>
+      <c r="AR290">
+        <v>1.73</v>
+      </c>
+      <c r="AS290">
+        <v>1.23</v>
+      </c>
+      <c r="AT290">
+        <v>2.96</v>
+      </c>
+      <c r="AU290">
+        <v>6</v>
+      </c>
+      <c r="AV290">
+        <v>4</v>
+      </c>
+      <c r="AW290">
+        <v>13</v>
+      </c>
+      <c r="AX290">
+        <v>8</v>
+      </c>
+      <c r="AY290">
+        <v>19</v>
+      </c>
+      <c r="AZ290">
+        <v>12</v>
+      </c>
+      <c r="BA290">
+        <v>-1</v>
+      </c>
+      <c r="BB290">
+        <v>-1</v>
+      </c>
+      <c r="BC290">
+        <v>-1</v>
+      </c>
+      <c r="BD290">
+        <v>0</v>
+      </c>
+      <c r="BE290">
+        <v>0</v>
+      </c>
+      <c r="BF290">
+        <v>0</v>
+      </c>
+      <c r="BG290">
+        <v>0</v>
+      </c>
+      <c r="BH290">
+        <v>0</v>
+      </c>
+      <c r="BI290">
+        <v>0</v>
+      </c>
+      <c r="BJ290">
+        <v>0</v>
+      </c>
+      <c r="BK290">
+        <v>0</v>
+      </c>
+      <c r="BL290">
+        <v>0</v>
+      </c>
+      <c r="BM290">
+        <v>0</v>
+      </c>
+      <c r="BN290">
+        <v>0</v>
+      </c>
+      <c r="BO290">
+        <v>0</v>
+      </c>
+      <c r="BP290">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="388">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -799,6 +799,9 @@
     <t>['63', '68']</t>
   </si>
   <si>
+    <t>['34']</t>
+  </si>
+  <si>
     <t>['24', '27']</t>
   </si>
   <si>
@@ -932,9 +935,6 @@
   </si>
   <si>
     <t>['31', '61']</t>
-  </si>
-  <si>
-    <t>['34']</t>
   </si>
   <si>
     <t>['48']</t>
@@ -1172,6 +1172,12 @@
   </si>
   <si>
     <t>['5', '45']</t>
+  </si>
+  <si>
+    <t>['71', '75']</t>
+  </si>
+  <si>
+    <t>['11', '74']</t>
   </si>
 </sst>
 </file>
@@ -1533,7 +1539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP290"/>
+  <dimension ref="A1:BP293"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1792,7 +1798,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q2">
         <v>2.16</v>
@@ -1998,7 +2004,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q3">
         <v>3.58</v>
@@ -2204,7 +2210,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q4">
         <v>3.15</v>
@@ -2616,7 +2622,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2822,7 +2828,7 @@
         <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -3234,7 +3240,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -3646,7 +3652,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3727,7 +3733,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3930,7 +3936,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AQ12">
         <v>0.35</v>
@@ -4058,7 +4064,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q13">
         <v>2.38</v>
@@ -4139,7 +4145,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ13">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4264,7 +4270,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q14">
         <v>3.73</v>
@@ -4342,10 +4348,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ14">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4470,7 +4476,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q15">
         <v>3.51</v>
@@ -4676,7 +4682,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q16">
         <v>2.38</v>
@@ -4960,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ17">
         <v>0.88</v>
@@ -5294,7 +5300,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q19">
         <v>2.79</v>
@@ -5500,7 +5506,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -6118,7 +6124,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -6530,7 +6536,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q25">
         <v>2.91</v>
@@ -6942,7 +6948,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q27">
         <v>3.25</v>
@@ -7354,7 +7360,7 @@
         <v>89</v>
       </c>
       <c r="P29" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -7560,7 +7566,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -7638,7 +7644,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AQ30">
         <v>0.88</v>
@@ -7847,7 +7853,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ31">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR31">
         <v>1.31</v>
@@ -7972,7 +7978,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -8259,7 +8265,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ33">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR33">
         <v>1.04</v>
@@ -8384,7 +8390,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8590,7 +8596,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q35">
         <v>2.57</v>
@@ -8668,7 +8674,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ35">
         <v>1.25</v>
@@ -8796,7 +8802,7 @@
         <v>89</v>
       </c>
       <c r="P36" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q36">
         <v>2.5</v>
@@ -8874,7 +8880,7 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ36">
         <v>0.35</v>
@@ -9083,7 +9089,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ37">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR37">
         <v>0.82</v>
@@ -9208,7 +9214,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9414,7 +9420,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9701,7 +9707,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ40">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR40">
         <v>1.4</v>
@@ -9826,7 +9832,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q41">
         <v>2.1</v>
@@ -10032,7 +10038,7 @@
         <v>89</v>
       </c>
       <c r="P42" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q42">
         <v>3.1</v>
@@ -10444,7 +10450,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -10650,7 +10656,7 @@
         <v>89</v>
       </c>
       <c r="P45" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q45">
         <v>2.85</v>
@@ -11062,7 +11068,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q47">
         <v>2.6</v>
@@ -11140,7 +11146,7 @@
         <v>1.5</v>
       </c>
       <c r="AP47">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ47">
         <v>1.69</v>
@@ -11268,7 +11274,7 @@
         <v>89</v>
       </c>
       <c r="P48" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11346,7 +11352,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ48">
         <v>1.31</v>
@@ -11474,7 +11480,7 @@
         <v>89</v>
       </c>
       <c r="P49" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -11886,7 +11892,7 @@
         <v>89</v>
       </c>
       <c r="P51" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -11967,7 +11973,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ51">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR51">
         <v>1.12</v>
@@ -12170,7 +12176,7 @@
         <v>2</v>
       </c>
       <c r="AP52">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AQ52">
         <v>1.25</v>
@@ -12504,7 +12510,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12585,7 +12591,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ54">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR54">
         <v>1.11</v>
@@ -12916,7 +12922,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q56">
         <v>3.08</v>
@@ -13122,7 +13128,7 @@
         <v>109</v>
       </c>
       <c r="P57" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13534,7 +13540,7 @@
         <v>89</v>
       </c>
       <c r="P59" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13612,7 +13618,7 @@
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AQ59">
         <v>0.9399999999999999</v>
@@ -14233,7 +14239,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ62">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR62">
         <v>1.41</v>
@@ -14770,7 +14776,7 @@
         <v>129</v>
       </c>
       <c r="P65" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14851,7 +14857,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ65">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR65">
         <v>1.18</v>
@@ -15182,7 +15188,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q67">
         <v>3.12</v>
@@ -15388,7 +15394,7 @@
         <v>89</v>
       </c>
       <c r="P68" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q68">
         <v>2.96</v>
@@ -15469,7 +15475,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ68">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR68">
         <v>1.55</v>
@@ -15672,7 +15678,7 @@
         <v>1</v>
       </c>
       <c r="AP69">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ69">
         <v>1.69</v>
@@ -15878,7 +15884,7 @@
         <v>1.33</v>
       </c>
       <c r="AP70">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ70">
         <v>1.25</v>
@@ -16290,7 +16296,7 @@
         <v>1.75</v>
       </c>
       <c r="AP72">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ72">
         <v>1.81</v>
@@ -16418,7 +16424,7 @@
         <v>89</v>
       </c>
       <c r="P73" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q73">
         <v>2.92</v>
@@ -16624,7 +16630,7 @@
         <v>89</v>
       </c>
       <c r="P74" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16702,7 +16708,7 @@
         <v>1</v>
       </c>
       <c r="AP74">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AQ74">
         <v>1.56</v>
@@ -16830,7 +16836,7 @@
         <v>97</v>
       </c>
       <c r="P75" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q75">
         <v>3.04</v>
@@ -17036,7 +17042,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q76">
         <v>2.8</v>
@@ -17448,7 +17454,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17529,7 +17535,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ78">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR78">
         <v>1.7</v>
@@ -17941,7 +17947,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ80">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR80">
         <v>1.09</v>
@@ -18478,7 +18484,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q83">
         <v>2.36</v>
@@ -18762,7 +18768,7 @@
         <v>1.75</v>
       </c>
       <c r="AP84">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ84">
         <v>0.9399999999999999</v>
@@ -19508,7 +19514,7 @@
         <v>127</v>
       </c>
       <c r="P88" t="s">
-        <v>306</v>
+        <v>261</v>
       </c>
       <c r="Q88">
         <v>2.85</v>
@@ -20126,7 +20132,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q91">
         <v>3.05</v>
@@ -20207,7 +20213,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ91">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR91">
         <v>1.19</v>
@@ -20410,7 +20416,7 @@
         <v>0.6</v>
       </c>
       <c r="AP92">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AQ92">
         <v>0.8100000000000001</v>
@@ -20744,7 +20750,7 @@
         <v>108</v>
       </c>
       <c r="P94" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q94">
         <v>3.35</v>
@@ -21028,7 +21034,7 @@
         <v>0.4</v>
       </c>
       <c r="AP95">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ95">
         <v>0.75</v>
@@ -21237,7 +21243,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ96">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR96">
         <v>1.37</v>
@@ -21362,7 +21368,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21649,7 +21655,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ98">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR98">
         <v>1.44</v>
@@ -22061,7 +22067,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ100">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR100">
         <v>1.7</v>
@@ -23422,7 +23428,7 @@
         <v>156</v>
       </c>
       <c r="P107" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q107">
         <v>2.62</v>
@@ -24739,7 +24745,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ113">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR113">
         <v>1.52</v>
@@ -24945,7 +24951,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ114">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR114">
         <v>1.37</v>
@@ -25148,7 +25154,7 @@
         <v>1</v>
       </c>
       <c r="AP115">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ115">
         <v>0.8100000000000001</v>
@@ -25354,7 +25360,7 @@
         <v>1</v>
       </c>
       <c r="AP116">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AQ116">
         <v>1.5</v>
@@ -25563,7 +25569,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ117">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR117">
         <v>1.26</v>
@@ -25766,7 +25772,7 @@
         <v>0.5</v>
       </c>
       <c r="AP118">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ118">
         <v>0.75</v>
@@ -28650,7 +28656,7 @@
         <v>1.86</v>
       </c>
       <c r="AP132">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ132">
         <v>1.69</v>
@@ -28856,7 +28862,7 @@
         <v>1.29</v>
       </c>
       <c r="AP133">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ133">
         <v>1.5</v>
@@ -29062,10 +29068,10 @@
         <v>1.43</v>
       </c>
       <c r="AP134">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AQ134">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR134">
         <v>1.14</v>
@@ -29477,7 +29483,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ136">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR136">
         <v>1.47</v>
@@ -30504,7 +30510,7 @@
         <v>2.29</v>
       </c>
       <c r="AP141">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ141">
         <v>1.25</v>
@@ -30919,7 +30925,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ143">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR143">
         <v>1.64</v>
@@ -31122,10 +31128,10 @@
         <v>1.29</v>
       </c>
       <c r="AP144">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AQ144">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR144">
         <v>1.17</v>
@@ -31537,7 +31543,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ146">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR146">
         <v>1.64</v>
@@ -31740,7 +31746,7 @@
         <v>1.5</v>
       </c>
       <c r="AP147">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ147">
         <v>0.9399999999999999</v>
@@ -33594,7 +33600,7 @@
         <v>1.33</v>
       </c>
       <c r="AP156">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ156">
         <v>0.9399999999999999</v>
@@ -34009,7 +34015,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ158">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR158">
         <v>1.37</v>
@@ -34421,7 +34427,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ160">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR160">
         <v>1.7</v>
@@ -34624,7 +34630,7 @@
         <v>0.75</v>
       </c>
       <c r="AP161">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ161">
         <v>0.35</v>
@@ -34833,7 +34839,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ162">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR162">
         <v>1.69</v>
@@ -35036,7 +35042,7 @@
         <v>2.38</v>
       </c>
       <c r="AP163">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AQ163">
         <v>1.25</v>
@@ -37096,7 +37102,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP173">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ173">
         <v>0.88</v>
@@ -37305,7 +37311,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ174">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR174">
         <v>1.73</v>
@@ -38332,7 +38338,7 @@
         <v>1.33</v>
       </c>
       <c r="AP179">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AQ179">
         <v>1.69</v>
@@ -38538,10 +38544,10 @@
         <v>1.4</v>
       </c>
       <c r="AP180">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ180">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR180">
         <v>1.51</v>
@@ -38747,7 +38753,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ181">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR181">
         <v>1.63</v>
@@ -40804,10 +40810,10 @@
         <v>1.2</v>
       </c>
       <c r="AP191">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ191">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR191">
         <v>1.47</v>
@@ -41010,7 +41016,7 @@
         <v>1</v>
       </c>
       <c r="AP192">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ192">
         <v>1.25</v>
@@ -41422,7 +41428,7 @@
         <v>1.3</v>
       </c>
       <c r="AP194">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AQ194">
         <v>1.31</v>
@@ -42249,7 +42255,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ198">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR198">
         <v>1.61</v>
@@ -42374,7 +42380,7 @@
         <v>214</v>
       </c>
       <c r="P199" t="s">
-        <v>306</v>
+        <v>261</v>
       </c>
       <c r="Q199">
         <v>2.75</v>
@@ -43485,7 +43491,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ204">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR204">
         <v>1.68</v>
@@ -44022,7 +44028,7 @@
         <v>156</v>
       </c>
       <c r="P207" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q207">
         <v>3.45</v>
@@ -44512,7 +44518,7 @@
         <v>1.18</v>
       </c>
       <c r="AP209">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ209">
         <v>1.31</v>
@@ -44721,7 +44727,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ210">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR210">
         <v>1.34</v>
@@ -45545,7 +45551,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ214">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR214">
         <v>1.15</v>
@@ -46160,7 +46166,7 @@
         <v>0.82</v>
       </c>
       <c r="AP217">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ217">
         <v>0.9399999999999999</v>
@@ -46288,7 +46294,7 @@
         <v>89</v>
       </c>
       <c r="P218" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q218">
         <v>3.6</v>
@@ -46781,7 +46787,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ220">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR220">
         <v>1.51</v>
@@ -47602,7 +47608,7 @@
         <v>1.42</v>
       </c>
       <c r="AP224">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AQ224">
         <v>1.81</v>
@@ -48841,7 +48847,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ230">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR230">
         <v>1.63</v>
@@ -49044,7 +49050,7 @@
         <v>1</v>
       </c>
       <c r="AP231">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ231">
         <v>0.9399999999999999</v>
@@ -50074,7 +50080,7 @@
         <v>1.54</v>
       </c>
       <c r="AP236">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AQ236">
         <v>1.69</v>
@@ -50283,7 +50289,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ237">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR237">
         <v>1.34</v>
@@ -50695,7 +50701,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ239">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR239">
         <v>1.37</v>
@@ -51104,7 +51110,7 @@
         <v>1.69</v>
       </c>
       <c r="AP241">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ241">
         <v>1.56</v>
@@ -51725,7 +51731,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ244">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR244">
         <v>1.29</v>
@@ -52546,7 +52552,7 @@
         <v>1.54</v>
       </c>
       <c r="AP248">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ248">
         <v>1.81</v>
@@ -53785,7 +53791,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ254">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR254">
         <v>1.75</v>
@@ -53988,7 +53994,7 @@
         <v>1.64</v>
       </c>
       <c r="AP255">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ255">
         <v>1.69</v>
@@ -54400,7 +54406,7 @@
         <v>0.93</v>
       </c>
       <c r="AP257">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ257">
         <v>0.8100000000000001</v>
@@ -54528,7 +54534,7 @@
         <v>242</v>
       </c>
       <c r="P258" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q258">
         <v>3.26</v>
@@ -54609,7 +54615,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ258">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR258">
         <v>1.51</v>
@@ -54815,7 +54821,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ259">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR259">
         <v>1.57</v>
@@ -54940,7 +54946,7 @@
         <v>243</v>
       </c>
       <c r="P260" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q260">
         <v>2.26</v>
@@ -55224,7 +55230,7 @@
         <v>0.57</v>
       </c>
       <c r="AP261">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AQ261">
         <v>0.75</v>
@@ -56588,7 +56594,7 @@
         <v>128</v>
       </c>
       <c r="P268" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q268">
         <v>3.75</v>
@@ -57490,7 +57496,7 @@
         <v>1</v>
       </c>
       <c r="AP272">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AQ272">
         <v>0.9399999999999999</v>
@@ -57696,10 +57702,10 @@
         <v>1.53</v>
       </c>
       <c r="AP273">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ273">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR273">
         <v>1.82</v>
@@ -57905,7 +57911,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ274">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR274">
         <v>1.52</v>
@@ -58111,7 +58117,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ275">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR275">
         <v>1.89</v>
@@ -58932,7 +58938,7 @@
         <v>1.4</v>
       </c>
       <c r="AP279">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ279">
         <v>1.5</v>
@@ -60914,7 +60920,7 @@
         <v>89</v>
       </c>
       <c r="P289" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q289">
         <v>3.4</v>
@@ -61276,6 +61282,624 @@
         <v>0</v>
       </c>
       <c r="BP290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:68">
+      <c r="A291" s="1">
+        <v>290</v>
+      </c>
+      <c r="B291">
+        <v>7502900</v>
+      </c>
+      <c r="C291" t="s">
+        <v>68</v>
+      </c>
+      <c r="D291" t="s">
+        <v>69</v>
+      </c>
+      <c r="E291" s="2">
+        <v>45787.29166666666</v>
+      </c>
+      <c r="F291">
+        <v>33</v>
+      </c>
+      <c r="G291" t="s">
+        <v>82</v>
+      </c>
+      <c r="H291" t="s">
+        <v>78</v>
+      </c>
+      <c r="I291">
+        <v>1</v>
+      </c>
+      <c r="J291">
+        <v>0</v>
+      </c>
+      <c r="K291">
+        <v>1</v>
+      </c>
+      <c r="L291">
+        <v>1</v>
+      </c>
+      <c r="M291">
+        <v>2</v>
+      </c>
+      <c r="N291">
+        <v>3</v>
+      </c>
+      <c r="O291" t="s">
+        <v>135</v>
+      </c>
+      <c r="P291" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q291">
+        <v>2.88</v>
+      </c>
+      <c r="R291">
+        <v>2.1</v>
+      </c>
+      <c r="S291">
+        <v>3.75</v>
+      </c>
+      <c r="T291">
+        <v>1.44</v>
+      </c>
+      <c r="U291">
+        <v>2.63</v>
+      </c>
+      <c r="V291">
+        <v>3</v>
+      </c>
+      <c r="W291">
+        <v>1.36</v>
+      </c>
+      <c r="X291">
+        <v>9</v>
+      </c>
+      <c r="Y291">
+        <v>1.07</v>
+      </c>
+      <c r="Z291">
+        <v>2.2</v>
+      </c>
+      <c r="AA291">
+        <v>3.2</v>
+      </c>
+      <c r="AB291">
+        <v>3.1</v>
+      </c>
+      <c r="AC291">
+        <v>0</v>
+      </c>
+      <c r="AD291">
+        <v>0</v>
+      </c>
+      <c r="AE291">
+        <v>0</v>
+      </c>
+      <c r="AF291">
+        <v>0</v>
+      </c>
+      <c r="AG291">
+        <v>2</v>
+      </c>
+      <c r="AH291">
+        <v>1.73</v>
+      </c>
+      <c r="AI291">
+        <v>1.83</v>
+      </c>
+      <c r="AJ291">
+        <v>1.83</v>
+      </c>
+      <c r="AK291">
+        <v>0</v>
+      </c>
+      <c r="AL291">
+        <v>0</v>
+      </c>
+      <c r="AM291">
+        <v>0</v>
+      </c>
+      <c r="AN291">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AO291">
+        <v>1</v>
+      </c>
+      <c r="AP291">
+        <v>0.88</v>
+      </c>
+      <c r="AQ291">
+        <v>1.12</v>
+      </c>
+      <c r="AR291">
+        <v>1.82</v>
+      </c>
+      <c r="AS291">
+        <v>1.44</v>
+      </c>
+      <c r="AT291">
+        <v>3.26</v>
+      </c>
+      <c r="AU291">
+        <v>4</v>
+      </c>
+      <c r="AV291">
+        <v>4</v>
+      </c>
+      <c r="AW291">
+        <v>4</v>
+      </c>
+      <c r="AX291">
+        <v>7</v>
+      </c>
+      <c r="AY291">
+        <v>8</v>
+      </c>
+      <c r="AZ291">
+        <v>11</v>
+      </c>
+      <c r="BA291">
+        <v>-1</v>
+      </c>
+      <c r="BB291">
+        <v>-1</v>
+      </c>
+      <c r="BC291">
+        <v>-1</v>
+      </c>
+      <c r="BD291">
+        <v>0</v>
+      </c>
+      <c r="BE291">
+        <v>0</v>
+      </c>
+      <c r="BF291">
+        <v>0</v>
+      </c>
+      <c r="BG291">
+        <v>0</v>
+      </c>
+      <c r="BH291">
+        <v>0</v>
+      </c>
+      <c r="BI291">
+        <v>0</v>
+      </c>
+      <c r="BJ291">
+        <v>0</v>
+      </c>
+      <c r="BK291">
+        <v>0</v>
+      </c>
+      <c r="BL291">
+        <v>0</v>
+      </c>
+      <c r="BM291">
+        <v>0</v>
+      </c>
+      <c r="BN291">
+        <v>0</v>
+      </c>
+      <c r="BO291">
+        <v>0</v>
+      </c>
+      <c r="BP291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:68">
+      <c r="A292" s="1">
+        <v>291</v>
+      </c>
+      <c r="B292">
+        <v>7502892</v>
+      </c>
+      <c r="C292" t="s">
+        <v>68</v>
+      </c>
+      <c r="D292" t="s">
+        <v>69</v>
+      </c>
+      <c r="E292" s="2">
+        <v>45787.41666666666</v>
+      </c>
+      <c r="F292">
+        <v>33</v>
+      </c>
+      <c r="G292" t="s">
+        <v>80</v>
+      </c>
+      <c r="H292" t="s">
+        <v>70</v>
+      </c>
+      <c r="I292">
+        <v>1</v>
+      </c>
+      <c r="J292">
+        <v>0</v>
+      </c>
+      <c r="K292">
+        <v>1</v>
+      </c>
+      <c r="L292">
+        <v>1</v>
+      </c>
+      <c r="M292">
+        <v>1</v>
+      </c>
+      <c r="N292">
+        <v>2</v>
+      </c>
+      <c r="O292" t="s">
+        <v>261</v>
+      </c>
+      <c r="P292" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q292">
+        <v>3.1</v>
+      </c>
+      <c r="R292">
+        <v>2.3</v>
+      </c>
+      <c r="S292">
+        <v>3.2</v>
+      </c>
+      <c r="T292">
+        <v>1.33</v>
+      </c>
+      <c r="U292">
+        <v>3.25</v>
+      </c>
+      <c r="V292">
+        <v>2.5</v>
+      </c>
+      <c r="W292">
+        <v>1.5</v>
+      </c>
+      <c r="X292">
+        <v>6.5</v>
+      </c>
+      <c r="Y292">
+        <v>1.11</v>
+      </c>
+      <c r="Z292">
+        <v>2.45</v>
+      </c>
+      <c r="AA292">
+        <v>3.3</v>
+      </c>
+      <c r="AB292">
+        <v>2.6</v>
+      </c>
+      <c r="AC292">
+        <v>0</v>
+      </c>
+      <c r="AD292">
+        <v>0</v>
+      </c>
+      <c r="AE292">
+        <v>0</v>
+      </c>
+      <c r="AF292">
+        <v>0</v>
+      </c>
+      <c r="AG292">
+        <v>1.67</v>
+      </c>
+      <c r="AH292">
+        <v>2</v>
+      </c>
+      <c r="AI292">
+        <v>1.57</v>
+      </c>
+      <c r="AJ292">
+        <v>2.25</v>
+      </c>
+      <c r="AK292">
+        <v>0</v>
+      </c>
+      <c r="AL292">
+        <v>0</v>
+      </c>
+      <c r="AM292">
+        <v>0</v>
+      </c>
+      <c r="AN292">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AO292">
+        <v>1.56</v>
+      </c>
+      <c r="AP292">
+        <v>0.82</v>
+      </c>
+      <c r="AQ292">
+        <v>1.53</v>
+      </c>
+      <c r="AR292">
+        <v>1.36</v>
+      </c>
+      <c r="AS292">
+        <v>1.51</v>
+      </c>
+      <c r="AT292">
+        <v>2.87</v>
+      </c>
+      <c r="AU292">
+        <v>3</v>
+      </c>
+      <c r="AV292">
+        <v>6</v>
+      </c>
+      <c r="AW292">
+        <v>7</v>
+      </c>
+      <c r="AX292">
+        <v>11</v>
+      </c>
+      <c r="AY292">
+        <v>10</v>
+      </c>
+      <c r="AZ292">
+        <v>17</v>
+      </c>
+      <c r="BA292">
+        <v>-1</v>
+      </c>
+      <c r="BB292">
+        <v>-1</v>
+      </c>
+      <c r="BC292">
+        <v>-1</v>
+      </c>
+      <c r="BD292">
+        <v>0</v>
+      </c>
+      <c r="BE292">
+        <v>0</v>
+      </c>
+      <c r="BF292">
+        <v>0</v>
+      </c>
+      <c r="BG292">
+        <v>0</v>
+      </c>
+      <c r="BH292">
+        <v>0</v>
+      </c>
+      <c r="BI292">
+        <v>0</v>
+      </c>
+      <c r="BJ292">
+        <v>0</v>
+      </c>
+      <c r="BK292">
+        <v>0</v>
+      </c>
+      <c r="BL292">
+        <v>0</v>
+      </c>
+      <c r="BM292">
+        <v>0</v>
+      </c>
+      <c r="BN292">
+        <v>0</v>
+      </c>
+      <c r="BO292">
+        <v>0</v>
+      </c>
+      <c r="BP292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:68">
+      <c r="A293" s="1">
+        <v>292</v>
+      </c>
+      <c r="B293">
+        <v>7502893</v>
+      </c>
+      <c r="C293" t="s">
+        <v>68</v>
+      </c>
+      <c r="D293" t="s">
+        <v>69</v>
+      </c>
+      <c r="E293" s="2">
+        <v>45787.58333333334</v>
+      </c>
+      <c r="F293">
+        <v>33</v>
+      </c>
+      <c r="G293" t="s">
+        <v>85</v>
+      </c>
+      <c r="H293" t="s">
+        <v>77</v>
+      </c>
+      <c r="I293">
+        <v>0</v>
+      </c>
+      <c r="J293">
+        <v>1</v>
+      </c>
+      <c r="K293">
+        <v>1</v>
+      </c>
+      <c r="L293">
+        <v>0</v>
+      </c>
+      <c r="M293">
+        <v>2</v>
+      </c>
+      <c r="N293">
+        <v>2</v>
+      </c>
+      <c r="O293" t="s">
+        <v>89</v>
+      </c>
+      <c r="P293" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q293">
+        <v>3</v>
+      </c>
+      <c r="R293">
+        <v>2.1</v>
+      </c>
+      <c r="S293">
+        <v>3.75</v>
+      </c>
+      <c r="T293">
+        <v>1.44</v>
+      </c>
+      <c r="U293">
+        <v>2.63</v>
+      </c>
+      <c r="V293">
+        <v>3.25</v>
+      </c>
+      <c r="W293">
+        <v>1.33</v>
+      </c>
+      <c r="X293">
+        <v>9</v>
+      </c>
+      <c r="Y293">
+        <v>1.07</v>
+      </c>
+      <c r="Z293">
+        <v>2.2</v>
+      </c>
+      <c r="AA293">
+        <v>3.1</v>
+      </c>
+      <c r="AB293">
+        <v>3.2</v>
+      </c>
+      <c r="AC293">
+        <v>0</v>
+      </c>
+      <c r="AD293">
+        <v>0</v>
+      </c>
+      <c r="AE293">
+        <v>0</v>
+      </c>
+      <c r="AF293">
+        <v>0</v>
+      </c>
+      <c r="AG293">
+        <v>2.05</v>
+      </c>
+      <c r="AH293">
+        <v>1.61</v>
+      </c>
+      <c r="AI293">
+        <v>1.83</v>
+      </c>
+      <c r="AJ293">
+        <v>1.83</v>
+      </c>
+      <c r="AK293">
+        <v>0</v>
+      </c>
+      <c r="AL293">
+        <v>0</v>
+      </c>
+      <c r="AM293">
+        <v>0</v>
+      </c>
+      <c r="AN293">
+        <v>1.56</v>
+      </c>
+      <c r="AO293">
+        <v>1.63</v>
+      </c>
+      <c r="AP293">
+        <v>1.47</v>
+      </c>
+      <c r="AQ293">
+        <v>1.71</v>
+      </c>
+      <c r="AR293">
+        <v>1.64</v>
+      </c>
+      <c r="AS293">
+        <v>1.46</v>
+      </c>
+      <c r="AT293">
+        <v>3.1</v>
+      </c>
+      <c r="AU293">
+        <v>7</v>
+      </c>
+      <c r="AV293">
+        <v>5</v>
+      </c>
+      <c r="AW293">
+        <v>8</v>
+      </c>
+      <c r="AX293">
+        <v>10</v>
+      </c>
+      <c r="AY293">
+        <v>15</v>
+      </c>
+      <c r="AZ293">
+        <v>15</v>
+      </c>
+      <c r="BA293">
+        <v>-1</v>
+      </c>
+      <c r="BB293">
+        <v>-1</v>
+      </c>
+      <c r="BC293">
+        <v>-1</v>
+      </c>
+      <c r="BD293">
+        <v>0</v>
+      </c>
+      <c r="BE293">
+        <v>0</v>
+      </c>
+      <c r="BF293">
+        <v>0</v>
+      </c>
+      <c r="BG293">
+        <v>0</v>
+      </c>
+      <c r="BH293">
+        <v>0</v>
+      </c>
+      <c r="BI293">
+        <v>0</v>
+      </c>
+      <c r="BJ293">
+        <v>0</v>
+      </c>
+      <c r="BK293">
+        <v>0</v>
+      </c>
+      <c r="BL293">
+        <v>0</v>
+      </c>
+      <c r="BM293">
+        <v>0</v>
+      </c>
+      <c r="BN293">
+        <v>0</v>
+      </c>
+      <c r="BO293">
+        <v>0</v>
+      </c>
+      <c r="BP293">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="390">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -802,6 +802,9 @@
     <t>['34']</t>
   </si>
   <si>
+    <t>['32', '51', '61']</t>
+  </si>
+  <si>
     <t>['24', '27']</t>
   </si>
   <si>
@@ -1179,6 +1182,9 @@
   <si>
     <t>['11', '74']</t>
   </si>
+  <si>
+    <t>['12', '19']</t>
+  </si>
 </sst>
 </file>
 
@@ -1539,7 +1545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP293"/>
+  <dimension ref="A1:BP294"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1798,7 +1804,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q2">
         <v>2.16</v>
@@ -2004,7 +2010,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q3">
         <v>3.58</v>
@@ -2210,7 +2216,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q4">
         <v>3.15</v>
@@ -2622,7 +2628,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2828,7 +2834,7 @@
         <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2906,7 +2912,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ7">
         <v>1.25</v>
@@ -3240,7 +3246,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -3652,7 +3658,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -4064,7 +4070,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q13">
         <v>2.38</v>
@@ -4270,7 +4276,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q14">
         <v>3.73</v>
@@ -4476,7 +4482,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q15">
         <v>3.51</v>
@@ -4682,7 +4688,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q16">
         <v>2.38</v>
@@ -4969,7 +4975,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ17">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5300,7 +5306,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q19">
         <v>2.79</v>
@@ -5506,7 +5512,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5996,7 +6002,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ22">
         <v>0.9399999999999999</v>
@@ -6124,7 +6130,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -6536,7 +6542,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q25">
         <v>2.91</v>
@@ -6948,7 +6954,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q27">
         <v>3.25</v>
@@ -7360,7 +7366,7 @@
         <v>89</v>
       </c>
       <c r="P29" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -7566,7 +7572,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -7647,7 +7653,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ30">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR30">
         <v>1.33</v>
@@ -7978,7 +7984,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -8390,7 +8396,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8596,7 +8602,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q35">
         <v>2.57</v>
@@ -8802,7 +8808,7 @@
         <v>89</v>
       </c>
       <c r="P36" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q36">
         <v>2.5</v>
@@ -9214,7 +9220,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9292,7 +9298,7 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ38">
         <v>0.8100000000000001</v>
@@ -9420,7 +9426,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9832,7 +9838,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q41">
         <v>2.1</v>
@@ -10038,7 +10044,7 @@
         <v>89</v>
       </c>
       <c r="P42" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q42">
         <v>3.1</v>
@@ -10450,7 +10456,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -10656,7 +10662,7 @@
         <v>89</v>
       </c>
       <c r="P45" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q45">
         <v>2.85</v>
@@ -11068,7 +11074,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q47">
         <v>2.6</v>
@@ -11274,7 +11280,7 @@
         <v>89</v>
       </c>
       <c r="P48" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11480,7 +11486,7 @@
         <v>89</v>
       </c>
       <c r="P49" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -11892,7 +11898,7 @@
         <v>89</v>
       </c>
       <c r="P51" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -12385,7 +12391,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ53">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR53">
         <v>1.6</v>
@@ -12510,7 +12516,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12922,7 +12928,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q56">
         <v>3.08</v>
@@ -13000,7 +13006,7 @@
         <v>1.67</v>
       </c>
       <c r="AP56">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ56">
         <v>1.69</v>
@@ -13128,7 +13134,7 @@
         <v>109</v>
       </c>
       <c r="P57" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13540,7 +13546,7 @@
         <v>89</v>
       </c>
       <c r="P59" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -14776,7 +14782,7 @@
         <v>129</v>
       </c>
       <c r="P65" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -15063,7 +15069,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ66">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR66">
         <v>1.24</v>
@@ -15188,7 +15194,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q67">
         <v>3.12</v>
@@ -15394,7 +15400,7 @@
         <v>89</v>
       </c>
       <c r="P68" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q68">
         <v>2.96</v>
@@ -16424,7 +16430,7 @@
         <v>89</v>
       </c>
       <c r="P73" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q73">
         <v>2.92</v>
@@ -16630,7 +16636,7 @@
         <v>89</v>
       </c>
       <c r="P74" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16836,7 +16842,7 @@
         <v>97</v>
       </c>
       <c r="P75" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q75">
         <v>3.04</v>
@@ -17042,7 +17048,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q76">
         <v>2.8</v>
@@ -17326,7 +17332,7 @@
         <v>1.5</v>
       </c>
       <c r="AP77">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ77">
         <v>1.5</v>
@@ -17454,7 +17460,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -18484,7 +18490,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q83">
         <v>2.36</v>
@@ -19389,7 +19395,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ87">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR87">
         <v>1.38</v>
@@ -19926,7 +19932,7 @@
         <v>89</v>
       </c>
       <c r="P90" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q90">
         <v>3.09</v>
@@ -20132,7 +20138,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q91">
         <v>3.05</v>
@@ -20338,7 +20344,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q92">
         <v>3.5</v>
@@ -20544,7 +20550,7 @@
         <v>89</v>
       </c>
       <c r="P93" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q93">
         <v>3.64</v>
@@ -20750,7 +20756,7 @@
         <v>108</v>
       </c>
       <c r="P94" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q94">
         <v>3.35</v>
@@ -20956,7 +20962,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q95">
         <v>0</v>
@@ -21368,7 +21374,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21574,7 +21580,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q98">
         <v>3.3</v>
@@ -21652,7 +21658,7 @@
         <v>1.4</v>
       </c>
       <c r="AP98">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ98">
         <v>1.71</v>
@@ -21780,7 +21786,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q99">
         <v>2.99</v>
@@ -22479,7 +22485,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ102">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR102">
         <v>1.5</v>
@@ -22604,7 +22610,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q103">
         <v>2.6</v>
@@ -23016,7 +23022,7 @@
         <v>125</v>
       </c>
       <c r="P105" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q105">
         <v>3.3</v>
@@ -23222,7 +23228,7 @@
         <v>155</v>
       </c>
       <c r="P106" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q106">
         <v>3.38</v>
@@ -23428,7 +23434,7 @@
         <v>156</v>
       </c>
       <c r="P107" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q107">
         <v>2.62</v>
@@ -23840,7 +23846,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q109">
         <v>2.29</v>
@@ -24536,7 +24542,7 @@
         <v>1.83</v>
       </c>
       <c r="AP112">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ112">
         <v>0.9399999999999999</v>
@@ -24664,7 +24670,7 @@
         <v>89</v>
       </c>
       <c r="P113" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q113">
         <v>2.83</v>
@@ -24870,7 +24876,7 @@
         <v>160</v>
       </c>
       <c r="P114" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -25282,7 +25288,7 @@
         <v>161</v>
       </c>
       <c r="P116" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q116">
         <v>3.86</v>
@@ -25488,7 +25494,7 @@
         <v>162</v>
       </c>
       <c r="P117" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q117">
         <v>4.05</v>
@@ -26518,7 +26524,7 @@
         <v>165</v>
       </c>
       <c r="P122" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q122">
         <v>3.4</v>
@@ -26599,7 +26605,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ122">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR122">
         <v>1.24</v>
@@ -26930,7 +26936,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q124">
         <v>2.84</v>
@@ -27342,7 +27348,7 @@
         <v>89</v>
       </c>
       <c r="P126" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q126">
         <v>2.41</v>
@@ -27754,7 +27760,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q128">
         <v>2.1</v>
@@ -28166,7 +28172,7 @@
         <v>171</v>
       </c>
       <c r="P130" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q130">
         <v>2.49</v>
@@ -28578,7 +28584,7 @@
         <v>173</v>
       </c>
       <c r="P132" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q132">
         <v>2.94</v>
@@ -28784,7 +28790,7 @@
         <v>161</v>
       </c>
       <c r="P133" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -28990,7 +28996,7 @@
         <v>174</v>
       </c>
       <c r="P134" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q134">
         <v>4.33</v>
@@ -29274,7 +29280,7 @@
         <v>2.17</v>
       </c>
       <c r="AP135">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ135">
         <v>1.25</v>
@@ -29608,7 +29614,7 @@
         <v>176</v>
       </c>
       <c r="P137" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q137">
         <v>3.12</v>
@@ -30020,7 +30026,7 @@
         <v>177</v>
       </c>
       <c r="P139" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q139">
         <v>1.99</v>
@@ -30432,7 +30438,7 @@
         <v>89</v>
       </c>
       <c r="P141" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q141">
         <v>2.6</v>
@@ -30719,7 +30725,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ142">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR142">
         <v>1.66</v>
@@ -30844,7 +30850,7 @@
         <v>128</v>
       </c>
       <c r="P143" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q143">
         <v>2.65</v>
@@ -31050,7 +31056,7 @@
         <v>89</v>
       </c>
       <c r="P144" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q144">
         <v>4.33</v>
@@ -31334,7 +31340,7 @@
         <v>0.86</v>
       </c>
       <c r="AP145">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ145">
         <v>0.35</v>
@@ -31462,7 +31468,7 @@
         <v>181</v>
       </c>
       <c r="P146" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q146">
         <v>2.88</v>
@@ -31668,7 +31674,7 @@
         <v>182</v>
       </c>
       <c r="P147" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31874,7 +31880,7 @@
         <v>183</v>
       </c>
       <c r="P148" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q148">
         <v>2.36</v>
@@ -32492,7 +32498,7 @@
         <v>129</v>
       </c>
       <c r="P151" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q151">
         <v>2.78</v>
@@ -32698,7 +32704,7 @@
         <v>185</v>
       </c>
       <c r="P152" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q152">
         <v>2.81</v>
@@ -33110,7 +33116,7 @@
         <v>186</v>
       </c>
       <c r="P154" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q154">
         <v>3.38</v>
@@ -33397,7 +33403,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ155">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR155">
         <v>1.55</v>
@@ -33934,7 +33940,7 @@
         <v>190</v>
       </c>
       <c r="P158" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q158">
         <v>3.5</v>
@@ -34552,7 +34558,7 @@
         <v>193</v>
       </c>
       <c r="P161" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -34964,7 +34970,7 @@
         <v>194</v>
       </c>
       <c r="P163" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q163">
         <v>4.2</v>
@@ -35170,7 +35176,7 @@
         <v>195</v>
       </c>
       <c r="P164" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q164">
         <v>2.55</v>
@@ -35376,7 +35382,7 @@
         <v>89</v>
       </c>
       <c r="P165" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q165">
         <v>3</v>
@@ -35788,7 +35794,7 @@
         <v>196</v>
       </c>
       <c r="P167" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q167">
         <v>2.45</v>
@@ -36612,7 +36618,7 @@
         <v>198</v>
       </c>
       <c r="P171" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q171">
         <v>3.84</v>
@@ -36896,7 +36902,7 @@
         <v>1.5</v>
       </c>
       <c r="AP172">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ172">
         <v>1.31</v>
@@ -37105,7 +37111,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ173">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR173">
         <v>1.71</v>
@@ -37230,7 +37236,7 @@
         <v>200</v>
       </c>
       <c r="P174" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q174">
         <v>3.32</v>
@@ -37848,7 +37854,7 @@
         <v>202</v>
       </c>
       <c r="P177" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q177">
         <v>3.2</v>
@@ -38466,7 +38472,7 @@
         <v>179</v>
       </c>
       <c r="P180" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q180">
         <v>2.97</v>
@@ -38878,7 +38884,7 @@
         <v>89</v>
       </c>
       <c r="P182" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q182">
         <v>2.65</v>
@@ -39084,7 +39090,7 @@
         <v>205</v>
       </c>
       <c r="P183" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q183">
         <v>2.27</v>
@@ -39702,7 +39708,7 @@
         <v>141</v>
       </c>
       <c r="P186" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q186">
         <v>3.14</v>
@@ -40114,7 +40120,7 @@
         <v>207</v>
       </c>
       <c r="P188" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q188">
         <v>3.25</v>
@@ -40526,7 +40532,7 @@
         <v>208</v>
       </c>
       <c r="P190" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q190">
         <v>3.6</v>
@@ -40604,7 +40610,7 @@
         <v>1.1</v>
       </c>
       <c r="AP190">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ190">
         <v>1.81</v>
@@ -40938,7 +40944,7 @@
         <v>123</v>
       </c>
       <c r="P192" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q192">
         <v>2.95</v>
@@ -41350,7 +41356,7 @@
         <v>210</v>
       </c>
       <c r="P194" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q194">
         <v>4.2</v>
@@ -41637,7 +41643,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ195">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR195">
         <v>1.64</v>
@@ -41762,7 +41768,7 @@
         <v>211</v>
       </c>
       <c r="P196" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q196">
         <v>3.2</v>
@@ -41968,7 +41974,7 @@
         <v>212</v>
       </c>
       <c r="P197" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q197">
         <v>3</v>
@@ -42998,7 +43004,7 @@
         <v>123</v>
       </c>
       <c r="P202" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q202">
         <v>4.3</v>
@@ -43410,7 +43416,7 @@
         <v>117</v>
       </c>
       <c r="P204" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q204">
         <v>3.1</v>
@@ -43822,7 +43828,7 @@
         <v>218</v>
       </c>
       <c r="P206" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q206">
         <v>3.65</v>
@@ -43900,7 +43906,7 @@
         <v>1.45</v>
       </c>
       <c r="AP206">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ206">
         <v>1.56</v>
@@ -44028,7 +44034,7 @@
         <v>156</v>
       </c>
       <c r="P207" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q207">
         <v>3.45</v>
@@ -44234,7 +44240,7 @@
         <v>197</v>
       </c>
       <c r="P208" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q208">
         <v>3.5</v>
@@ -44440,7 +44446,7 @@
         <v>129</v>
       </c>
       <c r="P209" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q209">
         <v>2.4</v>
@@ -45058,7 +45064,7 @@
         <v>220</v>
       </c>
       <c r="P212" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q212">
         <v>2.43</v>
@@ -45264,7 +45270,7 @@
         <v>221</v>
       </c>
       <c r="P213" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q213">
         <v>3.15</v>
@@ -45345,7 +45351,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ213">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR213">
         <v>1.4</v>
@@ -46294,7 +46300,7 @@
         <v>89</v>
       </c>
       <c r="P218" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q218">
         <v>3.6</v>
@@ -46500,7 +46506,7 @@
         <v>224</v>
       </c>
       <c r="P219" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q219">
         <v>3.78</v>
@@ -46706,7 +46712,7 @@
         <v>225</v>
       </c>
       <c r="P220" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q220">
         <v>3.26</v>
@@ -46990,7 +46996,7 @@
         <v>1.36</v>
       </c>
       <c r="AP221">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ221">
         <v>0.9399999999999999</v>
@@ -47530,7 +47536,7 @@
         <v>89</v>
       </c>
       <c r="P224" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q224">
         <v>5.44</v>
@@ -48148,7 +48154,7 @@
         <v>156</v>
       </c>
       <c r="P227" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q227">
         <v>2.9</v>
@@ -48354,7 +48360,7 @@
         <v>228</v>
       </c>
       <c r="P228" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q228">
         <v>2.6</v>
@@ -49671,7 +49677,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ234">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR234">
         <v>1.13</v>
@@ -50002,7 +50008,7 @@
         <v>128</v>
       </c>
       <c r="P236" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q236">
         <v>4.5</v>
@@ -50414,7 +50420,7 @@
         <v>233</v>
       </c>
       <c r="P238" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q238">
         <v>2.1</v>
@@ -50620,7 +50626,7 @@
         <v>89</v>
       </c>
       <c r="P239" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q239">
         <v>0</v>
@@ -50826,7 +50832,7 @@
         <v>234</v>
       </c>
       <c r="P240" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q240">
         <v>3</v>
@@ -50904,7 +50910,7 @@
         <v>0.38</v>
       </c>
       <c r="AP240">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ240">
         <v>0.75</v>
@@ -51238,7 +51244,7 @@
         <v>89</v>
       </c>
       <c r="P242" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q242">
         <v>3.6</v>
@@ -52349,7 +52355,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ247">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR247">
         <v>1.63</v>
@@ -52474,7 +52480,7 @@
         <v>109</v>
       </c>
       <c r="P248" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q248">
         <v>3.6</v>
@@ -52680,7 +52686,7 @@
         <v>199</v>
       </c>
       <c r="P249" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q249">
         <v>2.35</v>
@@ -53298,7 +53304,7 @@
         <v>239</v>
       </c>
       <c r="P252" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q252">
         <v>2.5</v>
@@ -53710,7 +53716,7 @@
         <v>240</v>
       </c>
       <c r="P254" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q254">
         <v>3.5</v>
@@ -54534,7 +54540,7 @@
         <v>242</v>
       </c>
       <c r="P258" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q258">
         <v>3.26</v>
@@ -54612,7 +54618,7 @@
         <v>1</v>
       </c>
       <c r="AP258">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ258">
         <v>1.12</v>
@@ -54740,7 +54746,7 @@
         <v>95</v>
       </c>
       <c r="P259" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q259">
         <v>2.97</v>
@@ -54946,7 +54952,7 @@
         <v>243</v>
       </c>
       <c r="P260" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q260">
         <v>2.26</v>
@@ -55358,7 +55364,7 @@
         <v>244</v>
       </c>
       <c r="P262" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q262">
         <v>3.1</v>
@@ -55645,7 +55651,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ263">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR263">
         <v>1.59</v>
@@ -55770,7 +55776,7 @@
         <v>132</v>
       </c>
       <c r="P264" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q264">
         <v>2.75</v>
@@ -56182,7 +56188,7 @@
         <v>95</v>
       </c>
       <c r="P266" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q266">
         <v>3.2</v>
@@ -56388,7 +56394,7 @@
         <v>95</v>
       </c>
       <c r="P267" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q267">
         <v>3</v>
@@ -56594,7 +56600,7 @@
         <v>128</v>
       </c>
       <c r="P268" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q268">
         <v>3.75</v>
@@ -57212,7 +57218,7 @@
         <v>89</v>
       </c>
       <c r="P271" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q271">
         <v>3.4</v>
@@ -57624,7 +57630,7 @@
         <v>204</v>
       </c>
       <c r="P273" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q273">
         <v>3.2</v>
@@ -57830,7 +57836,7 @@
         <v>250</v>
       </c>
       <c r="P274" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q274">
         <v>3.1</v>
@@ -57908,7 +57914,7 @@
         <v>1.6</v>
       </c>
       <c r="AP274">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ274">
         <v>1.53</v>
@@ -58448,7 +58454,7 @@
         <v>252</v>
       </c>
       <c r="P277" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q277">
         <v>4.5</v>
@@ -58654,7 +58660,7 @@
         <v>253</v>
       </c>
       <c r="P278" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q278">
         <v>2.5</v>
@@ -58860,7 +58866,7 @@
         <v>89</v>
       </c>
       <c r="P279" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q279">
         <v>2.88</v>
@@ -60096,7 +60102,7 @@
         <v>257</v>
       </c>
       <c r="P285" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q285">
         <v>2.88</v>
@@ -60302,7 +60308,7 @@
         <v>197</v>
       </c>
       <c r="P286" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q286">
         <v>3.2</v>
@@ -60383,7 +60389,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ286">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR286">
         <v>1.32</v>
@@ -60714,7 +60720,7 @@
         <v>259</v>
       </c>
       <c r="P288" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q288">
         <v>2.88</v>
@@ -60920,7 +60926,7 @@
         <v>89</v>
       </c>
       <c r="P289" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q289">
         <v>3.4</v>
@@ -61237,13 +61243,13 @@
         <v>12</v>
       </c>
       <c r="BA290">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BB290">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BC290">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BD290">
         <v>0</v>
@@ -61332,7 +61338,7 @@
         <v>135</v>
       </c>
       <c r="P291" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q291">
         <v>2.88</v>
@@ -61538,7 +61544,7 @@
         <v>261</v>
       </c>
       <c r="P292" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q292">
         <v>3.1</v>
@@ -61744,7 +61750,7 @@
         <v>89</v>
       </c>
       <c r="P293" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q293">
         <v>3</v>
@@ -61900,6 +61906,212 @@
         <v>0</v>
       </c>
       <c r="BP293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:68">
+      <c r="A294" s="1">
+        <v>293</v>
+      </c>
+      <c r="B294">
+        <v>7502895</v>
+      </c>
+      <c r="C294" t="s">
+        <v>68</v>
+      </c>
+      <c r="D294" t="s">
+        <v>69</v>
+      </c>
+      <c r="E294" s="2">
+        <v>45788.29166666666</v>
+      </c>
+      <c r="F294">
+        <v>33</v>
+      </c>
+      <c r="G294" t="s">
+        <v>75</v>
+      </c>
+      <c r="H294" t="s">
+        <v>72</v>
+      </c>
+      <c r="I294">
+        <v>1</v>
+      </c>
+      <c r="J294">
+        <v>2</v>
+      </c>
+      <c r="K294">
+        <v>3</v>
+      </c>
+      <c r="L294">
+        <v>3</v>
+      </c>
+      <c r="M294">
+        <v>2</v>
+      </c>
+      <c r="N294">
+        <v>5</v>
+      </c>
+      <c r="O294" t="s">
+        <v>262</v>
+      </c>
+      <c r="P294" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q294">
+        <v>3</v>
+      </c>
+      <c r="R294">
+        <v>2.1</v>
+      </c>
+      <c r="S294">
+        <v>3.75</v>
+      </c>
+      <c r="T294">
+        <v>1.44</v>
+      </c>
+      <c r="U294">
+        <v>2.63</v>
+      </c>
+      <c r="V294">
+        <v>3.25</v>
+      </c>
+      <c r="W294">
+        <v>1.33</v>
+      </c>
+      <c r="X294">
+        <v>9</v>
+      </c>
+      <c r="Y294">
+        <v>1.07</v>
+      </c>
+      <c r="Z294">
+        <v>2.2</v>
+      </c>
+      <c r="AA294">
+        <v>3.1</v>
+      </c>
+      <c r="AB294">
+        <v>3.2</v>
+      </c>
+      <c r="AC294">
+        <v>0</v>
+      </c>
+      <c r="AD294">
+        <v>0</v>
+      </c>
+      <c r="AE294">
+        <v>0</v>
+      </c>
+      <c r="AF294">
+        <v>0</v>
+      </c>
+      <c r="AG294">
+        <v>2.05</v>
+      </c>
+      <c r="AH294">
+        <v>1.61</v>
+      </c>
+      <c r="AI294">
+        <v>1.83</v>
+      </c>
+      <c r="AJ294">
+        <v>1.83</v>
+      </c>
+      <c r="AK294">
+        <v>0</v>
+      </c>
+      <c r="AL294">
+        <v>0</v>
+      </c>
+      <c r="AM294">
+        <v>0</v>
+      </c>
+      <c r="AN294">
+        <v>1.5</v>
+      </c>
+      <c r="AO294">
+        <v>0.88</v>
+      </c>
+      <c r="AP294">
+        <v>1.59</v>
+      </c>
+      <c r="AQ294">
+        <v>0.82</v>
+      </c>
+      <c r="AR294">
+        <v>1.52</v>
+      </c>
+      <c r="AS294">
+        <v>1.23</v>
+      </c>
+      <c r="AT294">
+        <v>2.75</v>
+      </c>
+      <c r="AU294">
+        <v>11</v>
+      </c>
+      <c r="AV294">
+        <v>7</v>
+      </c>
+      <c r="AW294">
+        <v>8</v>
+      </c>
+      <c r="AX294">
+        <v>6</v>
+      </c>
+      <c r="AY294">
+        <v>19</v>
+      </c>
+      <c r="AZ294">
+        <v>13</v>
+      </c>
+      <c r="BA294">
+        <v>-1</v>
+      </c>
+      <c r="BB294">
+        <v>-1</v>
+      </c>
+      <c r="BC294">
+        <v>-1</v>
+      </c>
+      <c r="BD294">
+        <v>0</v>
+      </c>
+      <c r="BE294">
+        <v>0</v>
+      </c>
+      <c r="BF294">
+        <v>0</v>
+      </c>
+      <c r="BG294">
+        <v>0</v>
+      </c>
+      <c r="BH294">
+        <v>0</v>
+      </c>
+      <c r="BI294">
+        <v>0</v>
+      </c>
+      <c r="BJ294">
+        <v>0</v>
+      </c>
+      <c r="BK294">
+        <v>0</v>
+      </c>
+      <c r="BL294">
+        <v>0</v>
+      </c>
+      <c r="BM294">
+        <v>0</v>
+      </c>
+      <c r="BN294">
+        <v>0</v>
+      </c>
+      <c r="BO294">
+        <v>0</v>
+      </c>
+      <c r="BP294">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="391">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -805,6 +805,9 @@
     <t>['32', '51', '61']</t>
   </si>
   <si>
+    <t>['45']</t>
+  </si>
+  <si>
     <t>['24', '27']</t>
   </si>
   <si>
@@ -1006,9 +1009,6 @@
     <t>['22', '68']</t>
   </si>
   <si>
-    <t>['45']</t>
-  </si>
-  <si>
     <t>['28', '57']</t>
   </si>
   <si>
@@ -1184,6 +1184,9 @@
   </si>
   <si>
     <t>['12', '19']</t>
+  </si>
+  <si>
+    <t>['10', '23']</t>
   </si>
 </sst>
 </file>
@@ -1545,7 +1548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP294"/>
+  <dimension ref="A1:BP296"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1804,7 +1807,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q2">
         <v>2.16</v>
@@ -2010,7 +2013,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q3">
         <v>3.58</v>
@@ -2216,7 +2219,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q4">
         <v>3.15</v>
@@ -2628,7 +2631,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2834,7 +2837,7 @@
         <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -3121,7 +3124,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ8">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3246,7 +3249,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -3658,7 +3661,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -4070,7 +4073,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q13">
         <v>2.38</v>
@@ -4276,7 +4279,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q14">
         <v>3.73</v>
@@ -4482,7 +4485,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q15">
         <v>3.51</v>
@@ -4688,7 +4691,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q16">
         <v>2.38</v>
@@ -4766,7 +4769,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ16">
         <v>1.25</v>
@@ -5306,7 +5309,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q19">
         <v>2.79</v>
@@ -5384,7 +5387,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ19">
         <v>0.75</v>
@@ -5512,7 +5515,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -5593,7 +5596,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ20">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR20">
         <v>1.01</v>
@@ -6130,7 +6133,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -6542,7 +6545,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q25">
         <v>2.91</v>
@@ -6954,7 +6957,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q27">
         <v>3.25</v>
@@ -7366,7 +7369,7 @@
         <v>89</v>
       </c>
       <c r="P29" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -7572,7 +7575,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -7856,7 +7859,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ31">
         <v>1.12</v>
@@ -7984,7 +7987,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -8062,7 +8065,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ32">
         <v>1.69</v>
@@ -8396,7 +8399,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8602,7 +8605,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q35">
         <v>2.57</v>
@@ -8808,7 +8811,7 @@
         <v>89</v>
       </c>
       <c r="P36" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q36">
         <v>2.5</v>
@@ -9220,7 +9223,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9426,7 +9429,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9838,7 +9841,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q41">
         <v>2.1</v>
@@ -9919,7 +9922,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ41">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR41">
         <v>1.49</v>
@@ -10044,7 +10047,7 @@
         <v>89</v>
       </c>
       <c r="P42" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q42">
         <v>3.1</v>
@@ -10456,7 +10459,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -10662,7 +10665,7 @@
         <v>89</v>
       </c>
       <c r="P45" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q45">
         <v>2.85</v>
@@ -11074,7 +11077,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q47">
         <v>2.6</v>
@@ -11280,7 +11283,7 @@
         <v>89</v>
       </c>
       <c r="P48" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11486,7 +11489,7 @@
         <v>89</v>
       </c>
       <c r="P49" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -11770,7 +11773,7 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ50">
         <v>0.9399999999999999</v>
@@ -11898,7 +11901,7 @@
         <v>89</v>
       </c>
       <c r="P51" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -12516,7 +12519,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12800,7 +12803,7 @@
         <v>2</v>
       </c>
       <c r="AP55">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ55">
         <v>0.35</v>
@@ -12928,7 +12931,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q56">
         <v>3.08</v>
@@ -13134,7 +13137,7 @@
         <v>109</v>
       </c>
       <c r="P57" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13546,7 +13549,7 @@
         <v>89</v>
       </c>
       <c r="P59" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -14451,7 +14454,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ63">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR63">
         <v>1.24</v>
@@ -14782,7 +14785,7 @@
         <v>129</v>
       </c>
       <c r="P65" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -15066,7 +15069,7 @@
         <v>1.67</v>
       </c>
       <c r="AP66">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ66">
         <v>0.82</v>
@@ -15194,7 +15197,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q67">
         <v>3.12</v>
@@ -15400,7 +15403,7 @@
         <v>89</v>
       </c>
       <c r="P68" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q68">
         <v>2.96</v>
@@ -16430,7 +16433,7 @@
         <v>89</v>
       </c>
       <c r="P73" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q73">
         <v>2.92</v>
@@ -16636,7 +16639,7 @@
         <v>89</v>
       </c>
       <c r="P74" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16842,7 +16845,7 @@
         <v>97</v>
       </c>
       <c r="P75" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q75">
         <v>3.04</v>
@@ -17048,7 +17051,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q76">
         <v>2.8</v>
@@ -17335,7 +17338,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ77">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR77">
         <v>1.55</v>
@@ -17460,7 +17463,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -18490,7 +18493,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q83">
         <v>2.36</v>
@@ -19804,7 +19807,7 @@
         <v>0.33</v>
       </c>
       <c r="AP89">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ89">
         <v>0.9399999999999999</v>
@@ -19932,7 +19935,7 @@
         <v>89</v>
       </c>
       <c r="P90" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q90">
         <v>3.09</v>
@@ -20010,7 +20013,7 @@
         <v>1.4</v>
       </c>
       <c r="AP90">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ90">
         <v>1.56</v>
@@ -20138,7 +20141,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q91">
         <v>3.05</v>
@@ -20344,7 +20347,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q92">
         <v>3.5</v>
@@ -20550,7 +20553,7 @@
         <v>89</v>
       </c>
       <c r="P93" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q93">
         <v>3.64</v>
@@ -20756,7 +20759,7 @@
         <v>108</v>
       </c>
       <c r="P94" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q94">
         <v>3.35</v>
@@ -20962,7 +20965,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q95">
         <v>0</v>
@@ -21374,7 +21377,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21455,7 +21458,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ97">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR97">
         <v>1.52</v>
@@ -21580,7 +21583,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q98">
         <v>3.3</v>
@@ -21786,7 +21789,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q99">
         <v>2.99</v>
@@ -22276,7 +22279,7 @@
         <v>0.25</v>
       </c>
       <c r="AP101">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ101">
         <v>0.9399999999999999</v>
@@ -22610,7 +22613,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q103">
         <v>2.6</v>
@@ -23022,7 +23025,7 @@
         <v>125</v>
       </c>
       <c r="P105" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q105">
         <v>3.3</v>
@@ -23228,7 +23231,7 @@
         <v>155</v>
       </c>
       <c r="P106" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q106">
         <v>3.38</v>
@@ -23434,7 +23437,7 @@
         <v>156</v>
       </c>
       <c r="P107" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q107">
         <v>2.62</v>
@@ -23718,7 +23721,7 @@
         <v>1.4</v>
       </c>
       <c r="AP108">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ108">
         <v>0.9399999999999999</v>
@@ -23846,7 +23849,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q109">
         <v>2.29</v>
@@ -24670,7 +24673,7 @@
         <v>89</v>
       </c>
       <c r="P113" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q113">
         <v>2.83</v>
@@ -24876,7 +24879,7 @@
         <v>160</v>
       </c>
       <c r="P114" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -25288,7 +25291,7 @@
         <v>161</v>
       </c>
       <c r="P116" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q116">
         <v>3.86</v>
@@ -25369,7 +25372,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ116">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR116">
         <v>1.1</v>
@@ -25494,7 +25497,7 @@
         <v>162</v>
       </c>
       <c r="P117" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q117">
         <v>4.05</v>
@@ -25984,7 +25987,7 @@
         <v>2</v>
       </c>
       <c r="AP119">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ119">
         <v>1.69</v>
@@ -26524,7 +26527,7 @@
         <v>165</v>
       </c>
       <c r="P122" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q122">
         <v>3.4</v>
@@ -26936,7 +26939,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q124">
         <v>2.84</v>
@@ -27220,7 +27223,7 @@
         <v>1.29</v>
       </c>
       <c r="AP125">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ125">
         <v>0.8100000000000001</v>
@@ -27348,7 +27351,7 @@
         <v>89</v>
       </c>
       <c r="P126" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q126">
         <v>2.41</v>
@@ -27760,7 +27763,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q128">
         <v>2.1</v>
@@ -28172,7 +28175,7 @@
         <v>171</v>
       </c>
       <c r="P130" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q130">
         <v>2.49</v>
@@ -28250,7 +28253,7 @@
         <v>0.43</v>
       </c>
       <c r="AP130">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ130">
         <v>0.75</v>
@@ -28584,7 +28587,7 @@
         <v>173</v>
       </c>
       <c r="P132" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q132">
         <v>2.94</v>
@@ -28790,7 +28793,7 @@
         <v>161</v>
       </c>
       <c r="P133" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -28871,7 +28874,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ133">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR133">
         <v>1.63</v>
@@ -28996,7 +28999,7 @@
         <v>174</v>
       </c>
       <c r="P134" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q134">
         <v>4.33</v>
@@ -29614,7 +29617,7 @@
         <v>176</v>
       </c>
       <c r="P137" t="s">
-        <v>330</v>
+        <v>263</v>
       </c>
       <c r="Q137">
         <v>3.12</v>
@@ -30313,7 +30316,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ140">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR140">
         <v>1.48</v>
@@ -30928,7 +30931,7 @@
         <v>1.63</v>
       </c>
       <c r="AP143">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ143">
         <v>1.71</v>
@@ -31546,7 +31549,7 @@
         <v>1.63</v>
       </c>
       <c r="AP146">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ146">
         <v>1.53</v>
@@ -34430,7 +34433,7 @@
         <v>1.78</v>
       </c>
       <c r="AP160">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ160">
         <v>1.71</v>
@@ -34842,7 +34845,7 @@
         <v>1.44</v>
       </c>
       <c r="AP162">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ162">
         <v>1.53</v>
@@ -35176,7 +35179,7 @@
         <v>195</v>
       </c>
       <c r="P164" t="s">
-        <v>330</v>
+        <v>263</v>
       </c>
       <c r="Q164">
         <v>2.55</v>
@@ -35463,7 +35466,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ165">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR165">
         <v>1.57</v>
@@ -37520,7 +37523,7 @@
         <v>2.22</v>
       </c>
       <c r="AP175">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ175">
         <v>1.25</v>
@@ -37726,7 +37729,7 @@
         <v>1.44</v>
       </c>
       <c r="AP176">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ176">
         <v>1.31</v>
@@ -38472,7 +38475,7 @@
         <v>179</v>
       </c>
       <c r="P180" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q180">
         <v>2.97</v>
@@ -38884,7 +38887,7 @@
         <v>89</v>
       </c>
       <c r="P182" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q182">
         <v>2.65</v>
@@ -40201,7 +40204,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ188">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR188">
         <v>1.43</v>
@@ -41228,7 +41231,7 @@
         <v>0.6</v>
       </c>
       <c r="AP193">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ193">
         <v>0.35</v>
@@ -41640,7 +41643,7 @@
         <v>0.6</v>
       </c>
       <c r="AP195">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ195">
         <v>0.82</v>
@@ -44034,7 +44037,7 @@
         <v>156</v>
       </c>
       <c r="P207" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q207">
         <v>3.45</v>
@@ -44115,7 +44118,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ207">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR207">
         <v>1.41</v>
@@ -44240,7 +44243,7 @@
         <v>197</v>
       </c>
       <c r="P208" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q208">
         <v>3.5</v>
@@ -45142,7 +45145,7 @@
         <v>1.45</v>
       </c>
       <c r="AP212">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ212">
         <v>1.69</v>
@@ -45966,7 +45969,7 @@
         <v>1.18</v>
       </c>
       <c r="AP216">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ216">
         <v>1.25</v>
@@ -46300,7 +46303,7 @@
         <v>89</v>
       </c>
       <c r="P218" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q218">
         <v>3.6</v>
@@ -46587,7 +46590,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ219">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR219">
         <v>1.28</v>
@@ -49262,7 +49265,7 @@
         <v>1.33</v>
       </c>
       <c r="AP232">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ232">
         <v>1.31</v>
@@ -49880,7 +49883,7 @@
         <v>1.25</v>
       </c>
       <c r="AP235">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ235">
         <v>0.9399999999999999</v>
@@ -50498,7 +50501,7 @@
         <v>1</v>
       </c>
       <c r="AP238">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ238">
         <v>0.8100000000000001</v>
@@ -51325,7 +51328,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ242">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR242">
         <v>1.68</v>
@@ -51940,7 +51943,7 @@
         <v>1.23</v>
       </c>
       <c r="AP245">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ245">
         <v>1.25</v>
@@ -54540,7 +54543,7 @@
         <v>242</v>
       </c>
       <c r="P258" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q258">
         <v>3.26</v>
@@ -54952,7 +54955,7 @@
         <v>243</v>
       </c>
       <c r="P260" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q260">
         <v>2.26</v>
@@ -55030,10 +55033,10 @@
         <v>1.43</v>
       </c>
       <c r="AP260">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ260">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR260">
         <v>1.88</v>
@@ -56600,7 +56603,7 @@
         <v>128</v>
       </c>
       <c r="P268" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q268">
         <v>3.75</v>
@@ -57296,7 +57299,7 @@
         <v>1.64</v>
       </c>
       <c r="AP271">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ271">
         <v>1.81</v>
@@ -58120,7 +58123,7 @@
         <v>1</v>
       </c>
       <c r="AP275">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ275">
         <v>1.12</v>
@@ -58947,7 +58950,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ279">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR279">
         <v>1.62</v>
@@ -60798,7 +60801,7 @@
         <v>1.67</v>
       </c>
       <c r="AP288">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ288">
         <v>1.56</v>
@@ -60926,7 +60929,7 @@
         <v>89</v>
       </c>
       <c r="P289" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q289">
         <v>3.4</v>
@@ -61544,7 +61547,7 @@
         <v>261</v>
       </c>
       <c r="P292" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q292">
         <v>3.1</v>
@@ -62112,6 +62115,418 @@
         <v>0</v>
       </c>
       <c r="BP294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:68">
+      <c r="A295" s="1">
+        <v>294</v>
+      </c>
+      <c r="B295">
+        <v>7502898</v>
+      </c>
+      <c r="C295" t="s">
+        <v>68</v>
+      </c>
+      <c r="D295" t="s">
+        <v>69</v>
+      </c>
+      <c r="E295" s="2">
+        <v>45788.41666666666</v>
+      </c>
+      <c r="F295">
+        <v>33</v>
+      </c>
+      <c r="G295" t="s">
+        <v>87</v>
+      </c>
+      <c r="H295" t="s">
+        <v>79</v>
+      </c>
+      <c r="I295">
+        <v>1</v>
+      </c>
+      <c r="J295">
+        <v>2</v>
+      </c>
+      <c r="K295">
+        <v>3</v>
+      </c>
+      <c r="L295">
+        <v>1</v>
+      </c>
+      <c r="M295">
+        <v>2</v>
+      </c>
+      <c r="N295">
+        <v>3</v>
+      </c>
+      <c r="O295" t="s">
+        <v>141</v>
+      </c>
+      <c r="P295" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q295">
+        <v>2.75</v>
+      </c>
+      <c r="R295">
+        <v>2.2</v>
+      </c>
+      <c r="S295">
+        <v>4</v>
+      </c>
+      <c r="T295">
+        <v>1.36</v>
+      </c>
+      <c r="U295">
+        <v>3</v>
+      </c>
+      <c r="V295">
+        <v>2.75</v>
+      </c>
+      <c r="W295">
+        <v>1.4</v>
+      </c>
+      <c r="X295">
+        <v>7</v>
+      </c>
+      <c r="Y295">
+        <v>1.1</v>
+      </c>
+      <c r="Z295">
+        <v>2.05</v>
+      </c>
+      <c r="AA295">
+        <v>3.2</v>
+      </c>
+      <c r="AB295">
+        <v>3.4</v>
+      </c>
+      <c r="AC295">
+        <v>0</v>
+      </c>
+      <c r="AD295">
+        <v>0</v>
+      </c>
+      <c r="AE295">
+        <v>0</v>
+      </c>
+      <c r="AF295">
+        <v>0</v>
+      </c>
+      <c r="AG295">
+        <v>1.8</v>
+      </c>
+      <c r="AH295">
+        <v>1.83</v>
+      </c>
+      <c r="AI295">
+        <v>1.67</v>
+      </c>
+      <c r="AJ295">
+        <v>2.1</v>
+      </c>
+      <c r="AK295">
+        <v>0</v>
+      </c>
+      <c r="AL295">
+        <v>0</v>
+      </c>
+      <c r="AM295">
+        <v>0</v>
+      </c>
+      <c r="AN295">
+        <v>2.13</v>
+      </c>
+      <c r="AO295">
+        <v>1.5</v>
+      </c>
+      <c r="AP295">
+        <v>2</v>
+      </c>
+      <c r="AQ295">
+        <v>1.59</v>
+      </c>
+      <c r="AR295">
+        <v>1.62</v>
+      </c>
+      <c r="AS295">
+        <v>1.33</v>
+      </c>
+      <c r="AT295">
+        <v>2.95</v>
+      </c>
+      <c r="AU295">
+        <v>9</v>
+      </c>
+      <c r="AV295">
+        <v>4</v>
+      </c>
+      <c r="AW295">
+        <v>9</v>
+      </c>
+      <c r="AX295">
+        <v>3</v>
+      </c>
+      <c r="AY295">
+        <v>18</v>
+      </c>
+      <c r="AZ295">
+        <v>7</v>
+      </c>
+      <c r="BA295">
+        <v>-1</v>
+      </c>
+      <c r="BB295">
+        <v>-1</v>
+      </c>
+      <c r="BC295">
+        <v>-1</v>
+      </c>
+      <c r="BD295">
+        <v>0</v>
+      </c>
+      <c r="BE295">
+        <v>0</v>
+      </c>
+      <c r="BF295">
+        <v>0</v>
+      </c>
+      <c r="BG295">
+        <v>0</v>
+      </c>
+      <c r="BH295">
+        <v>0</v>
+      </c>
+      <c r="BI295">
+        <v>0</v>
+      </c>
+      <c r="BJ295">
+        <v>0</v>
+      </c>
+      <c r="BK295">
+        <v>0</v>
+      </c>
+      <c r="BL295">
+        <v>0</v>
+      </c>
+      <c r="BM295">
+        <v>0</v>
+      </c>
+      <c r="BN295">
+        <v>0</v>
+      </c>
+      <c r="BO295">
+        <v>0</v>
+      </c>
+      <c r="BP295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:68">
+      <c r="A296" s="1">
+        <v>295</v>
+      </c>
+      <c r="B296">
+        <v>7502899</v>
+      </c>
+      <c r="C296" t="s">
+        <v>68</v>
+      </c>
+      <c r="D296" t="s">
+        <v>69</v>
+      </c>
+      <c r="E296" s="2">
+        <v>45788.41666666666</v>
+      </c>
+      <c r="F296">
+        <v>33</v>
+      </c>
+      <c r="G296" t="s">
+        <v>84</v>
+      </c>
+      <c r="H296" t="s">
+        <v>73</v>
+      </c>
+      <c r="I296">
+        <v>1</v>
+      </c>
+      <c r="J296">
+        <v>0</v>
+      </c>
+      <c r="K296">
+        <v>1</v>
+      </c>
+      <c r="L296">
+        <v>1</v>
+      </c>
+      <c r="M296">
+        <v>1</v>
+      </c>
+      <c r="N296">
+        <v>2</v>
+      </c>
+      <c r="O296" t="s">
+        <v>263</v>
+      </c>
+      <c r="P296" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q296">
+        <v>1.91</v>
+      </c>
+      <c r="R296">
+        <v>2.38</v>
+      </c>
+      <c r="S296">
+        <v>7.5</v>
+      </c>
+      <c r="T296">
+        <v>1.36</v>
+      </c>
+      <c r="U296">
+        <v>3</v>
+      </c>
+      <c r="V296">
+        <v>2.63</v>
+      </c>
+      <c r="W296">
+        <v>1.44</v>
+      </c>
+      <c r="X296">
+        <v>7</v>
+      </c>
+      <c r="Y296">
+        <v>1.1</v>
+      </c>
+      <c r="Z296">
+        <v>1.67</v>
+      </c>
+      <c r="AA296">
+        <v>3.6</v>
+      </c>
+      <c r="AB296">
+        <v>4.7</v>
+      </c>
+      <c r="AC296">
+        <v>0</v>
+      </c>
+      <c r="AD296">
+        <v>0</v>
+      </c>
+      <c r="AE296">
+        <v>2.96</v>
+      </c>
+      <c r="AF296">
+        <v>1.38</v>
+      </c>
+      <c r="AG296">
+        <v>2</v>
+      </c>
+      <c r="AH296">
+        <v>1.67</v>
+      </c>
+      <c r="AI296">
+        <v>2.1</v>
+      </c>
+      <c r="AJ296">
+        <v>1.67</v>
+      </c>
+      <c r="AK296">
+        <v>0</v>
+      </c>
+      <c r="AL296">
+        <v>0</v>
+      </c>
+      <c r="AM296">
+        <v>0</v>
+      </c>
+      <c r="AN296">
+        <v>1.81</v>
+      </c>
+      <c r="AO296">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP296">
+        <v>1.76</v>
+      </c>
+      <c r="AQ296">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR296">
+        <v>1.87</v>
+      </c>
+      <c r="AS296">
+        <v>1.25</v>
+      </c>
+      <c r="AT296">
+        <v>3.12</v>
+      </c>
+      <c r="AU296">
+        <v>11</v>
+      </c>
+      <c r="AV296">
+        <v>3</v>
+      </c>
+      <c r="AW296">
+        <v>13</v>
+      </c>
+      <c r="AX296">
+        <v>10</v>
+      </c>
+      <c r="AY296">
+        <v>24</v>
+      </c>
+      <c r="AZ296">
+        <v>13</v>
+      </c>
+      <c r="BA296">
+        <v>-1</v>
+      </c>
+      <c r="BB296">
+        <v>-1</v>
+      </c>
+      <c r="BC296">
+        <v>-1</v>
+      </c>
+      <c r="BD296">
+        <v>0</v>
+      </c>
+      <c r="BE296">
+        <v>0</v>
+      </c>
+      <c r="BF296">
+        <v>0</v>
+      </c>
+      <c r="BG296">
+        <v>0</v>
+      </c>
+      <c r="BH296">
+        <v>0</v>
+      </c>
+      <c r="BI296">
+        <v>0</v>
+      </c>
+      <c r="BJ296">
+        <v>0</v>
+      </c>
+      <c r="BK296">
+        <v>0</v>
+      </c>
+      <c r="BL296">
+        <v>0</v>
+      </c>
+      <c r="BM296">
+        <v>0</v>
+      </c>
+      <c r="BN296">
+        <v>0</v>
+      </c>
+      <c r="BO296">
+        <v>0</v>
+      </c>
+      <c r="BP296">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="392">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -808,6 +808,9 @@
     <t>['45']</t>
   </si>
   <si>
+    <t>['51']</t>
+  </si>
+  <si>
     <t>['24', '27']</t>
   </si>
   <si>
@@ -842,9 +845,6 @@
   </si>
   <si>
     <t>['69', '82']</t>
-  </si>
-  <si>
-    <t>['51']</t>
   </si>
   <si>
     <t>['11', '15', '74']</t>
@@ -1187,6 +1187,9 @@
   </si>
   <si>
     <t>['10', '23']</t>
+  </si>
+  <si>
+    <t>['15', '27', '69']</t>
   </si>
 </sst>
 </file>
@@ -1548,7 +1551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP296"/>
+  <dimension ref="A1:BP298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1807,7 +1810,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q2">
         <v>2.16</v>
@@ -2013,7 +2016,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q3">
         <v>3.58</v>
@@ -2219,7 +2222,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q4">
         <v>3.15</v>
@@ -2631,7 +2634,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2837,7 +2840,7 @@
         <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -3249,7 +3252,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -3661,7 +3664,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -4073,7 +4076,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q13">
         <v>2.38</v>
@@ -4151,7 +4154,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ13">
         <v>1.71</v>
@@ -4279,7 +4282,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q14">
         <v>3.73</v>
@@ -4485,7 +4488,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q15">
         <v>3.51</v>
@@ -4691,7 +4694,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q16">
         <v>2.38</v>
@@ -4772,7 +4775,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ16">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -5181,7 +5184,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ18">
         <v>1.69</v>
@@ -5309,7 +5312,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q19">
         <v>2.79</v>
@@ -5390,7 +5393,7 @@
         <v>2</v>
       </c>
       <c r="AQ19">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5515,7 +5518,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="Q20">
         <v>2.4</v>
@@ -6420,7 +6423,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ24">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR24">
         <v>1.31</v>
@@ -7241,7 +7244,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ28">
         <v>1.81</v>
@@ -8271,7 +8274,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ33">
         <v>1.53</v>
@@ -8686,7 +8689,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ35">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR35">
         <v>1.95</v>
@@ -10334,7 +10337,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ43">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR43">
         <v>1.55</v>
@@ -10537,7 +10540,7 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ44">
         <v>0.9399999999999999</v>
@@ -11567,10 +11570,10 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ49">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR49">
         <v>1.23</v>
@@ -13424,7 +13427,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ58">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR58">
         <v>1.6</v>
@@ -14657,7 +14660,7 @@
         <v>1.33</v>
       </c>
       <c r="AP64">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ64">
         <v>1.56</v>
@@ -15278,7 +15281,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ67">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR67">
         <v>1.38</v>
@@ -17129,7 +17132,7 @@
         <v>2</v>
       </c>
       <c r="AP76">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ76">
         <v>1.69</v>
@@ -17750,7 +17753,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ79">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR79">
         <v>1.3</v>
@@ -18365,7 +18368,7 @@
         <v>1.6</v>
       </c>
       <c r="AP82">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ82">
         <v>1.81</v>
@@ -18574,7 +18577,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ83">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR83">
         <v>1.45</v>
@@ -21046,7 +21049,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ95">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR95">
         <v>1.56</v>
@@ -21455,7 +21458,7 @@
         <v>1.2</v>
       </c>
       <c r="AP97">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ97">
         <v>1.59</v>
@@ -21867,7 +21870,7 @@
         <v>1.75</v>
       </c>
       <c r="AP99">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ99">
         <v>1.31</v>
@@ -23103,7 +23106,7 @@
         <v>1.67</v>
       </c>
       <c r="AP105">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ105">
         <v>1.56</v>
@@ -24342,7 +24345,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ111">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR111">
         <v>1.61</v>
@@ -24751,7 +24754,7 @@
         <v>1.17</v>
       </c>
       <c r="AP113">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ113">
         <v>1.71</v>
@@ -25784,7 +25787,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ118">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR118">
         <v>1.48</v>
@@ -28256,7 +28259,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ130">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR130">
         <v>1.55</v>
@@ -28459,7 +28462,7 @@
         <v>1.57</v>
       </c>
       <c r="AP131">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ131">
         <v>0.9399999999999999</v>
@@ -29286,7 +29289,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ135">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR135">
         <v>1.3</v>
@@ -29489,7 +29492,7 @@
         <v>1.5</v>
       </c>
       <c r="AP136">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ136">
         <v>1.12</v>
@@ -30313,7 +30316,7 @@
         <v>1.5</v>
       </c>
       <c r="AP140">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ140">
         <v>1.59</v>
@@ -30522,7 +30525,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ141">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR141">
         <v>1.36</v>
@@ -31961,10 +31964,10 @@
         <v>0.38</v>
       </c>
       <c r="AP148">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ148">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR148">
         <v>1.62</v>
@@ -33403,7 +33406,7 @@
         <v>0.63</v>
       </c>
       <c r="AP155">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ155">
         <v>0.82</v>
@@ -33818,7 +33821,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ157">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR157">
         <v>1.59</v>
@@ -34021,7 +34024,7 @@
         <v>1.5</v>
       </c>
       <c r="AP158">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ158">
         <v>1.12</v>
@@ -35054,7 +35057,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ163">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR163">
         <v>1.12</v>
@@ -37526,7 +37529,7 @@
         <v>2</v>
       </c>
       <c r="AQ175">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR175">
         <v>1.61</v>
@@ -38141,7 +38144,7 @@
         <v>0.67</v>
       </c>
       <c r="AP178">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ178">
         <v>0.35</v>
@@ -38965,7 +38968,7 @@
         <v>0.78</v>
       </c>
       <c r="AP182">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ182">
         <v>1.25</v>
@@ -40410,7 +40413,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ189">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR189">
         <v>1.67</v>
@@ -41849,7 +41852,7 @@
         <v>1.3</v>
       </c>
       <c r="AP196">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ196">
         <v>1.69</v>
@@ -42058,7 +42061,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ197">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR197">
         <v>1.07</v>
@@ -42882,7 +42885,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ201">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR201">
         <v>1.53</v>
@@ -43291,7 +43294,7 @@
         <v>1.4</v>
       </c>
       <c r="AP203">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ203">
         <v>0.9399999999999999</v>
@@ -44037,7 +44040,7 @@
         <v>156</v>
       </c>
       <c r="P207" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="Q207">
         <v>3.45</v>
@@ -45351,7 +45354,7 @@
         <v>0.64</v>
       </c>
       <c r="AP213">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ213">
         <v>0.82</v>
@@ -45766,7 +45769,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ215">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR215">
         <v>1.65</v>
@@ -46303,7 +46306,7 @@
         <v>89</v>
       </c>
       <c r="P218" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q218">
         <v>3.6</v>
@@ -47208,7 +47211,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ222">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR222">
         <v>1.27</v>
@@ -47823,7 +47826,7 @@
         <v>1</v>
       </c>
       <c r="AP225">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ225">
         <v>0.8100000000000001</v>
@@ -48235,7 +48238,7 @@
         <v>1.08</v>
       </c>
       <c r="AP227">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ227">
         <v>1.25</v>
@@ -48650,7 +48653,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ229">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR229">
         <v>1.27</v>
@@ -50916,7 +50919,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ240">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR240">
         <v>1.45</v>
@@ -51531,7 +51534,7 @@
         <v>1.08</v>
       </c>
       <c r="AP243">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ243">
         <v>0.9399999999999999</v>
@@ -52152,7 +52155,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ246">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR246">
         <v>1.59</v>
@@ -53385,7 +53388,7 @@
         <v>0.92</v>
       </c>
       <c r="AP252">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ252">
         <v>0.9399999999999999</v>
@@ -54827,7 +54830,7 @@
         <v>1.5</v>
       </c>
       <c r="AP259">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ259">
         <v>1.53</v>
@@ -54955,7 +54958,7 @@
         <v>243</v>
       </c>
       <c r="P260" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q260">
         <v>2.26</v>
@@ -55242,7 +55245,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ261">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR261">
         <v>1.38</v>
@@ -55448,7 +55451,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ262">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR262">
         <v>1.3</v>
@@ -56063,7 +56066,7 @@
         <v>1.07</v>
       </c>
       <c r="AP265">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ265">
         <v>0.9399999999999999</v>
@@ -58332,7 +58335,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ276">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR276">
         <v>1.77</v>
@@ -58535,7 +58538,7 @@
         <v>1.73</v>
       </c>
       <c r="AP277">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ277">
         <v>1.69</v>
@@ -58744,7 +58747,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ278">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR278">
         <v>1.36</v>
@@ -59153,7 +59156,7 @@
         <v>0.4</v>
       </c>
       <c r="AP280">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ280">
         <v>0.35</v>
@@ -60929,7 +60932,7 @@
         <v>89</v>
       </c>
       <c r="P289" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q289">
         <v>3.4</v>
@@ -61547,7 +61550,7 @@
         <v>261</v>
       </c>
       <c r="P292" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="Q292">
         <v>3.1</v>
@@ -62527,6 +62530,418 @@
         <v>0</v>
       </c>
       <c r="BP296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:68">
+      <c r="A297" s="1">
+        <v>296</v>
+      </c>
+      <c r="B297">
+        <v>7502894</v>
+      </c>
+      <c r="C297" t="s">
+        <v>68</v>
+      </c>
+      <c r="D297" t="s">
+        <v>69</v>
+      </c>
+      <c r="E297" s="2">
+        <v>45788.58333333334</v>
+      </c>
+      <c r="F297">
+        <v>33</v>
+      </c>
+      <c r="G297" t="s">
+        <v>86</v>
+      </c>
+      <c r="H297" t="s">
+        <v>74</v>
+      </c>
+      <c r="I297">
+        <v>0</v>
+      </c>
+      <c r="J297">
+        <v>0</v>
+      </c>
+      <c r="K297">
+        <v>0</v>
+      </c>
+      <c r="L297">
+        <v>1</v>
+      </c>
+      <c r="M297">
+        <v>1</v>
+      </c>
+      <c r="N297">
+        <v>2</v>
+      </c>
+      <c r="O297" t="s">
+        <v>264</v>
+      </c>
+      <c r="P297" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q297">
+        <v>2.5</v>
+      </c>
+      <c r="R297">
+        <v>2.2</v>
+      </c>
+      <c r="S297">
+        <v>4.5</v>
+      </c>
+      <c r="T297">
+        <v>1.4</v>
+      </c>
+      <c r="U297">
+        <v>2.75</v>
+      </c>
+      <c r="V297">
+        <v>2.75</v>
+      </c>
+      <c r="W297">
+        <v>1.4</v>
+      </c>
+      <c r="X297">
+        <v>8</v>
+      </c>
+      <c r="Y297">
+        <v>1.08</v>
+      </c>
+      <c r="Z297">
+        <v>1.8</v>
+      </c>
+      <c r="AA297">
+        <v>3.3</v>
+      </c>
+      <c r="AB297">
+        <v>4</v>
+      </c>
+      <c r="AC297">
+        <v>0</v>
+      </c>
+      <c r="AD297">
+        <v>0</v>
+      </c>
+      <c r="AE297">
+        <v>0</v>
+      </c>
+      <c r="AF297">
+        <v>0</v>
+      </c>
+      <c r="AG297">
+        <v>1.91</v>
+      </c>
+      <c r="AH297">
+        <v>1.75</v>
+      </c>
+      <c r="AI297">
+        <v>1.83</v>
+      </c>
+      <c r="AJ297">
+        <v>1.83</v>
+      </c>
+      <c r="AK297">
+        <v>0</v>
+      </c>
+      <c r="AL297">
+        <v>0</v>
+      </c>
+      <c r="AM297">
+        <v>0</v>
+      </c>
+      <c r="AN297">
+        <v>1.88</v>
+      </c>
+      <c r="AO297">
+        <v>1.25</v>
+      </c>
+      <c r="AP297">
+        <v>1.82</v>
+      </c>
+      <c r="AQ297">
+        <v>1.24</v>
+      </c>
+      <c r="AR297">
+        <v>1.54</v>
+      </c>
+      <c r="AS297">
+        <v>1.24</v>
+      </c>
+      <c r="AT297">
+        <v>2.78</v>
+      </c>
+      <c r="AU297">
+        <v>6</v>
+      </c>
+      <c r="AV297">
+        <v>3</v>
+      </c>
+      <c r="AW297">
+        <v>13</v>
+      </c>
+      <c r="AX297">
+        <v>7</v>
+      </c>
+      <c r="AY297">
+        <v>19</v>
+      </c>
+      <c r="AZ297">
+        <v>10</v>
+      </c>
+      <c r="BA297">
+        <v>-1</v>
+      </c>
+      <c r="BB297">
+        <v>-1</v>
+      </c>
+      <c r="BC297">
+        <v>-1</v>
+      </c>
+      <c r="BD297">
+        <v>0</v>
+      </c>
+      <c r="BE297">
+        <v>0</v>
+      </c>
+      <c r="BF297">
+        <v>0</v>
+      </c>
+      <c r="BG297">
+        <v>0</v>
+      </c>
+      <c r="BH297">
+        <v>0</v>
+      </c>
+      <c r="BI297">
+        <v>0</v>
+      </c>
+      <c r="BJ297">
+        <v>0</v>
+      </c>
+      <c r="BK297">
+        <v>0</v>
+      </c>
+      <c r="BL297">
+        <v>0</v>
+      </c>
+      <c r="BM297">
+        <v>0</v>
+      </c>
+      <c r="BN297">
+        <v>0</v>
+      </c>
+      <c r="BO297">
+        <v>0</v>
+      </c>
+      <c r="BP297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:68">
+      <c r="A298" s="1">
+        <v>297</v>
+      </c>
+      <c r="B298">
+        <v>7502897</v>
+      </c>
+      <c r="C298" t="s">
+        <v>68</v>
+      </c>
+      <c r="D298" t="s">
+        <v>69</v>
+      </c>
+      <c r="E298" s="2">
+        <v>45788.58333333334</v>
+      </c>
+      <c r="F298">
+        <v>33</v>
+      </c>
+      <c r="G298" t="s">
+        <v>81</v>
+      </c>
+      <c r="H298" t="s">
+        <v>76</v>
+      </c>
+      <c r="I298">
+        <v>0</v>
+      </c>
+      <c r="J298">
+        <v>2</v>
+      </c>
+      <c r="K298">
+        <v>2</v>
+      </c>
+      <c r="L298">
+        <v>0</v>
+      </c>
+      <c r="M298">
+        <v>3</v>
+      </c>
+      <c r="N298">
+        <v>3</v>
+      </c>
+      <c r="O298" t="s">
+        <v>89</v>
+      </c>
+      <c r="P298" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q298">
+        <v>3.1</v>
+      </c>
+      <c r="R298">
+        <v>2.1</v>
+      </c>
+      <c r="S298">
+        <v>3.5</v>
+      </c>
+      <c r="T298">
+        <v>1.44</v>
+      </c>
+      <c r="U298">
+        <v>2.63</v>
+      </c>
+      <c r="V298">
+        <v>3</v>
+      </c>
+      <c r="W298">
+        <v>1.36</v>
+      </c>
+      <c r="X298">
+        <v>9</v>
+      </c>
+      <c r="Y298">
+        <v>1.07</v>
+      </c>
+      <c r="Z298">
+        <v>2.4</v>
+      </c>
+      <c r="AA298">
+        <v>3.1</v>
+      </c>
+      <c r="AB298">
+        <v>2.85</v>
+      </c>
+      <c r="AC298">
+        <v>0</v>
+      </c>
+      <c r="AD298">
+        <v>0</v>
+      </c>
+      <c r="AE298">
+        <v>0</v>
+      </c>
+      <c r="AF298">
+        <v>0</v>
+      </c>
+      <c r="AG298">
+        <v>1.95</v>
+      </c>
+      <c r="AH298">
+        <v>1.7</v>
+      </c>
+      <c r="AI298">
+        <v>1.8</v>
+      </c>
+      <c r="AJ298">
+        <v>1.91</v>
+      </c>
+      <c r="AK298">
+        <v>0</v>
+      </c>
+      <c r="AL298">
+        <v>0</v>
+      </c>
+      <c r="AM298">
+        <v>0</v>
+      </c>
+      <c r="AN298">
+        <v>1.31</v>
+      </c>
+      <c r="AO298">
+        <v>0.75</v>
+      </c>
+      <c r="AP298">
+        <v>1.24</v>
+      </c>
+      <c r="AQ298">
+        <v>0.88</v>
+      </c>
+      <c r="AR298">
+        <v>1.52</v>
+      </c>
+      <c r="AS298">
+        <v>1.53</v>
+      </c>
+      <c r="AT298">
+        <v>3.05</v>
+      </c>
+      <c r="AU298">
+        <v>6</v>
+      </c>
+      <c r="AV298">
+        <v>5</v>
+      </c>
+      <c r="AW298">
+        <v>10</v>
+      </c>
+      <c r="AX298">
+        <v>4</v>
+      </c>
+      <c r="AY298">
+        <v>16</v>
+      </c>
+      <c r="AZ298">
+        <v>9</v>
+      </c>
+      <c r="BA298">
+        <v>-1</v>
+      </c>
+      <c r="BB298">
+        <v>-1</v>
+      </c>
+      <c r="BC298">
+        <v>-1</v>
+      </c>
+      <c r="BD298">
+        <v>0</v>
+      </c>
+      <c r="BE298">
+        <v>0</v>
+      </c>
+      <c r="BF298">
+        <v>0</v>
+      </c>
+      <c r="BG298">
+        <v>0</v>
+      </c>
+      <c r="BH298">
+        <v>0</v>
+      </c>
+      <c r="BI298">
+        <v>0</v>
+      </c>
+      <c r="BJ298">
+        <v>0</v>
+      </c>
+      <c r="BK298">
+        <v>0</v>
+      </c>
+      <c r="BL298">
+        <v>0</v>
+      </c>
+      <c r="BM298">
+        <v>0</v>
+      </c>
+      <c r="BN298">
+        <v>0</v>
+      </c>
+      <c r="BO298">
+        <v>0</v>
+      </c>
+      <c r="BP298">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal LigaPro_20242025.xlsx
@@ -61455,13 +61455,13 @@
         <v>11</v>
       </c>
       <c r="BA291">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB291">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC291">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BD291">
         <v>0</v>
@@ -61661,13 +61661,13 @@
         <v>17</v>
       </c>
       <c r="BA292">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB292">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BC292">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BD292">
         <v>0</v>
@@ -61867,13 +61867,13 @@
         <v>15</v>
       </c>
       <c r="BA293">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB293">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC293">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BD293">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal LigaPro_20242025.xlsx
@@ -62073,13 +62073,13 @@
         <v>13</v>
       </c>
       <c r="BA294">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BB294">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC294">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BD294">
         <v>0</v>
@@ -62279,13 +62279,13 @@
         <v>7</v>
       </c>
       <c r="BA295">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BB295">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC295">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BD295">
         <v>0</v>
@@ -62485,13 +62485,13 @@
         <v>13</v>
       </c>
       <c r="BA296">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB296">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BC296">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BD296">
         <v>0</v>
@@ -62691,13 +62691,13 @@
         <v>10</v>
       </c>
       <c r="BA297">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BB297">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC297">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BD297">
         <v>0</v>
@@ -62897,13 +62897,13 @@
         <v>9</v>
       </c>
       <c r="BA298">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB298">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC298">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BD298">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1856" uniqueCount="393">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -811,6 +811,9 @@
     <t>['51']</t>
   </si>
   <si>
+    <t>['9', '47']</t>
+  </si>
+  <si>
     <t>['24', '27']</t>
   </si>
   <si>
@@ -1551,7 +1554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP298"/>
+  <dimension ref="A1:BP299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1810,7 +1813,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q2">
         <v>2.16</v>
@@ -2016,7 +2019,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q3">
         <v>3.58</v>
@@ -2222,7 +2225,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q4">
         <v>3.15</v>
@@ -2300,7 +2303,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ4">
         <v>1.31</v>
@@ -2634,7 +2637,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2840,7 +2843,7 @@
         <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2921,7 +2924,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ7">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3252,7 +3255,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -3664,7 +3667,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -4076,7 +4079,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q13">
         <v>2.38</v>
@@ -4282,7 +4285,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q14">
         <v>3.73</v>
@@ -4488,7 +4491,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q15">
         <v>3.51</v>
@@ -4694,7 +4697,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q16">
         <v>2.38</v>
@@ -5312,7 +5315,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q19">
         <v>2.79</v>
@@ -5805,7 +5808,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ21">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR21">
         <v>1.84</v>
@@ -6136,7 +6139,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -6214,7 +6217,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ23">
         <v>0.9399999999999999</v>
@@ -6548,7 +6551,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q25">
         <v>2.91</v>
@@ -6960,7 +6963,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q27">
         <v>3.25</v>
@@ -7372,7 +7375,7 @@
         <v>89</v>
       </c>
       <c r="P29" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -7578,7 +7581,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -7990,7 +7993,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -8402,7 +8405,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8608,7 +8611,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q35">
         <v>2.57</v>
@@ -8814,7 +8817,7 @@
         <v>89</v>
       </c>
       <c r="P36" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q36">
         <v>2.5</v>
@@ -9226,7 +9229,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9432,7 +9435,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9844,7 +9847,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q41">
         <v>2.1</v>
@@ -10050,7 +10053,7 @@
         <v>89</v>
       </c>
       <c r="P42" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q42">
         <v>3.1</v>
@@ -10462,7 +10465,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -10668,7 +10671,7 @@
         <v>89</v>
       </c>
       <c r="P45" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q45">
         <v>2.85</v>
@@ -10746,7 +10749,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ45">
         <v>1.81</v>
@@ -11080,7 +11083,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q47">
         <v>2.6</v>
@@ -11286,7 +11289,7 @@
         <v>89</v>
       </c>
       <c r="P48" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11492,7 +11495,7 @@
         <v>89</v>
       </c>
       <c r="P49" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -11904,7 +11907,7 @@
         <v>89</v>
       </c>
       <c r="P51" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -12191,7 +12194,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ52">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR52">
         <v>1.2</v>
@@ -12522,7 +12525,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12934,7 +12937,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q56">
         <v>3.08</v>
@@ -13140,7 +13143,7 @@
         <v>109</v>
       </c>
       <c r="P57" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13552,7 +13555,7 @@
         <v>89</v>
       </c>
       <c r="P59" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13836,7 +13839,7 @@
         <v>0.67</v>
       </c>
       <c r="AP60">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ60">
         <v>0.8100000000000001</v>
@@ -14788,7 +14791,7 @@
         <v>129</v>
       </c>
       <c r="P65" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -15200,7 +15203,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q67">
         <v>3.12</v>
@@ -15406,7 +15409,7 @@
         <v>89</v>
       </c>
       <c r="P68" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q68">
         <v>2.96</v>
@@ -15899,7 +15902,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ70">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR70">
         <v>1.47</v>
@@ -16436,7 +16439,7 @@
         <v>89</v>
       </c>
       <c r="P73" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q73">
         <v>2.92</v>
@@ -16642,7 +16645,7 @@
         <v>89</v>
       </c>
       <c r="P74" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16848,7 +16851,7 @@
         <v>97</v>
       </c>
       <c r="P75" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q75">
         <v>3.04</v>
@@ -17054,7 +17057,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q76">
         <v>2.8</v>
@@ -17466,7 +17469,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17750,7 +17753,7 @@
         <v>0.5</v>
       </c>
       <c r="AP79">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ79">
         <v>0.88</v>
@@ -18165,7 +18168,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ81">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR81">
         <v>1.68</v>
@@ -18496,7 +18499,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q83">
         <v>2.36</v>
@@ -19938,7 +19941,7 @@
         <v>89</v>
       </c>
       <c r="P90" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q90">
         <v>3.09</v>
@@ -20144,7 +20147,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q91">
         <v>3.05</v>
@@ -20350,7 +20353,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q92">
         <v>3.5</v>
@@ -20556,7 +20559,7 @@
         <v>89</v>
       </c>
       <c r="P93" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q93">
         <v>3.64</v>
@@ -20762,7 +20765,7 @@
         <v>108</v>
       </c>
       <c r="P94" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q94">
         <v>3.35</v>
@@ -20968,7 +20971,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q95">
         <v>0</v>
@@ -21252,7 +21255,7 @@
         <v>2</v>
       </c>
       <c r="AP96">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ96">
         <v>1.53</v>
@@ -21380,7 +21383,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21586,7 +21589,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q98">
         <v>3.3</v>
@@ -21792,7 +21795,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q99">
         <v>2.99</v>
@@ -22616,7 +22619,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q103">
         <v>2.6</v>
@@ -22903,7 +22906,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ104">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR104">
         <v>1.44</v>
@@ -23028,7 +23031,7 @@
         <v>125</v>
       </c>
       <c r="P105" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q105">
         <v>3.3</v>
@@ -23234,7 +23237,7 @@
         <v>155</v>
       </c>
       <c r="P106" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q106">
         <v>3.38</v>
@@ -23440,7 +23443,7 @@
         <v>156</v>
       </c>
       <c r="P107" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q107">
         <v>2.62</v>
@@ -23852,7 +23855,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q109">
         <v>2.29</v>
@@ -24676,7 +24679,7 @@
         <v>89</v>
       </c>
       <c r="P113" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q113">
         <v>2.83</v>
@@ -24882,7 +24885,7 @@
         <v>160</v>
       </c>
       <c r="P114" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24960,7 +24963,7 @@
         <v>1.6</v>
       </c>
       <c r="AP114">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ114">
         <v>1.12</v>
@@ -25294,7 +25297,7 @@
         <v>161</v>
       </c>
       <c r="P116" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q116">
         <v>3.86</v>
@@ -25500,7 +25503,7 @@
         <v>162</v>
       </c>
       <c r="P117" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q117">
         <v>4.05</v>
@@ -26530,7 +26533,7 @@
         <v>165</v>
       </c>
       <c r="P122" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q122">
         <v>3.4</v>
@@ -26942,7 +26945,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q124">
         <v>2.84</v>
@@ -27354,7 +27357,7 @@
         <v>89</v>
       </c>
       <c r="P126" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q126">
         <v>2.41</v>
@@ -27641,7 +27644,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ127">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR127">
         <v>0.99</v>
@@ -27766,7 +27769,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q128">
         <v>2.1</v>
@@ -28050,7 +28053,7 @@
         <v>1</v>
       </c>
       <c r="AP129">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ129">
         <v>0.35</v>
@@ -28178,7 +28181,7 @@
         <v>171</v>
       </c>
       <c r="P130" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q130">
         <v>2.49</v>
@@ -28590,7 +28593,7 @@
         <v>173</v>
       </c>
       <c r="P132" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q132">
         <v>2.94</v>
@@ -28796,7 +28799,7 @@
         <v>161</v>
       </c>
       <c r="P133" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -29002,7 +29005,7 @@
         <v>174</v>
       </c>
       <c r="P134" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q134">
         <v>4.33</v>
@@ -29907,7 +29910,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ138">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR138">
         <v>1.22</v>
@@ -30032,7 +30035,7 @@
         <v>177</v>
       </c>
       <c r="P139" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q139">
         <v>1.99</v>
@@ -30444,7 +30447,7 @@
         <v>89</v>
       </c>
       <c r="P141" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q141">
         <v>2.6</v>
@@ -30856,7 +30859,7 @@
         <v>128</v>
       </c>
       <c r="P143" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q143">
         <v>2.65</v>
@@ -31062,7 +31065,7 @@
         <v>89</v>
       </c>
       <c r="P144" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q144">
         <v>4.33</v>
@@ -31474,7 +31477,7 @@
         <v>181</v>
       </c>
       <c r="P146" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q146">
         <v>2.88</v>
@@ -31680,7 +31683,7 @@
         <v>182</v>
       </c>
       <c r="P147" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31886,7 +31889,7 @@
         <v>183</v>
       </c>
       <c r="P148" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q148">
         <v>2.36</v>
@@ -32504,7 +32507,7 @@
         <v>129</v>
       </c>
       <c r="P151" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q151">
         <v>2.78</v>
@@ -32710,7 +32713,7 @@
         <v>185</v>
       </c>
       <c r="P152" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q152">
         <v>2.81</v>
@@ -32788,7 +32791,7 @@
         <v>1.43</v>
       </c>
       <c r="AP152">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ152">
         <v>1.69</v>
@@ -33122,7 +33125,7 @@
         <v>186</v>
       </c>
       <c r="P154" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q154">
         <v>3.38</v>
@@ -33946,7 +33949,7 @@
         <v>190</v>
       </c>
       <c r="P158" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q158">
         <v>3.5</v>
@@ -34564,7 +34567,7 @@
         <v>193</v>
       </c>
       <c r="P161" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -34976,7 +34979,7 @@
         <v>194</v>
       </c>
       <c r="P163" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q163">
         <v>4.2</v>
@@ -35263,7 +35266,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ164">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR164">
         <v>1.48</v>
@@ -35388,7 +35391,7 @@
         <v>89</v>
       </c>
       <c r="P165" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q165">
         <v>3</v>
@@ -35672,7 +35675,7 @@
         <v>1.56</v>
       </c>
       <c r="AP166">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ166">
         <v>1.56</v>
@@ -35800,7 +35803,7 @@
         <v>196</v>
       </c>
       <c r="P167" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q167">
         <v>2.45</v>
@@ -36624,7 +36627,7 @@
         <v>198</v>
       </c>
       <c r="P171" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q171">
         <v>3.84</v>
@@ -37242,7 +37245,7 @@
         <v>200</v>
       </c>
       <c r="P174" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q174">
         <v>3.32</v>
@@ -37860,7 +37863,7 @@
         <v>202</v>
       </c>
       <c r="P177" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q177">
         <v>3.2</v>
@@ -38478,7 +38481,7 @@
         <v>179</v>
       </c>
       <c r="P180" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q180">
         <v>2.97</v>
@@ -38890,7 +38893,7 @@
         <v>89</v>
       </c>
       <c r="P182" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q182">
         <v>2.65</v>
@@ -38971,7 +38974,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ182">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR182">
         <v>1.54</v>
@@ -39096,7 +39099,7 @@
         <v>205</v>
       </c>
       <c r="P183" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q183">
         <v>2.27</v>
@@ -39174,7 +39177,7 @@
         <v>0.67</v>
       </c>
       <c r="AP183">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ183">
         <v>0.9399999999999999</v>
@@ -39714,7 +39717,7 @@
         <v>141</v>
       </c>
       <c r="P186" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q186">
         <v>3.14</v>
@@ -40126,7 +40129,7 @@
         <v>207</v>
       </c>
       <c r="P188" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q188">
         <v>3.25</v>
@@ -40538,7 +40541,7 @@
         <v>208</v>
       </c>
       <c r="P190" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q190">
         <v>3.6</v>
@@ -40950,7 +40953,7 @@
         <v>123</v>
       </c>
       <c r="P192" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q192">
         <v>2.95</v>
@@ -41031,7 +41034,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ192">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR192">
         <v>1.73</v>
@@ -41362,7 +41365,7 @@
         <v>210</v>
       </c>
       <c r="P194" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q194">
         <v>4.2</v>
@@ -41774,7 +41777,7 @@
         <v>211</v>
       </c>
       <c r="P196" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q196">
         <v>3.2</v>
@@ -41980,7 +41983,7 @@
         <v>212</v>
       </c>
       <c r="P197" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q197">
         <v>3</v>
@@ -43010,7 +43013,7 @@
         <v>123</v>
       </c>
       <c r="P202" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q202">
         <v>4.3</v>
@@ -43422,7 +43425,7 @@
         <v>117</v>
       </c>
       <c r="P204" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q204">
         <v>3.1</v>
@@ -43834,7 +43837,7 @@
         <v>218</v>
       </c>
       <c r="P206" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q206">
         <v>3.65</v>
@@ -44118,7 +44121,7 @@
         <v>1.45</v>
       </c>
       <c r="AP207">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ207">
         <v>1.59</v>
@@ -44246,7 +44249,7 @@
         <v>197</v>
       </c>
       <c r="P208" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q208">
         <v>3.5</v>
@@ -44452,7 +44455,7 @@
         <v>129</v>
       </c>
       <c r="P209" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q209">
         <v>2.4</v>
@@ -45070,7 +45073,7 @@
         <v>220</v>
       </c>
       <c r="P212" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q212">
         <v>2.43</v>
@@ -45276,7 +45279,7 @@
         <v>221</v>
       </c>
       <c r="P213" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q213">
         <v>3.15</v>
@@ -45975,7 +45978,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ216">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR216">
         <v>1.76</v>
@@ -46306,7 +46309,7 @@
         <v>89</v>
       </c>
       <c r="P218" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q218">
         <v>3.6</v>
@@ -46512,7 +46515,7 @@
         <v>224</v>
       </c>
       <c r="P219" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q219">
         <v>3.78</v>
@@ -46718,7 +46721,7 @@
         <v>225</v>
       </c>
       <c r="P220" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q220">
         <v>3.26</v>
@@ -47542,7 +47545,7 @@
         <v>89</v>
       </c>
       <c r="P224" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q224">
         <v>5.44</v>
@@ -48032,7 +48035,7 @@
         <v>1.42</v>
       </c>
       <c r="AP226">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ226">
         <v>1.69</v>
@@ -48160,7 +48163,7 @@
         <v>156</v>
       </c>
       <c r="P227" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q227">
         <v>2.9</v>
@@ -48241,7 +48244,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ227">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR227">
         <v>1.49</v>
@@ -48366,7 +48369,7 @@
         <v>228</v>
       </c>
       <c r="P228" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q228">
         <v>2.6</v>
@@ -50014,7 +50017,7 @@
         <v>128</v>
       </c>
       <c r="P236" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q236">
         <v>4.5</v>
@@ -50426,7 +50429,7 @@
         <v>233</v>
       </c>
       <c r="P238" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q238">
         <v>2.1</v>
@@ -50632,7 +50635,7 @@
         <v>89</v>
       </c>
       <c r="P239" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q239">
         <v>0</v>
@@ -50710,7 +50713,7 @@
         <v>1.54</v>
       </c>
       <c r="AP239">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ239">
         <v>1.71</v>
@@ -50838,7 +50841,7 @@
         <v>234</v>
       </c>
       <c r="P240" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q240">
         <v>3</v>
@@ -51250,7 +51253,7 @@
         <v>89</v>
       </c>
       <c r="P242" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q242">
         <v>3.6</v>
@@ -51949,7 +51952,7 @@
         <v>2</v>
       </c>
       <c r="AQ245">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR245">
         <v>1.6</v>
@@ -52486,7 +52489,7 @@
         <v>109</v>
       </c>
       <c r="P248" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q248">
         <v>3.6</v>
@@ -52692,7 +52695,7 @@
         <v>199</v>
       </c>
       <c r="P249" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q249">
         <v>2.35</v>
@@ -53310,7 +53313,7 @@
         <v>239</v>
       </c>
       <c r="P252" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q252">
         <v>2.5</v>
@@ -53722,7 +53725,7 @@
         <v>240</v>
       </c>
       <c r="P254" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q254">
         <v>3.5</v>
@@ -54212,7 +54215,7 @@
         <v>1</v>
       </c>
       <c r="AP256">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ256">
         <v>0.9399999999999999</v>
@@ -54546,7 +54549,7 @@
         <v>242</v>
       </c>
       <c r="P258" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q258">
         <v>3.26</v>
@@ -54752,7 +54755,7 @@
         <v>95</v>
       </c>
       <c r="P259" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q259">
         <v>2.97</v>
@@ -54958,7 +54961,7 @@
         <v>243</v>
       </c>
       <c r="P260" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q260">
         <v>2.26</v>
@@ -55370,7 +55373,7 @@
         <v>244</v>
       </c>
       <c r="P262" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q262">
         <v>3.1</v>
@@ -55782,7 +55785,7 @@
         <v>132</v>
       </c>
       <c r="P264" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q264">
         <v>2.75</v>
@@ -56194,7 +56197,7 @@
         <v>95</v>
       </c>
       <c r="P266" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q266">
         <v>3.2</v>
@@ -56275,7 +56278,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ266">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR266">
         <v>1.37</v>
@@ -56400,7 +56403,7 @@
         <v>95</v>
       </c>
       <c r="P267" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q267">
         <v>3</v>
@@ -56606,7 +56609,7 @@
         <v>128</v>
       </c>
       <c r="P268" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q268">
         <v>3.75</v>
@@ -57224,7 +57227,7 @@
         <v>89</v>
       </c>
       <c r="P271" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q271">
         <v>3.4</v>
@@ -57636,7 +57639,7 @@
         <v>204</v>
       </c>
       <c r="P273" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q273">
         <v>3.2</v>
@@ -57842,7 +57845,7 @@
         <v>250</v>
       </c>
       <c r="P274" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q274">
         <v>3.1</v>
@@ -58460,7 +58463,7 @@
         <v>252</v>
       </c>
       <c r="P277" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q277">
         <v>4.5</v>
@@ -58666,7 +58669,7 @@
         <v>253</v>
       </c>
       <c r="P278" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q278">
         <v>2.5</v>
@@ -58744,7 +58747,7 @@
         <v>1.33</v>
       </c>
       <c r="AP278">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ278">
         <v>1.24</v>
@@ -58872,7 +58875,7 @@
         <v>89</v>
       </c>
       <c r="P279" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q279">
         <v>2.88</v>
@@ -60108,7 +60111,7 @@
         <v>257</v>
       </c>
       <c r="P285" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q285">
         <v>2.88</v>
@@ -60314,7 +60317,7 @@
         <v>197</v>
       </c>
       <c r="P286" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q286">
         <v>3.2</v>
@@ -60601,7 +60604,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ287">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR287">
         <v>1.63</v>
@@ -60726,7 +60729,7 @@
         <v>259</v>
       </c>
       <c r="P288" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q288">
         <v>2.88</v>
@@ -60932,7 +60935,7 @@
         <v>89</v>
       </c>
       <c r="P289" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q289">
         <v>3.4</v>
@@ -61344,7 +61347,7 @@
         <v>135</v>
       </c>
       <c r="P291" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q291">
         <v>2.88</v>
@@ -61756,7 +61759,7 @@
         <v>89</v>
       </c>
       <c r="P293" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q293">
         <v>3</v>
@@ -61962,7 +61965,7 @@
         <v>262</v>
       </c>
       <c r="P294" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q294">
         <v>3</v>
@@ -62168,7 +62171,7 @@
         <v>141</v>
       </c>
       <c r="P295" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q295">
         <v>2.75</v>
@@ -62374,7 +62377,7 @@
         <v>263</v>
       </c>
       <c r="P296" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q296">
         <v>1.91</v>
@@ -62786,7 +62789,7 @@
         <v>89</v>
       </c>
       <c r="P298" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q298">
         <v>3.1</v>
@@ -62942,6 +62945,212 @@
         <v>0</v>
       </c>
       <c r="BP298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:68">
+      <c r="A299" s="1">
+        <v>298</v>
+      </c>
+      <c r="B299">
+        <v>7502908</v>
+      </c>
+      <c r="C299" t="s">
+        <v>68</v>
+      </c>
+      <c r="D299" t="s">
+        <v>69</v>
+      </c>
+      <c r="E299" s="2">
+        <v>45791.67708333334</v>
+      </c>
+      <c r="F299">
+        <v>34</v>
+      </c>
+      <c r="G299" t="s">
+        <v>72</v>
+      </c>
+      <c r="H299" t="s">
+        <v>83</v>
+      </c>
+      <c r="I299">
+        <v>1</v>
+      </c>
+      <c r="J299">
+        <v>0</v>
+      </c>
+      <c r="K299">
+        <v>1</v>
+      </c>
+      <c r="L299">
+        <v>2</v>
+      </c>
+      <c r="M299">
+        <v>0</v>
+      </c>
+      <c r="N299">
+        <v>2</v>
+      </c>
+      <c r="O299" t="s">
+        <v>265</v>
+      </c>
+      <c r="P299" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q299">
+        <v>3</v>
+      </c>
+      <c r="R299">
+        <v>2.2</v>
+      </c>
+      <c r="S299">
+        <v>3.4</v>
+      </c>
+      <c r="T299">
+        <v>1.36</v>
+      </c>
+      <c r="U299">
+        <v>3</v>
+      </c>
+      <c r="V299">
+        <v>2.63</v>
+      </c>
+      <c r="W299">
+        <v>1.44</v>
+      </c>
+      <c r="X299">
+        <v>7</v>
+      </c>
+      <c r="Y299">
+        <v>1.1</v>
+      </c>
+      <c r="Z299">
+        <v>2.31</v>
+      </c>
+      <c r="AA299">
+        <v>3.25</v>
+      </c>
+      <c r="AB299">
+        <v>3</v>
+      </c>
+      <c r="AC299">
+        <v>0</v>
+      </c>
+      <c r="AD299">
+        <v>0</v>
+      </c>
+      <c r="AE299">
+        <v>0</v>
+      </c>
+      <c r="AF299">
+        <v>0</v>
+      </c>
+      <c r="AG299">
+        <v>1.8</v>
+      </c>
+      <c r="AH299">
+        <v>1.83</v>
+      </c>
+      <c r="AI299">
+        <v>1.67</v>
+      </c>
+      <c r="AJ299">
+        <v>2.1</v>
+      </c>
+      <c r="AK299">
+        <v>0</v>
+      </c>
+      <c r="AL299">
+        <v>0</v>
+      </c>
+      <c r="AM299">
+        <v>0</v>
+      </c>
+      <c r="AN299">
+        <v>1.5</v>
+      </c>
+      <c r="AO299">
+        <v>1.25</v>
+      </c>
+      <c r="AP299">
+        <v>1.59</v>
+      </c>
+      <c r="AQ299">
+        <v>1.18</v>
+      </c>
+      <c r="AR299">
+        <v>1.37</v>
+      </c>
+      <c r="AS299">
+        <v>1.27</v>
+      </c>
+      <c r="AT299">
+        <v>2.64</v>
+      </c>
+      <c r="AU299">
+        <v>7</v>
+      </c>
+      <c r="AV299">
+        <v>4</v>
+      </c>
+      <c r="AW299">
+        <v>6</v>
+      </c>
+      <c r="AX299">
+        <v>14</v>
+      </c>
+      <c r="AY299">
+        <v>13</v>
+      </c>
+      <c r="AZ299">
+        <v>18</v>
+      </c>
+      <c r="BA299">
+        <v>-1</v>
+      </c>
+      <c r="BB299">
+        <v>-1</v>
+      </c>
+      <c r="BC299">
+        <v>-1</v>
+      </c>
+      <c r="BD299">
+        <v>0</v>
+      </c>
+      <c r="BE299">
+        <v>0</v>
+      </c>
+      <c r="BF299">
+        <v>0</v>
+      </c>
+      <c r="BG299">
+        <v>0</v>
+      </c>
+      <c r="BH299">
+        <v>0</v>
+      </c>
+      <c r="BI299">
+        <v>0</v>
+      </c>
+      <c r="BJ299">
+        <v>0</v>
+      </c>
+      <c r="BK299">
+        <v>0</v>
+      </c>
+      <c r="BL299">
+        <v>0</v>
+      </c>
+      <c r="BM299">
+        <v>0</v>
+      </c>
+      <c r="BN299">
+        <v>0</v>
+      </c>
+      <c r="BO299">
+        <v>0</v>
+      </c>
+      <c r="BP299">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1856" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1868" uniqueCount="394">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -814,6 +814,9 @@
     <t>['9', '47']</t>
   </si>
   <si>
+    <t>['45+3', '86']</t>
+  </si>
+  <si>
     <t>['24', '27']</t>
   </si>
   <si>
@@ -1554,7 +1557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP299"/>
+  <dimension ref="A1:BP301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1813,7 +1816,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q2">
         <v>2.16</v>
@@ -2019,7 +2022,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q3">
         <v>3.58</v>
@@ -2097,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ3">
         <v>0.9399999999999999</v>
@@ -2225,7 +2228,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q4">
         <v>3.15</v>
@@ -2512,7 +2515,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ5">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2637,7 +2640,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2715,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ6">
         <v>0.9399999999999999</v>
@@ -2843,7 +2846,7 @@
         <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -3255,7 +3258,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -3667,7 +3670,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -4079,7 +4082,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q13">
         <v>2.38</v>
@@ -4285,7 +4288,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q14">
         <v>3.73</v>
@@ -4491,7 +4494,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q15">
         <v>3.51</v>
@@ -4697,7 +4700,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q16">
         <v>2.38</v>
@@ -5190,7 +5193,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ18">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5315,7 +5318,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q19">
         <v>2.79</v>
@@ -6139,7 +6142,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -6551,7 +6554,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q25">
         <v>2.91</v>
@@ -6629,7 +6632,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ25">
         <v>1.69</v>
@@ -6838,7 +6841,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ26">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR26">
         <v>1.66</v>
@@ -6963,7 +6966,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q27">
         <v>3.25</v>
@@ -7041,7 +7044,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ27">
         <v>0.8100000000000001</v>
@@ -7375,7 +7378,7 @@
         <v>89</v>
       </c>
       <c r="P29" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -7581,7 +7584,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -7993,7 +7996,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -8074,7 +8077,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ32">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR32">
         <v>2.27</v>
@@ -8405,7 +8408,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8611,7 +8614,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q35">
         <v>2.57</v>
@@ -8817,7 +8820,7 @@
         <v>89</v>
       </c>
       <c r="P36" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q36">
         <v>2.5</v>
@@ -9229,7 +9232,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9435,7 +9438,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9516,7 +9519,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ39">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR39">
         <v>1.92</v>
@@ -9847,7 +9850,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q41">
         <v>2.1</v>
@@ -10053,7 +10056,7 @@
         <v>89</v>
       </c>
       <c r="P42" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q42">
         <v>3.1</v>
@@ -10131,7 +10134,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ42">
         <v>1.69</v>
@@ -10337,7 +10340,7 @@
         <v>0.5</v>
       </c>
       <c r="AP43">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ43">
         <v>0.88</v>
@@ -10465,7 +10468,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -10671,7 +10674,7 @@
         <v>89</v>
       </c>
       <c r="P45" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q45">
         <v>2.85</v>
@@ -11083,7 +11086,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q47">
         <v>2.6</v>
@@ -11164,7 +11167,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ47">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR47">
         <v>1.36</v>
@@ -11289,7 +11292,7 @@
         <v>89</v>
       </c>
       <c r="P48" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11495,7 +11498,7 @@
         <v>89</v>
       </c>
       <c r="P49" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -11907,7 +11910,7 @@
         <v>89</v>
       </c>
       <c r="P51" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -12525,7 +12528,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12937,7 +12940,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q56">
         <v>3.08</v>
@@ -13143,7 +13146,7 @@
         <v>109</v>
       </c>
       <c r="P57" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13555,7 +13558,7 @@
         <v>89</v>
       </c>
       <c r="P59" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -14251,7 +14254,7 @@
         <v>2.33</v>
       </c>
       <c r="AP62">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ62">
         <v>1.71</v>
@@ -14457,7 +14460,7 @@
         <v>1.67</v>
       </c>
       <c r="AP63">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ63">
         <v>1.59</v>
@@ -14666,7 +14669,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ64">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR64">
         <v>1.67</v>
@@ -14791,7 +14794,7 @@
         <v>129</v>
       </c>
       <c r="P65" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -15203,7 +15206,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q67">
         <v>3.12</v>
@@ -15409,7 +15412,7 @@
         <v>89</v>
       </c>
       <c r="P68" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q68">
         <v>2.96</v>
@@ -15696,7 +15699,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ69">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR69">
         <v>1.69</v>
@@ -16439,7 +16442,7 @@
         <v>89</v>
       </c>
       <c r="P73" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q73">
         <v>2.92</v>
@@ -16517,7 +16520,7 @@
         <v>1.25</v>
       </c>
       <c r="AP73">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ73">
         <v>0.9399999999999999</v>
@@ -16645,7 +16648,7 @@
         <v>89</v>
       </c>
       <c r="P74" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16726,7 +16729,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ74">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR74">
         <v>1.25</v>
@@ -16851,7 +16854,7 @@
         <v>97</v>
       </c>
       <c r="P75" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q75">
         <v>3.04</v>
@@ -17057,7 +17060,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q76">
         <v>2.8</v>
@@ -17469,7 +17472,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17959,7 +17962,7 @@
         <v>1.75</v>
       </c>
       <c r="AP80">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ80">
         <v>1.71</v>
@@ -18499,7 +18502,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q83">
         <v>2.36</v>
@@ -19610,7 +19613,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ88">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR88">
         <v>1.05</v>
@@ -19941,7 +19944,7 @@
         <v>89</v>
       </c>
       <c r="P90" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q90">
         <v>3.09</v>
@@ -20022,7 +20025,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ90">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR90">
         <v>1.65</v>
@@ -20147,7 +20150,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q91">
         <v>3.05</v>
@@ -20225,7 +20228,7 @@
         <v>2</v>
       </c>
       <c r="AP91">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ91">
         <v>1.12</v>
@@ -20353,7 +20356,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q92">
         <v>3.5</v>
@@ -20559,7 +20562,7 @@
         <v>89</v>
       </c>
       <c r="P93" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q93">
         <v>3.64</v>
@@ -20637,7 +20640,7 @@
         <v>1.6</v>
       </c>
       <c r="AP93">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ93">
         <v>0.9399999999999999</v>
@@ -20765,7 +20768,7 @@
         <v>108</v>
       </c>
       <c r="P94" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q94">
         <v>3.35</v>
@@ -20971,7 +20974,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q95">
         <v>0</v>
@@ -21383,7 +21386,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21589,7 +21592,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q98">
         <v>3.3</v>
@@ -21795,7 +21798,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q99">
         <v>2.99</v>
@@ -22619,7 +22622,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q103">
         <v>2.6</v>
@@ -22700,7 +22703,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ103">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR103">
         <v>1.71</v>
@@ -23031,7 +23034,7 @@
         <v>125</v>
       </c>
       <c r="P105" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q105">
         <v>3.3</v>
@@ -23112,7 +23115,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ105">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR105">
         <v>1.39</v>
@@ -23237,7 +23240,7 @@
         <v>155</v>
       </c>
       <c r="P106" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q106">
         <v>3.38</v>
@@ -23443,7 +23446,7 @@
         <v>156</v>
       </c>
       <c r="P107" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q107">
         <v>2.62</v>
@@ -23521,7 +23524,7 @@
         <v>1</v>
       </c>
       <c r="AP107">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ107">
         <v>0.35</v>
@@ -23855,7 +23858,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q109">
         <v>2.29</v>
@@ -24679,7 +24682,7 @@
         <v>89</v>
       </c>
       <c r="P113" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q113">
         <v>2.83</v>
@@ -24885,7 +24888,7 @@
         <v>160</v>
       </c>
       <c r="P114" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -25297,7 +25300,7 @@
         <v>161</v>
       </c>
       <c r="P116" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q116">
         <v>3.86</v>
@@ -25503,7 +25506,7 @@
         <v>162</v>
       </c>
       <c r="P117" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q117">
         <v>4.05</v>
@@ -25581,7 +25584,7 @@
         <v>1.43</v>
       </c>
       <c r="AP117">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ117">
         <v>1.53</v>
@@ -26408,7 +26411,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ121">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR121">
         <v>1.6</v>
@@ -26533,7 +26536,7 @@
         <v>165</v>
       </c>
       <c r="P122" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q122">
         <v>3.4</v>
@@ -26611,7 +26614,7 @@
         <v>0.83</v>
       </c>
       <c r="AP122">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ122">
         <v>0.82</v>
@@ -26817,7 +26820,7 @@
         <v>1.83</v>
       </c>
       <c r="AP123">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ123">
         <v>1.31</v>
@@ -26945,7 +26948,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q124">
         <v>2.84</v>
@@ -27357,7 +27360,7 @@
         <v>89</v>
       </c>
       <c r="P126" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q126">
         <v>2.41</v>
@@ -27438,7 +27441,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ126">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR126">
         <v>1.58</v>
@@ -27769,7 +27772,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q128">
         <v>2.1</v>
@@ -28181,7 +28184,7 @@
         <v>171</v>
       </c>
       <c r="P130" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q130">
         <v>2.49</v>
@@ -28593,7 +28596,7 @@
         <v>173</v>
       </c>
       <c r="P132" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q132">
         <v>2.94</v>
@@ -28799,7 +28802,7 @@
         <v>161</v>
       </c>
       <c r="P133" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -29005,7 +29008,7 @@
         <v>174</v>
       </c>
       <c r="P134" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q134">
         <v>4.33</v>
@@ -29701,7 +29704,7 @@
         <v>1.57</v>
       </c>
       <c r="AP137">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ137">
         <v>1.31</v>
@@ -29907,7 +29910,7 @@
         <v>0.86</v>
       </c>
       <c r="AP138">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ138">
         <v>1.18</v>
@@ -30035,7 +30038,7 @@
         <v>177</v>
       </c>
       <c r="P139" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q139">
         <v>1.99</v>
@@ -30447,7 +30450,7 @@
         <v>89</v>
       </c>
       <c r="P141" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q141">
         <v>2.6</v>
@@ -30859,7 +30862,7 @@
         <v>128</v>
       </c>
       <c r="P143" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q143">
         <v>2.65</v>
@@ -31065,7 +31068,7 @@
         <v>89</v>
       </c>
       <c r="P144" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q144">
         <v>4.33</v>
@@ -31477,7 +31480,7 @@
         <v>181</v>
       </c>
       <c r="P146" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q146">
         <v>2.88</v>
@@ -31683,7 +31686,7 @@
         <v>182</v>
       </c>
       <c r="P147" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31889,7 +31892,7 @@
         <v>183</v>
       </c>
       <c r="P148" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q148">
         <v>2.36</v>
@@ -32507,7 +32510,7 @@
         <v>129</v>
       </c>
       <c r="P151" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q151">
         <v>2.78</v>
@@ -32713,7 +32716,7 @@
         <v>185</v>
       </c>
       <c r="P152" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q152">
         <v>2.81</v>
@@ -32794,7 +32797,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ152">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR152">
         <v>1.34</v>
@@ -33000,7 +33003,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ153">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR153">
         <v>1.48</v>
@@ -33125,7 +33128,7 @@
         <v>186</v>
       </c>
       <c r="P154" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q154">
         <v>3.38</v>
@@ -33949,7 +33952,7 @@
         <v>190</v>
       </c>
       <c r="P158" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q158">
         <v>3.5</v>
@@ -34236,7 +34239,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ159">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR159">
         <v>1.72</v>
@@ -34567,7 +34570,7 @@
         <v>193</v>
       </c>
       <c r="P161" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -34979,7 +34982,7 @@
         <v>194</v>
       </c>
       <c r="P163" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q163">
         <v>4.2</v>
@@ -35391,7 +35394,7 @@
         <v>89</v>
       </c>
       <c r="P165" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q165">
         <v>3</v>
@@ -35678,7 +35681,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ166">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR166">
         <v>1.36</v>
@@ -35803,7 +35806,7 @@
         <v>196</v>
       </c>
       <c r="P167" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q167">
         <v>2.45</v>
@@ -36087,7 +36090,7 @@
         <v>1.11</v>
       </c>
       <c r="AP168">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ168">
         <v>1.81</v>
@@ -36293,7 +36296,7 @@
         <v>0.63</v>
       </c>
       <c r="AP169">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ169">
         <v>0.9399999999999999</v>
@@ -36627,7 +36630,7 @@
         <v>198</v>
       </c>
       <c r="P171" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q171">
         <v>3.84</v>
@@ -37245,7 +37248,7 @@
         <v>200</v>
       </c>
       <c r="P174" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q174">
         <v>3.32</v>
@@ -37863,7 +37866,7 @@
         <v>202</v>
       </c>
       <c r="P177" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q177">
         <v>3.2</v>
@@ -38356,7 +38359,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ179">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR179">
         <v>1.25</v>
@@ -38481,7 +38484,7 @@
         <v>179</v>
       </c>
       <c r="P180" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q180">
         <v>2.97</v>
@@ -38893,7 +38896,7 @@
         <v>89</v>
       </c>
       <c r="P182" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q182">
         <v>2.65</v>
@@ -39099,7 +39102,7 @@
         <v>205</v>
       </c>
       <c r="P183" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q183">
         <v>2.27</v>
@@ -39717,7 +39720,7 @@
         <v>141</v>
       </c>
       <c r="P186" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q186">
         <v>3.14</v>
@@ -39795,7 +39798,7 @@
         <v>1.22</v>
       </c>
       <c r="AP186">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ186">
         <v>0.9399999999999999</v>
@@ -40001,10 +40004,10 @@
         <v>1.5</v>
       </c>
       <c r="AP187">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ187">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR187">
         <v>1.28</v>
@@ -40129,7 +40132,7 @@
         <v>207</v>
       </c>
       <c r="P188" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q188">
         <v>3.25</v>
@@ -40541,7 +40544,7 @@
         <v>208</v>
       </c>
       <c r="P190" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q190">
         <v>3.6</v>
@@ -40953,7 +40956,7 @@
         <v>123</v>
       </c>
       <c r="P192" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q192">
         <v>2.95</v>
@@ -41365,7 +41368,7 @@
         <v>210</v>
       </c>
       <c r="P194" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q194">
         <v>4.2</v>
@@ -41777,7 +41780,7 @@
         <v>211</v>
       </c>
       <c r="P196" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q196">
         <v>3.2</v>
@@ -41858,7 +41861,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ196">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR196">
         <v>1.34</v>
@@ -41983,7 +41986,7 @@
         <v>212</v>
       </c>
       <c r="P197" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q197">
         <v>3</v>
@@ -42679,7 +42682,7 @@
         <v>1.09</v>
       </c>
       <c r="AP200">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ200">
         <v>0.8100000000000001</v>
@@ -43013,7 +43016,7 @@
         <v>123</v>
       </c>
       <c r="P202" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q202">
         <v>4.3</v>
@@ -43091,7 +43094,7 @@
         <v>1.27</v>
       </c>
       <c r="AP202">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ202">
         <v>1.81</v>
@@ -43425,7 +43428,7 @@
         <v>117</v>
       </c>
       <c r="P204" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q204">
         <v>3.1</v>
@@ -43837,7 +43840,7 @@
         <v>218</v>
       </c>
       <c r="P206" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q206">
         <v>3.65</v>
@@ -43918,7 +43921,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ206">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR206">
         <v>1.34</v>
@@ -44249,7 +44252,7 @@
         <v>197</v>
       </c>
       <c r="P208" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q208">
         <v>3.5</v>
@@ -44455,7 +44458,7 @@
         <v>129</v>
       </c>
       <c r="P209" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q209">
         <v>2.4</v>
@@ -45073,7 +45076,7 @@
         <v>220</v>
       </c>
       <c r="P212" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q212">
         <v>2.43</v>
@@ -45154,7 +45157,7 @@
         <v>2</v>
       </c>
       <c r="AQ212">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR212">
         <v>1.61</v>
@@ -45279,7 +45282,7 @@
         <v>221</v>
       </c>
       <c r="P213" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q213">
         <v>3.15</v>
@@ -46309,7 +46312,7 @@
         <v>89</v>
       </c>
       <c r="P218" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q218">
         <v>3.6</v>
@@ -46390,7 +46393,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ218">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR218">
         <v>1.7</v>
@@ -46515,7 +46518,7 @@
         <v>224</v>
       </c>
       <c r="P219" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q219">
         <v>3.78</v>
@@ -46593,7 +46596,7 @@
         <v>1.42</v>
       </c>
       <c r="AP219">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ219">
         <v>1.59</v>
@@ -46721,7 +46724,7 @@
         <v>225</v>
       </c>
       <c r="P220" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q220">
         <v>3.26</v>
@@ -47211,7 +47214,7 @@
         <v>0.33</v>
       </c>
       <c r="AP222">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ222">
         <v>0.88</v>
@@ -47545,7 +47548,7 @@
         <v>89</v>
       </c>
       <c r="P224" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q224">
         <v>5.44</v>
@@ -48163,7 +48166,7 @@
         <v>156</v>
       </c>
       <c r="P227" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q227">
         <v>2.9</v>
@@ -48369,7 +48372,7 @@
         <v>228</v>
       </c>
       <c r="P228" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q228">
         <v>2.6</v>
@@ -48450,7 +48453,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ228">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR228">
         <v>1.52</v>
@@ -50017,7 +50020,7 @@
         <v>128</v>
       </c>
       <c r="P236" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q236">
         <v>4.5</v>
@@ -50301,7 +50304,7 @@
         <v>1.38</v>
       </c>
       <c r="AP237">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ237">
         <v>1.53</v>
@@ -50429,7 +50432,7 @@
         <v>233</v>
       </c>
       <c r="P238" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q238">
         <v>2.1</v>
@@ -50635,7 +50638,7 @@
         <v>89</v>
       </c>
       <c r="P239" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q239">
         <v>0</v>
@@ -50841,7 +50844,7 @@
         <v>234</v>
       </c>
       <c r="P240" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q240">
         <v>3</v>
@@ -51128,7 +51131,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ241">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR241">
         <v>1.74</v>
@@ -51253,7 +51256,7 @@
         <v>89</v>
       </c>
       <c r="P242" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q242">
         <v>3.6</v>
@@ -51743,7 +51746,7 @@
         <v>1.08</v>
       </c>
       <c r="AP244">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ244">
         <v>1.12</v>
@@ -52489,7 +52492,7 @@
         <v>109</v>
       </c>
       <c r="P248" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q248">
         <v>3.6</v>
@@ -52695,7 +52698,7 @@
         <v>199</v>
       </c>
       <c r="P249" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q249">
         <v>2.35</v>
@@ -52776,7 +52779,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ249">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR249">
         <v>1.66</v>
@@ -53313,7 +53316,7 @@
         <v>239</v>
       </c>
       <c r="P252" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q252">
         <v>2.5</v>
@@ -53725,7 +53728,7 @@
         <v>240</v>
       </c>
       <c r="P254" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q254">
         <v>3.5</v>
@@ -54549,7 +54552,7 @@
         <v>242</v>
       </c>
       <c r="P258" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q258">
         <v>3.26</v>
@@ -54755,7 +54758,7 @@
         <v>95</v>
       </c>
       <c r="P259" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q259">
         <v>2.97</v>
@@ -54961,7 +54964,7 @@
         <v>243</v>
       </c>
       <c r="P260" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q260">
         <v>2.26</v>
@@ -55373,7 +55376,7 @@
         <v>244</v>
       </c>
       <c r="P262" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q262">
         <v>3.1</v>
@@ -55451,7 +55454,7 @@
         <v>1.43</v>
       </c>
       <c r="AP262">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ262">
         <v>1.24</v>
@@ -55785,7 +55788,7 @@
         <v>132</v>
       </c>
       <c r="P264" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q264">
         <v>2.75</v>
@@ -56197,7 +56200,7 @@
         <v>95</v>
       </c>
       <c r="P266" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q266">
         <v>3.2</v>
@@ -56275,7 +56278,7 @@
         <v>1.14</v>
       </c>
       <c r="AP266">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ266">
         <v>1.18</v>
@@ -56403,7 +56406,7 @@
         <v>95</v>
       </c>
       <c r="P267" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q267">
         <v>3</v>
@@ -56484,7 +56487,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ267">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR267">
         <v>1.27</v>
@@ -56609,7 +56612,7 @@
         <v>128</v>
       </c>
       <c r="P268" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q268">
         <v>3.75</v>
@@ -56690,7 +56693,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ268">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR268">
         <v>1.17</v>
@@ -57227,7 +57230,7 @@
         <v>89</v>
       </c>
       <c r="P271" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q271">
         <v>3.4</v>
@@ -57639,7 +57642,7 @@
         <v>204</v>
       </c>
       <c r="P273" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q273">
         <v>3.2</v>
@@ -57845,7 +57848,7 @@
         <v>250</v>
       </c>
       <c r="P274" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q274">
         <v>3.1</v>
@@ -58463,7 +58466,7 @@
         <v>252</v>
       </c>
       <c r="P277" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q277">
         <v>4.5</v>
@@ -58669,7 +58672,7 @@
         <v>253</v>
       </c>
       <c r="P278" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q278">
         <v>2.5</v>
@@ -58875,7 +58878,7 @@
         <v>89</v>
       </c>
       <c r="P279" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q279">
         <v>2.88</v>
@@ -60111,7 +60114,7 @@
         <v>257</v>
       </c>
       <c r="P285" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q285">
         <v>2.88</v>
@@ -60317,7 +60320,7 @@
         <v>197</v>
       </c>
       <c r="P286" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q286">
         <v>3.2</v>
@@ -60395,7 +60398,7 @@
         <v>0.73</v>
       </c>
       <c r="AP286">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ286">
         <v>0.82</v>
@@ -60729,7 +60732,7 @@
         <v>259</v>
       </c>
       <c r="P288" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q288">
         <v>2.88</v>
@@ -60810,7 +60813,7 @@
         <v>2</v>
       </c>
       <c r="AQ288">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR288">
         <v>1.61</v>
@@ -60935,7 +60938,7 @@
         <v>89</v>
       </c>
       <c r="P289" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q289">
         <v>3.4</v>
@@ -61013,10 +61016,10 @@
         <v>1.6</v>
       </c>
       <c r="AP289">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ289">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR289">
         <v>1.37</v>
@@ -61347,7 +61350,7 @@
         <v>135</v>
       </c>
       <c r="P291" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q291">
         <v>2.88</v>
@@ -61759,7 +61762,7 @@
         <v>89</v>
       </c>
       <c r="P293" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q293">
         <v>3</v>
@@ -61965,7 +61968,7 @@
         <v>262</v>
       </c>
       <c r="P294" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q294">
         <v>3</v>
@@ -62171,7 +62174,7 @@
         <v>141</v>
       </c>
       <c r="P295" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q295">
         <v>2.75</v>
@@ -62377,7 +62380,7 @@
         <v>263</v>
       </c>
       <c r="P296" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q296">
         <v>1.91</v>
@@ -62789,7 +62792,7 @@
         <v>89</v>
       </c>
       <c r="P298" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q298">
         <v>3.1</v>
@@ -63151,6 +63154,418 @@
         <v>0</v>
       </c>
       <c r="BP299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:68">
+      <c r="A300" s="1">
+        <v>299</v>
+      </c>
+      <c r="B300">
+        <v>7502907</v>
+      </c>
+      <c r="C300" t="s">
+        <v>68</v>
+      </c>
+      <c r="D300" t="s">
+        <v>69</v>
+      </c>
+      <c r="E300" s="2">
+        <v>45792.61458333334</v>
+      </c>
+      <c r="F300">
+        <v>34</v>
+      </c>
+      <c r="G300" t="s">
+        <v>74</v>
+      </c>
+      <c r="H300" t="s">
+        <v>85</v>
+      </c>
+      <c r="I300">
+        <v>0</v>
+      </c>
+      <c r="J300">
+        <v>0</v>
+      </c>
+      <c r="K300">
+        <v>0</v>
+      </c>
+      <c r="L300">
+        <v>0</v>
+      </c>
+      <c r="M300">
+        <v>0</v>
+      </c>
+      <c r="N300">
+        <v>0</v>
+      </c>
+      <c r="O300" t="s">
+        <v>89</v>
+      </c>
+      <c r="P300" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q300">
+        <v>3.75</v>
+      </c>
+      <c r="R300">
+        <v>2.2</v>
+      </c>
+      <c r="S300">
+        <v>2.75</v>
+      </c>
+      <c r="T300">
+        <v>1.4</v>
+      </c>
+      <c r="U300">
+        <v>2.75</v>
+      </c>
+      <c r="V300">
+        <v>2.75</v>
+      </c>
+      <c r="W300">
+        <v>1.4</v>
+      </c>
+      <c r="X300">
+        <v>8</v>
+      </c>
+      <c r="Y300">
+        <v>1.08</v>
+      </c>
+      <c r="Z300">
+        <v>3.4</v>
+      </c>
+      <c r="AA300">
+        <v>3.5</v>
+      </c>
+      <c r="AB300">
+        <v>1.99</v>
+      </c>
+      <c r="AC300">
+        <v>0</v>
+      </c>
+      <c r="AD300">
+        <v>0</v>
+      </c>
+      <c r="AE300">
+        <v>0</v>
+      </c>
+      <c r="AF300">
+        <v>0</v>
+      </c>
+      <c r="AG300">
+        <v>1.91</v>
+      </c>
+      <c r="AH300">
+        <v>1.75</v>
+      </c>
+      <c r="AI300">
+        <v>1.8</v>
+      </c>
+      <c r="AJ300">
+        <v>1.91</v>
+      </c>
+      <c r="AK300">
+        <v>0</v>
+      </c>
+      <c r="AL300">
+        <v>0</v>
+      </c>
+      <c r="AM300">
+        <v>0</v>
+      </c>
+      <c r="AN300">
+        <v>1.44</v>
+      </c>
+      <c r="AO300">
+        <v>1.56</v>
+      </c>
+      <c r="AP300">
+        <v>1.41</v>
+      </c>
+      <c r="AQ300">
+        <v>1.53</v>
+      </c>
+      <c r="AR300">
+        <v>1.37</v>
+      </c>
+      <c r="AS300">
+        <v>1.36</v>
+      </c>
+      <c r="AT300">
+        <v>2.73</v>
+      </c>
+      <c r="AU300">
+        <v>6</v>
+      </c>
+      <c r="AV300">
+        <v>5</v>
+      </c>
+      <c r="AW300">
+        <v>8</v>
+      </c>
+      <c r="AX300">
+        <v>6</v>
+      </c>
+      <c r="AY300">
+        <v>14</v>
+      </c>
+      <c r="AZ300">
+        <v>11</v>
+      </c>
+      <c r="BA300">
+        <v>7</v>
+      </c>
+      <c r="BB300">
+        <v>2</v>
+      </c>
+      <c r="BC300">
+        <v>9</v>
+      </c>
+      <c r="BD300">
+        <v>0</v>
+      </c>
+      <c r="BE300">
+        <v>0</v>
+      </c>
+      <c r="BF300">
+        <v>0</v>
+      </c>
+      <c r="BG300">
+        <v>0</v>
+      </c>
+      <c r="BH300">
+        <v>0</v>
+      </c>
+      <c r="BI300">
+        <v>0</v>
+      </c>
+      <c r="BJ300">
+        <v>0</v>
+      </c>
+      <c r="BK300">
+        <v>0</v>
+      </c>
+      <c r="BL300">
+        <v>0</v>
+      </c>
+      <c r="BM300">
+        <v>0</v>
+      </c>
+      <c r="BN300">
+        <v>0</v>
+      </c>
+      <c r="BO300">
+        <v>0</v>
+      </c>
+      <c r="BP300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:68">
+      <c r="A301" s="1">
+        <v>300</v>
+      </c>
+      <c r="B301">
+        <v>7502901</v>
+      </c>
+      <c r="C301" t="s">
+        <v>68</v>
+      </c>
+      <c r="D301" t="s">
+        <v>69</v>
+      </c>
+      <c r="E301" s="2">
+        <v>45792.69791666666</v>
+      </c>
+      <c r="F301">
+        <v>34</v>
+      </c>
+      <c r="G301" t="s">
+        <v>71</v>
+      </c>
+      <c r="H301" t="s">
+        <v>75</v>
+      </c>
+      <c r="I301">
+        <v>1</v>
+      </c>
+      <c r="J301">
+        <v>0</v>
+      </c>
+      <c r="K301">
+        <v>1</v>
+      </c>
+      <c r="L301">
+        <v>2</v>
+      </c>
+      <c r="M301">
+        <v>0</v>
+      </c>
+      <c r="N301">
+        <v>2</v>
+      </c>
+      <c r="O301" t="s">
+        <v>266</v>
+      </c>
+      <c r="P301" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q301">
+        <v>4</v>
+      </c>
+      <c r="R301">
+        <v>2.25</v>
+      </c>
+      <c r="S301">
+        <v>2.63</v>
+      </c>
+      <c r="T301">
+        <v>1.36</v>
+      </c>
+      <c r="U301">
+        <v>3</v>
+      </c>
+      <c r="V301">
+        <v>2.63</v>
+      </c>
+      <c r="W301">
+        <v>1.44</v>
+      </c>
+      <c r="X301">
+        <v>7</v>
+      </c>
+      <c r="Y301">
+        <v>1.1</v>
+      </c>
+      <c r="Z301">
+        <v>3.15</v>
+      </c>
+      <c r="AA301">
+        <v>3.35</v>
+      </c>
+      <c r="AB301">
+        <v>2.15</v>
+      </c>
+      <c r="AC301">
+        <v>0</v>
+      </c>
+      <c r="AD301">
+        <v>0</v>
+      </c>
+      <c r="AE301">
+        <v>0</v>
+      </c>
+      <c r="AF301">
+        <v>0</v>
+      </c>
+      <c r="AG301">
+        <v>1.8</v>
+      </c>
+      <c r="AH301">
+        <v>1.85</v>
+      </c>
+      <c r="AI301">
+        <v>1.73</v>
+      </c>
+      <c r="AJ301">
+        <v>2</v>
+      </c>
+      <c r="AK301">
+        <v>0</v>
+      </c>
+      <c r="AL301">
+        <v>0</v>
+      </c>
+      <c r="AM301">
+        <v>0</v>
+      </c>
+      <c r="AN301">
+        <v>1.13</v>
+      </c>
+      <c r="AO301">
+        <v>1.69</v>
+      </c>
+      <c r="AP301">
+        <v>1.24</v>
+      </c>
+      <c r="AQ301">
+        <v>1.59</v>
+      </c>
+      <c r="AR301">
+        <v>1.33</v>
+      </c>
+      <c r="AS301">
+        <v>1.47</v>
+      </c>
+      <c r="AT301">
+        <v>2.8</v>
+      </c>
+      <c r="AU301">
+        <v>6</v>
+      </c>
+      <c r="AV301">
+        <v>5</v>
+      </c>
+      <c r="AW301">
+        <v>4</v>
+      </c>
+      <c r="AX301">
+        <v>4</v>
+      </c>
+      <c r="AY301">
+        <v>10</v>
+      </c>
+      <c r="AZ301">
+        <v>9</v>
+      </c>
+      <c r="BA301">
+        <v>1</v>
+      </c>
+      <c r="BB301">
+        <v>3</v>
+      </c>
+      <c r="BC301">
+        <v>4</v>
+      </c>
+      <c r="BD301">
+        <v>0</v>
+      </c>
+      <c r="BE301">
+        <v>0</v>
+      </c>
+      <c r="BF301">
+        <v>0</v>
+      </c>
+      <c r="BG301">
+        <v>0</v>
+      </c>
+      <c r="BH301">
+        <v>0</v>
+      </c>
+      <c r="BI301">
+        <v>0</v>
+      </c>
+      <c r="BJ301">
+        <v>0</v>
+      </c>
+      <c r="BK301">
+        <v>0</v>
+      </c>
+      <c r="BL301">
+        <v>0</v>
+      </c>
+      <c r="BM301">
+        <v>0</v>
+      </c>
+      <c r="BN301">
+        <v>0</v>
+      </c>
+      <c r="BO301">
+        <v>0</v>
+      </c>
+      <c r="BP301">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal LigaPro_20242025.xlsx
@@ -63109,13 +63109,13 @@
         <v>18</v>
       </c>
       <c r="BA299">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB299">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC299">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BD299">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1868" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1886" uniqueCount="398">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -817,6 +817,9 @@
     <t>['45+3', '86']</t>
   </si>
   <si>
+    <t>['15', '63']</t>
+  </si>
+  <si>
     <t>['24', '27']</t>
   </si>
   <si>
@@ -1197,6 +1200,15 @@
   <si>
     <t>['15', '27', '69']</t>
   </si>
+  <si>
+    <t>['45+1', '71']</t>
+  </si>
+  <si>
+    <t>['82']</t>
+  </si>
+  <si>
+    <t>['83', '90+4']</t>
+  </si>
 </sst>
 </file>
 
@@ -1557,7 +1569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP301"/>
+  <dimension ref="A1:BP304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1816,7 +1828,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q2">
         <v>2.16</v>
@@ -1894,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2022,7 +2034,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q3">
         <v>3.58</v>
@@ -2228,7 +2240,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q4">
         <v>3.15</v>
@@ -2640,7 +2652,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2846,7 +2858,7 @@
         <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -3258,7 +3270,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -3336,10 +3348,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ9">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3545,7 +3557,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ10">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3670,7 +3682,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3748,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ11">
         <v>1.12</v>
@@ -4082,7 +4094,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q13">
         <v>2.38</v>
@@ -4288,7 +4300,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q14">
         <v>3.73</v>
@@ -4494,7 +4506,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q15">
         <v>3.51</v>
@@ -4700,7 +4712,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q16">
         <v>2.38</v>
@@ -5318,7 +5330,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q19">
         <v>2.79</v>
@@ -5602,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ20">
         <v>1.59</v>
@@ -6142,7 +6154,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -6554,7 +6566,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q25">
         <v>2.91</v>
@@ -6635,7 +6647,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ25">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR25">
         <v>1.23</v>
@@ -6838,7 +6850,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ26">
         <v>1.53</v>
@@ -6966,7 +6978,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q27">
         <v>3.25</v>
@@ -7047,7 +7059,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ27">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR27">
         <v>1.33</v>
@@ -7253,7 +7265,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ28">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR28">
         <v>1.62</v>
@@ -7378,7 +7390,7 @@
         <v>89</v>
       </c>
       <c r="P29" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -7456,7 +7468,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ29">
         <v>0.9399999999999999</v>
@@ -7584,7 +7596,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -7996,7 +8008,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -8408,7 +8420,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8614,7 +8626,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q35">
         <v>2.57</v>
@@ -8820,7 +8832,7 @@
         <v>89</v>
       </c>
       <c r="P36" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q36">
         <v>2.5</v>
@@ -9232,7 +9244,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9313,7 +9325,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ38">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR38">
         <v>1.5</v>
@@ -9438,7 +9450,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9850,7 +9862,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q41">
         <v>2.1</v>
@@ -9928,7 +9940,7 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ41">
         <v>1.59</v>
@@ -10056,7 +10068,7 @@
         <v>89</v>
       </c>
       <c r="P42" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q42">
         <v>3.1</v>
@@ -10137,7 +10149,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ42">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR42">
         <v>1.42</v>
@@ -10468,7 +10480,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -10674,7 +10686,7 @@
         <v>89</v>
       </c>
       <c r="P45" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q45">
         <v>2.85</v>
@@ -10755,7 +10767,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ45">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR45">
         <v>1.58</v>
@@ -11086,7 +11098,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q47">
         <v>2.6</v>
@@ -11292,7 +11304,7 @@
         <v>89</v>
       </c>
       <c r="P48" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11498,7 +11510,7 @@
         <v>89</v>
       </c>
       <c r="P49" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -11910,7 +11922,7 @@
         <v>89</v>
       </c>
       <c r="P51" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -12400,7 +12412,7 @@
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ53">
         <v>0.82</v>
@@ -12528,7 +12540,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12606,7 +12618,7 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ54">
         <v>1.53</v>
@@ -12940,7 +12952,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q56">
         <v>3.08</v>
@@ -13021,7 +13033,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ56">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR56">
         <v>1.67</v>
@@ -13146,7 +13158,7 @@
         <v>109</v>
       </c>
       <c r="P57" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13430,7 +13442,7 @@
         <v>0.67</v>
       </c>
       <c r="AP58">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ58">
         <v>0.88</v>
@@ -13558,7 +13570,7 @@
         <v>89</v>
       </c>
       <c r="P59" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13845,7 +13857,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ60">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR60">
         <v>1.51</v>
@@ -14051,7 +14063,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ61">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR61">
         <v>1.62</v>
@@ -14794,7 +14806,7 @@
         <v>129</v>
       </c>
       <c r="P65" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14872,7 +14884,7 @@
         <v>1.67</v>
       </c>
       <c r="AP65">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ65">
         <v>1.12</v>
@@ -15206,7 +15218,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q67">
         <v>3.12</v>
@@ -15284,7 +15296,7 @@
         <v>3</v>
       </c>
       <c r="AP67">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ67">
         <v>1.24</v>
@@ -15412,7 +15424,7 @@
         <v>89</v>
       </c>
       <c r="P68" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q68">
         <v>2.96</v>
@@ -16317,7 +16329,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ72">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR72">
         <v>1.62</v>
@@ -16442,7 +16454,7 @@
         <v>89</v>
       </c>
       <c r="P73" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q73">
         <v>2.92</v>
@@ -16648,7 +16660,7 @@
         <v>89</v>
       </c>
       <c r="P74" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16854,7 +16866,7 @@
         <v>97</v>
       </c>
       <c r="P75" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q75">
         <v>3.04</v>
@@ -16935,7 +16947,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ75">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR75">
         <v>1.62</v>
@@ -17060,7 +17072,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q76">
         <v>2.8</v>
@@ -17141,7 +17153,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ76">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR76">
         <v>1.55</v>
@@ -17472,7 +17484,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -18168,7 +18180,7 @@
         <v>1.25</v>
       </c>
       <c r="AP81">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ81">
         <v>1.18</v>
@@ -18377,7 +18389,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ82">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR82">
         <v>1.36</v>
@@ -18502,7 +18514,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q83">
         <v>2.36</v>
@@ -18580,7 +18592,7 @@
         <v>2.5</v>
       </c>
       <c r="AP83">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ83">
         <v>1.24</v>
@@ -19404,7 +19416,7 @@
         <v>1.25</v>
       </c>
       <c r="AP87">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ87">
         <v>0.82</v>
@@ -19944,7 +19956,7 @@
         <v>89</v>
       </c>
       <c r="P90" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q90">
         <v>3.09</v>
@@ -20150,7 +20162,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q91">
         <v>3.05</v>
@@ -20356,7 +20368,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q92">
         <v>3.5</v>
@@ -20437,7 +20449,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ92">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR92">
         <v>1.19</v>
@@ -20562,7 +20574,7 @@
         <v>89</v>
       </c>
       <c r="P93" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q93">
         <v>3.64</v>
@@ -20768,7 +20780,7 @@
         <v>108</v>
       </c>
       <c r="P94" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q94">
         <v>3.35</v>
@@ -20849,7 +20861,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ94">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR94">
         <v>1.74</v>
@@ -20974,7 +20986,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q95">
         <v>0</v>
@@ -21386,7 +21398,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21592,7 +21604,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q98">
         <v>3.3</v>
@@ -21798,7 +21810,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q99">
         <v>2.99</v>
@@ -22622,7 +22634,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q103">
         <v>2.6</v>
@@ -22906,7 +22918,7 @@
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ104">
         <v>1.18</v>
@@ -23034,7 +23046,7 @@
         <v>125</v>
       </c>
       <c r="P105" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q105">
         <v>3.3</v>
@@ -23240,7 +23252,7 @@
         <v>155</v>
       </c>
       <c r="P106" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q106">
         <v>3.38</v>
@@ -23318,10 +23330,10 @@
         <v>1.5</v>
       </c>
       <c r="AP106">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ106">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR106">
         <v>1.65</v>
@@ -23446,7 +23458,7 @@
         <v>156</v>
       </c>
       <c r="P107" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q107">
         <v>2.62</v>
@@ -23858,7 +23870,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q109">
         <v>2.29</v>
@@ -24142,7 +24154,7 @@
         <v>2</v>
       </c>
       <c r="AP110">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ110">
         <v>1.31</v>
@@ -24682,7 +24694,7 @@
         <v>89</v>
       </c>
       <c r="P113" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q113">
         <v>2.83</v>
@@ -24888,7 +24900,7 @@
         <v>160</v>
       </c>
       <c r="P114" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -25175,7 +25187,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ115">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR115">
         <v>1.59</v>
@@ -25300,7 +25312,7 @@
         <v>161</v>
       </c>
       <c r="P116" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q116">
         <v>3.86</v>
@@ -25506,7 +25518,7 @@
         <v>162</v>
       </c>
       <c r="P117" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q117">
         <v>4.05</v>
@@ -25999,7 +26011,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ119">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR119">
         <v>1.64</v>
@@ -26202,7 +26214,7 @@
         <v>1.17</v>
       </c>
       <c r="AP120">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ120">
         <v>0.9399999999999999</v>
@@ -26408,7 +26420,7 @@
         <v>1.86</v>
       </c>
       <c r="AP121">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ121">
         <v>1.53</v>
@@ -26536,7 +26548,7 @@
         <v>165</v>
       </c>
       <c r="P122" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q122">
         <v>3.4</v>
@@ -26948,7 +26960,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q124">
         <v>2.84</v>
@@ -27029,7 +27041,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ124">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR124">
         <v>1.69</v>
@@ -27235,7 +27247,7 @@
         <v>2</v>
       </c>
       <c r="AQ125">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR125">
         <v>1.63</v>
@@ -27360,7 +27372,7 @@
         <v>89</v>
       </c>
       <c r="P126" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q126">
         <v>2.41</v>
@@ -27438,7 +27450,7 @@
         <v>1.17</v>
       </c>
       <c r="AP126">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ126">
         <v>1.59</v>
@@ -27772,7 +27784,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q128">
         <v>2.1</v>
@@ -28184,7 +28196,7 @@
         <v>171</v>
       </c>
       <c r="P130" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q130">
         <v>2.49</v>
@@ -28596,7 +28608,7 @@
         <v>173</v>
       </c>
       <c r="P132" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q132">
         <v>2.94</v>
@@ -28677,7 +28689,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ132">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR132">
         <v>1.39</v>
@@ -28802,7 +28814,7 @@
         <v>161</v>
       </c>
       <c r="P133" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -29008,7 +29020,7 @@
         <v>174</v>
       </c>
       <c r="P134" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q134">
         <v>4.33</v>
@@ -30038,7 +30050,7 @@
         <v>177</v>
       </c>
       <c r="P139" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q139">
         <v>1.99</v>
@@ -30116,7 +30128,7 @@
         <v>0.29</v>
       </c>
       <c r="AP139">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ139">
         <v>0.9399999999999999</v>
@@ -30450,7 +30462,7 @@
         <v>89</v>
       </c>
       <c r="P141" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q141">
         <v>2.6</v>
@@ -30862,7 +30874,7 @@
         <v>128</v>
       </c>
       <c r="P143" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q143">
         <v>2.65</v>
@@ -31068,7 +31080,7 @@
         <v>89</v>
       </c>
       <c r="P144" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q144">
         <v>4.33</v>
@@ -31480,7 +31492,7 @@
         <v>181</v>
       </c>
       <c r="P146" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q146">
         <v>2.88</v>
@@ -31686,7 +31698,7 @@
         <v>182</v>
       </c>
       <c r="P147" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31892,7 +31904,7 @@
         <v>183</v>
       </c>
       <c r="P148" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q148">
         <v>2.36</v>
@@ -32179,7 +32191,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ149">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR149">
         <v>1.55</v>
@@ -32510,7 +32522,7 @@
         <v>129</v>
       </c>
       <c r="P151" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q151">
         <v>2.78</v>
@@ -32591,7 +32603,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ151">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR151">
         <v>1.02</v>
@@ -32716,7 +32728,7 @@
         <v>185</v>
       </c>
       <c r="P152" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q152">
         <v>2.81</v>
@@ -33000,7 +33012,7 @@
         <v>1.63</v>
       </c>
       <c r="AP153">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ153">
         <v>1.53</v>
@@ -33128,7 +33140,7 @@
         <v>186</v>
       </c>
       <c r="P154" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q154">
         <v>3.38</v>
@@ -33206,10 +33218,10 @@
         <v>1.75</v>
       </c>
       <c r="AP154">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ154">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR154">
         <v>1.58</v>
@@ -33824,7 +33836,7 @@
         <v>0.33</v>
       </c>
       <c r="AP157">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ157">
         <v>0.88</v>
@@ -33952,7 +33964,7 @@
         <v>190</v>
       </c>
       <c r="P158" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q158">
         <v>3.5</v>
@@ -34570,7 +34582,7 @@
         <v>193</v>
       </c>
       <c r="P161" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -34982,7 +34994,7 @@
         <v>194</v>
       </c>
       <c r="P163" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q163">
         <v>4.2</v>
@@ -35394,7 +35406,7 @@
         <v>89</v>
       </c>
       <c r="P165" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q165">
         <v>3</v>
@@ -35806,7 +35818,7 @@
         <v>196</v>
       </c>
       <c r="P167" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q167">
         <v>2.45</v>
@@ -35884,7 +35896,7 @@
         <v>1.25</v>
       </c>
       <c r="AP167">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ167">
         <v>0.9399999999999999</v>
@@ -36093,7 +36105,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ168">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR168">
         <v>1.2</v>
@@ -36502,10 +36514,10 @@
         <v>1.33</v>
       </c>
       <c r="AP170">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ170">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR170">
         <v>1.53</v>
@@ -36630,7 +36642,7 @@
         <v>198</v>
       </c>
       <c r="P171" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q171">
         <v>3.84</v>
@@ -36711,7 +36723,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ171">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR171">
         <v>1.04</v>
@@ -37248,7 +37260,7 @@
         <v>200</v>
       </c>
       <c r="P174" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q174">
         <v>3.32</v>
@@ -37866,7 +37878,7 @@
         <v>202</v>
       </c>
       <c r="P177" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q177">
         <v>3.2</v>
@@ -38484,7 +38496,7 @@
         <v>179</v>
       </c>
       <c r="P180" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q180">
         <v>2.97</v>
@@ -38768,7 +38780,7 @@
         <v>1.6</v>
       </c>
       <c r="AP181">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ181">
         <v>1.71</v>
@@ -38896,7 +38908,7 @@
         <v>89</v>
       </c>
       <c r="P182" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q182">
         <v>2.65</v>
@@ -39102,7 +39114,7 @@
         <v>205</v>
       </c>
       <c r="P183" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q183">
         <v>2.27</v>
@@ -39389,7 +39401,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ184">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR184">
         <v>1.54</v>
@@ -39592,10 +39604,10 @@
         <v>1.2</v>
       </c>
       <c r="AP185">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ185">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR185">
         <v>1.68</v>
@@ -39720,7 +39732,7 @@
         <v>141</v>
       </c>
       <c r="P186" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q186">
         <v>3.14</v>
@@ -40132,7 +40144,7 @@
         <v>207</v>
       </c>
       <c r="P188" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q188">
         <v>3.25</v>
@@ -40416,7 +40428,7 @@
         <v>0.3</v>
       </c>
       <c r="AP189">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ189">
         <v>0.88</v>
@@ -40544,7 +40556,7 @@
         <v>208</v>
       </c>
       <c r="P190" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q190">
         <v>3.6</v>
@@ -40625,7 +40637,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ190">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR190">
         <v>1.31</v>
@@ -40956,7 +40968,7 @@
         <v>123</v>
       </c>
       <c r="P192" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q192">
         <v>2.95</v>
@@ -41368,7 +41380,7 @@
         <v>210</v>
       </c>
       <c r="P194" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q194">
         <v>4.2</v>
@@ -41780,7 +41792,7 @@
         <v>211</v>
       </c>
       <c r="P196" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q196">
         <v>3.2</v>
@@ -41986,7 +41998,7 @@
         <v>212</v>
       </c>
       <c r="P197" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q197">
         <v>3</v>
@@ -42270,7 +42282,7 @@
         <v>1.36</v>
       </c>
       <c r="AP198">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ198">
         <v>1.53</v>
@@ -42476,7 +42488,7 @@
         <v>1.09</v>
       </c>
       <c r="AP199">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ199">
         <v>0.9399999999999999</v>
@@ -42685,7 +42697,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ200">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR200">
         <v>1.24</v>
@@ -43016,7 +43028,7 @@
         <v>123</v>
       </c>
       <c r="P202" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q202">
         <v>4.3</v>
@@ -43097,7 +43109,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ202">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR202">
         <v>1.26</v>
@@ -43428,7 +43440,7 @@
         <v>117</v>
       </c>
       <c r="P204" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q204">
         <v>3.1</v>
@@ -43506,7 +43518,7 @@
         <v>1.45</v>
       </c>
       <c r="AP204">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ204">
         <v>1.71</v>
@@ -43840,7 +43852,7 @@
         <v>218</v>
       </c>
       <c r="P206" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q206">
         <v>3.65</v>
@@ -44252,7 +44264,7 @@
         <v>197</v>
       </c>
       <c r="P208" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q208">
         <v>3.5</v>
@@ -44333,7 +44345,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ208">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR208">
         <v>1.4</v>
@@ -44458,7 +44470,7 @@
         <v>129</v>
       </c>
       <c r="P209" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q209">
         <v>2.4</v>
@@ -44948,7 +44960,7 @@
         <v>0.55</v>
       </c>
       <c r="AP211">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ211">
         <v>0.35</v>
@@ -45076,7 +45088,7 @@
         <v>220</v>
       </c>
       <c r="P212" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q212">
         <v>2.43</v>
@@ -45282,7 +45294,7 @@
         <v>221</v>
       </c>
       <c r="P213" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q213">
         <v>3.15</v>
@@ -45772,7 +45784,7 @@
         <v>1.82</v>
       </c>
       <c r="AP215">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ215">
         <v>1.24</v>
@@ -46312,7 +46324,7 @@
         <v>89</v>
       </c>
       <c r="P218" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q218">
         <v>3.6</v>
@@ -46518,7 +46530,7 @@
         <v>224</v>
       </c>
       <c r="P219" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q219">
         <v>3.78</v>
@@ -46724,7 +46736,7 @@
         <v>225</v>
       </c>
       <c r="P220" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q220">
         <v>3.26</v>
@@ -47420,7 +47432,7 @@
         <v>1.08</v>
       </c>
       <c r="AP223">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ223">
         <v>0.9399999999999999</v>
@@ -47548,7 +47560,7 @@
         <v>89</v>
       </c>
       <c r="P224" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q224">
         <v>5.44</v>
@@ -47629,7 +47641,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ224">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR224">
         <v>1.35</v>
@@ -47835,7 +47847,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ225">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR225">
         <v>1.56</v>
@@ -48041,7 +48053,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ226">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR226">
         <v>1.36</v>
@@ -48166,7 +48178,7 @@
         <v>156</v>
       </c>
       <c r="P227" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q227">
         <v>2.9</v>
@@ -48372,7 +48384,7 @@
         <v>228</v>
       </c>
       <c r="P228" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q228">
         <v>2.6</v>
@@ -48450,7 +48462,7 @@
         <v>1.42</v>
       </c>
       <c r="AP228">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ228">
         <v>1.59</v>
@@ -48862,7 +48874,7 @@
         <v>1.08</v>
       </c>
       <c r="AP230">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ230">
         <v>1.12</v>
@@ -49480,7 +49492,7 @@
         <v>0.5</v>
       </c>
       <c r="AP233">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ233">
         <v>0.35</v>
@@ -50020,7 +50032,7 @@
         <v>128</v>
       </c>
       <c r="P236" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q236">
         <v>4.5</v>
@@ -50101,7 +50113,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ236">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR236">
         <v>1.38</v>
@@ -50432,7 +50444,7 @@
         <v>233</v>
       </c>
       <c r="P238" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q238">
         <v>2.1</v>
@@ -50513,7 +50525,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ238">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR238">
         <v>1.78</v>
@@ -50638,7 +50650,7 @@
         <v>89</v>
       </c>
       <c r="P239" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q239">
         <v>0</v>
@@ -50844,7 +50856,7 @@
         <v>234</v>
       </c>
       <c r="P240" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q240">
         <v>3</v>
@@ -51256,7 +51268,7 @@
         <v>89</v>
       </c>
       <c r="P242" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q242">
         <v>3.6</v>
@@ -52364,7 +52376,7 @@
         <v>0.77</v>
       </c>
       <c r="AP247">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ247">
         <v>0.82</v>
@@ -52492,7 +52504,7 @@
         <v>109</v>
       </c>
       <c r="P248" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q248">
         <v>3.6</v>
@@ -52573,7 +52585,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ248">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR248">
         <v>1.53</v>
@@ -52698,7 +52710,7 @@
         <v>199</v>
       </c>
       <c r="P249" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q249">
         <v>2.35</v>
@@ -52776,7 +52788,7 @@
         <v>1.38</v>
       </c>
       <c r="AP249">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ249">
         <v>1.59</v>
@@ -53316,7 +53328,7 @@
         <v>239</v>
       </c>
       <c r="P252" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q252">
         <v>2.5</v>
@@ -53600,7 +53612,7 @@
         <v>1.23</v>
       </c>
       <c r="AP253">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ253">
         <v>1.31</v>
@@ -53728,7 +53740,7 @@
         <v>240</v>
       </c>
       <c r="P254" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q254">
         <v>3.5</v>
@@ -54015,7 +54027,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ255">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR255">
         <v>1.79</v>
@@ -54427,7 +54439,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ257">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR257">
         <v>1.58</v>
@@ -54552,7 +54564,7 @@
         <v>242</v>
       </c>
       <c r="P258" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q258">
         <v>3.26</v>
@@ -54758,7 +54770,7 @@
         <v>95</v>
       </c>
       <c r="P259" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q259">
         <v>2.97</v>
@@ -54964,7 +54976,7 @@
         <v>243</v>
       </c>
       <c r="P260" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q260">
         <v>2.26</v>
@@ -55376,7 +55388,7 @@
         <v>244</v>
       </c>
       <c r="P262" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q262">
         <v>3.1</v>
@@ -55788,7 +55800,7 @@
         <v>132</v>
       </c>
       <c r="P264" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q264">
         <v>2.75</v>
@@ -55866,7 +55878,7 @@
         <v>1.21</v>
       </c>
       <c r="AP264">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ264">
         <v>1.31</v>
@@ -56200,7 +56212,7 @@
         <v>95</v>
       </c>
       <c r="P266" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q266">
         <v>3.2</v>
@@ -56406,7 +56418,7 @@
         <v>95</v>
       </c>
       <c r="P267" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q267">
         <v>3</v>
@@ -56612,7 +56624,7 @@
         <v>128</v>
       </c>
       <c r="P268" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q268">
         <v>3.75</v>
@@ -56896,7 +56908,7 @@
         <v>1.07</v>
       </c>
       <c r="AP269">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ269">
         <v>0.9399999999999999</v>
@@ -57102,7 +57114,7 @@
         <v>0.43</v>
       </c>
       <c r="AP270">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ270">
         <v>0.35</v>
@@ -57230,7 +57242,7 @@
         <v>89</v>
       </c>
       <c r="P271" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q271">
         <v>3.4</v>
@@ -57311,7 +57323,7 @@
         <v>2</v>
       </c>
       <c r="AQ271">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR271">
         <v>1.61</v>
@@ -57642,7 +57654,7 @@
         <v>204</v>
       </c>
       <c r="P273" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q273">
         <v>3.2</v>
@@ -57848,7 +57860,7 @@
         <v>250</v>
       </c>
       <c r="P274" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q274">
         <v>3.1</v>
@@ -58466,7 +58478,7 @@
         <v>252</v>
       </c>
       <c r="P277" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q277">
         <v>4.5</v>
@@ -58547,7 +58559,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ277">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR277">
         <v>1.49</v>
@@ -58672,7 +58684,7 @@
         <v>253</v>
       </c>
       <c r="P278" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q278">
         <v>2.5</v>
@@ -58878,7 +58890,7 @@
         <v>89</v>
       </c>
       <c r="P279" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q279">
         <v>2.88</v>
@@ -59368,7 +59380,7 @@
         <v>1</v>
       </c>
       <c r="AP281">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ281">
         <v>0.9399999999999999</v>
@@ -59577,7 +59589,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ282">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR282">
         <v>1.3</v>
@@ -59783,7 +59795,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ283">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR283">
         <v>1.18</v>
@@ -59986,7 +59998,7 @@
         <v>1</v>
       </c>
       <c r="AP284">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ284">
         <v>0.9399999999999999</v>
@@ -60114,7 +60126,7 @@
         <v>257</v>
       </c>
       <c r="P285" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q285">
         <v>2.88</v>
@@ -60320,7 +60332,7 @@
         <v>197</v>
       </c>
       <c r="P286" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q286">
         <v>3.2</v>
@@ -60604,7 +60616,7 @@
         <v>1.27</v>
       </c>
       <c r="AP287">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ287">
         <v>1.18</v>
@@ -60732,7 +60744,7 @@
         <v>259</v>
       </c>
       <c r="P288" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q288">
         <v>2.88</v>
@@ -60938,7 +60950,7 @@
         <v>89</v>
       </c>
       <c r="P289" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q289">
         <v>3.4</v>
@@ -61350,7 +61362,7 @@
         <v>135</v>
       </c>
       <c r="P291" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q291">
         <v>2.88</v>
@@ -61762,7 +61774,7 @@
         <v>89</v>
       </c>
       <c r="P293" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q293">
         <v>3</v>
@@ -61968,7 +61980,7 @@
         <v>262</v>
       </c>
       <c r="P294" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q294">
         <v>3</v>
@@ -62174,7 +62186,7 @@
         <v>141</v>
       </c>
       <c r="P295" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q295">
         <v>2.75</v>
@@ -62380,7 +62392,7 @@
         <v>263</v>
       </c>
       <c r="P296" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q296">
         <v>1.91</v>
@@ -62792,7 +62804,7 @@
         <v>89</v>
       </c>
       <c r="P298" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q298">
         <v>3.1</v>
@@ -63567,6 +63579,624 @@
       </c>
       <c r="BP301">
         <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:68">
+      <c r="A302" s="1">
+        <v>301</v>
+      </c>
+      <c r="B302">
+        <v>7502903</v>
+      </c>
+      <c r="C302" t="s">
+        <v>68</v>
+      </c>
+      <c r="D302" t="s">
+        <v>69</v>
+      </c>
+      <c r="E302" s="2">
+        <v>45793.6875</v>
+      </c>
+      <c r="F302">
+        <v>34</v>
+      </c>
+      <c r="G302" t="s">
+        <v>70</v>
+      </c>
+      <c r="H302" t="s">
+        <v>84</v>
+      </c>
+      <c r="I302">
+        <v>1</v>
+      </c>
+      <c r="J302">
+        <v>1</v>
+      </c>
+      <c r="K302">
+        <v>2</v>
+      </c>
+      <c r="L302">
+        <v>1</v>
+      </c>
+      <c r="M302">
+        <v>2</v>
+      </c>
+      <c r="N302">
+        <v>3</v>
+      </c>
+      <c r="O302" t="s">
+        <v>156</v>
+      </c>
+      <c r="P302" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q302">
+        <v>5</v>
+      </c>
+      <c r="R302">
+        <v>2.25</v>
+      </c>
+      <c r="S302">
+        <v>2.25</v>
+      </c>
+      <c r="T302">
+        <v>1.36</v>
+      </c>
+      <c r="U302">
+        <v>3</v>
+      </c>
+      <c r="V302">
+        <v>2.75</v>
+      </c>
+      <c r="W302">
+        <v>1.4</v>
+      </c>
+      <c r="X302">
+        <v>7</v>
+      </c>
+      <c r="Y302">
+        <v>1.1</v>
+      </c>
+      <c r="Z302">
+        <v>3.7</v>
+      </c>
+      <c r="AA302">
+        <v>3.7</v>
+      </c>
+      <c r="AB302">
+        <v>1.87</v>
+      </c>
+      <c r="AC302">
+        <v>1</v>
+      </c>
+      <c r="AD302">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE302">
+        <v>1.22</v>
+      </c>
+      <c r="AF302">
+        <v>3.52</v>
+      </c>
+      <c r="AG302">
+        <v>1.75</v>
+      </c>
+      <c r="AH302">
+        <v>1.85</v>
+      </c>
+      <c r="AI302">
+        <v>1.83</v>
+      </c>
+      <c r="AJ302">
+        <v>1.83</v>
+      </c>
+      <c r="AK302">
+        <v>1.9</v>
+      </c>
+      <c r="AL302">
+        <v>1.26</v>
+      </c>
+      <c r="AM302">
+        <v>1.25</v>
+      </c>
+      <c r="AN302">
+        <v>1.06</v>
+      </c>
+      <c r="AO302">
+        <v>1.81</v>
+      </c>
+      <c r="AP302">
+        <v>1</v>
+      </c>
+      <c r="AQ302">
+        <v>1.88</v>
+      </c>
+      <c r="AR302">
+        <v>1.59</v>
+      </c>
+      <c r="AS302">
+        <v>1.48</v>
+      </c>
+      <c r="AT302">
+        <v>3.07</v>
+      </c>
+      <c r="AU302">
+        <v>5</v>
+      </c>
+      <c r="AV302">
+        <v>6</v>
+      </c>
+      <c r="AW302">
+        <v>5</v>
+      </c>
+      <c r="AX302">
+        <v>9</v>
+      </c>
+      <c r="AY302">
+        <v>10</v>
+      </c>
+      <c r="AZ302">
+        <v>15</v>
+      </c>
+      <c r="BA302">
+        <v>7</v>
+      </c>
+      <c r="BB302">
+        <v>10</v>
+      </c>
+      <c r="BC302">
+        <v>17</v>
+      </c>
+      <c r="BD302">
+        <v>2.4</v>
+      </c>
+      <c r="BE302">
+        <v>8.5</v>
+      </c>
+      <c r="BF302">
+        <v>1.75</v>
+      </c>
+      <c r="BG302">
+        <v>1.17</v>
+      </c>
+      <c r="BH302">
+        <v>3.96</v>
+      </c>
+      <c r="BI302">
+        <v>1.35</v>
+      </c>
+      <c r="BJ302">
+        <v>2.74</v>
+      </c>
+      <c r="BK302">
+        <v>1.65</v>
+      </c>
+      <c r="BL302">
+        <v>2.05</v>
+      </c>
+      <c r="BM302">
+        <v>2.09</v>
+      </c>
+      <c r="BN302">
+        <v>1.66</v>
+      </c>
+      <c r="BO302">
+        <v>2.71</v>
+      </c>
+      <c r="BP302">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="303" spans="1:68">
+      <c r="A303" s="1">
+        <v>302</v>
+      </c>
+      <c r="B303">
+        <v>7502904</v>
+      </c>
+      <c r="C303" t="s">
+        <v>68</v>
+      </c>
+      <c r="D303" t="s">
+        <v>69</v>
+      </c>
+      <c r="E303" s="2">
+        <v>45793.6875</v>
+      </c>
+      <c r="F303">
+        <v>34</v>
+      </c>
+      <c r="G303" t="s">
+        <v>79</v>
+      </c>
+      <c r="H303" t="s">
+        <v>81</v>
+      </c>
+      <c r="I303">
+        <v>1</v>
+      </c>
+      <c r="J303">
+        <v>0</v>
+      </c>
+      <c r="K303">
+        <v>1</v>
+      </c>
+      <c r="L303">
+        <v>2</v>
+      </c>
+      <c r="M303">
+        <v>1</v>
+      </c>
+      <c r="N303">
+        <v>3</v>
+      </c>
+      <c r="O303" t="s">
+        <v>267</v>
+      </c>
+      <c r="P303" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q303">
+        <v>1.83</v>
+      </c>
+      <c r="R303">
+        <v>2.5</v>
+      </c>
+      <c r="S303">
+        <v>7</v>
+      </c>
+      <c r="T303">
+        <v>1.29</v>
+      </c>
+      <c r="U303">
+        <v>3.5</v>
+      </c>
+      <c r="V303">
+        <v>2.38</v>
+      </c>
+      <c r="W303">
+        <v>1.53</v>
+      </c>
+      <c r="X303">
+        <v>5.5</v>
+      </c>
+      <c r="Y303">
+        <v>1.14</v>
+      </c>
+      <c r="Z303">
+        <v>1.51</v>
+      </c>
+      <c r="AA303">
+        <v>4.2</v>
+      </c>
+      <c r="AB303">
+        <v>5.6</v>
+      </c>
+      <c r="AC303">
+        <v>0</v>
+      </c>
+      <c r="AD303">
+        <v>0</v>
+      </c>
+      <c r="AE303">
+        <v>1.15</v>
+      </c>
+      <c r="AF303">
+        <v>4.3</v>
+      </c>
+      <c r="AG303">
+        <v>1.61</v>
+      </c>
+      <c r="AH303">
+        <v>2.05</v>
+      </c>
+      <c r="AI303">
+        <v>1.91</v>
+      </c>
+      <c r="AJ303">
+        <v>1.8</v>
+      </c>
+      <c r="AK303">
+        <v>1.07</v>
+      </c>
+      <c r="AL303">
+        <v>1.17</v>
+      </c>
+      <c r="AM303">
+        <v>3</v>
+      </c>
+      <c r="AN303">
+        <v>2.06</v>
+      </c>
+      <c r="AO303">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AP303">
+        <v>2.12</v>
+      </c>
+      <c r="AQ303">
+        <v>0.76</v>
+      </c>
+      <c r="AR303">
+        <v>1.6</v>
+      </c>
+      <c r="AS303">
+        <v>1.22</v>
+      </c>
+      <c r="AT303">
+        <v>2.82</v>
+      </c>
+      <c r="AU303">
+        <v>7</v>
+      </c>
+      <c r="AV303">
+        <v>3</v>
+      </c>
+      <c r="AW303">
+        <v>9</v>
+      </c>
+      <c r="AX303">
+        <v>0</v>
+      </c>
+      <c r="AY303">
+        <v>16</v>
+      </c>
+      <c r="AZ303">
+        <v>3</v>
+      </c>
+      <c r="BA303">
+        <v>9</v>
+      </c>
+      <c r="BB303">
+        <v>1</v>
+      </c>
+      <c r="BC303">
+        <v>10</v>
+      </c>
+      <c r="BD303">
+        <v>1.5</v>
+      </c>
+      <c r="BE303">
+        <v>9.1</v>
+      </c>
+      <c r="BF303">
+        <v>3.04</v>
+      </c>
+      <c r="BG303">
+        <v>1.14</v>
+      </c>
+      <c r="BH303">
+        <v>4.4</v>
+      </c>
+      <c r="BI303">
+        <v>1.3</v>
+      </c>
+      <c r="BJ303">
+        <v>2.97</v>
+      </c>
+      <c r="BK303">
+        <v>1.56</v>
+      </c>
+      <c r="BL303">
+        <v>2.21</v>
+      </c>
+      <c r="BM303">
+        <v>1.95</v>
+      </c>
+      <c r="BN303">
+        <v>1.76</v>
+      </c>
+      <c r="BO303">
+        <v>2.51</v>
+      </c>
+      <c r="BP303">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="304" spans="1:68">
+      <c r="A304" s="1">
+        <v>303</v>
+      </c>
+      <c r="B304">
+        <v>7502905</v>
+      </c>
+      <c r="C304" t="s">
+        <v>68</v>
+      </c>
+      <c r="D304" t="s">
+        <v>69</v>
+      </c>
+      <c r="E304" s="2">
+        <v>45793.6875</v>
+      </c>
+      <c r="F304">
+        <v>34</v>
+      </c>
+      <c r="G304" t="s">
+        <v>77</v>
+      </c>
+      <c r="H304" t="s">
+        <v>87</v>
+      </c>
+      <c r="I304">
+        <v>0</v>
+      </c>
+      <c r="J304">
+        <v>0</v>
+      </c>
+      <c r="K304">
+        <v>0</v>
+      </c>
+      <c r="L304">
+        <v>0</v>
+      </c>
+      <c r="M304">
+        <v>2</v>
+      </c>
+      <c r="N304">
+        <v>2</v>
+      </c>
+      <c r="O304" t="s">
+        <v>89</v>
+      </c>
+      <c r="P304" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q304">
+        <v>3.75</v>
+      </c>
+      <c r="R304">
+        <v>2.2</v>
+      </c>
+      <c r="S304">
+        <v>2.75</v>
+      </c>
+      <c r="T304">
+        <v>1.36</v>
+      </c>
+      <c r="U304">
+        <v>3</v>
+      </c>
+      <c r="V304">
+        <v>2.75</v>
+      </c>
+      <c r="W304">
+        <v>1.4</v>
+      </c>
+      <c r="X304">
+        <v>7</v>
+      </c>
+      <c r="Y304">
+        <v>1.1</v>
+      </c>
+      <c r="Z304">
+        <v>3.15</v>
+      </c>
+      <c r="AA304">
+        <v>3.3</v>
+      </c>
+      <c r="AB304">
+        <v>2.18</v>
+      </c>
+      <c r="AC304">
+        <v>1</v>
+      </c>
+      <c r="AD304">
+        <v>9.5</v>
+      </c>
+      <c r="AE304">
+        <v>1.21</v>
+      </c>
+      <c r="AF304">
+        <v>3.6</v>
+      </c>
+      <c r="AG304">
+        <v>1.8</v>
+      </c>
+      <c r="AH304">
+        <v>1.83</v>
+      </c>
+      <c r="AI304">
+        <v>1.73</v>
+      </c>
+      <c r="AJ304">
+        <v>2</v>
+      </c>
+      <c r="AK304">
+        <v>1.71</v>
+      </c>
+      <c r="AL304">
+        <v>1.3</v>
+      </c>
+      <c r="AM304">
+        <v>1.31</v>
+      </c>
+      <c r="AN304">
+        <v>1.44</v>
+      </c>
+      <c r="AO304">
+        <v>1.69</v>
+      </c>
+      <c r="AP304">
+        <v>1.35</v>
+      </c>
+      <c r="AQ304">
+        <v>1.76</v>
+      </c>
+      <c r="AR304">
+        <v>1.61</v>
+      </c>
+      <c r="AS304">
+        <v>1.38</v>
+      </c>
+      <c r="AT304">
+        <v>2.99</v>
+      </c>
+      <c r="AU304">
+        <v>3</v>
+      </c>
+      <c r="AV304">
+        <v>6</v>
+      </c>
+      <c r="AW304">
+        <v>5</v>
+      </c>
+      <c r="AX304">
+        <v>6</v>
+      </c>
+      <c r="AY304">
+        <v>8</v>
+      </c>
+      <c r="AZ304">
+        <v>12</v>
+      </c>
+      <c r="BA304">
+        <v>6</v>
+      </c>
+      <c r="BB304">
+        <v>3</v>
+      </c>
+      <c r="BC304">
+        <v>9</v>
+      </c>
+      <c r="BD304">
+        <v>2.19</v>
+      </c>
+      <c r="BE304">
+        <v>6.2</v>
+      </c>
+      <c r="BF304">
+        <v>2.05</v>
+      </c>
+      <c r="BG304">
+        <v>1.3</v>
+      </c>
+      <c r="BH304">
+        <v>2.97</v>
+      </c>
+      <c r="BI304">
+        <v>1.58</v>
+      </c>
+      <c r="BJ304">
+        <v>2.17</v>
+      </c>
+      <c r="BK304">
+        <v>2.02</v>
+      </c>
+      <c r="BL304">
+        <v>1.71</v>
+      </c>
+      <c r="BM304">
+        <v>2.64</v>
+      </c>
+      <c r="BN304">
+        <v>1.4</v>
+      </c>
+      <c r="BO304">
+        <v>3.58</v>
+      </c>
+      <c r="BP304">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1886" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1892" uniqueCount="399">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -820,6 +820,9 @@
     <t>['15', '63']</t>
   </si>
   <si>
+    <t>['48']</t>
+  </si>
+  <si>
     <t>['24', '27']</t>
   </si>
   <si>
@@ -950,9 +953,6 @@
   </si>
   <si>
     <t>['31', '61']</t>
-  </si>
-  <si>
-    <t>['48']</t>
   </si>
   <si>
     <t>['25', '69']</t>
@@ -1208,6 +1208,9 @@
   </si>
   <si>
     <t>['83', '90+4']</t>
+  </si>
+  <si>
+    <t>['8', '67', '84', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -1569,7 +1572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP304"/>
+  <dimension ref="A1:BP305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1828,7 +1831,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q2">
         <v>2.16</v>
@@ -2034,7 +2037,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q3">
         <v>3.58</v>
@@ -2240,7 +2243,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q4">
         <v>3.15</v>
@@ -2321,7 +2324,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ4">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2652,7 +2655,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2858,7 +2861,7 @@
         <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -3142,7 +3145,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ8">
         <v>1.59</v>
@@ -3270,7 +3273,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -3682,7 +3685,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -4094,7 +4097,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q13">
         <v>2.38</v>
@@ -4300,7 +4303,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q14">
         <v>3.73</v>
@@ -4506,7 +4509,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q15">
         <v>3.51</v>
@@ -4712,7 +4715,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q16">
         <v>2.38</v>
@@ -5330,7 +5333,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q19">
         <v>2.79</v>
@@ -6154,7 +6157,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -6566,7 +6569,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q25">
         <v>2.91</v>
@@ -6978,7 +6981,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q27">
         <v>3.25</v>
@@ -7390,7 +7393,7 @@
         <v>89</v>
       </c>
       <c r="P29" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -7596,7 +7599,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -8008,7 +8011,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -8420,7 +8423,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8501,7 +8504,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ34">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR34">
         <v>1.57</v>
@@ -8626,7 +8629,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q35">
         <v>2.57</v>
@@ -8832,7 +8835,7 @@
         <v>89</v>
       </c>
       <c r="P36" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q36">
         <v>2.5</v>
@@ -9116,7 +9119,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ37">
         <v>1.71</v>
@@ -9244,7 +9247,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9450,7 +9453,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9862,7 +9865,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q41">
         <v>2.1</v>
@@ -10068,7 +10071,7 @@
         <v>89</v>
       </c>
       <c r="P42" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q42">
         <v>3.1</v>
@@ -10480,7 +10483,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -10686,7 +10689,7 @@
         <v>89</v>
       </c>
       <c r="P45" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q45">
         <v>2.85</v>
@@ -11098,7 +11101,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q47">
         <v>2.6</v>
@@ -11304,7 +11307,7 @@
         <v>89</v>
       </c>
       <c r="P48" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11385,7 +11388,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ48">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR48">
         <v>1.74</v>
@@ -11510,7 +11513,7 @@
         <v>89</v>
       </c>
       <c r="P49" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -11922,7 +11925,7 @@
         <v>89</v>
       </c>
       <c r="P51" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -12000,7 +12003,7 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ51">
         <v>1.12</v>
@@ -12540,7 +12543,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12952,7 +12955,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q56">
         <v>3.08</v>
@@ -13158,7 +13161,7 @@
         <v>109</v>
       </c>
       <c r="P57" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13570,7 +13573,7 @@
         <v>89</v>
       </c>
       <c r="P59" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -14806,7 +14809,7 @@
         <v>129</v>
       </c>
       <c r="P65" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -15218,7 +15221,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q67">
         <v>3.12</v>
@@ -15424,7 +15427,7 @@
         <v>89</v>
       </c>
       <c r="P68" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q68">
         <v>2.96</v>
@@ -16120,7 +16123,7 @@
         <v>1.33</v>
       </c>
       <c r="AP71">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ71">
         <v>0.35</v>
@@ -16454,7 +16457,7 @@
         <v>89</v>
       </c>
       <c r="P73" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q73">
         <v>2.92</v>
@@ -16660,7 +16663,7 @@
         <v>89</v>
       </c>
       <c r="P74" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16866,7 +16869,7 @@
         <v>97</v>
       </c>
       <c r="P75" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q75">
         <v>3.04</v>
@@ -17072,7 +17075,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q76">
         <v>2.8</v>
@@ -17484,7 +17487,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -18514,7 +18517,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q83">
         <v>2.36</v>
@@ -19007,7 +19010,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ85">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR85">
         <v>1.36</v>
@@ -19622,7 +19625,7 @@
         <v>0.75</v>
       </c>
       <c r="AP88">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ88">
         <v>1.59</v>
@@ -19956,7 +19959,7 @@
         <v>89</v>
       </c>
       <c r="P90" t="s">
-        <v>312</v>
+        <v>268</v>
       </c>
       <c r="Q90">
         <v>3.09</v>
@@ -20162,7 +20165,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q91">
         <v>3.05</v>
@@ -20780,7 +20783,7 @@
         <v>108</v>
       </c>
       <c r="P94" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q94">
         <v>3.35</v>
@@ -21398,7 +21401,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21891,7 +21894,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ99">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR99">
         <v>1.34</v>
@@ -23458,7 +23461,7 @@
         <v>156</v>
       </c>
       <c r="P107" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q107">
         <v>2.62</v>
@@ -23948,7 +23951,7 @@
         <v>0.4</v>
       </c>
       <c r="AP109">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ109">
         <v>0.9399999999999999</v>
@@ -24157,7 +24160,7 @@
         <v>1</v>
       </c>
       <c r="AQ110">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR110">
         <v>1.51</v>
@@ -26835,7 +26838,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ123">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR123">
         <v>1.21</v>
@@ -27656,7 +27659,7 @@
         <v>0.83</v>
       </c>
       <c r="AP127">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ127">
         <v>1.18</v>
@@ -29719,7 +29722,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ137">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR137">
         <v>1.18</v>
@@ -32600,7 +32603,7 @@
         <v>1.13</v>
       </c>
       <c r="AP151">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ151">
         <v>0.76</v>
@@ -36720,7 +36723,7 @@
         <v>1.67</v>
       </c>
       <c r="AP171">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ171">
         <v>1.76</v>
@@ -36929,7 +36932,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ172">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR172">
         <v>1.3</v>
@@ -37753,7 +37756,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ176">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR176">
         <v>1.68</v>
@@ -37956,7 +37959,7 @@
         <v>1.2</v>
       </c>
       <c r="AP177">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ177">
         <v>0.9399999999999999</v>
@@ -41461,7 +41464,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ194">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR194">
         <v>1.3</v>
@@ -42076,7 +42079,7 @@
         <v>2</v>
       </c>
       <c r="AP197">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ197">
         <v>1.24</v>
@@ -44551,7 +44554,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ209">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR209">
         <v>1.53</v>
@@ -45578,7 +45581,7 @@
         <v>1.25</v>
       </c>
       <c r="AP214">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ214">
         <v>1.53</v>
@@ -46324,7 +46327,7 @@
         <v>89</v>
       </c>
       <c r="P218" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q218">
         <v>3.6</v>
@@ -49289,7 +49292,7 @@
         <v>2</v>
       </c>
       <c r="AQ232">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR232">
         <v>1.59</v>
@@ -49698,7 +49701,7 @@
         <v>0.58</v>
       </c>
       <c r="AP234">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ234">
         <v>0.82</v>
@@ -52994,7 +52997,7 @@
         <v>1.15</v>
       </c>
       <c r="AP250">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ250">
         <v>0.9399999999999999</v>
@@ -53615,7 +53618,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ253">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR253">
         <v>1.52</v>
@@ -54564,7 +54567,7 @@
         <v>242</v>
       </c>
       <c r="P258" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q258">
         <v>3.26</v>
@@ -54976,7 +54979,7 @@
         <v>243</v>
       </c>
       <c r="P260" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q260">
         <v>2.26</v>
@@ -55881,7 +55884,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ264">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR264">
         <v>1.64</v>
@@ -56624,7 +56627,7 @@
         <v>128</v>
       </c>
       <c r="P268" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q268">
         <v>3.75</v>
@@ -56702,7 +56705,7 @@
         <v>1.57</v>
       </c>
       <c r="AP268">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ268">
         <v>1.53</v>
@@ -59792,7 +59795,7 @@
         <v>1.73</v>
       </c>
       <c r="AP283">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ283">
         <v>1.88</v>
@@ -60207,7 +60210,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ285">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR285">
         <v>1.62</v>
@@ -60950,7 +60953,7 @@
         <v>89</v>
       </c>
       <c r="P289" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q289">
         <v>3.4</v>
@@ -64197,6 +64200,212 @@
       </c>
       <c r="BP304">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="305" spans="1:68">
+      <c r="A305" s="1">
+        <v>304</v>
+      </c>
+      <c r="B305">
+        <v>7502909</v>
+      </c>
+      <c r="C305" t="s">
+        <v>68</v>
+      </c>
+      <c r="D305" t="s">
+        <v>69</v>
+      </c>
+      <c r="E305" s="2">
+        <v>45794.29166666666</v>
+      </c>
+      <c r="F305">
+        <v>34</v>
+      </c>
+      <c r="G305" t="s">
+        <v>76</v>
+      </c>
+      <c r="H305" t="s">
+        <v>86</v>
+      </c>
+      <c r="I305">
+        <v>0</v>
+      </c>
+      <c r="J305">
+        <v>1</v>
+      </c>
+      <c r="K305">
+        <v>1</v>
+      </c>
+      <c r="L305">
+        <v>1</v>
+      </c>
+      <c r="M305">
+        <v>4</v>
+      </c>
+      <c r="N305">
+        <v>5</v>
+      </c>
+      <c r="O305" t="s">
+        <v>268</v>
+      </c>
+      <c r="P305" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q305">
+        <v>3</v>
+      </c>
+      <c r="R305">
+        <v>2.25</v>
+      </c>
+      <c r="S305">
+        <v>3.4</v>
+      </c>
+      <c r="T305">
+        <v>1.36</v>
+      </c>
+      <c r="U305">
+        <v>3</v>
+      </c>
+      <c r="V305">
+        <v>2.63</v>
+      </c>
+      <c r="W305">
+        <v>1.44</v>
+      </c>
+      <c r="X305">
+        <v>7</v>
+      </c>
+      <c r="Y305">
+        <v>1.1</v>
+      </c>
+      <c r="Z305">
+        <v>2.43</v>
+      </c>
+      <c r="AA305">
+        <v>3.35</v>
+      </c>
+      <c r="AB305">
+        <v>2.7</v>
+      </c>
+      <c r="AC305">
+        <v>0</v>
+      </c>
+      <c r="AD305">
+        <v>0</v>
+      </c>
+      <c r="AE305">
+        <v>1.19</v>
+      </c>
+      <c r="AF305">
+        <v>3.75</v>
+      </c>
+      <c r="AG305">
+        <v>1.8</v>
+      </c>
+      <c r="AH305">
+        <v>1.85</v>
+      </c>
+      <c r="AI305">
+        <v>1.67</v>
+      </c>
+      <c r="AJ305">
+        <v>2.1</v>
+      </c>
+      <c r="AK305">
+        <v>1.43</v>
+      </c>
+      <c r="AL305">
+        <v>1.3</v>
+      </c>
+      <c r="AM305">
+        <v>1.53</v>
+      </c>
+      <c r="AN305">
+        <v>1.25</v>
+      </c>
+      <c r="AO305">
+        <v>1.31</v>
+      </c>
+      <c r="AP305">
+        <v>1.18</v>
+      </c>
+      <c r="AQ305">
+        <v>1.41</v>
+      </c>
+      <c r="AR305">
+        <v>1.21</v>
+      </c>
+      <c r="AS305">
+        <v>1.45</v>
+      </c>
+      <c r="AT305">
+        <v>2.66</v>
+      </c>
+      <c r="AU305">
+        <v>6</v>
+      </c>
+      <c r="AV305">
+        <v>9</v>
+      </c>
+      <c r="AW305">
+        <v>3</v>
+      </c>
+      <c r="AX305">
+        <v>7</v>
+      </c>
+      <c r="AY305">
+        <v>9</v>
+      </c>
+      <c r="AZ305">
+        <v>16</v>
+      </c>
+      <c r="BA305">
+        <v>-1</v>
+      </c>
+      <c r="BB305">
+        <v>-1</v>
+      </c>
+      <c r="BC305">
+        <v>-1</v>
+      </c>
+      <c r="BD305">
+        <v>1.89</v>
+      </c>
+      <c r="BE305">
+        <v>6.45</v>
+      </c>
+      <c r="BF305">
+        <v>2.38</v>
+      </c>
+      <c r="BG305">
+        <v>1.21</v>
+      </c>
+      <c r="BH305">
+        <v>3.58</v>
+      </c>
+      <c r="BI305">
+        <v>1.42</v>
+      </c>
+      <c r="BJ305">
+        <v>2.57</v>
+      </c>
+      <c r="BK305">
+        <v>1.76</v>
+      </c>
+      <c r="BL305">
+        <v>1.95</v>
+      </c>
+      <c r="BM305">
+        <v>2.21</v>
+      </c>
+      <c r="BN305">
+        <v>1.56</v>
+      </c>
+      <c r="BO305">
+        <v>2.92</v>
+      </c>
+      <c r="BP305">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal LigaPro_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1892" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="400">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -823,6 +823,9 @@
     <t>['48']</t>
   </si>
   <si>
+    <t>['64', '79']</t>
+  </si>
+  <si>
     <t>['24', '27']</t>
   </si>
   <si>
@@ -1572,7 +1575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP305"/>
+  <dimension ref="A1:BP307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1831,7 +1834,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q2">
         <v>2.16</v>
@@ -2037,7 +2040,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q3">
         <v>3.58</v>
@@ -2118,7 +2121,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ3">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2243,7 +2246,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q4">
         <v>3.15</v>
@@ -2527,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ5">
         <v>1.53</v>
@@ -2655,7 +2658,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2736,7 +2739,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ6">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2861,7 +2864,7 @@
         <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -3273,7 +3276,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -3557,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ10">
         <v>0.76</v>
@@ -3685,7 +3688,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -4097,7 +4100,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q13">
         <v>2.38</v>
@@ -4303,7 +4306,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q14">
         <v>3.73</v>
@@ -4509,7 +4512,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q15">
         <v>3.51</v>
@@ -4715,7 +4718,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q16">
         <v>2.38</v>
@@ -5333,7 +5336,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q19">
         <v>2.79</v>
@@ -5823,7 +5826,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ21">
         <v>1.18</v>
@@ -6032,7 +6035,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ22">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR22">
         <v>1.3</v>
@@ -6157,7 +6160,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -6238,7 +6241,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ23">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR23">
         <v>1.93</v>
@@ -6441,7 +6444,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ24">
         <v>0.88</v>
@@ -6569,7 +6572,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q25">
         <v>2.91</v>
@@ -6981,7 +6984,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q27">
         <v>3.25</v>
@@ -7393,7 +7396,7 @@
         <v>89</v>
       </c>
       <c r="P29" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -7599,7 +7602,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -8011,7 +8014,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -8423,7 +8426,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8629,7 +8632,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q35">
         <v>2.57</v>
@@ -8835,7 +8838,7 @@
         <v>89</v>
       </c>
       <c r="P36" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q36">
         <v>2.5</v>
@@ -9247,7 +9250,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9453,7 +9456,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9531,7 +9534,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ39">
         <v>1.53</v>
@@ -9737,7 +9740,7 @@
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ40">
         <v>1.71</v>
@@ -9865,7 +9868,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q41">
         <v>2.1</v>
@@ -10071,7 +10074,7 @@
         <v>89</v>
       </c>
       <c r="P42" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q42">
         <v>3.1</v>
@@ -10483,7 +10486,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -10564,7 +10567,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ44">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR44">
         <v>1.61</v>
@@ -10689,7 +10692,7 @@
         <v>89</v>
       </c>
       <c r="P45" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q45">
         <v>2.85</v>
@@ -10976,7 +10979,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ46">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR46">
         <v>1.7</v>
@@ -11101,7 +11104,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q47">
         <v>2.6</v>
@@ -11307,7 +11310,7 @@
         <v>89</v>
       </c>
       <c r="P48" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11513,7 +11516,7 @@
         <v>89</v>
       </c>
       <c r="P49" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -11925,7 +11928,7 @@
         <v>89</v>
       </c>
       <c r="P51" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -12543,7 +12546,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12955,7 +12958,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q56">
         <v>3.08</v>
@@ -13161,7 +13164,7 @@
         <v>109</v>
       </c>
       <c r="P57" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13239,7 +13242,7 @@
         <v>1.33</v>
       </c>
       <c r="AP57">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ57">
         <v>0.9399999999999999</v>
@@ -13573,7 +13576,7 @@
         <v>89</v>
       </c>
       <c r="P59" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13654,7 +13657,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ59">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR59">
         <v>1.13</v>
@@ -14809,7 +14812,7 @@
         <v>129</v>
       </c>
       <c r="P65" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -15221,7 +15224,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q67">
         <v>3.12</v>
@@ -15427,7 +15430,7 @@
         <v>89</v>
       </c>
       <c r="P68" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q68">
         <v>2.96</v>
@@ -15505,7 +15508,7 @@
         <v>1.33</v>
       </c>
       <c r="AP68">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ68">
         <v>1.53</v>
@@ -16457,7 +16460,7 @@
         <v>89</v>
       </c>
       <c r="P73" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q73">
         <v>2.92</v>
@@ -16663,7 +16666,7 @@
         <v>89</v>
       </c>
       <c r="P74" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16869,7 +16872,7 @@
         <v>97</v>
       </c>
       <c r="P75" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q75">
         <v>3.04</v>
@@ -17075,7 +17078,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q76">
         <v>2.8</v>
@@ -17487,7 +17490,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17565,7 +17568,7 @@
         <v>1.75</v>
       </c>
       <c r="AP78">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ78">
         <v>1.53</v>
@@ -18517,7 +18520,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q83">
         <v>2.36</v>
@@ -18804,7 +18807,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ84">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR84">
         <v>1.48</v>
@@ -19007,7 +19010,7 @@
         <v>2</v>
       </c>
       <c r="AP85">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ85">
         <v>1.41</v>
@@ -19213,7 +19216,7 @@
         <v>1</v>
       </c>
       <c r="AP86">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ86">
         <v>0.35</v>
@@ -19834,7 +19837,7 @@
         <v>2</v>
       </c>
       <c r="AQ89">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR89">
         <v>1.48</v>
@@ -20165,7 +20168,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q91">
         <v>3.05</v>
@@ -20371,7 +20374,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q92">
         <v>3.5</v>
@@ -20577,7 +20580,7 @@
         <v>89</v>
       </c>
       <c r="P93" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q93">
         <v>3.64</v>
@@ -20783,7 +20786,7 @@
         <v>108</v>
       </c>
       <c r="P94" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q94">
         <v>3.35</v>
@@ -20989,7 +20992,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q95">
         <v>0</v>
@@ -21401,7 +21404,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21607,7 +21610,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q98">
         <v>3.3</v>
@@ -21813,7 +21816,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q99">
         <v>2.99</v>
@@ -22306,7 +22309,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ101">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR101">
         <v>1.6</v>
@@ -22509,7 +22512,7 @@
         <v>1</v>
       </c>
       <c r="AP102">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ102">
         <v>0.82</v>
@@ -22637,7 +22640,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q103">
         <v>2.6</v>
@@ -22715,7 +22718,7 @@
         <v>0.8</v>
       </c>
       <c r="AP103">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ103">
         <v>1.59</v>
@@ -23049,7 +23052,7 @@
         <v>125</v>
       </c>
       <c r="P105" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q105">
         <v>3.3</v>
@@ -23255,7 +23258,7 @@
         <v>155</v>
       </c>
       <c r="P106" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q106">
         <v>3.38</v>
@@ -23461,7 +23464,7 @@
         <v>156</v>
       </c>
       <c r="P107" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q107">
         <v>2.62</v>
@@ -23748,7 +23751,7 @@
         <v>2</v>
       </c>
       <c r="AQ108">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR108">
         <v>1.57</v>
@@ -23873,7 +23876,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q109">
         <v>2.29</v>
@@ -23954,7 +23957,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ109">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR109">
         <v>1.09</v>
@@ -24697,7 +24700,7 @@
         <v>89</v>
       </c>
       <c r="P113" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q113">
         <v>2.83</v>
@@ -24903,7 +24906,7 @@
         <v>160</v>
       </c>
       <c r="P114" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -25315,7 +25318,7 @@
         <v>161</v>
       </c>
       <c r="P116" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q116">
         <v>3.86</v>
@@ -25521,7 +25524,7 @@
         <v>162</v>
       </c>
       <c r="P117" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q117">
         <v>4.05</v>
@@ -26220,7 +26223,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ120">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR120">
         <v>1.47</v>
@@ -26551,7 +26554,7 @@
         <v>165</v>
       </c>
       <c r="P122" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q122">
         <v>3.4</v>
@@ -26963,7 +26966,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q124">
         <v>2.84</v>
@@ -27041,7 +27044,7 @@
         <v>1.29</v>
       </c>
       <c r="AP124">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ124">
         <v>1.88</v>
@@ -27375,7 +27378,7 @@
         <v>89</v>
       </c>
       <c r="P126" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q126">
         <v>2.41</v>
@@ -27787,7 +27790,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q128">
         <v>2.1</v>
@@ -27865,10 +27868,10 @@
         <v>0.33</v>
       </c>
       <c r="AP128">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ128">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR128">
         <v>1.46</v>
@@ -28199,7 +28202,7 @@
         <v>171</v>
       </c>
       <c r="P130" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q130">
         <v>2.49</v>
@@ -28611,7 +28614,7 @@
         <v>173</v>
       </c>
       <c r="P132" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q132">
         <v>2.94</v>
@@ -28817,7 +28820,7 @@
         <v>161</v>
       </c>
       <c r="P133" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -29023,7 +29026,7 @@
         <v>174</v>
       </c>
       <c r="P134" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q134">
         <v>4.33</v>
@@ -30053,7 +30056,7 @@
         <v>177</v>
       </c>
       <c r="P139" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q139">
         <v>1.99</v>
@@ -30134,7 +30137,7 @@
         <v>1</v>
       </c>
       <c r="AQ139">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR139">
         <v>1.54</v>
@@ -30465,7 +30468,7 @@
         <v>89</v>
       </c>
       <c r="P141" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q141">
         <v>2.6</v>
@@ -30877,7 +30880,7 @@
         <v>128</v>
       </c>
       <c r="P143" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q143">
         <v>2.65</v>
@@ -31083,7 +31086,7 @@
         <v>89</v>
       </c>
       <c r="P144" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q144">
         <v>4.33</v>
@@ -31495,7 +31498,7 @@
         <v>181</v>
       </c>
       <c r="P146" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q146">
         <v>2.88</v>
@@ -31701,7 +31704,7 @@
         <v>182</v>
       </c>
       <c r="P147" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31907,7 +31910,7 @@
         <v>183</v>
       </c>
       <c r="P148" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q148">
         <v>2.36</v>
@@ -32191,7 +32194,7 @@
         <v>1.13</v>
       </c>
       <c r="AP149">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ149">
         <v>1.88</v>
@@ -32397,10 +32400,10 @@
         <v>1.43</v>
       </c>
       <c r="AP150">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ150">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR150">
         <v>1.63</v>
@@ -32525,7 +32528,7 @@
         <v>129</v>
       </c>
       <c r="P151" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q151">
         <v>2.78</v>
@@ -32731,7 +32734,7 @@
         <v>185</v>
       </c>
       <c r="P152" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q152">
         <v>2.81</v>
@@ -33143,7 +33146,7 @@
         <v>186</v>
       </c>
       <c r="P154" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q154">
         <v>3.38</v>
@@ -33967,7 +33970,7 @@
         <v>190</v>
       </c>
       <c r="P158" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q158">
         <v>3.5</v>
@@ -34585,7 +34588,7 @@
         <v>193</v>
       </c>
       <c r="P161" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -34997,7 +35000,7 @@
         <v>194</v>
       </c>
       <c r="P163" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q163">
         <v>4.2</v>
@@ -35281,7 +35284,7 @@
         <v>0.88</v>
       </c>
       <c r="AP164">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ164">
         <v>1.18</v>
@@ -35409,7 +35412,7 @@
         <v>89</v>
       </c>
       <c r="P165" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q165">
         <v>3</v>
@@ -35487,7 +35490,7 @@
         <v>1.33</v>
       </c>
       <c r="AP165">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ165">
         <v>1.59</v>
@@ -35821,7 +35824,7 @@
         <v>196</v>
       </c>
       <c r="P167" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q167">
         <v>2.45</v>
@@ -35902,7 +35905,7 @@
         <v>1</v>
       </c>
       <c r="AQ167">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR167">
         <v>1.71</v>
@@ -36314,7 +36317,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ169">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR169">
         <v>1.26</v>
@@ -36645,7 +36648,7 @@
         <v>198</v>
       </c>
       <c r="P171" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q171">
         <v>3.84</v>
@@ -37263,7 +37266,7 @@
         <v>200</v>
       </c>
       <c r="P174" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q174">
         <v>3.32</v>
@@ -37881,7 +37884,7 @@
         <v>202</v>
       </c>
       <c r="P177" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q177">
         <v>3.2</v>
@@ -38499,7 +38502,7 @@
         <v>179</v>
       </c>
       <c r="P180" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q180">
         <v>2.97</v>
@@ -38911,7 +38914,7 @@
         <v>89</v>
       </c>
       <c r="P182" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q182">
         <v>2.65</v>
@@ -39117,7 +39120,7 @@
         <v>205</v>
       </c>
       <c r="P183" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q183">
         <v>2.27</v>
@@ -39198,7 +39201,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ183">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR183">
         <v>1.33</v>
@@ -39401,7 +39404,7 @@
         <v>1.6</v>
       </c>
       <c r="AP184">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ184">
         <v>1.76</v>
@@ -39735,7 +39738,7 @@
         <v>141</v>
       </c>
       <c r="P186" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q186">
         <v>3.14</v>
@@ -39816,7 +39819,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ186">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR186">
         <v>1.18</v>
@@ -40147,7 +40150,7 @@
         <v>207</v>
       </c>
       <c r="P188" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q188">
         <v>3.25</v>
@@ -40225,7 +40228,7 @@
         <v>1.5</v>
       </c>
       <c r="AP188">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ188">
         <v>1.59</v>
@@ -40559,7 +40562,7 @@
         <v>208</v>
       </c>
       <c r="P190" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q190">
         <v>3.6</v>
@@ -40971,7 +40974,7 @@
         <v>123</v>
       </c>
       <c r="P192" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q192">
         <v>2.95</v>
@@ -41383,7 +41386,7 @@
         <v>210</v>
       </c>
       <c r="P194" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q194">
         <v>4.2</v>
@@ -41795,7 +41798,7 @@
         <v>211</v>
       </c>
       <c r="P196" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q196">
         <v>3.2</v>
@@ -42001,7 +42004,7 @@
         <v>212</v>
       </c>
       <c r="P197" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q197">
         <v>3</v>
@@ -42903,7 +42906,7 @@
         <v>0.36</v>
       </c>
       <c r="AP201">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ201">
         <v>0.88</v>
@@ -43031,7 +43034,7 @@
         <v>123</v>
       </c>
       <c r="P202" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q202">
         <v>4.3</v>
@@ -43318,7 +43321,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ203">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR203">
         <v>1.53</v>
@@ -43443,7 +43446,7 @@
         <v>117</v>
       </c>
       <c r="P204" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q204">
         <v>3.1</v>
@@ -43730,7 +43733,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ205">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR205">
         <v>1.71</v>
@@ -43855,7 +43858,7 @@
         <v>218</v>
       </c>
       <c r="P206" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q206">
         <v>3.65</v>
@@ -44267,7 +44270,7 @@
         <v>197</v>
       </c>
       <c r="P208" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q208">
         <v>3.5</v>
@@ -44345,7 +44348,7 @@
         <v>1.45</v>
       </c>
       <c r="AP208">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ208">
         <v>1.76</v>
@@ -44473,7 +44476,7 @@
         <v>129</v>
       </c>
       <c r="P209" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q209">
         <v>2.4</v>
@@ -44757,7 +44760,7 @@
         <v>1.09</v>
       </c>
       <c r="AP210">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ210">
         <v>1.12</v>
@@ -45091,7 +45094,7 @@
         <v>220</v>
       </c>
       <c r="P212" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q212">
         <v>2.43</v>
@@ -45297,7 +45300,7 @@
         <v>221</v>
       </c>
       <c r="P213" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q213">
         <v>3.15</v>
@@ -46202,7 +46205,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ217">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR217">
         <v>1.78</v>
@@ -46327,7 +46330,7 @@
         <v>89</v>
       </c>
       <c r="P218" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q218">
         <v>3.6</v>
@@ -46533,7 +46536,7 @@
         <v>224</v>
       </c>
       <c r="P219" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q219">
         <v>3.78</v>
@@ -46739,7 +46742,7 @@
         <v>225</v>
       </c>
       <c r="P220" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q220">
         <v>3.26</v>
@@ -46817,7 +46820,7 @@
         <v>1.58</v>
       </c>
       <c r="AP220">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ220">
         <v>1.71</v>
@@ -47026,7 +47029,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ221">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR221">
         <v>1.41</v>
@@ -47563,7 +47566,7 @@
         <v>89</v>
       </c>
       <c r="P224" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q224">
         <v>5.44</v>
@@ -48181,7 +48184,7 @@
         <v>156</v>
       </c>
       <c r="P227" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q227">
         <v>2.9</v>
@@ -48387,7 +48390,7 @@
         <v>228</v>
       </c>
       <c r="P228" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q228">
         <v>2.6</v>
@@ -48671,7 +48674,7 @@
         <v>1.67</v>
       </c>
       <c r="AP229">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ229">
         <v>1.24</v>
@@ -49086,7 +49089,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ231">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR231">
         <v>1.57</v>
@@ -49910,7 +49913,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ235">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR235">
         <v>1.77</v>
@@ -50035,7 +50038,7 @@
         <v>128</v>
       </c>
       <c r="P236" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q236">
         <v>4.5</v>
@@ -50447,7 +50450,7 @@
         <v>233</v>
       </c>
       <c r="P238" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q238">
         <v>2.1</v>
@@ -50653,7 +50656,7 @@
         <v>89</v>
       </c>
       <c r="P239" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q239">
         <v>0</v>
@@ -50859,7 +50862,7 @@
         <v>234</v>
       </c>
       <c r="P240" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q240">
         <v>3</v>
@@ -51271,7 +51274,7 @@
         <v>89</v>
       </c>
       <c r="P242" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q242">
         <v>3.6</v>
@@ -52173,7 +52176,7 @@
         <v>1.54</v>
       </c>
       <c r="AP246">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ246">
         <v>1.24</v>
@@ -52507,7 +52510,7 @@
         <v>109</v>
       </c>
       <c r="P248" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q248">
         <v>3.6</v>
@@ -52713,7 +52716,7 @@
         <v>199</v>
       </c>
       <c r="P249" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q249">
         <v>2.35</v>
@@ -53000,7 +53003,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ250">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR250">
         <v>1.15</v>
@@ -53203,7 +53206,7 @@
         <v>0.46</v>
       </c>
       <c r="AP251">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ251">
         <v>0.35</v>
@@ -53331,7 +53334,7 @@
         <v>239</v>
       </c>
       <c r="P252" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q252">
         <v>2.5</v>
@@ -53412,7 +53415,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ252">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR252">
         <v>1.49</v>
@@ -53743,7 +53746,7 @@
         <v>240</v>
       </c>
       <c r="P254" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q254">
         <v>3.5</v>
@@ -54567,7 +54570,7 @@
         <v>242</v>
       </c>
       <c r="P258" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q258">
         <v>3.26</v>
@@ -54773,7 +54776,7 @@
         <v>95</v>
       </c>
       <c r="P259" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q259">
         <v>2.97</v>
@@ -54979,7 +54982,7 @@
         <v>243</v>
       </c>
       <c r="P260" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q260">
         <v>2.26</v>
@@ -55391,7 +55394,7 @@
         <v>244</v>
       </c>
       <c r="P262" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q262">
         <v>3.1</v>
@@ -55675,7 +55678,7 @@
         <v>0.79</v>
       </c>
       <c r="AP263">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ263">
         <v>0.82</v>
@@ -55803,7 +55806,7 @@
         <v>132</v>
       </c>
       <c r="P264" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q264">
         <v>2.75</v>
@@ -56090,7 +56093,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ265">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR265">
         <v>1.49</v>
@@ -56215,7 +56218,7 @@
         <v>95</v>
       </c>
       <c r="P266" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q266">
         <v>3.2</v>
@@ -56421,7 +56424,7 @@
         <v>95</v>
       </c>
       <c r="P267" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q267">
         <v>3</v>
@@ -56499,7 +56502,7 @@
         <v>1.5</v>
       </c>
       <c r="AP267">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ267">
         <v>1.59</v>
@@ -56627,7 +56630,7 @@
         <v>128</v>
       </c>
       <c r="P268" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q268">
         <v>3.75</v>
@@ -56914,7 +56917,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ269">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR269">
         <v>1.55</v>
@@ -57245,7 +57248,7 @@
         <v>89</v>
       </c>
       <c r="P271" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q271">
         <v>3.4</v>
@@ -57657,7 +57660,7 @@
         <v>204</v>
       </c>
       <c r="P273" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q273">
         <v>3.2</v>
@@ -57863,7 +57866,7 @@
         <v>250</v>
       </c>
       <c r="P274" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q274">
         <v>3.1</v>
@@ -58481,7 +58484,7 @@
         <v>252</v>
       </c>
       <c r="P277" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q277">
         <v>4.5</v>
@@ -58687,7 +58690,7 @@
         <v>253</v>
       </c>
       <c r="P278" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q278">
         <v>2.5</v>
@@ -58893,7 +58896,7 @@
         <v>89</v>
       </c>
       <c r="P279" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q279">
         <v>2.88</v>
@@ -59386,7 +59389,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ281">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR281">
         <v>1.57</v>
@@ -59589,7 +59592,7 @@
         <v>0.87</v>
       </c>
       <c r="AP282">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ282">
         <v>0.76</v>
@@ -60004,7 +60007,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ284">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR284">
         <v>1.59</v>
@@ -60129,7 +60132,7 @@
         <v>257</v>
       </c>
       <c r="P285" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q285">
         <v>2.88</v>
@@ -60207,7 +60210,7 @@
         <v>1.33</v>
       </c>
       <c r="AP285">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ285">
         <v>1.41</v>
@@ -60335,7 +60338,7 @@
         <v>197</v>
       </c>
       <c r="P286" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q286">
         <v>3.2</v>
@@ -60747,7 +60750,7 @@
         <v>259</v>
       </c>
       <c r="P288" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q288">
         <v>2.88</v>
@@ -60953,7 +60956,7 @@
         <v>89</v>
       </c>
       <c r="P289" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q289">
         <v>3.4</v>
@@ -61365,7 +61368,7 @@
         <v>135</v>
       </c>
       <c r="P291" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q291">
         <v>2.88</v>
@@ -61777,7 +61780,7 @@
         <v>89</v>
       </c>
       <c r="P293" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q293">
         <v>3</v>
@@ -61983,7 +61986,7 @@
         <v>262</v>
       </c>
       <c r="P294" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q294">
         <v>3</v>
@@ -62189,7 +62192,7 @@
         <v>141</v>
       </c>
       <c r="P295" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q295">
         <v>2.75</v>
@@ -62395,7 +62398,7 @@
         <v>263</v>
       </c>
       <c r="P296" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q296">
         <v>1.91</v>
@@ -62807,7 +62810,7 @@
         <v>89</v>
       </c>
       <c r="P298" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q298">
         <v>3.1</v>
@@ -63631,7 +63634,7 @@
         <v>156</v>
       </c>
       <c r="P302" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q302">
         <v>5</v>
@@ -63837,7 +63840,7 @@
         <v>267</v>
       </c>
       <c r="P303" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q303">
         <v>1.83</v>
@@ -64043,7 +64046,7 @@
         <v>89</v>
       </c>
       <c r="P304" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q304">
         <v>3.75</v>
@@ -64249,7 +64252,7 @@
         <v>268</v>
       </c>
       <c r="P305" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q305">
         <v>3</v>
@@ -64406,6 +64409,418 @@
       </c>
       <c r="BP305">
         <v>1.31</v>
+      </c>
+    </row>
+    <row r="306" spans="1:68">
+      <c r="A306" s="1">
+        <v>305</v>
+      </c>
+      <c r="B306">
+        <v>7502902</v>
+      </c>
+      <c r="C306" t="s">
+        <v>68</v>
+      </c>
+      <c r="D306" t="s">
+        <v>69</v>
+      </c>
+      <c r="E306" s="2">
+        <v>45794.41666666666</v>
+      </c>
+      <c r="F306">
+        <v>34</v>
+      </c>
+      <c r="G306" t="s">
+        <v>78</v>
+      </c>
+      <c r="H306" t="s">
+        <v>80</v>
+      </c>
+      <c r="I306">
+        <v>0</v>
+      </c>
+      <c r="J306">
+        <v>1</v>
+      </c>
+      <c r="K306">
+        <v>1</v>
+      </c>
+      <c r="L306">
+        <v>2</v>
+      </c>
+      <c r="M306">
+        <v>1</v>
+      </c>
+      <c r="N306">
+        <v>3</v>
+      </c>
+      <c r="O306" t="s">
+        <v>269</v>
+      </c>
+      <c r="P306" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q306">
+        <v>2.6</v>
+      </c>
+      <c r="R306">
+        <v>2.3</v>
+      </c>
+      <c r="S306">
+        <v>3.75</v>
+      </c>
+      <c r="T306">
+        <v>1.3</v>
+      </c>
+      <c r="U306">
+        <v>3.4</v>
+      </c>
+      <c r="V306">
+        <v>2.5</v>
+      </c>
+      <c r="W306">
+        <v>1.5</v>
+      </c>
+      <c r="X306">
+        <v>6</v>
+      </c>
+      <c r="Y306">
+        <v>1.13</v>
+      </c>
+      <c r="Z306">
+        <v>1.79</v>
+      </c>
+      <c r="AA306">
+        <v>3.9</v>
+      </c>
+      <c r="AB306">
+        <v>3.75</v>
+      </c>
+      <c r="AC306">
+        <v>0</v>
+      </c>
+      <c r="AD306">
+        <v>0</v>
+      </c>
+      <c r="AE306">
+        <v>0</v>
+      </c>
+      <c r="AF306">
+        <v>0</v>
+      </c>
+      <c r="AG306">
+        <v>1.61</v>
+      </c>
+      <c r="AH306">
+        <v>2.05</v>
+      </c>
+      <c r="AI306">
+        <v>1.62</v>
+      </c>
+      <c r="AJ306">
+        <v>2.2</v>
+      </c>
+      <c r="AK306">
+        <v>0</v>
+      </c>
+      <c r="AL306">
+        <v>0</v>
+      </c>
+      <c r="AM306">
+        <v>0</v>
+      </c>
+      <c r="AN306">
+        <v>1.5</v>
+      </c>
+      <c r="AO306">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP306">
+        <v>1.59</v>
+      </c>
+      <c r="AQ306">
+        <v>0.88</v>
+      </c>
+      <c r="AR306">
+        <v>1.68</v>
+      </c>
+      <c r="AS306">
+        <v>1.23</v>
+      </c>
+      <c r="AT306">
+        <v>2.91</v>
+      </c>
+      <c r="AU306">
+        <v>7</v>
+      </c>
+      <c r="AV306">
+        <v>3</v>
+      </c>
+      <c r="AW306">
+        <v>9</v>
+      </c>
+      <c r="AX306">
+        <v>3</v>
+      </c>
+      <c r="AY306">
+        <v>16</v>
+      </c>
+      <c r="AZ306">
+        <v>6</v>
+      </c>
+      <c r="BA306">
+        <v>-1</v>
+      </c>
+      <c r="BB306">
+        <v>-1</v>
+      </c>
+      <c r="BC306">
+        <v>-1</v>
+      </c>
+      <c r="BD306">
+        <v>0</v>
+      </c>
+      <c r="BE306">
+        <v>0</v>
+      </c>
+      <c r="BF306">
+        <v>0</v>
+      </c>
+      <c r="BG306">
+        <v>0</v>
+      </c>
+      <c r="BH306">
+        <v>0</v>
+      </c>
+      <c r="BI306">
+        <v>0</v>
+      </c>
+      <c r="BJ306">
+        <v>0</v>
+      </c>
+      <c r="BK306">
+        <v>0</v>
+      </c>
+      <c r="BL306">
+        <v>0</v>
+      </c>
+      <c r="BM306">
+        <v>0</v>
+      </c>
+      <c r="BN306">
+        <v>0</v>
+      </c>
+      <c r="BO306">
+        <v>0</v>
+      </c>
+      <c r="BP306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:68">
+      <c r="A307" s="1">
+        <v>306</v>
+      </c>
+      <c r="B307">
+        <v>7502906</v>
+      </c>
+      <c r="C307" t="s">
+        <v>68</v>
+      </c>
+      <c r="D307" t="s">
+        <v>69</v>
+      </c>
+      <c r="E307" s="2">
+        <v>45794.41666666666</v>
+      </c>
+      <c r="F307">
+        <v>34</v>
+      </c>
+      <c r="G307" t="s">
+        <v>73</v>
+      </c>
+      <c r="H307" t="s">
+        <v>82</v>
+      </c>
+      <c r="I307">
+        <v>0</v>
+      </c>
+      <c r="J307">
+        <v>1</v>
+      </c>
+      <c r="K307">
+        <v>1</v>
+      </c>
+      <c r="L307">
+        <v>0</v>
+      </c>
+      <c r="M307">
+        <v>1</v>
+      </c>
+      <c r="N307">
+        <v>1</v>
+      </c>
+      <c r="O307" t="s">
+        <v>89</v>
+      </c>
+      <c r="P307" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q307">
+        <v>3.5</v>
+      </c>
+      <c r="R307">
+        <v>2.1</v>
+      </c>
+      <c r="S307">
+        <v>3.1</v>
+      </c>
+      <c r="T307">
+        <v>1.44</v>
+      </c>
+      <c r="U307">
+        <v>2.63</v>
+      </c>
+      <c r="V307">
+        <v>3.25</v>
+      </c>
+      <c r="W307">
+        <v>1.33</v>
+      </c>
+      <c r="X307">
+        <v>9</v>
+      </c>
+      <c r="Y307">
+        <v>1.07</v>
+      </c>
+      <c r="Z307">
+        <v>2.42</v>
+      </c>
+      <c r="AA307">
+        <v>3.35</v>
+      </c>
+      <c r="AB307">
+        <v>2.7</v>
+      </c>
+      <c r="AC307">
+        <v>1.01</v>
+      </c>
+      <c r="AD307">
+        <v>8.6</v>
+      </c>
+      <c r="AE307">
+        <v>1.3</v>
+      </c>
+      <c r="AF307">
+        <v>2.98</v>
+      </c>
+      <c r="AG307">
+        <v>2</v>
+      </c>
+      <c r="AH307">
+        <v>1.67</v>
+      </c>
+      <c r="AI307">
+        <v>1.83</v>
+      </c>
+      <c r="AJ307">
+        <v>1.83</v>
+      </c>
+      <c r="AK307">
+        <v>1.51</v>
+      </c>
+      <c r="AL307">
+        <v>1.31</v>
+      </c>
+      <c r="AM307">
+        <v>1.43</v>
+      </c>
+      <c r="AN307">
+        <v>1.81</v>
+      </c>
+      <c r="AO307">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP307">
+        <v>1.71</v>
+      </c>
+      <c r="AQ307">
+        <v>1.06</v>
+      </c>
+      <c r="AR307">
+        <v>1.28</v>
+      </c>
+      <c r="AS307">
+        <v>1.28</v>
+      </c>
+      <c r="AT307">
+        <v>2.56</v>
+      </c>
+      <c r="AU307">
+        <v>4</v>
+      </c>
+      <c r="AV307">
+        <v>6</v>
+      </c>
+      <c r="AW307">
+        <v>13</v>
+      </c>
+      <c r="AX307">
+        <v>8</v>
+      </c>
+      <c r="AY307">
+        <v>17</v>
+      </c>
+      <c r="AZ307">
+        <v>14</v>
+      </c>
+      <c r="BA307">
+        <v>-1</v>
+      </c>
+      <c r="BB307">
+        <v>-1</v>
+      </c>
+      <c r="BC307">
+        <v>-1</v>
+      </c>
+      <c r="BD307">
+        <v>2.17</v>
+      </c>
+      <c r="BE307">
+        <v>6.45</v>
+      </c>
+      <c r="BF307">
+        <v>2.04</v>
+      </c>
+      <c r="BG307">
+        <v>1.16</v>
+      </c>
+      <c r="BH307">
+        <v>4.15</v>
+      </c>
+      <c r="BI307">
+        <v>1.33</v>
+      </c>
+      <c r="BJ307">
+        <v>2.83</v>
+      </c>
+      <c r="BK307">
+        <v>1.61</v>
+      </c>
+      <c r="BL307">
+        <v>2.12</v>
+      </c>
+      <c r="BM307">
+        <v>2.03</v>
+      </c>
+      <c r="BN307">
+        <v>1.7</v>
+      </c>
+      <c r="BO307">
+        <v>2.64</v>
+      </c>
+      <c r="BP307">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal LigaPro_20242025.xlsx
@@ -64569,13 +64569,13 @@
         <v>6</v>
       </c>
       <c r="BA306">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BB306">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC306">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BD306">
         <v>0</v>
@@ -64775,13 +64775,13 @@
         <v>14</v>
       </c>
       <c r="BA307">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB307">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BC307">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BD307">
         <v>2.17</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal LigaPro_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal LigaPro_20242025.xlsx
@@ -64363,13 +64363,13 @@
         <v>16</v>
       </c>
       <c r="BA305">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BB305">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BC305">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BD305">
         <v>1.89</v>
